--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\for-aws\working-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BD9563-C44E-4158-AC48-E5C9C46FDE26}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A103F9C0-9FCA-4026-A17A-B5EF75E5CF39}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7356" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7358" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="to-do-score-card" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IMAGES!$A$1:$F$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IMAGES!$A$1:$F$75</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="0" concurrentCalc="0"/>
 </workbook>
@@ -1066,9 +1066,6 @@
     <t>looseScale</t>
   </si>
   <si>
-    <t>img/maps/evils-tower.png</t>
-  </si>
-  <si>
     <t>The Devils Tower Location USA</t>
   </si>
   <si>
@@ -1616,6 +1613,9 @@
   </si>
   <si>
     <t>9780902940291</t>
+  </si>
+  <si>
+    <t>img/maps/devils-tower.png</t>
   </si>
 </sst>
 </file>
@@ -2682,28 +2682,28 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.53125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.86328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.46484375" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="9.44140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.86328125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="9.46484375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.53125" style="2" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" style="2" customWidth="1"/>
     <col min="15" max="15" width="11.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15.1328125" style="2" customWidth="1"/>
     <col min="17" max="20" width="15.33203125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.53125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>62</v>
@@ -3007,7 +3007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>67</v>
       </c>
@@ -3060,16 +3060,16 @@
         <v>75</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>205</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>76</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>88</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
@@ -3237,10 +3237,10 @@
         <v>42</v>
       </c>
       <c r="R9" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>205</v>
@@ -3249,7 +3249,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>97</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>62</v>
@@ -3308,7 +3308,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>105</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>200</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>221</v>
       </c>
@@ -3485,13 +3485,13 @@
         <v>234</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>237</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>255</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>288</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>240</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>294</v>
@@ -3668,7 +3668,7 @@
         <v>309</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>45</v>
@@ -3677,9 +3677,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>112</v>
@@ -3694,7 +3694,7 @@
         <v>49</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G17" s="2">
         <v>280</v>
@@ -3715,7 +3715,7 @@
         <v>53</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O17" s="2">
         <v>75</v>
@@ -3727,10 +3727,10 @@
         <v>55</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>205</v>
@@ -3739,9 +3739,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>112</v>
@@ -3750,13 +3750,13 @@
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E18" t="s">
         <v>406</v>
       </c>
-      <c r="E18" t="s">
-        <v>407</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G18" s="2">
         <v>575</v>
@@ -3771,16 +3771,16 @@
         <v>61</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="N18" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O18" s="2">
         <v>90</v>
@@ -3789,21 +3789,21 @@
         <v>2</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>112</v>
@@ -3815,10 +3815,10 @@
         <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="G19" s="2">
         <v>74</v>
@@ -3830,16 +3830,16 @@
         <v>2</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O19" s="2">
         <v>70</v>
@@ -3851,15 +3851,15 @@
         <v>55</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>112</v>
@@ -3868,13 +3868,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G20" s="2">
         <v>300</v>
@@ -3892,13 +3892,13 @@
         <v>81</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O20" s="2">
         <v>40</v>
@@ -3910,18 +3910,18 @@
         <v>66</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>112</v>
@@ -3933,10 +3933,10 @@
         <v>68</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G21" s="2">
         <v>80</v>
@@ -3957,7 +3957,7 @@
         <v>72</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O21" s="2">
         <v>90</v>
@@ -3969,10 +3969,10 @@
         <v>42</v>
       </c>
       <c r="R21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="U21" s="2" t="s">
         <v>258</v>
@@ -3988,21 +3988,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="29.46484375" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
@@ -4022,10 +4022,10 @@
         <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>1crag</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>1topo</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>1map</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>2crag</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>2topo</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>2map</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>3crag</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>3topo</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>3map</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>5</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>5crag</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>5</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>5topo</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>5</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>5map</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>6</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>6crag</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>6</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>6topo</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>6</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>6map</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>7</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>7crag</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>7</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>7topo</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>7</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>7map</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>8</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>8crag</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>8</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D21" t="s">
         <v>179</v>
@@ -4505,7 +4505,7 @@
         <v>8topo</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>8</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>8map</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>10</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>10crag</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>10</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>10topo</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>10</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>10map</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>2tile</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>1tile</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>3tile</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>4tile</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>5</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>5tile</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>6</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>6tile</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>7</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>7tile</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>8</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>8tile</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>9</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>9tile</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>10</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>10tile</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>11</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>11crag</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>11</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>11topo</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>11</v>
       </c>
@@ -4855,10 +4855,10 @@
         <v>118</v>
       </c>
       <c r="C38" t="s">
+        <v>388</v>
+      </c>
+      <c r="D38" t="s">
         <v>389</v>
-      </c>
-      <c r="D38" t="s">
-        <v>390</v>
       </c>
       <c r="E38" t="s">
         <v>115</v>
@@ -4871,7 +4871,7 @@
         <v>11map</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>11</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>11tile</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>12</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>12crag</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>12</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>12topo</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>12</v>
       </c>
@@ -4951,13 +4951,13 @@
         <v>192</v>
       </c>
       <c r="C42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D42" t="s">
         <v>233</v>
       </c>
       <c r="E42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F42" t="s">
         <v>119</v>
@@ -4967,7 +4967,7 @@
         <v>12tile</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>13</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>13tile</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>13</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>13crag</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>13</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>13topo</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>14</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>14crag</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>14</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>14topo</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>14</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>14tile</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>15</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>15topo</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>15</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>15tile</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>15</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>15crag</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>15</v>
       </c>
@@ -5191,10 +5191,10 @@
         <v>118</v>
       </c>
       <c r="C52" t="s">
+        <v>526</v>
+      </c>
+      <c r="D52" t="s">
         <v>345</v>
-      </c>
-      <c r="D52" t="s">
-        <v>346</v>
       </c>
       <c r="E52" t="s">
         <v>115</v>
@@ -5207,7 +5207,7 @@
         <v>15map</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>16</v>
       </c>
@@ -5215,23 +5215,23 @@
         <v>126</v>
       </c>
       <c r="C53" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D53" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E53" t="s">
+        <v>356</v>
+      </c>
+      <c r="F53" t="s">
         <v>357</v>
-      </c>
-      <c r="F53" t="s">
-        <v>358</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
         <v>16crag</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>16</v>
       </c>
@@ -5239,13 +5239,13 @@
         <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D54" t="s">
+        <v>363</v>
+      </c>
+      <c r="E54" t="s">
         <v>364</v>
-      </c>
-      <c r="E54" t="s">
-        <v>365</v>
       </c>
       <c r="F54" t="s">
         <v>119</v>
@@ -5255,7 +5255,7 @@
         <v>16topo</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>16</v>
       </c>
@@ -5263,13 +5263,13 @@
         <v>192</v>
       </c>
       <c r="C55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F55" t="s">
         <v>119</v>
@@ -5279,7 +5279,7 @@
         <v>16tile</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>14</v>
       </c>
@@ -5287,10 +5287,10 @@
         <v>118</v>
       </c>
       <c r="C56" t="s">
+        <v>395</v>
+      </c>
+      <c r="D56" t="s">
         <v>396</v>
-      </c>
-      <c r="D56" t="s">
-        <v>397</v>
       </c>
       <c r="E56" t="s">
         <v>115</v>
@@ -5303,7 +5303,7 @@
         <v>14map</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>16</v>
       </c>
@@ -5311,10 +5311,10 @@
         <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D57" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E57" t="s">
         <v>115</v>
@@ -5327,7 +5327,7 @@
         <v>16map</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>12</v>
       </c>
@@ -5335,10 +5335,10 @@
         <v>118</v>
       </c>
       <c r="C58" t="s">
+        <v>398</v>
+      </c>
+      <c r="D58" t="s">
         <v>399</v>
-      </c>
-      <c r="D58" t="s">
-        <v>400</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>115</v>
@@ -5351,7 +5351,7 @@
         <v>12map</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>17</v>
       </c>
@@ -5359,23 +5359,23 @@
         <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E59" t="s">
+        <v>412</v>
+      </c>
+      <c r="F59" s="12" t="s">
         <v>413</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>414</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
         <v>17topo</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>17</v>
       </c>
@@ -5383,13 +5383,13 @@
         <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D60" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E60" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F60" t="s">
         <v>124</v>
@@ -5399,7 +5399,7 @@
         <v>17crag</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>17</v>
       </c>
@@ -5407,13 +5407,13 @@
         <v>192</v>
       </c>
       <c r="C61" t="s">
+        <v>426</v>
+      </c>
+      <c r="D61" t="s">
         <v>427</v>
       </c>
-      <c r="D61" t="s">
-        <v>428</v>
-      </c>
       <c r="E61" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F61" t="s">
         <v>124</v>
@@ -5423,7 +5423,7 @@
         <v>17tile</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>17</v>
       </c>
@@ -5431,10 +5431,10 @@
         <v>118</v>
       </c>
       <c r="C62" t="s">
+        <v>430</v>
+      </c>
+      <c r="D62" t="s">
         <v>431</v>
-      </c>
-      <c r="D62" t="s">
-        <v>432</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>115</v>
@@ -5447,7 +5447,7 @@
         <v>17map</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>13</v>
       </c>
@@ -5455,10 +5455,10 @@
         <v>118</v>
       </c>
       <c r="C63" t="s">
+        <v>432</v>
+      </c>
+      <c r="D63" t="s">
         <v>433</v>
-      </c>
-      <c r="D63" t="s">
-        <v>434</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>115</v>
@@ -5471,7 +5471,7 @@
         <v>13map</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>18</v>
       </c>
@@ -5479,13 +5479,13 @@
         <v>123</v>
       </c>
       <c r="C64" t="s">
+        <v>452</v>
+      </c>
+      <c r="D64" t="s">
         <v>453</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>454</v>
-      </c>
-      <c r="E64" t="s">
-        <v>455</v>
       </c>
       <c r="F64" t="s">
         <v>119</v>
@@ -5495,7 +5495,7 @@
         <v>18topo</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>18</v>
       </c>
@@ -5503,13 +5503,13 @@
         <v>126</v>
       </c>
       <c r="C65" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D65" t="s">
+        <v>457</v>
+      </c>
+      <c r="E65" t="s">
         <v>458</v>
-      </c>
-      <c r="E65" t="s">
-        <v>459</v>
       </c>
       <c r="F65" t="s">
         <v>145</v>
@@ -5519,7 +5519,7 @@
         <v>18crag</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>18</v>
       </c>
@@ -5527,13 +5527,13 @@
         <v>192</v>
       </c>
       <c r="C66" t="s">
+        <v>456</v>
+      </c>
+      <c r="D66" t="s">
         <v>457</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>458</v>
-      </c>
-      <c r="E66" t="s">
-        <v>459</v>
       </c>
       <c r="F66" t="s">
         <v>145</v>
@@ -5543,7 +5543,7 @@
         <v>18tile</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>18</v>
       </c>
@@ -5551,10 +5551,10 @@
         <v>118</v>
       </c>
       <c r="C67" t="s">
+        <v>460</v>
+      </c>
+      <c r="D67" t="s">
         <v>461</v>
-      </c>
-      <c r="D67" t="s">
-        <v>462</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>115</v>
@@ -5567,7 +5567,7 @@
         <v>18map</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>20</v>
       </c>
@@ -5575,23 +5575,23 @@
         <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D68" t="s">
+        <v>489</v>
+      </c>
+      <c r="E68" t="s">
         <v>490</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" s="12" t="s">
         <v>491</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>492</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="2"/>
         <v>20crag</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>20</v>
       </c>
@@ -5599,23 +5599,23 @@
         <v>192</v>
       </c>
       <c r="C69" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D69" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E69" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="2"/>
         <v>20tile</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>20</v>
       </c>
@@ -5623,23 +5623,23 @@
         <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D70" t="s">
+        <v>493</v>
+      </c>
+      <c r="E70" t="s">
+        <v>492</v>
+      </c>
+      <c r="F70" s="12" t="s">
         <v>494</v>
-      </c>
-      <c r="E70" t="s">
-        <v>493</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>495</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="2"/>
         <v>20topo</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>20</v>
       </c>
@@ -5647,10 +5647,10 @@
         <v>118</v>
       </c>
       <c r="C71" t="s">
+        <v>499</v>
+      </c>
+      <c r="D71" t="s">
         <v>500</v>
-      </c>
-      <c r="D71" t="s">
-        <v>501</v>
       </c>
       <c r="E71" t="s">
         <v>115</v>
@@ -5663,7 +5663,7 @@
         <v>20map</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>19</v>
       </c>
@@ -5671,13 +5671,13 @@
         <v>126</v>
       </c>
       <c r="C72" t="s">
+        <v>511</v>
+      </c>
+      <c r="D72" t="s">
+        <v>505</v>
+      </c>
+      <c r="E72" t="s">
         <v>512</v>
-      </c>
-      <c r="D72" t="s">
-        <v>506</v>
-      </c>
-      <c r="E72" t="s">
-        <v>513</v>
       </c>
       <c r="F72" t="s">
         <v>306</v>
@@ -5687,7 +5687,7 @@
         <v>19crag</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>19</v>
       </c>
@@ -5695,23 +5695,23 @@
         <v>192</v>
       </c>
       <c r="C73" t="s">
+        <v>504</v>
+      </c>
+      <c r="D73" t="s">
         <v>505</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>506</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>507</v>
-      </c>
-      <c r="F73" t="s">
-        <v>508</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="2"/>
         <v>19tile</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>19</v>
       </c>
@@ -5719,23 +5719,23 @@
         <v>123</v>
       </c>
       <c r="C74" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D74" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E74" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F74" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="2"/>
         <v>19topo</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>19</v>
       </c>
@@ -5743,10 +5743,10 @@
         <v>118</v>
       </c>
       <c r="C75" t="s">
+        <v>516</v>
+      </c>
+      <c r="D75" t="s">
         <v>517</v>
-      </c>
-      <c r="D75" t="s">
-        <v>518</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>115</v>
@@ -5759,14 +5759,14 @@
         <v>19map</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="H76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F64" xr:uid="{BFB1D3BA-7B83-4CA6-BA2B-968EDE266848}"/>
+  <autoFilter ref="A1:F75" xr:uid="{BFB1D3BA-7B83-4CA6-BA2B-968EDE266848}"/>
   <hyperlinks>
     <hyperlink ref="E63" r:id="rId1" xr:uid="{35DF19F2-37DF-43EA-B6CA-AD2C731AF59E}"/>
   </hyperlinks>
@@ -5779,23 +5779,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB58989-DB9B-42B8-8BEA-AD863D94E91D}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="A1:J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1328125" customWidth="1"/>
+    <col min="4" max="4" width="10.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
     <col min="8" max="8" width="34.6640625" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>311</v>
       </c>
       <c r="H1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I1" t="s">
         <v>298</v>
@@ -5827,7 +5827,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5948,10 +5948,10 @@
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I6">
         <v>20</v>
@@ -5960,7 +5960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5977,13 +5977,13 @@
         <v>175</v>
       </c>
       <c r="F7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="H7" t="s">
         <v>354</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="H7" t="s">
-        <v>355</v>
       </c>
       <c r="I7">
         <v>29.95</v>
@@ -5992,7 +5992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>13</v>
       </c>
@@ -6113,10 +6113,10 @@
         <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I12">
         <v>20</v>
@@ -6125,7 +6125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>16</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>156</v>
       </c>
       <c r="F13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G13" t="s">
         <v>323</v>
@@ -6154,15 +6154,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D14" t="s">
         <v>275</v>
@@ -6171,10 +6171,10 @@
         <v>32</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G14" t="s">
         <v>392</v>
-      </c>
-      <c r="G14" t="s">
-        <v>393</v>
       </c>
       <c r="I14">
         <v>25</v>
@@ -6183,7 +6183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>258</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G15" t="s">
         <v>314</v>
@@ -6212,15 +6212,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D16" t="s">
         <v>275</v>
@@ -6229,10 +6229,10 @@
         <v>162</v>
       </c>
       <c r="F16" t="s">
+        <v>401</v>
+      </c>
+      <c r="G16" t="s">
         <v>402</v>
-      </c>
-      <c r="G16" t="s">
-        <v>403</v>
       </c>
       <c r="I16">
         <v>34</v>
@@ -6241,15 +6241,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D17" t="s">
         <v>275</v>
@@ -6258,10 +6258,10 @@
         <v>354</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I17">
         <v>34.99</v>
@@ -6270,27 +6270,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C18" t="s">
         <v>465</v>
-      </c>
-      <c r="C18" t="s">
-        <v>466</v>
       </c>
       <c r="D18" t="s">
         <v>275</v>
       </c>
       <c r="E18" t="s">
+        <v>466</v>
+      </c>
+      <c r="F18" t="s">
         <v>467</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>468</v>
-      </c>
-      <c r="G18" t="s">
-        <v>469</v>
       </c>
       <c r="I18">
         <v>25</v>
@@ -6299,27 +6299,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D19" t="s">
         <v>275</v>
       </c>
       <c r="E19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F19" t="s">
+        <v>471</v>
+      </c>
+      <c r="G19" t="s">
         <v>472</v>
-      </c>
-      <c r="G19" t="s">
-        <v>473</v>
       </c>
       <c r="I19">
         <v>20</v>
@@ -6328,27 +6328,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D20" t="s">
         <v>275</v>
       </c>
       <c r="E20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F20" t="s">
+        <v>520</v>
+      </c>
+      <c r="G20" t="s">
         <v>521</v>
-      </c>
-      <c r="G20" t="s">
-        <v>522</v>
       </c>
       <c r="I20">
         <v>34.99</v>
@@ -6357,15 +6357,15 @@
         <v>34.99</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D21" t="s">
         <v>275</v>
@@ -6374,10 +6374,10 @@
         <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I21">
         <v>19.95</v>
@@ -6400,14 +6400,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.46484375" customWidth="1"/>
     <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5546875" customWidth="1"/>
+    <col min="3" max="3" width="43.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>5</v>
       </c>
@@ -6451,106 +6451,106 @@
         <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" t="s">
         <v>422</v>
       </c>
-      <c r="C6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" t="s">
         <v>439</v>
       </c>
-      <c r="C7" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C8" t="s">
         <v>443</v>
       </c>
-      <c r="C8" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C9" t="s">
         <v>445</v>
       </c>
-      <c r="C9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C10" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C11" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>20</v>
       </c>
       <c r="B12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C12" t="s">
         <v>488</v>
       </c>
-      <c r="C12" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>20</v>
       </c>
       <c r="B13" t="s">
+        <v>502</v>
+      </c>
+      <c r="C13" t="s">
         <v>503</v>
-      </c>
-      <c r="C13" t="s">
-        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -6566,17 +6566,17 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.1328125" customWidth="1"/>
+    <col min="3" max="3" width="15.46484375" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="53.44140625" customWidth="1"/>
+    <col min="7" max="7" width="53.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>343</v>
@@ -6602,7 +6602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6613,19 +6613,19 @@
         <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" t="s">
         <v>375</v>
-      </c>
-      <c r="E2" t="s">
-        <v>376</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6677,7 +6677,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6725,7 +6725,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -6872,16 +6872,16 @@
         <v>205</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>326</v>
@@ -6901,9 +6901,9 @@
       <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="15">
         <v>2</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="15">
         <v>16</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="14">
         <v>16</v>
       </c>
@@ -7302,7 +7302,7 @@
       </c>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="16">
         <v>16</v>
       </c>
@@ -7347,7 +7347,7 @@
       </c>
       <c r="S10" s="8"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="15">
         <v>11</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -7482,7 +7482,7 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="15">
         <v>1</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="14">
         <v>1</v>
       </c>
@@ -7572,7 +7572,7 @@
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="16">
         <v>1</v>
       </c>
@@ -7618,7 +7618,7 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="15">
         <v>5</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="14">
         <v>5</v>
       </c>
@@ -7708,7 +7708,7 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="16">
         <v>5</v>
       </c>
@@ -7754,7 +7754,7 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="15">
         <v>13</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="14">
         <v>13</v>
       </c>
@@ -7844,7 +7844,7 @@
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="16">
         <v>13</v>
       </c>
@@ -7890,7 +7890,7 @@
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="14">
         <v>14</v>
       </c>
@@ -7980,7 +7980,7 @@
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="16">
         <v>14</v>
       </c>
@@ -8026,7 +8026,7 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="15">
         <v>7</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="14">
         <v>7</v>
       </c>
@@ -8116,7 +8116,7 @@
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="16">
         <v>7</v>
       </c>
@@ -8162,7 +8162,7 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="15">
         <v>12</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="14">
         <v>12</v>
       </c>
@@ -8252,7 +8252,7 @@
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="16">
         <v>12</v>
       </c>
@@ -8298,7 +8298,7 @@
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="15">
         <v>17</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" s="14">
         <v>17</v>
       </c>
@@ -8388,7 +8388,7 @@
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" s="16">
         <v>17</v>
       </c>
@@ -8434,7 +8434,7 @@
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" s="15">
         <v>6</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" s="14">
         <v>6</v>
       </c>
@@ -8524,7 +8524,7 @@
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" s="16">
         <v>6</v>
       </c>
@@ -8570,7 +8570,7 @@
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" s="15">
         <v>8</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" s="14">
         <v>8</v>
       </c>
@@ -8660,7 +8660,7 @@
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" s="16">
         <v>8</v>
       </c>
@@ -8706,7 +8706,7 @@
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" s="15">
         <v>10</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" s="14">
         <v>10</v>
       </c>
@@ -8795,7 +8795,7 @@
       </c>
       <c r="R42" s="8"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" s="16">
         <v>10</v>
       </c>
@@ -8840,7 +8840,7 @@
       </c>
       <c r="R43" s="8"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" s="15">
         <v>18</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" s="14">
         <v>18</v>
       </c>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="R45" s="8"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" s="16">
         <v>18</v>
       </c>
@@ -8978,7 +8978,7 @@
       <c r="U46" s="17"/>
       <c r="V46" s="17"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" s="15">
         <v>15</v>
       </c>
@@ -9026,7 +9026,7 @@
       <c r="U47" s="17"/>
       <c r="V47" s="17"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" s="14">
         <v>15</v>
       </c>
@@ -9074,7 +9074,7 @@
       <c r="U48" s="17"/>
       <c r="V48" s="17"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" s="16">
         <v>15</v>
       </c>
@@ -9122,7 +9122,7 @@
       <c r="U49" s="17"/>
       <c r="V49" s="17"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" s="15">
         <v>19</v>
       </c>
@@ -9170,7 +9170,7 @@
       <c r="U50" s="17"/>
       <c r="V50" s="17"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" s="14">
         <v>19</v>
       </c>
@@ -9218,7 +9218,7 @@
       <c r="U51" s="17"/>
       <c r="V51" s="17"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" s="16">
         <v>19</v>
       </c>
@@ -9266,7 +9266,7 @@
       <c r="U52" s="17"/>
       <c r="V52" s="17"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" s="15">
         <v>20</v>
       </c>
@@ -9314,7 +9314,7 @@
       <c r="U53" s="17"/>
       <c r="V53" s="17"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" s="14">
         <v>20</v>
       </c>
@@ -9363,7 +9363,7 @@
       <c r="U54" s="17"/>
       <c r="V54" s="17"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" s="16">
         <v>20</v>
       </c>
@@ -9412,7 +9412,7 @@
       <c r="U55" s="17"/>
       <c r="V55" s="17"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
@@ -9431,7 +9431,7 @@
       <c r="U56" s="17"/>
       <c r="V56" s="17"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
@@ -9450,80 +9450,80 @@
       <c r="U57" s="8"/>
       <c r="V57" s="17"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C59" s="8"/>
       <c r="U59" s="8"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="U60" s="8"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="U62" s="8"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="U63" s="8"/>
     </row>
-    <row r="65" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U65" s="8"/>
     </row>
-    <row r="66" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U66" s="8"/>
     </row>
-    <row r="68" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U68" s="8"/>
     </row>
-    <row r="69" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U69" s="8"/>
     </row>
-    <row r="71" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U71" s="8"/>
     </row>
-    <row r="72" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U72" s="8"/>
     </row>
-    <row r="74" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U74" s="8"/>
     </row>
-    <row r="75" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U75" s="8"/>
     </row>
-    <row r="77" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U77" s="8"/>
     </row>
-    <row r="78" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U78" s="8"/>
     </row>
-    <row r="80" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U80" s="8"/>
     </row>
-    <row r="81" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U81" s="8"/>
     </row>
-    <row r="83" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U83" s="8"/>
     </row>
-    <row r="84" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U84" s="8"/>
     </row>
-    <row r="86" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U86" s="8"/>
     </row>
-    <row r="87" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U87" s="8"/>
     </row>
-    <row r="89" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U89" s="8"/>
     </row>
-    <row r="90" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U90" s="8"/>
     </row>
-    <row r="92" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U92" s="8"/>
     </row>
-    <row r="93" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U93" s="8"/>
     </row>
   </sheetData>
@@ -9536,23 +9536,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.53125" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.53125" customWidth="1"/>
+    <col min="8" max="8" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -9561,22 +9561,22 @@
         <v>111</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="str">
         <f>CLIMBS!A2</f>
         <v>Old Man of Stoer</v>
@@ -9613,7 +9613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f>CLIMBS!A3</f>
         <v>Bosigran</v>
@@ -9650,7 +9650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f>CLIMBS!A4</f>
         <v>Clogwyn Du'r Arddu</v>
@@ -9687,7 +9687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f>CLIMBS!A5</f>
         <v>Vratsa</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <f>CLIMBS!A6</f>
         <v>Tormore Group</v>
@@ -9761,7 +9761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f>CLIMBS!A7</f>
         <v>Sass Pordoi</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <f>CLIMBS!A8</f>
         <v>Cwm Idwal</v>
@@ -9835,7 +9835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <f>CLIMBS!A9</f>
         <v>Lundy</v>
@@ -9872,7 +9872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f>CLIMBS!A10</f>
         <v>Meadinha</v>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <f>CLIMBS!A11</f>
         <v>Cornakey Cliff</v>
@@ -9946,7 +9946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
         <f>CLIMBS!A12</f>
         <v>Cir Mhor</v>
@@ -9983,7 +9983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
         <f>CLIMBS!A13</f>
         <v>Roca Gris</v>
@@ -10020,7 +10020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f>CLIMBS!A14</f>
         <v>Sail Rock</v>
@@ -10057,7 +10057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <f>CLIMBS!A15</f>
         <v>Chair Ladder</v>
@@ -10094,7 +10094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <f>CLIMBS!A16</f>
         <v>The Devils Tower</v>
@@ -10131,7 +10131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f>CLIMBS!A17</f>
         <v>Lliwedd</v>
@@ -10168,7 +10168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <f>CLIMBS!A18</f>
         <v>Stetind</v>
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f>CLIMBS!A19</f>
         <v>Scafell</v>
@@ -10241,7 +10241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
         <f>CLIMBS!A20</f>
         <v>Mount Indefatigable</v>
@@ -10277,7 +10277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f>CLIMBS!A21</f>
         <v>Slieve Beg</v>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A103F9C0-9FCA-4026-A17A-B5EF75E5CF39}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BA8456-26B8-41AB-BC2F-EAF4A9832C58}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7358" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,14 +22,14 @@
     <sheet name="to-do-score-card" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IMAGES!$A$1:$F$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IMAGES!$A$1:$F$82</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="564">
   <si>
     <t>cliff</t>
   </si>
@@ -328,24 +328,12 @@
     <t>Portugal</t>
   </si>
   <si>
-    <t>BraganÃ§a</t>
-  </si>
-  <si>
     <t>Queles</t>
   </si>
   <si>
     <t>img/tiles/meadinha-in-portugal.jpg</t>
   </si>
   <si>
-    <t>IV+ (f6b)</t>
-  </si>
-  <si>
-    <t>portugal</t>
-  </si>
-  <si>
-    <t>The Meadinha dome of granite makes for some brilliant trad pitches if you can handle the high technical grade and avoid the bolts!</t>
-  </si>
-  <si>
     <t>Cornakey Cliff</t>
   </si>
   <si>
@@ -1292,9 +1280,6 @@
   </si>
   <si>
     <t xml:space="preserve">Follow the good path from the parking area up the left side of the stream (initially marked with red paint). This leads through birch forest and eventually out into open country. Ascend through boulders following a discontinuous path - fill  water bottles up here - to a level area on top of the moraine about a 100m above an iceberg filled lake. There is a big flat ‘gearing up’boulder at the saddle. </t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=1&amp;ved=2ahUKEwjPwpnTgandAhWHlCwKHeucBI0QFjAAegQICRAC&amp;url=http%3A%2F%2Fwww.stetind.nu%2Fuploads%2F6%2F1%2F8%2F8%2F6188415%2Fstetind_sydpillaren.pdf&amp;usg=AOvVaw35UuDxOvOABRtLYD7neSW2</t>
   </si>
   <si>
     <t>Stetind South Pillar Mini Guide</t>
@@ -1585,9 +1570,6 @@
 </t>
   </si>
   <si>
-    <t>img/mapsindefatigable.png</t>
-  </si>
-  <si>
     <t>Location of Indefatigable in Canada</t>
   </si>
   <si>
@@ -1616,6 +1598,135 @@
   </si>
   <si>
     <t>img/maps/devils-tower.png</t>
+  </si>
+  <si>
+    <t>Lion Rock</t>
+  </si>
+  <si>
+    <t>Peñón de Ifach</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Kowloon</t>
+  </si>
+  <si>
+    <t>Costa Blanca</t>
+  </si>
+  <si>
+    <t>Gweilo via Topcat</t>
+  </si>
+  <si>
+    <t>hongkong</t>
+  </si>
+  <si>
+    <t>22.351896,114.185173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kowloon side: Take the MTR to Lok Fu Station and get a taxi to Lion Rock Country  Park (Sze Tsz San). Follow the road to the right of the park entrance gates for about 30 m before heading up the hill on a well signposted footpath. Upon reaching a small shelter on the ridge line take the upper right hand path (signposted to Lion Rock) and continue upwards. When approximately level with the toe of the crag a small dirt path breaks off right from the main track (by a small platform and a ‘Danger - Steep Cliffs’ signpost) and leads to the foot of the cliff. Approach time approx. 40 minutes. Sha Tin side: Take the MTR to Sha Tin Station and get a taxi to Mong Fu Shek BBQ. From here follow the obvious footpath up the hill towards the crag. From the shelter follow the left hand path up the ridge and approach as for Kowloon side. Approach time approx. 45 minutes. </t>
+  </si>
+  <si>
+    <t>Slsb, Vertical &amp; Overhanging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lion Rock sits on the Kowloon Peninsular in Hong Kong on the border with the new territories. Whilst not a huge mountain crag, it does offer in excess if 70m of climbing, especially on the winding routes. Gweilo is a classic 3 star multipitch sport route graded 5+. Topcat swaps out the middle of this for a harder but reasonably well protected trad line graded HVS 5b. The views on this route are stunning and utterly unique in the world of climbing. Fun fact, Gwáilóu means Ghostly Man in Cantonese and is used to refer to white westerners.  Hong Kong can range from roasting hot with lots of mosquitos to typhoon season with howling winds so plan accordingly. </t>
+  </si>
+  <si>
+    <t>img/tiles/lion-rock-west-face.jpg</t>
+  </si>
+  <si>
+    <t>Lion Rock crag west face in Hong Kong</t>
+  </si>
+  <si>
+    <t>https://www.flickr.com/photos/wza/352391496/in/photostream/</t>
+  </si>
+  <si>
+    <t>img: Warren R. M. Stuart</t>
+  </si>
+  <si>
+    <t>img/topos/lion-rock/lion-rock-crag-hong-kong.jpg</t>
+  </si>
+  <si>
+    <t>img/topos/lion-rock/lion-rock-topo-for-gweilo-via-topcat.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lion Rock Topo for Topcat </t>
+  </si>
+  <si>
+    <t>http://www.curiousatlas.com/hong-kong-lion-rock-hike-tai-wai/</t>
+  </si>
+  <si>
+    <t>img: thewisebackpacker.com</t>
+  </si>
+  <si>
+    <t>https://hongkongclimbing.files.wordpress.com/2012/06/lionrock.pdf</t>
+  </si>
+  <si>
+    <t>Guid to climbing Lion Rock</t>
+  </si>
+  <si>
+    <t>img/maps/indefatigable.png</t>
+  </si>
+  <si>
+    <t>Location of Lion Rock in Hong Kong China</t>
+  </si>
+  <si>
+    <t>img/maps/lion-rock.png</t>
+  </si>
+  <si>
+    <t>http://www.stetind.nu/uploads/6/1/8/8/6188415/stetind_sydpillaren.pdf</t>
+  </si>
+  <si>
+    <t>Região do Norte</t>
+  </si>
+  <si>
+    <t>IV+ &amp; f6b</t>
+  </si>
+  <si>
+    <t>portugal+RM10:Q10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meadinha is a dome of granite in North Portugal which makes for some brilliant pitches if you can handle the high technical grade! The route Queles is on the left side an is half trad climbing and half sport route.  The line is only 60m long, but the crag has some routes up to 200m. The other routes are either pure sport line or have challenging sport or aid sections with a little easy trad in them. Check out meadinha.com for more information if you fancy your hand at some of the more challenging parts of the cliff. </t>
+  </si>
+  <si>
+    <t>original img</t>
+  </si>
+  <si>
+    <t>https://www.allaboutportugal.pt/pt/arcos-de-valdevez/jardins/miradouro-do-penedo-da-meadinha</t>
+  </si>
+  <si>
+    <t>img/meadinha/meadina-topo-for-queles.jpg</t>
+  </si>
+  <si>
+    <t>Topo for Queles on Meadinha in Portugal</t>
+  </si>
+  <si>
+    <t>img/meadinha/meadina-crag-in-north-portugal.jpg</t>
+  </si>
+  <si>
+    <t>Meadinha Granite Dome in Portugal</t>
+  </si>
+  <si>
+    <t>http://noroestetrad.blogspot.com/p/situacion-y-acceso-la-peneda.html</t>
+  </si>
+  <si>
+    <t>img/maps/meadinha-map-portugal.png</t>
+  </si>
+  <si>
+    <t>Location of Meadinha in North Portugal</t>
+  </si>
+  <si>
+    <t>http://www.meadinha.com/vias_en.html#vias</t>
+  </si>
+  <si>
+    <t>Comprehansive guide to meadinha</t>
+  </si>
+  <si>
+    <t>img/guidebooks/rock-climbs-in-portugal.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A solid guidebook with clear topography that is well organised and covers bouldering, sport and trad. The book lacks detailed descriptions on the routes themselves, but this is probably a good thing for those with a string on-sight ethic. The book is not essential for climbing at Meadinha as the meadinah.com website has far more information but the book is a worthwhile purchase for someone traveling around Portugal, however the price tag feels a bit high all things considered. </t>
   </si>
 </sst>
 </file>
@@ -2676,10 +2787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2708,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2773,7 +2884,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2832,7 +2943,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -2894,7 +3005,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -2942,13 +3053,13 @@
         <v>56</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
@@ -2956,7 +3067,7 @@
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -2980,7 +3091,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>62</v>
@@ -3012,7 +3123,7 @@
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -3060,13 +3171,13 @@
         <v>75</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
@@ -3074,7 +3185,7 @@
         <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -3136,7 +3247,7 @@
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -3166,7 +3277,7 @@
         <v>53</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O8" s="2">
         <v>30</v>
@@ -3184,7 +3295,7 @@
         <v>93</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.45">
@@ -3192,7 +3303,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2">
         <v>8</v>
@@ -3225,7 +3336,7 @@
         <v>40</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O9" s="2">
         <v>120</v>
@@ -3237,13 +3348,13 @@
         <v>42</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>46</v>
@@ -3254,7 +3365,7 @@
         <v>97</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
@@ -3263,10 +3374,10 @@
         <v>98</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="G10" s="2">
         <v>60</v>
@@ -3278,19 +3389,19 @@
         <v>7</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>102</v>
+        <v>548</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>103</v>
+        <v>549</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O10" s="2">
         <v>10</v>
@@ -3302,7 +3413,7 @@
         <v>42</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>104</v>
+        <v>550</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>45</v>
@@ -3310,10 +3421,10 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
@@ -3325,7 +3436,7 @@
         <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G11" s="2">
         <v>130</v>
@@ -3346,7 +3457,7 @@
         <v>40</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O11" s="2">
         <v>50</v>
@@ -3355,24 +3466,24 @@
         <v>2</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2">
         <v>11</v>
@@ -3381,10 +3492,10 @@
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G12" s="2">
         <v>330</v>
@@ -3405,7 +3516,7 @@
         <v>27</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O12" s="2">
         <v>140</v>
@@ -3417,36 +3528,36 @@
         <v>42</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G13" s="2">
         <v>190</v>
@@ -3464,13 +3575,13 @@
         <v>26</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="O13" s="2">
         <v>20</v>
@@ -3479,24 +3590,24 @@
         <v>1</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C14" s="2">
         <v>13</v>
@@ -3505,10 +3616,10 @@
         <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G14" s="2">
         <v>81</v>
@@ -3523,13 +3634,13 @@
         <v>25</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>72</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O14" s="2">
         <v>20</v>
@@ -3538,24 +3649,24 @@
         <v>2</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2">
         <v>14</v>
@@ -3567,7 +3678,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G15" s="2">
         <v>70</v>
@@ -3588,7 +3699,7 @@
         <v>40</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O15" s="2">
         <v>15</v>
@@ -3600,36 +3711,36 @@
         <v>42</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C16" s="2">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G16" s="2">
         <v>152</v>
@@ -3644,16 +3755,16 @@
         <v>25</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O16" s="2">
         <v>5</v>
@@ -3662,27 +3773,27 @@
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>45</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
@@ -3694,7 +3805,7 @@
         <v>49</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G17" s="2">
         <v>280</v>
@@ -3706,7 +3817,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>39</v>
@@ -3715,7 +3826,7 @@
         <v>53</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="O17" s="2">
         <v>75</v>
@@ -3727,36 +3838,36 @@
         <v>55</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E18" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G18" s="2">
         <v>575</v>
@@ -3765,22 +3876,22 @@
         <v>13</v>
       </c>
       <c r="I18" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>61</v>
+        <v>457</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="O18" s="2">
         <v>90</v>
@@ -3789,24 +3900,24 @@
         <v>2</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2">
         <v>18</v>
@@ -3815,10 +3926,10 @@
         <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G19" s="2">
         <v>74</v>
@@ -3830,16 +3941,16 @@
         <v>2</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="O19" s="2">
         <v>70</v>
@@ -3851,30 +3962,30 @@
         <v>55</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C20" s="2">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E20" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G20" s="2">
         <v>300</v>
@@ -3886,19 +3997,19 @@
         <v>3</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="O20" s="2">
         <v>40</v>
@@ -3910,21 +4021,21 @@
         <v>66</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="S20" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
@@ -3933,10 +4044,10 @@
         <v>68</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F21" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G21" s="2">
         <v>80</v>
@@ -3957,7 +4068,7 @@
         <v>72</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="O21" s="2">
         <v>90</v>
@@ -3969,13 +4080,92 @@
         <v>42</v>
       </c>
       <c r="R21" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="2">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F22" t="s">
+        <v>526</v>
+      </c>
+      <c r="G22" s="2">
+        <v>80</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4</v>
+      </c>
+      <c r="I22" s="2">
+        <v>6</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="O22" s="2">
+        <v>40</v>
+      </c>
+      <c r="P22" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="2">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -3986,10 +4176,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C75" sqref="A74:C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4004,25 +4194,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -4030,19 +4220,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(A2,B2)</f>
@@ -4054,19 +4244,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H56" si="0">CONCATENATE(A3,B3)</f>
@@ -4078,19 +4268,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -4102,19 +4292,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -4126,19 +4316,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -4150,19 +4340,19 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -4174,19 +4364,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -4198,19 +4388,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -4222,19 +4412,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -4246,19 +4436,19 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -4270,19 +4460,19 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -4294,19 +4484,19 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -4318,19 +4508,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -4342,19 +4532,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -4366,19 +4556,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -4390,19 +4580,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -4414,19 +4604,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -4438,19 +4628,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -4462,19 +4652,19 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -4486,19 +4676,19 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -4510,19 +4700,19 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -4534,19 +4724,19 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E23" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -4558,19 +4748,19 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D24" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E24" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F24" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -4582,19 +4772,19 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -4606,7 +4796,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -4615,7 +4805,7 @@
         <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -4627,13 +4817,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -4645,13 +4835,13 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
         <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -4663,13 +4853,13 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -4681,16 +4871,16 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
         <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
@@ -4702,13 +4892,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s">
         <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
@@ -4720,19 +4910,19 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C32" t="s">
         <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
@@ -4744,16 +4934,16 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C33" t="s">
         <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
@@ -4765,16 +4955,19 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>191</v>
+      </c>
+      <c r="F34" t="s">
+        <v>302</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
@@ -4786,13 +4979,13 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
@@ -4804,19 +4997,19 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D36" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E36" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
@@ -4828,19 +5021,19 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D37" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F37" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
@@ -4852,19 +5045,19 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D38" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F38" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
@@ -4876,19 +5069,19 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D39" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E39" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F39" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
@@ -4900,19 +5093,19 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D40" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E40" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F40" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
@@ -4924,19 +5117,19 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D41" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E41" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
@@ -4948,19 +5141,19 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C42" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E42" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
@@ -4972,19 +5165,19 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C43" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D43" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E43" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F43" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
@@ -4996,19 +5189,19 @@
         <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D44" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E44" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F44" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
@@ -5020,19 +5213,19 @@
         <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D45" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E45" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F45" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
@@ -5044,19 +5237,19 @@
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D46" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F46" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
@@ -5068,19 +5261,19 @@
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D47" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E47" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F47" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
@@ -5092,19 +5285,19 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D48" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E48" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F48" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
@@ -5116,19 +5309,19 @@
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C49" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D49" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E49" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F49" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
@@ -5140,19 +5333,19 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C50" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D50" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E50" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F50" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
@@ -5164,19 +5357,19 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D51" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E51" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F51" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
@@ -5188,19 +5381,19 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D52" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E52" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F52" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
@@ -5212,19 +5405,19 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D53" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E53" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F53" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
@@ -5236,19 +5429,19 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D54" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E54" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F54" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
@@ -5260,19 +5453,19 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C55" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D55" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E55" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F55" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
@@ -5284,19 +5477,19 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D56" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E56" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F56" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
@@ -5308,19 +5501,19 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D57" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" ref="H57:H60" si="1">CONCATENATE(A57,B57)</f>
@@ -5332,19 +5525,19 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D58" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
@@ -5356,19 +5549,19 @@
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D59" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E59" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
@@ -5380,19 +5573,19 @@
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D60" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E60" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F60" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
@@ -5404,22 +5597,22 @@
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D61" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E61" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F61" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" ref="H61:H76" si="2">CONCATENATE(A61,B61)</f>
+        <f t="shared" ref="H61:H82" si="2">CONCATENATE(A61,B61)</f>
         <v>17tile</v>
       </c>
     </row>
@@ -5428,19 +5621,19 @@
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C62" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D62" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="2"/>
@@ -5452,19 +5645,19 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D63" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F63" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="2"/>
@@ -5476,19 +5669,19 @@
         <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D64" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E64" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F64" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="2"/>
@@ -5500,19 +5693,19 @@
         <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D65" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E65" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F65" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="2"/>
@@ -5524,19 +5717,19 @@
         <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C66" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D66" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E66" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F66" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="2"/>
@@ -5548,19 +5741,19 @@
         <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D67" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="2"/>
@@ -5572,19 +5765,19 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C68" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D68" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E68" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="2"/>
@@ -5596,19 +5789,19 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C69" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D69" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E69" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="2"/>
@@ -5620,19 +5813,19 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C70" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D70" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E70" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="2"/>
@@ -5644,19 +5837,19 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C71" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D71" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E71" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F71" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="2"/>
@@ -5668,19 +5861,19 @@
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C72" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D72" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E72" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F72" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="2"/>
@@ -5692,19 +5885,19 @@
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C73" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D73" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E73" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F73" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="2"/>
@@ -5716,19 +5909,19 @@
         <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D74" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E74" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F74" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="2"/>
@@ -5740,19 +5933,19 @@
         <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C75" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="D75" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F75" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" ref="H75" si="3">CONCATENATE(A75,B75)</f>
@@ -5760,13 +5953,175 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>21</v>
+      </c>
+      <c r="B76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" t="s">
+        <v>536</v>
+      </c>
+      <c r="D76" t="s">
+        <v>533</v>
+      </c>
+      <c r="E76" t="s">
+        <v>534</v>
+      </c>
+      <c r="F76" t="s">
+        <v>535</v>
+      </c>
       <c r="H76" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>21crag</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" t="s">
+        <v>532</v>
+      </c>
+      <c r="D77" t="s">
+        <v>533</v>
+      </c>
+      <c r="E77" t="s">
+        <v>534</v>
+      </c>
+      <c r="F77" t="s">
+        <v>535</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="2"/>
+        <v>21tile</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>21</v>
+      </c>
+      <c r="B78" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" t="s">
+        <v>537</v>
+      </c>
+      <c r="D78" t="s">
+        <v>538</v>
+      </c>
+      <c r="E78" t="s">
+        <v>539</v>
+      </c>
+      <c r="F78" t="s">
+        <v>540</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="2"/>
+        <v>21topo</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>21</v>
+      </c>
+      <c r="B79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" t="s">
+        <v>545</v>
+      </c>
+      <c r="D79" t="s">
+        <v>544</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F79" t="s">
+        <v>110</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="2"/>
+        <v>21map</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" t="s">
+        <v>553</v>
+      </c>
+      <c r="D80" t="s">
+        <v>554</v>
+      </c>
+      <c r="E80" t="s">
+        <v>552</v>
+      </c>
+      <c r="F80" t="s">
+        <v>551</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="2"/>
+        <v>9topo</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" t="s">
+        <v>555</v>
+      </c>
+      <c r="D81" t="s">
+        <v>556</v>
+      </c>
+      <c r="E81" t="s">
+        <v>557</v>
+      </c>
+      <c r="F81" t="s">
+        <v>302</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="2"/>
+        <v>9crag</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" t="s">
+        <v>558</v>
+      </c>
+      <c r="D82" t="s">
+        <v>559</v>
+      </c>
+      <c r="E82" t="s">
+        <v>111</v>
+      </c>
+      <c r="F82" t="s">
+        <v>110</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="2"/>
+        <v>9map</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F75" xr:uid="{BFB1D3BA-7B83-4CA6-BA2B-968EDE266848}"/>
+  <autoFilter ref="A1:F82" xr:uid="{BFB1D3BA-7B83-4CA6-BA2B-968EDE266848}"/>
   <hyperlinks>
     <hyperlink ref="E63" r:id="rId1" xr:uid="{35DF19F2-37DF-43EA-B6CA-AD2C731AF59E}"/>
   </hyperlinks>
@@ -5777,10 +6132,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB58989-DB9B-42B8-8BEA-AD863D94E91D}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5791,40 +6146,40 @@
     <col min="4" max="4" width="10.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.19921875" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -5832,22 +6187,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E2">
         <v>206</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I2">
         <v>24.99</v>
@@ -5861,22 +6216,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E3">
         <v>266</v>
       </c>
       <c r="F3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I3">
         <v>25</v>
@@ -5890,22 +6245,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E4">
         <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I4">
         <v>24.99</v>
@@ -5919,13 +6274,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E5">
         <v>169</v>
@@ -5936,22 +6291,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E6">
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I6">
         <v>20</v>
@@ -5965,25 +6320,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E7">
         <v>175</v>
       </c>
       <c r="F7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I7">
         <v>29.95</v>
@@ -5997,22 +6352,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E8">
         <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I8">
         <v>24.99</v>
@@ -6026,22 +6381,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E9">
         <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I9">
         <v>24.99</v>
@@ -6055,16 +6410,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E10">
         <v>34</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="G10" t="s">
+        <v>562</v>
+      </c>
+      <c r="I10">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="J10">
+        <v>34.950000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -6072,22 +6439,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E11">
         <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G11" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I11">
         <v>24.99</v>
@@ -6101,22 +6468,22 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E12">
         <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G12" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I12">
         <v>20</v>
@@ -6130,22 +6497,22 @@
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C13" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D13" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E13">
         <v>156</v>
       </c>
       <c r="F13" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G13" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I13">
         <v>24.99</v>
@@ -6159,22 +6526,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C14" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E14">
         <v>32</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G14" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I14">
         <v>25</v>
@@ -6188,22 +6555,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C15" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D15" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E15">
         <v>258</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I15">
         <v>24.99</v>
@@ -6217,22 +6584,22 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E16">
         <v>162</v>
       </c>
       <c r="F16" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I16">
         <v>34</v>
@@ -6246,22 +6613,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D17" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E17">
         <v>354</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G17" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I17">
         <v>34.99</v>
@@ -6275,22 +6642,22 @@
         <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C18" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D18" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E18" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F18" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G18" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="I18">
         <v>25</v>
@@ -6304,22 +6671,22 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C19" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D19" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E19" t="s">
+        <v>461</v>
+      </c>
+      <c r="F19" t="s">
         <v>466</v>
       </c>
-      <c r="F19" t="s">
-        <v>471</v>
-      </c>
       <c r="G19" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="I19">
         <v>20</v>
@@ -6333,22 +6700,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C20" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E20" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F20" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G20" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="I20">
         <v>34.99</v>
@@ -6362,22 +6729,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C21" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D21" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E21">
         <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G21" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="I21">
         <v>19.95</v>
@@ -6385,6 +6752,10 @@
       <c r="J21">
         <v>19.95</v>
       </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="4"/>
+      <c r="B22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6394,10 +6765,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091284CD-7BE4-40C5-8B13-8EF65FF7D256}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6409,16 +6780,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -6426,10 +6797,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -6437,10 +6808,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -6448,10 +6819,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -6459,10 +6830,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -6470,10 +6841,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>421</v>
+        <v>546</v>
       </c>
       <c r="C6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -6481,10 +6852,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -6492,10 +6863,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C8" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -6503,10 +6874,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C9" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -6514,10 +6885,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C10" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -6525,10 +6896,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C11" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -6536,10 +6907,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -6547,10 +6918,32 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C13" t="s">
-        <v>503</v>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>560</v>
+      </c>
+      <c r="C15" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -6560,10 +6953,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F508AA-1882-4F11-84B1-13C66B916733}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6587,16 +6980,16 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
@@ -6613,16 +7006,16 @@
         <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -6651,14 +7044,14 @@
         <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -6685,7 +7078,7 @@
         <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6">
@@ -6717,7 +7110,7 @@
         <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8">
@@ -6733,7 +7126,7 @@
         <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9">
@@ -6762,10 +7155,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11">
@@ -6781,14 +7174,14 @@
         <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -6796,7 +7189,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>45</v>
@@ -6806,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -6814,10 +7207,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D14" s="2"/>
       <c r="F14">
@@ -6833,14 +7226,14 @@
         <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -6848,7 +7241,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>45</v>
@@ -6858,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -6869,22 +7262,30 @@
         <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E17" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6897,54 +7298,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745174B4-A8CA-45B8-ACCB-9B5B609F0D5D}">
   <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1" t="s">
         <v>331</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>332</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>333</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>334</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>335</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>336</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>337</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>338</v>
-      </c>
-      <c r="K1" t="s">
-        <v>339</v>
-      </c>
-      <c r="L1" t="s">
-        <v>340</v>
-      </c>
-      <c r="M1" t="s">
-        <v>341</v>
-      </c>
-      <c r="N1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
@@ -6952,7 +7353,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C2" s="18">
         <v>15</v>
@@ -6996,7 +7397,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C3" s="19">
         <v>9</v>
@@ -7041,7 +7442,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C4" s="21">
         <v>5</v>
@@ -7085,7 +7486,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C5" s="18">
         <v>13</v>
@@ -7129,7 +7530,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C6" s="19">
         <v>8</v>
@@ -7173,7 +7574,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C7" s="21">
         <v>3</v>
@@ -7218,7 +7619,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C8" s="18">
         <v>13</v>
@@ -7262,7 +7663,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C9" s="19">
         <v>8</v>
@@ -7307,7 +7708,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C10" s="21">
         <v>3</v>
@@ -7352,7 +7753,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C11" s="18">
         <v>19</v>
@@ -7396,7 +7797,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C12" s="19">
         <v>6</v>
@@ -7441,7 +7842,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C13" s="21">
         <v>4</v>
@@ -7487,7 +7888,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C14" s="18">
         <v>20</v>
@@ -7531,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C15" s="19">
         <v>8</v>
@@ -7577,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C16" s="21">
         <v>5</v>
@@ -7623,7 +8024,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C17" s="18">
         <v>19</v>
@@ -7667,7 +8068,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C18" s="19">
         <v>8</v>
@@ -7713,7 +8114,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C19" s="21">
         <v>2</v>
@@ -7759,7 +8160,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C20" s="18">
         <v>19</v>
@@ -7803,7 +8204,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C21" s="19">
         <v>8</v>
@@ -7849,7 +8250,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C22" s="21">
         <v>2</v>
@@ -7895,7 +8296,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C23" s="18">
         <v>15</v>
@@ -7939,7 +8340,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C24" s="19">
         <v>9</v>
@@ -7985,7 +8386,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C25" s="21">
         <v>5</v>
@@ -8031,7 +8432,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C26" s="23">
         <v>13</v>
@@ -8075,7 +8476,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C27" s="24">
         <v>8</v>
@@ -8121,7 +8522,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C28" s="26">
         <v>3</v>
@@ -8167,7 +8568,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C29" s="23">
         <v>4</v>
@@ -8211,7 +8612,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C30" s="24">
         <v>13</v>
@@ -8257,7 +8658,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C31" s="26">
         <v>4</v>
@@ -8303,7 +8704,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C32" s="23">
         <v>15</v>
@@ -8347,7 +8748,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C33" s="24">
         <v>1</v>
@@ -8393,7 +8794,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C34" s="26">
         <v>-2</v>
@@ -8439,7 +8840,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C35" s="23">
         <v>4</v>
@@ -8483,7 +8884,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C36" s="24">
         <v>5</v>
@@ -8529,7 +8930,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C37" s="26">
         <v>-6</v>
@@ -8575,7 +8976,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C38" s="23">
         <v>15</v>
@@ -8619,7 +9020,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C39" s="24">
         <v>8</v>
@@ -8665,7 +9066,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C40" s="26">
         <v>5</v>
@@ -8711,7 +9112,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C41" s="23">
         <v>16</v>
@@ -8755,7 +9156,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C42" s="19">
         <v>8</v>
@@ -8800,7 +9201,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C43" s="21">
         <v>6</v>
@@ -8845,7 +9246,7 @@
         <v>18</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C44" s="18">
         <v>17</v>
@@ -8889,7 +9290,7 @@
         <v>18</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C45" s="19">
         <v>7</v>
@@ -8934,7 +9335,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C46" s="21">
         <v>2</v>
@@ -8983,7 +9384,7 @@
         <v>15</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C47" s="18">
         <v>4</v>
@@ -9031,7 +9432,7 @@
         <v>15</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C48" s="19">
         <v>4.2</v>
@@ -9079,7 +9480,7 @@
         <v>15</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C49" s="21">
         <v>-7.8</v>
@@ -9127,7 +9528,7 @@
         <v>19</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C50" s="18">
         <v>9</v>
@@ -9175,7 +9576,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C51" s="19">
         <v>-10</v>
@@ -9223,7 +9624,7 @@
         <v>19</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C52" s="21">
         <v>-15</v>
@@ -9271,7 +9672,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C53" s="18">
         <v>18</v>
@@ -9319,7 +9720,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C54" s="19">
         <v>5</v>
@@ -9368,7 +9769,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C55" s="21">
         <v>0</v>
@@ -9413,18 +9814,48 @@
       <c r="V55" s="17"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
+      <c r="A56" s="15">
+        <v>21</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C56" s="18">
+        <v>6</v>
+      </c>
+      <c r="D56" s="18">
+        <v>9</v>
+      </c>
+      <c r="E56" s="18">
+        <v>10</v>
+      </c>
+      <c r="F56" s="18">
+        <v>11</v>
+      </c>
+      <c r="G56" s="18">
+        <v>15</v>
+      </c>
+      <c r="H56" s="18">
+        <v>19</v>
+      </c>
+      <c r="I56" s="18">
+        <v>17</v>
+      </c>
+      <c r="J56" s="18">
+        <v>17</v>
+      </c>
+      <c r="K56" s="18">
+        <v>14</v>
+      </c>
+      <c r="L56" s="18">
+        <v>8</v>
+      </c>
+      <c r="M56" s="18">
+        <v>6</v>
+      </c>
+      <c r="N56" s="18">
+        <v>4</v>
+      </c>
       <c r="O56" s="17"/>
       <c r="S56" s="17"/>
       <c r="T56" s="17"/>
@@ -9432,18 +9863,48 @@
       <c r="V56" s="17"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
+      <c r="A57" s="14">
+        <v>21</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C57" s="19">
+        <v>18</v>
+      </c>
+      <c r="D57" s="20">
+        <v>18</v>
+      </c>
+      <c r="E57" s="20">
+        <v>21</v>
+      </c>
+      <c r="F57" s="20">
+        <v>25</v>
+      </c>
+      <c r="G57" s="20">
+        <v>28</v>
+      </c>
+      <c r="H57" s="20">
+        <v>30</v>
+      </c>
+      <c r="I57" s="20">
+        <v>31</v>
+      </c>
+      <c r="J57" s="20">
+        <v>31</v>
+      </c>
+      <c r="K57" s="20">
+        <v>30</v>
+      </c>
+      <c r="L57" s="20">
+        <v>28</v>
+      </c>
+      <c r="M57" s="20">
+        <v>24</v>
+      </c>
+      <c r="N57" s="20">
+        <v>20</v>
+      </c>
       <c r="O57" s="17"/>
       <c r="S57" s="17"/>
       <c r="T57" s="17"/>
@@ -9451,14 +9912,182 @@
       <c r="V57" s="17"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="C58" s="8"/>
+      <c r="A58" s="16">
+        <v>21</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C58" s="21">
+        <v>14</v>
+      </c>
+      <c r="D58" s="22">
+        <v>14</v>
+      </c>
+      <c r="E58" s="22">
+        <v>17</v>
+      </c>
+      <c r="F58" s="22">
+        <v>20</v>
+      </c>
+      <c r="G58" s="22">
+        <v>24</v>
+      </c>
+      <c r="H58" s="22">
+        <v>26</v>
+      </c>
+      <c r="I58" s="22">
+        <v>27</v>
+      </c>
+      <c r="J58" s="22">
+        <v>26</v>
+      </c>
+      <c r="K58" s="22">
+        <v>25</v>
+      </c>
+      <c r="L58" s="22">
+        <v>23</v>
+      </c>
+      <c r="M58" s="22">
+        <v>19</v>
+      </c>
+      <c r="N58" s="22">
+        <v>15</v>
+      </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="C59" s="8"/>
+      <c r="A59" s="15">
+        <v>9</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C59" s="18">
+        <v>15</v>
+      </c>
+      <c r="D59" s="18">
+        <v>12</v>
+      </c>
+      <c r="E59" s="18">
+        <v>15</v>
+      </c>
+      <c r="F59" s="18">
+        <v>10</v>
+      </c>
+      <c r="G59" s="18">
+        <v>11</v>
+      </c>
+      <c r="H59" s="18">
+        <v>7</v>
+      </c>
+      <c r="I59" s="18">
+        <v>3</v>
+      </c>
+      <c r="J59" s="18">
+        <v>5</v>
+      </c>
+      <c r="K59" s="18">
+        <v>7</v>
+      </c>
+      <c r="L59" s="18">
+        <v>12</v>
+      </c>
+      <c r="M59" s="18">
+        <v>14</v>
+      </c>
+      <c r="N59" s="18">
+        <v>17</v>
+      </c>
       <c r="U59" s="8"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A60" s="14">
+        <v>9</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C60" s="19">
+        <v>9</v>
+      </c>
+      <c r="D60" s="20">
+        <v>10</v>
+      </c>
+      <c r="E60" s="20">
+        <v>13</v>
+      </c>
+      <c r="F60" s="20">
+        <v>15</v>
+      </c>
+      <c r="G60" s="20">
+        <v>19</v>
+      </c>
+      <c r="H60" s="20">
+        <v>23</v>
+      </c>
+      <c r="I60" s="20">
+        <v>28</v>
+      </c>
+      <c r="J60" s="20">
+        <v>28</v>
+      </c>
+      <c r="K60" s="20">
+        <v>23</v>
+      </c>
+      <c r="L60" s="20">
+        <v>18</v>
+      </c>
+      <c r="M60" s="20">
+        <v>12</v>
+      </c>
+      <c r="N60" s="20">
+        <v>9</v>
+      </c>
       <c r="U60" s="8"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A61" s="16">
+        <v>9</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C61" s="21">
+        <v>0</v>
+      </c>
+      <c r="D61" s="22">
+        <v>1</v>
+      </c>
+      <c r="E61" s="22">
+        <v>2</v>
+      </c>
+      <c r="F61" s="22">
+        <v>4</v>
+      </c>
+      <c r="G61" s="22">
+        <v>7</v>
+      </c>
+      <c r="H61" s="22">
+        <v>11</v>
+      </c>
+      <c r="I61" s="22">
+        <v>13</v>
+      </c>
+      <c r="J61" s="22">
+        <v>13</v>
+      </c>
+      <c r="K61" s="22">
+        <v>11</v>
+      </c>
+      <c r="L61" s="22">
+        <v>7</v>
+      </c>
+      <c r="M61" s="22">
+        <v>3</v>
+      </c>
+      <c r="N61" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="U62" s="8"/>
@@ -9534,10 +10163,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9552,28 +10181,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>382</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -9883,7 +10512,7 @@
       </c>
       <c r="C10" t="str">
         <f>CLIMBS!B10</f>
-        <v>draft</v>
+        <v>publish</v>
       </c>
       <c r="D10">
         <f>IF(CLIMBS!R10&lt;&gt;0,1,0)+IF(CLIMBS!G10&lt;&gt;0,1,0)+IF(CLIMBS!H10&lt;&gt;0,1,0)+IF(CLIMBS!I10&lt;&gt;0,1,0)+IF(CLIMBS!J10&lt;&gt;0,1,0)+IF(CLIMBS!N10&lt;&gt;0,1,0)+IF(CLIMBS!M10&lt;&gt;0,1,0)+IF(CLIMBS!O10&lt;&gt;0,1,0)+IF(CLIMBS!P10&lt;&gt;0,1,0)</f>
@@ -9893,12 +10522,12 @@
         <f>IF(CLIMBS!S10&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B10,"tile"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B10,"crag"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B10,"topo"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B10,"map"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>missing</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <f>_xlfn.IFNA(IF(VLOOKUP(B10,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
@@ -9906,7 +10535,7 @@
       </c>
       <c r="H10">
         <f>_xlfn.IFNA(IF(VLOOKUP(B10,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -10313,8 +10942,80 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" t="str">
+        <f>CLIMBS!A22</f>
+        <v>Lion Rock</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="str">
+        <f>CLIMBS!B22</f>
+        <v>publish</v>
+      </c>
+      <c r="D22">
+        <f>IF(CLIMBS!R22&lt;&gt;0,1,0)+IF(CLIMBS!G22&lt;&gt;0,1,0)+IF(CLIMBS!H22&lt;&gt;0,1,0)+IF(CLIMBS!I22&lt;&gt;0,1,0)+IF(CLIMBS!J22&lt;&gt;0,1,0)+IF(CLIMBS!N22&lt;&gt;0,1,0)+IF(CLIMBS!M22&lt;&gt;0,1,0)+IF(CLIMBS!O22&lt;&gt;0,1,0)+IF(CLIMBS!P22&lt;&gt;0,1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <f>IF(CLIMBS!S22&lt;&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B22,"tile"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B22,"crag"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B22,"topo"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B22,"map"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B22,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B22,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" t="str">
+        <f>CLIMBS!A23</f>
+        <v>Peñón de Ifach</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="str">
+        <f>CLIMBS!B23</f>
+        <v>draft</v>
+      </c>
+      <c r="D23">
+        <f>IF(CLIMBS!R23&lt;&gt;0,1,0)+IF(CLIMBS!G23&lt;&gt;0,1,0)+IF(CLIMBS!H23&lt;&gt;0,1,0)+IF(CLIMBS!I23&lt;&gt;0,1,0)+IF(CLIMBS!J23&lt;&gt;0,1,0)+IF(CLIMBS!N23&lt;&gt;0,1,0)+IF(CLIMBS!M23&lt;&gt;0,1,0)+IF(CLIMBS!O23&lt;&gt;0,1,0)+IF(CLIMBS!P23&lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>IF(CLIMBS!S23&lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B23,"tile"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B23,"crag"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B23,"topo"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B23,"map"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
+        <v>missing</v>
+      </c>
+      <c r="G23">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B23,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B23,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D21">
+  <conditionalFormatting sqref="D2:D23">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
@@ -10322,7 +11023,7 @@
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C21">
+  <conditionalFormatting sqref="C2:C23">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"draft"</formula>
     </cfRule>
@@ -10332,12 +11033,12 @@
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C21">
+  <conditionalFormatting sqref="C3:C23">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E21">
+  <conditionalFormatting sqref="E2:E23">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -10345,7 +11046,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F21">
+  <conditionalFormatting sqref="F2:F23">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
@@ -10353,7 +11054,7 @@
       <formula>"missing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H21">
+  <conditionalFormatting sqref="G2:H23">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BA8456-26B8-41AB-BC2F-EAF4A9832C58}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B0F380-B934-4279-8F09-3383B9D6C56D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7358" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="6135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IMAGES!$A$1:$F$82</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="0" concurrentCalc="0"/>
+  <calcPr calcId="181029" iterateDelta="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="569">
   <si>
     <t>cliff</t>
   </si>
@@ -1684,9 +1684,6 @@
     <t>IV+ &amp; f6b</t>
   </si>
   <si>
-    <t>portugal+RM10:Q10</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meadinha is a dome of granite in North Portugal which makes for some brilliant pitches if you can handle the high technical grade! The route Queles is on the left side an is half trad climbing and half sport route.  The line is only 60m long, but the crag has some routes up to 200m. The other routes are either pure sport line or have challenging sport or aid sections with a little easy trad in them. Check out meadinha.com for more information if you fancy your hand at some of the more challenging parts of the cliff. </t>
   </si>
   <si>
@@ -1696,15 +1693,9 @@
     <t>https://www.allaboutportugal.pt/pt/arcos-de-valdevez/jardins/miradouro-do-penedo-da-meadinha</t>
   </si>
   <si>
-    <t>img/meadinha/meadina-topo-for-queles.jpg</t>
-  </si>
-  <si>
     <t>Topo for Queles on Meadinha in Portugal</t>
   </si>
   <si>
-    <t>img/meadinha/meadina-crag-in-north-portugal.jpg</t>
-  </si>
-  <si>
     <t>Meadinha Granite Dome in Portugal</t>
   </si>
   <si>
@@ -1726,7 +1717,31 @@
     <t>img/guidebooks/rock-climbs-in-portugal.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">A solid guidebook with clear topography that is well organised and covers bouldering, sport and trad. The book lacks detailed descriptions on the routes themselves, but this is probably a good thing for those with a string on-sight ethic. The book is not essential for climbing at Meadinha as the meadinah.com website has far more information but the book is a worthwhile purchase for someone traveling around Portugal, however the price tag feels a bit high all things considered. </t>
+    <t>Park in the nearby village of Peneda and Meadinha should be clearly visible a short walk up the hill.</t>
+  </si>
+  <si>
+    <t>FREE</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This publicly availible guidebook is so clear and comprehensive that I almost didn't bother adding Lion Rock to this website because its covered in far better detail in this guide. </t>
+  </si>
+  <si>
+    <t>img/topos/meadinha/meadina-crag-in-north-portugal.jpg</t>
+  </si>
+  <si>
+    <t>img/topos/meadinha/meadina-topo-for-queles.jpg</t>
+  </si>
+  <si>
+    <t>portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A solid guidebook with clear topography that is well organised and covers bouldering, sport and trad. The book lacks detailed descriptions on the routes themselves, but this is probably a good thing for those with a strong on-sight ethic. The book is not essential for climbing at Meadinha as the meadinah.com website has far more information but the book is a worthwhile purchase for someone traveling around Portugal, however the price tag feels a bit high all things considered. </t>
+  </si>
+  <si>
+    <t>img/guidebooks/rock-climbs-in-hong-kong.jpg</t>
   </si>
 </sst>
 </file>
@@ -2789,8 +2804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3398,7 +3413,7 @@
         <v>548</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>211</v>
@@ -3413,7 +3428,10 @@
         <v>42</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>560</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>45</v>
@@ -4179,7 +4197,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C75" sqref="A74:C75"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6056,16 +6074,16 @@
         <v>119</v>
       </c>
       <c r="C80" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="D80" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E80" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F80" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="2"/>
@@ -6080,13 +6098,13 @@
         <v>122</v>
       </c>
       <c r="C81" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="D81" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E81" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F81" t="s">
         <v>302</v>
@@ -6104,10 +6122,10 @@
         <v>114</v>
       </c>
       <c r="C82" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D82" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E82" t="s">
         <v>111</v>
@@ -6134,8 +6152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB58989-DB9B-42B8-8BEA-AD863D94E91D}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6422,10 +6440,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="G10" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I10">
         <v>34.950000000000003</v>
@@ -6754,8 +6772,36 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>399</v>
+      </c>
+      <c r="C22" t="s">
+        <v>521</v>
+      </c>
+      <c r="D22" t="s">
+        <v>562</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>563</v>
+      </c>
+      <c r="G22" t="s">
+        <v>568</v>
+      </c>
+      <c r="H22" t="s">
+        <v>541</v>
+      </c>
+      <c r="I22" t="s">
+        <v>561</v>
+      </c>
+      <c r="J22" t="s">
+        <v>561</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6768,7 +6814,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6940,10 +6986,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C15" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -7299,7 +7345,7 @@
   <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="G56" sqref="A1:N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10165,8 +10211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10520,7 +10566,7 @@
       </c>
       <c r="E10">
         <f>IF(CLIMBS!S10&lt;&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B10,"tile"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
@@ -10971,7 +11017,7 @@
       </c>
       <c r="G22">
         <f>_xlfn.IFNA(IF(VLOOKUP(B22,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <f>_xlfn.IFNA(IF(VLOOKUP(B22,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B0F380-B934-4279-8F09-3383B9D6C56D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C4D1BF-3554-4E52-9D3E-B967D396EC0D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="6135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="573">
   <si>
     <t>cliff</t>
   </si>
@@ -1742,6 +1742,18 @@
   </si>
   <si>
     <t>img/guidebooks/rock-climbs-in-hong-kong.jpg</t>
+  </si>
+  <si>
+    <t>Diedro UBSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The South face of Peñón de Ifach in Costa Blanca offers a great array of climbing. Most of the routes are bolted but a small rack is more or less essential for most climbs. Diedro UBSA is one of the more popular climbs on the face and provides a long winding adventure including an 8 meter abseil at one point in order to progress the route to the top. The rock is loose in places so helmets are essential as is water due to the possible heat. </t>
+  </si>
+  <si>
+    <t>img/tiles/penon-costa-blanca.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peñón de Ifach rising out of the costline of Costa Blanca offers great climbing </t>
   </si>
 </sst>
 </file>
@@ -2804,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4185,6 +4197,45 @@
       <c r="E23" s="2" t="s">
         <v>525</v>
       </c>
+      <c r="F23" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G23" s="2">
+        <v>228</v>
+      </c>
+      <c r="H23" s="2">
+        <v>9</v>
+      </c>
+      <c r="I23" s="2">
+        <v>6</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="O23" s="2">
+        <v>20</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4194,10 +4245,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6138,6 +6189,44 @@
         <v>9map</v>
       </c>
     </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>22</v>
+      </c>
+      <c r="B83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>22</v>
+      </c>
+      <c r="B84" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" t="s">
+        <v>571</v>
+      </c>
+      <c r="D84" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>22</v>
+      </c>
+      <c r="B85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>22</v>
+      </c>
+      <c r="B86" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F82" xr:uid="{BFB1D3BA-7B83-4CA6-BA2B-968EDE266848}"/>
   <hyperlinks>
@@ -6152,8 +6241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB58989-DB9B-42B8-8BEA-AD863D94E91D}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7344,7 +7433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745174B4-A8CA-45B8-ACCB-9B5B609F0D5D}">
   <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G56" sqref="A1:N61"/>
     </sheetView>
   </sheetViews>
@@ -11038,7 +11127,7 @@
       </c>
       <c r="D23">
         <f>IF(CLIMBS!R23&lt;&gt;0,1,0)+IF(CLIMBS!G23&lt;&gt;0,1,0)+IF(CLIMBS!H23&lt;&gt;0,1,0)+IF(CLIMBS!I23&lt;&gt;0,1,0)+IF(CLIMBS!J23&lt;&gt;0,1,0)+IF(CLIMBS!N23&lt;&gt;0,1,0)+IF(CLIMBS!M23&lt;&gt;0,1,0)+IF(CLIMBS!O23&lt;&gt;0,1,0)+IF(CLIMBS!P23&lt;&gt;0,1,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <f>IF(CLIMBS!S23&lt;&gt;0,1,0)</f>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C4D1BF-3554-4E52-9D3E-B967D396EC0D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEB0D75-E6CD-4797-ABCE-C387C545AC82}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="587">
   <si>
     <t>cliff</t>
   </si>
@@ -1747,20 +1747,74 @@
     <t>Diedro UBSA</t>
   </si>
   <si>
-    <t xml:space="preserve">The South face of Peñón de Ifach in Costa Blanca offers a great array of climbing. Most of the routes are bolted but a small rack is more or less essential for most climbs. Diedro UBSA is one of the more popular climbs on the face and provides a long winding adventure including an 8 meter abseil at one point in order to progress the route to the top. The rock is loose in places so helmets are essential as is water due to the possible heat. </t>
-  </si>
-  <si>
     <t>img/tiles/penon-costa-blanca.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Peñón de Ifach rising out of the costline of Costa Blanca offers great climbing </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The South face of Peñón de Ifach in Costa Blanca offers a great array of climbing. Most of the routes are bolted but a small rack is more or less essential. Diedro UBSA is one of the more popular climbs on the face and provides a long winding adventure including an 8 meter abseil at one point in order to progress the route to the top. The rock is loose in places so remember your helmet. Pleanty of water is also recomended due to the heat you can get on the south face. </t>
+  </si>
+  <si>
+    <t>38.633896,0.074286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peñón is the obvious land mark you see from Calpe. It should also be well signposted. If you drive to the harbour you can park there and take a short walkaround the and scramble up to the start of this rout on the south face. From the summit there should be a path down through the mountain. </t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Pe%C3%B1%C3%B3n_de_Ifach,_Calpe,_Espa%C3%B1a,_2014-07-01,_DD_13.JPG</t>
+  </si>
+  <si>
+    <t>https://verticalfever.co.uk/2013/10/24/costa-blanca-round-up/</t>
+  </si>
+  <si>
+    <t>original: vertical fever</t>
+  </si>
+  <si>
+    <t>Diedro UBSA topo on the south face near Calpe</t>
+  </si>
+  <si>
+    <t>9781873341954</t>
+  </si>
+  <si>
+    <t>img/guidebooks/costa-blanca.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A brilliant book covering a wide and varied set of crags in sunny Spain. This Rockfax guide covers the climbs around Calpe including Diedre UBSA and many others. A great book for the multi-pitch climber with a penchant for trad. The old edition can be picked up cheap if you are on a budget, but the updated guide covers more routes and areas. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Peñón de Ifach is in both versions in detail. </t>
+    </r>
+  </si>
+  <si>
+    <t>img/topos/penon/penon-costa-blanca.jpg</t>
+  </si>
+  <si>
+    <t>img/topos/penon/penon-topo-for-diedre-UBSA.jpg</t>
+  </si>
+  <si>
+    <t>img/maps/penon-near-calp.png</t>
+  </si>
+  <si>
+    <t>Costa Blanca climbing location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1916,6 +1970,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="38">
@@ -2290,7 +2350,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2346,6 +2406,9 @@
     </xf>
     <xf numFmtId="1" fontId="20" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2814,10 +2877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4181,12 +4244,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>522</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="2">
         <v>22</v>
@@ -4218,6 +4281,9 @@
       <c r="M23" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="N23" s="2" t="s">
+        <v>574</v>
+      </c>
       <c r="O23" s="2">
         <v>20</v>
       </c>
@@ -4228,13 +4294,24 @@
         <v>66</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>570</v>
+        <v>573</v>
+      </c>
+      <c r="S23" s="28" t="s">
+        <v>575</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>245</v>
       </c>
       <c r="U23" s="2" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="S24" s="28"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -4247,8 +4324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5681,7 +5758,7 @@
         <v>120</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" ref="H61:H82" si="2">CONCATENATE(A61,B61)</f>
+        <f t="shared" ref="H61:H86" si="2">CONCATENATE(A61,B61)</f>
         <v>17tile</v>
       </c>
     </row>
@@ -6196,6 +6273,22 @@
       <c r="B83" t="s">
         <v>122</v>
       </c>
+      <c r="C83" t="s">
+        <v>583</v>
+      </c>
+      <c r="D83" t="s">
+        <v>571</v>
+      </c>
+      <c r="E83" t="s">
+        <v>576</v>
+      </c>
+      <c r="F83" t="s">
+        <v>302</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="2"/>
+        <v>22crag</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84">
@@ -6205,10 +6298,20 @@
         <v>188</v>
       </c>
       <c r="C84" t="s">
+        <v>570</v>
+      </c>
+      <c r="D84" t="s">
         <v>571</v>
       </c>
-      <c r="D84" t="s">
-        <v>572</v>
+      <c r="E84" t="s">
+        <v>576</v>
+      </c>
+      <c r="F84" t="s">
+        <v>302</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="2"/>
+        <v>22tile</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
@@ -6218,6 +6321,22 @@
       <c r="B85" t="s">
         <v>119</v>
       </c>
+      <c r="C85" t="s">
+        <v>584</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E85" t="s">
+        <v>577</v>
+      </c>
+      <c r="F85" t="s">
+        <v>578</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="2"/>
+        <v>22topo</v>
+      </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86">
@@ -6225,6 +6344,22 @@
       </c>
       <c r="B86" t="s">
         <v>114</v>
+      </c>
+      <c r="C86" t="s">
+        <v>585</v>
+      </c>
+      <c r="D86" t="s">
+        <v>586</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F86" t="s">
+        <v>110</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="2"/>
+        <v>22map</v>
       </c>
     </row>
   </sheetData>
@@ -6239,10 +6374,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB58989-DB9B-42B8-8BEA-AD863D94E91D}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="F18" sqref="A1:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6890,6 +7025,35 @@
       </c>
       <c r="J22" t="s">
         <v>561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C23" t="s">
+        <v>525</v>
+      </c>
+      <c r="D23" t="s">
+        <v>271</v>
+      </c>
+      <c r="E23">
+        <v>267</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="G23" t="s">
+        <v>581</v>
+      </c>
+      <c r="I23">
+        <v>29.95</v>
+      </c>
+      <c r="J23">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -10301,7 +10465,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11123,26 +11287,26 @@
       </c>
       <c r="C23" t="str">
         <f>CLIMBS!B23</f>
-        <v>draft</v>
+        <v>publish</v>
       </c>
       <c r="D23">
         <f>IF(CLIMBS!R23&lt;&gt;0,1,0)+IF(CLIMBS!G23&lt;&gt;0,1,0)+IF(CLIMBS!H23&lt;&gt;0,1,0)+IF(CLIMBS!I23&lt;&gt;0,1,0)+IF(CLIMBS!J23&lt;&gt;0,1,0)+IF(CLIMBS!N23&lt;&gt;0,1,0)+IF(CLIMBS!M23&lt;&gt;0,1,0)+IF(CLIMBS!O23&lt;&gt;0,1,0)+IF(CLIMBS!P23&lt;&gt;0,1,0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <f>IF(CLIMBS!S23&lt;&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" t="str">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B23,"tile"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B23,"crag"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B23,"topo"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B23,"map"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>missing</v>
+        <v>4</v>
       </c>
       <c r="G23">
         <f>_xlfn.IFNA(IF(VLOOKUP(B23,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <f>_xlfn.IFNA(IF(VLOOKUP(B23,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEB0D75-E6CD-4797-ABCE-C387C545AC82}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7745D8-E2F3-4AE6-BC11-3086F6211BEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="606">
   <si>
     <t>cliff</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Torridonian Sandstone</t>
-  </si>
-  <si>
-    <t>Arguably one of the best sea stacks in the United Kingdom, The Old Man of Stoer (Stake), makes for an adventurous day out and an all round exceptional climb. The rock is Torridonian sandstone, meaning it was formed before any significant life on earth existed. The approach is either some wet rock hopping 100m north of the stack at the lowest tide or the more classic Tyrolean traverse which needs to be set up by swimming the 8 meter channel if there is not one left in place when you arrive. The route itself â€œOriginal Routeâ€ meanders the landward face. Larger cams and hexs are recommended. Be wary of nesting seagulls who first line of defence is usually to attack you with projectile vomit.</t>
   </si>
   <si>
     <t>Park at the car park near the Stoer Light house (58.237948, -5.400902). Head 3Km northwards to the sea stack, going over the hill of Sidhean Mor. Take a steep scramble down and either boulder hop to the stack at the lowest of tides or set up a Tyrolean traverse if one is not in place already by swimming the 8 meter channel. Using a static rope for this will be easier than dynamic climbing ropes if you can be bothered to carry it.</t>
@@ -1809,12 +1806,84 @@
   <si>
     <t>Costa Blanca climbing location</t>
   </si>
+  <si>
+    <t>Traumpfeiler</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meteora </t>
+  </si>
+  <si>
+    <t>Heiliger Geist</t>
+  </si>
+  <si>
+    <t>39.720133,21.627803</t>
+  </si>
+  <si>
+    <t>V+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decent: Walk south along the top of the Heiliger Geist until you get to the southern end. Look for a single eyebolt to the left (east) that is in an obvious water runoff. Rappel down this water chute to the ground. Once on the ground head left (east) past a blue door that goes into a room in the rock and follow the obvious trail to town. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Traumpfeiler route, or Pillar of Dreams in English, is one of the best routes in the area and is justifiably very popular. It sits on the Heiliger Geist cliff, or Holy Ghost in English. The route is a mixed sport trad with plenty of bolts but still worth of a standard rack of wires and cams. Expect to have to follow other parties if you don’t start very early. With a 60m rope and some extended quickdraws the route can be reduced to 5 pitches if you are so inclined. Clearly a classic of the area the route also offers stunning views and reasonably serious climbing. </t>
+    </r>
+  </si>
+  <si>
+    <t>img/topos/meteor/meteor-crag-pillar-of-dreams.jpg</t>
+  </si>
+  <si>
+    <t>Meteor crag in Greece - Holy Ghost Rock</t>
+  </si>
+  <si>
+    <t>https://www.tripsite.com/bike/tours/meteora-undiscovered-greece/</t>
+  </si>
+  <si>
+    <t>img: tripsite</t>
+  </si>
+  <si>
+    <t>img/tiles/meteor-holy-ghost-cliff.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/b0/Meteore.jpg</t>
+  </si>
+  <si>
+    <t>Holy-ghost-crag-pillar-of-dreams.jpg</t>
+  </si>
+  <si>
+    <t>img/topos/meteor/holy-ghost-crag-pillar-of-dreams-topo.jpg</t>
+  </si>
+  <si>
+    <t>img/maps/meteor-climbing</t>
+  </si>
+  <si>
+    <t>Location of Meteor climbing in Greece</t>
+  </si>
+  <si>
+    <t>Arguably one of the best sea stacks in the United Kingdom, The Old Man of Stoer (Stake), makes for an adventurous day out and an all round exceptional climb. The rock is Torridonian sandstone, meaning it was formed before any significant life on earth existed. The approach is either some wet rock hopping 100m north of the stack at the lowest tide or the more classic Tyrolean traverse which needs to be set up by swimming the 8 meter channel if there is not one left in place when you arrive. The route itself, Original Route, meanders the landward face. Larger cams and hexs are recommended. Be wary of nesting seagulls who first line of defence is usually to attack you with projectile vomit.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1970,12 +2039,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="38">
@@ -2350,7 +2413,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2406,9 +2469,6 @@
     </xf>
     <xf numFmtId="1" fontId="20" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2879,8 +2939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2909,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2974,7 +3034,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -3019,33 +3079,33 @@
         <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G3" s="2">
         <v>67</v>
@@ -3057,16 +3117,16 @@
         <v>4</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="O3" s="2">
         <v>10</v>
@@ -3075,39 +3135,39 @@
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G4" s="2">
         <v>162</v>
@@ -3122,13 +3182,13 @@
         <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="O4" s="2">
         <v>120</v>
@@ -3137,39 +3197,39 @@
         <v>2</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="S4" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="G5" s="2">
         <v>400</v>
@@ -3181,19 +3241,19 @@
         <v>7</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="O5" s="2">
         <v>40</v>
@@ -3202,30 +3262,30 @@
         <v>2</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="G6" s="2">
         <v>152</v>
@@ -3240,13 +3300,13 @@
         <v>25</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="O6" s="2">
         <v>90</v>
@@ -3255,39 +3315,39 @@
         <v>3</v>
       </c>
       <c r="Q6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="S6" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="U6" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="G7" s="2">
         <v>555</v>
@@ -3299,19 +3359,19 @@
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="O7" s="2">
         <v>45</v>
@@ -3320,36 +3380,36 @@
         <v>2</v>
       </c>
       <c r="Q7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="T7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="2">
         <v>140</v>
@@ -3361,13 +3421,13 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O8" s="2">
         <v>30</v>
@@ -3376,36 +3436,36 @@
         <v>1</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="S8" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="T8" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="G9" s="2">
         <v>117</v>
@@ -3417,16 +3477,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O9" s="2">
         <v>120</v>
@@ -3435,39 +3495,39 @@
         <v>3</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R9" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="T9" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="G10" s="2">
         <v>60</v>
@@ -3479,19 +3539,19 @@
         <v>7</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O10" s="2">
         <v>10</v>
@@ -3500,36 +3560,36 @@
         <v>1</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="2">
         <v>130</v>
@@ -3544,13 +3604,13 @@
         <v>25</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="N11" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O11" s="2">
         <v>50</v>
@@ -3559,24 +3619,24 @@
         <v>2</v>
       </c>
       <c r="Q11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="S11" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="T11" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="2">
         <v>11</v>
@@ -3585,10 +3645,10 @@
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G12" s="2">
         <v>330</v>
@@ -3609,7 +3669,7 @@
         <v>27</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O12" s="2">
         <v>140</v>
@@ -3618,39 +3678,39 @@
         <v>1</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="U12" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" t="s">
         <v>218</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="G13" s="2">
         <v>190</v>
@@ -3662,19 +3722,19 @@
         <v>6</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L13" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="O13" s="2">
         <v>20</v>
@@ -3683,36 +3743,36 @@
         <v>1</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="2">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="G14" s="2">
         <v>81</v>
@@ -3727,13 +3787,13 @@
         <v>25</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O14" s="2">
         <v>20</v>
@@ -3742,36 +3802,36 @@
         <v>2</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S14" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T14" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="2">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G15" s="2">
         <v>70</v>
@@ -3783,16 +3843,16 @@
         <v>4</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="N15" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O15" s="2">
         <v>15</v>
@@ -3801,39 +3861,39 @@
         <v>1</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R15" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="S15" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="T15" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="2">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="G16" s="2">
         <v>152</v>
@@ -3848,16 +3908,16 @@
         <v>25</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="O16" s="2">
         <v>5</v>
@@ -3866,39 +3926,39 @@
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G17" s="2">
         <v>280</v>
@@ -3910,16 +3970,16 @@
         <v>3</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O17" s="2">
         <v>75</v>
@@ -3928,39 +3988,39 @@
         <v>2</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="2">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E18" t="s">
         <v>401</v>
       </c>
-      <c r="E18" t="s">
-        <v>402</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G18" s="2">
         <v>575</v>
@@ -3972,19 +4032,19 @@
         <v>7</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="N18" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O18" s="2">
         <v>90</v>
@@ -3993,36 +4053,36 @@
         <v>2</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="2">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="G19" s="2">
         <v>74</v>
@@ -4034,16 +4094,16 @@
         <v>2</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O19" s="2">
         <v>70</v>
@@ -4052,33 +4112,33 @@
         <v>2</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="2">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G20" s="2">
         <v>300</v>
@@ -4090,19 +4150,19 @@
         <v>3</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O20" s="2">
         <v>40</v>
@@ -4111,36 +4171,36 @@
         <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="S20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F21" t="s">
-        <v>478</v>
+        <v>479</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>477</v>
       </c>
       <c r="G21" s="2">
         <v>80</v>
@@ -4155,13 +4215,13 @@
         <v>25</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O21" s="2">
         <v>90</v>
@@ -4170,36 +4230,36 @@
         <v>1</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R21" t="s">
-        <v>496</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>490</v>
+        <v>41</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>489</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="2">
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F22" t="s">
-        <v>526</v>
+      <c r="F22" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="G22" s="2">
         <v>80</v>
@@ -4211,16 +4271,16 @@
         <v>6</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M22" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="O22" s="2">
         <v>40</v>
@@ -4229,39 +4289,39 @@
         <v>2</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>531</v>
+        <v>41</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="S22" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="T22" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="T22" s="2" t="s">
-        <v>530</v>
-      </c>
       <c r="U22" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="2">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G23" s="2">
         <v>228</v>
@@ -4273,16 +4333,16 @@
         <v>6</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="M23" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O23" s="2">
         <v>20</v>
@@ -4291,27 +4351,89 @@
         <v>1</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="S23" s="28" t="s">
-        <v>575</v>
+        <v>65</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="S24" s="28"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="2">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G24" s="2">
+        <v>250</v>
+      </c>
+      <c r="H24" s="2">
+        <v>9</v>
+      </c>
+      <c r="I24" s="2">
+        <v>6</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="O24" s="2">
+        <v>20</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -4322,10 +4444,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4340,25 +4462,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -4366,19 +4488,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(A2,B2)</f>
@@ -4390,19 +4512,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H56" si="0">CONCATENATE(A3,B3)</f>
@@ -4414,19 +4536,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -4438,19 +4560,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
         <v>129</v>
       </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>130</v>
-      </c>
-      <c r="F5" t="s">
-        <v>131</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -4462,19 +4584,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" t="s">
         <v>132</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>133</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>134</v>
-      </c>
-      <c r="F6" t="s">
-        <v>135</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -4486,19 +4608,19 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" t="s">
         <v>136</v>
       </c>
-      <c r="D7" t="s">
-        <v>137</v>
-      </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -4510,19 +4632,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" t="s">
         <v>138</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>139</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>140</v>
-      </c>
-      <c r="F8" t="s">
-        <v>141</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -4534,19 +4656,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
         <v>142</v>
       </c>
-      <c r="D9" t="s">
-        <v>143</v>
-      </c>
       <c r="E9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" t="s">
         <v>140</v>
-      </c>
-      <c r="F9" t="s">
-        <v>141</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -4558,19 +4680,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" t="s">
         <v>144</v>
       </c>
-      <c r="D10" t="s">
-        <v>145</v>
-      </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -4582,19 +4704,19 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" t="s">
         <v>146</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>147</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>148</v>
-      </c>
-      <c r="F11" t="s">
-        <v>149</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -4606,19 +4728,19 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" t="s">
         <v>150</v>
       </c>
-      <c r="D12" t="s">
-        <v>151</v>
-      </c>
       <c r="E12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" t="s">
         <v>148</v>
-      </c>
-      <c r="F12" t="s">
-        <v>149</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -4630,19 +4752,19 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" t="s">
         <v>152</v>
       </c>
-      <c r="D13" t="s">
-        <v>153</v>
-      </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -4654,19 +4776,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" t="s">
         <v>154</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>155</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>156</v>
-      </c>
-      <c r="F14" t="s">
-        <v>157</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -4678,19 +4800,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" t="s">
         <v>158</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>159</v>
       </c>
-      <c r="E15" t="s">
-        <v>160</v>
-      </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -4702,19 +4824,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" t="s">
         <v>161</v>
       </c>
-      <c r="D16" t="s">
-        <v>162</v>
-      </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -4726,19 +4848,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" t="s">
         <v>163</v>
       </c>
-      <c r="D17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E17" t="s">
-        <v>164</v>
-      </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -4750,19 +4872,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" t="s">
         <v>165</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>166</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>167</v>
-      </c>
-      <c r="F18" t="s">
-        <v>168</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -4774,19 +4896,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" t="s">
         <v>169</v>
       </c>
-      <c r="D19" t="s">
-        <v>170</v>
-      </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -4798,19 +4920,19 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
         <v>171</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>172</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>173</v>
-      </c>
-      <c r="F20" t="s">
-        <v>174</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -4822,19 +4944,19 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" t="s">
         <v>175</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>176</v>
-      </c>
-      <c r="F21" t="s">
-        <v>177</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -4846,19 +4968,19 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -4870,19 +4992,19 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" t="s">
         <v>179</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>180</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>181</v>
-      </c>
-      <c r="F23" t="s">
-        <v>182</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -4894,19 +5016,19 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" t="s">
         <v>183</v>
       </c>
-      <c r="D24" t="s">
-        <v>184</v>
-      </c>
       <c r="E24" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" t="s">
         <v>181</v>
-      </c>
-      <c r="F24" t="s">
-        <v>182</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -4918,19 +5040,19 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" t="s">
         <v>185</v>
       </c>
-      <c r="D25" t="s">
-        <v>186</v>
-      </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -4942,16 +5064,16 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
         <v>188</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" t="s">
-        <v>189</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -4963,13 +5085,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -4981,13 +5103,13 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -4999,13 +5121,13 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -5017,16 +5139,16 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" t="s">
         <v>147</v>
-      </c>
-      <c r="E30" t="s">
-        <v>148</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
@@ -5038,13 +5160,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
@@ -5056,19 +5178,19 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
@@ -5080,16 +5202,16 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
@@ -5101,19 +5223,19 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
@@ -5125,13 +5247,13 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
@@ -5143,19 +5265,19 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E36" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" t="s">
         <v>199</v>
-      </c>
-      <c r="F36" t="s">
-        <v>200</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
@@ -5167,19 +5289,19 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
@@ -5191,19 +5313,19 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
+        <v>383</v>
+      </c>
+      <c r="D38" t="s">
         <v>384</v>
       </c>
-      <c r="D38" t="s">
-        <v>385</v>
-      </c>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
@@ -5215,19 +5337,19 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F39" t="s">
         <v>199</v>
-      </c>
-      <c r="F39" t="s">
-        <v>200</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
@@ -5239,19 +5361,19 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D40" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" t="s">
         <v>225</v>
       </c>
-      <c r="E40" t="s">
-        <v>226</v>
-      </c>
       <c r="F40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
@@ -5263,19 +5385,19 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D41" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" t="s">
         <v>227</v>
       </c>
-      <c r="E41" t="s">
-        <v>228</v>
-      </c>
       <c r="F41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
@@ -5287,19 +5409,19 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C42" t="s">
+        <v>373</v>
+      </c>
+      <c r="D42" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" t="s">
         <v>374</v>
       </c>
-      <c r="D42" t="s">
-        <v>229</v>
-      </c>
-      <c r="E42" t="s">
-        <v>375</v>
-      </c>
       <c r="F42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
@@ -5311,19 +5433,19 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D43" t="s">
+        <v>241</v>
+      </c>
+      <c r="E43" t="s">
         <v>242</v>
       </c>
-      <c r="E43" t="s">
-        <v>243</v>
-      </c>
       <c r="F43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
@@ -5335,19 +5457,19 @@
         <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" t="s">
         <v>241</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>242</v>
       </c>
-      <c r="E44" t="s">
-        <v>243</v>
-      </c>
       <c r="F44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
@@ -5359,19 +5481,19 @@
         <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D45" t="s">
         <v>247</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>248</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>249</v>
-      </c>
-      <c r="F45" t="s">
-        <v>250</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
@@ -5383,19 +5505,19 @@
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E46" t="s">
+        <v>254</v>
+      </c>
+      <c r="F46" t="s">
         <v>255</v>
-      </c>
-      <c r="F46" t="s">
-        <v>256</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
@@ -5407,19 +5529,19 @@
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E47" t="s">
+        <v>256</v>
+      </c>
+      <c r="F47" t="s">
         <v>257</v>
-      </c>
-      <c r="F47" t="s">
-        <v>258</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
@@ -5431,19 +5553,19 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E48" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" t="s">
         <v>257</v>
-      </c>
-      <c r="F48" t="s">
-        <v>258</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
@@ -5455,19 +5577,19 @@
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D49" t="s">
+        <v>287</v>
+      </c>
+      <c r="E49" t="s">
         <v>288</v>
       </c>
-      <c r="E49" t="s">
-        <v>289</v>
-      </c>
       <c r="F49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
@@ -5479,19 +5601,19 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C50" t="s">
+        <v>295</v>
+      </c>
+      <c r="D50" t="s">
         <v>296</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>297</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>298</v>
-      </c>
-      <c r="F50" t="s">
-        <v>299</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
@@ -5503,19 +5625,19 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D51" t="s">
+        <v>299</v>
+      </c>
+      <c r="E51" t="s">
         <v>300</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>301</v>
-      </c>
-      <c r="F51" t="s">
-        <v>302</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
@@ -5527,19 +5649,19 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
@@ -5551,19 +5673,19 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E53" t="s">
+        <v>351</v>
+      </c>
+      <c r="F53" t="s">
         <v>352</v>
-      </c>
-      <c r="F53" t="s">
-        <v>353</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
@@ -5575,19 +5697,19 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D54" t="s">
+        <v>358</v>
+      </c>
+      <c r="E54" t="s">
         <v>359</v>
       </c>
-      <c r="E54" t="s">
-        <v>360</v>
-      </c>
       <c r="F54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
@@ -5599,19 +5721,19 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D55" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
@@ -5623,19 +5745,19 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s">
+        <v>390</v>
+      </c>
+      <c r="D56" t="s">
         <v>391</v>
       </c>
-      <c r="D56" t="s">
-        <v>392</v>
-      </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
@@ -5647,19 +5769,19 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C57" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D57" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" ref="H57:H60" si="1">CONCATENATE(A57,B57)</f>
@@ -5671,19 +5793,19 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s">
+        <v>393</v>
+      </c>
+      <c r="D58" t="s">
         <v>394</v>
       </c>
-      <c r="D58" t="s">
-        <v>395</v>
-      </c>
       <c r="E58" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
@@ -5695,19 +5817,19 @@
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D59" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E59" t="s">
+        <v>407</v>
+      </c>
+      <c r="F59" s="12" t="s">
         <v>408</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>409</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
@@ -5719,19 +5841,19 @@
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D60" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E60" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
@@ -5743,22 +5865,22 @@
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C61" t="s">
+        <v>420</v>
+      </c>
+      <c r="D61" t="s">
         <v>421</v>
       </c>
-      <c r="D61" t="s">
-        <v>422</v>
-      </c>
       <c r="E61" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" ref="H61:H86" si="2">CONCATENATE(A61,B61)</f>
+        <f t="shared" ref="H61:H90" si="2">CONCATENATE(A61,B61)</f>
         <v>17tile</v>
       </c>
     </row>
@@ -5767,19 +5889,19 @@
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C62" t="s">
+        <v>424</v>
+      </c>
+      <c r="D62" t="s">
         <v>425</v>
       </c>
-      <c r="D62" t="s">
-        <v>426</v>
-      </c>
       <c r="E62" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="2"/>
@@ -5791,19 +5913,19 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s">
+        <v>426</v>
+      </c>
+      <c r="D63" t="s">
         <v>427</v>
       </c>
-      <c r="D63" t="s">
-        <v>428</v>
-      </c>
       <c r="E63" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="2"/>
@@ -5815,19 +5937,19 @@
         <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C64" t="s">
+        <v>446</v>
+      </c>
+      <c r="D64" t="s">
         <v>447</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>448</v>
       </c>
-      <c r="E64" t="s">
-        <v>449</v>
-      </c>
       <c r="F64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="2"/>
@@ -5839,19 +5961,19 @@
         <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D65" t="s">
+        <v>451</v>
+      </c>
+      <c r="E65" t="s">
         <v>452</v>
       </c>
-      <c r="E65" t="s">
-        <v>453</v>
-      </c>
       <c r="F65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="2"/>
@@ -5863,19 +5985,19 @@
         <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C66" t="s">
+        <v>450</v>
+      </c>
+      <c r="D66" t="s">
         <v>451</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>452</v>
       </c>
-      <c r="E66" t="s">
-        <v>453</v>
-      </c>
       <c r="F66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="2"/>
@@ -5887,19 +6009,19 @@
         <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s">
+        <v>454</v>
+      </c>
+      <c r="D67" t="s">
         <v>455</v>
       </c>
-      <c r="D67" t="s">
-        <v>456</v>
-      </c>
       <c r="E67" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="2"/>
@@ -5911,19 +6033,19 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D68" t="s">
+        <v>483</v>
+      </c>
+      <c r="E68" t="s">
         <v>484</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" s="12" t="s">
         <v>485</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>486</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="2"/>
@@ -5935,19 +6057,19 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C69" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D69" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E69" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="2"/>
@@ -5959,19 +6081,19 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D70" t="s">
+        <v>487</v>
+      </c>
+      <c r="E70" t="s">
+        <v>486</v>
+      </c>
+      <c r="F70" s="12" t="s">
         <v>488</v>
-      </c>
-      <c r="E70" t="s">
-        <v>487</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>489</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="2"/>
@@ -5983,19 +6105,19 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C71" t="s">
+        <v>493</v>
+      </c>
+      <c r="D71" t="s">
         <v>494</v>
       </c>
-      <c r="D71" t="s">
-        <v>495</v>
-      </c>
       <c r="E71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="2"/>
@@ -6007,19 +6129,19 @@
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C72" t="s">
+        <v>505</v>
+      </c>
+      <c r="D72" t="s">
+        <v>499</v>
+      </c>
+      <c r="E72" t="s">
         <v>506</v>
       </c>
-      <c r="D72" t="s">
-        <v>500</v>
-      </c>
-      <c r="E72" t="s">
-        <v>507</v>
-      </c>
       <c r="F72" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="2"/>
@@ -6031,19 +6153,19 @@
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C73" t="s">
+        <v>498</v>
+      </c>
+      <c r="D73" t="s">
         <v>499</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>500</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>501</v>
-      </c>
-      <c r="F73" t="s">
-        <v>502</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="2"/>
@@ -6055,19 +6177,19 @@
         <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C74" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D74" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E74" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F74" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="2"/>
@@ -6079,19 +6201,19 @@
         <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C75" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D75" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" ref="H75" si="3">CONCATENATE(A75,B75)</f>
@@ -6103,19 +6225,19 @@
         <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C76" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D76" t="s">
+        <v>532</v>
+      </c>
+      <c r="E76" t="s">
         <v>533</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>534</v>
-      </c>
-      <c r="F76" t="s">
-        <v>535</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="2"/>
@@ -6127,19 +6249,19 @@
         <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C77" t="s">
+        <v>531</v>
+      </c>
+      <c r="D77" t="s">
         <v>532</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>533</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>534</v>
-      </c>
-      <c r="F77" t="s">
-        <v>535</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="2"/>
@@ -6151,19 +6273,19 @@
         <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C78" t="s">
+        <v>536</v>
+      </c>
+      <c r="D78" t="s">
         <v>537</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>538</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>539</v>
-      </c>
-      <c r="F78" t="s">
-        <v>540</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="2"/>
@@ -6175,19 +6297,19 @@
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C79" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D79" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="2"/>
@@ -6199,19 +6321,19 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C80" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D80" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E80" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F80" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="2"/>
@@ -6223,19 +6345,19 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C81" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D81" t="s">
+        <v>552</v>
+      </c>
+      <c r="E81" t="s">
         <v>553</v>
       </c>
-      <c r="E81" t="s">
-        <v>554</v>
-      </c>
       <c r="F81" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="2"/>
@@ -6247,19 +6369,19 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C82" t="s">
+        <v>554</v>
+      </c>
+      <c r="D82" t="s">
         <v>555</v>
       </c>
-      <c r="D82" t="s">
-        <v>556</v>
-      </c>
       <c r="E82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="2"/>
@@ -6271,19 +6393,19 @@
         <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E83" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F83" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="2"/>
@@ -6295,19 +6417,19 @@
         <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C84" t="s">
+        <v>569</v>
+      </c>
+      <c r="D84" t="s">
         <v>570</v>
       </c>
-      <c r="D84" t="s">
-        <v>571</v>
-      </c>
       <c r="E84" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F84" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="2"/>
@@ -6319,19 +6441,19 @@
         <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C85" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E85" t="s">
+        <v>576</v>
+      </c>
+      <c r="F85" t="s">
         <v>577</v>
-      </c>
-      <c r="F85" t="s">
-        <v>578</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="2"/>
@@ -6343,23 +6465,119 @@
         <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C86" t="s">
+        <v>584</v>
+      </c>
+      <c r="D86" t="s">
         <v>585</v>
       </c>
-      <c r="D86" t="s">
-        <v>586</v>
-      </c>
       <c r="E86" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="2"/>
         <v>22map</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>23</v>
+      </c>
+      <c r="B87" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" t="s">
+        <v>595</v>
+      </c>
+      <c r="D87" t="s">
+        <v>596</v>
+      </c>
+      <c r="E87" t="s">
+        <v>597</v>
+      </c>
+      <c r="F87" t="s">
+        <v>598</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="2"/>
+        <v>23crag</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>23</v>
+      </c>
+      <c r="B88" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" t="s">
+        <v>599</v>
+      </c>
+      <c r="D88" t="s">
+        <v>596</v>
+      </c>
+      <c r="E88" t="s">
+        <v>600</v>
+      </c>
+      <c r="F88" t="s">
+        <v>119</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="2"/>
+        <v>23tile</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>23</v>
+      </c>
+      <c r="B89" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" t="s">
+        <v>602</v>
+      </c>
+      <c r="D89" t="s">
+        <v>601</v>
+      </c>
+      <c r="E89" t="s">
+        <v>600</v>
+      </c>
+      <c r="F89" t="s">
+        <v>549</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="2"/>
+        <v>23topo</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>23</v>
+      </c>
+      <c r="B90" t="s">
+        <v>113</v>
+      </c>
+      <c r="C90" t="s">
+        <v>603</v>
+      </c>
+      <c r="D90" t="s">
+        <v>604</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F90" t="s">
+        <v>109</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="2"/>
+        <v>23map</v>
       </c>
     </row>
   </sheetData>
@@ -6394,34 +6612,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" t="s">
         <v>267</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
         <v>268</v>
       </c>
-      <c r="D1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" t="s">
-        <v>269</v>
-      </c>
       <c r="F1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J1" t="s">
         <v>294</v>
-      </c>
-      <c r="J1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -6429,22 +6647,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" t="s">
         <v>270</v>
-      </c>
-      <c r="D2" t="s">
-        <v>271</v>
       </c>
       <c r="E2">
         <v>206</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" t="s">
         <v>309</v>
-      </c>
-      <c r="G2" t="s">
-        <v>310</v>
       </c>
       <c r="I2">
         <v>24.99</v>
@@ -6458,22 +6676,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E3">
         <v>266</v>
       </c>
       <c r="F3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I3">
         <v>25</v>
@@ -6487,22 +6705,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E4">
         <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I4">
         <v>24.99</v>
@@ -6516,13 +6734,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E5">
         <v>169</v>
@@ -6533,22 +6751,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E6">
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I6">
         <v>20</v>
@@ -6562,25 +6780,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E7">
         <v>175</v>
       </c>
       <c r="F7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="H7" t="s">
         <v>349</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="H7" t="s">
-        <v>350</v>
       </c>
       <c r="I7">
         <v>29.95</v>
@@ -6594,22 +6812,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E8">
         <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I8">
         <v>24.99</v>
@@ -6623,22 +6841,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" t="s">
         <v>270</v>
-      </c>
-      <c r="D9" t="s">
-        <v>271</v>
       </c>
       <c r="E9">
         <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I9">
         <v>24.99</v>
@@ -6652,22 +6870,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E10">
         <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I10">
         <v>34.950000000000003</v>
@@ -6681,22 +6899,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" t="s">
         <v>270</v>
-      </c>
-      <c r="D11" t="s">
-        <v>271</v>
       </c>
       <c r="E11">
         <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I11">
         <v>24.99</v>
@@ -6710,22 +6928,22 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E12">
         <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I12">
         <v>20</v>
@@ -6739,22 +6957,22 @@
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E13">
         <v>156</v>
       </c>
       <c r="F13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I13">
         <v>24.99</v>
@@ -6768,22 +6986,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E14">
         <v>32</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G14" t="s">
         <v>387</v>
-      </c>
-      <c r="G14" t="s">
-        <v>388</v>
       </c>
       <c r="I14">
         <v>25</v>
@@ -6797,22 +7015,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" t="s">
         <v>270</v>
-      </c>
-      <c r="D15" t="s">
-        <v>271</v>
       </c>
       <c r="E15">
         <v>258</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I15">
         <v>24.99</v>
@@ -6826,22 +7044,22 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E16">
         <v>162</v>
       </c>
       <c r="F16" t="s">
+        <v>396</v>
+      </c>
+      <c r="G16" t="s">
         <v>397</v>
-      </c>
-      <c r="G16" t="s">
-        <v>398</v>
       </c>
       <c r="I16">
         <v>34</v>
@@ -6855,22 +7073,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E17">
         <v>354</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I17">
         <v>34.99</v>
@@ -6884,22 +7102,22 @@
         <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C18" t="s">
         <v>459</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" t="s">
         <v>460</v>
       </c>
-      <c r="D18" t="s">
-        <v>271</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>461</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>462</v>
-      </c>
-      <c r="G18" t="s">
-        <v>463</v>
       </c>
       <c r="I18">
         <v>25</v>
@@ -6913,22 +7131,22 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C19" t="s">
+        <v>463</v>
+      </c>
+      <c r="D19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" t="s">
+        <v>460</v>
+      </c>
+      <c r="F19" t="s">
         <v>465</v>
       </c>
-      <c r="C19" t="s">
-        <v>464</v>
-      </c>
-      <c r="D19" t="s">
-        <v>271</v>
-      </c>
-      <c r="E19" t="s">
-        <v>461</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>466</v>
-      </c>
-      <c r="G19" t="s">
-        <v>467</v>
       </c>
       <c r="I19">
         <v>20</v>
@@ -6942,22 +7160,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C20" t="s">
+        <v>511</v>
+      </c>
+      <c r="D20" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" t="s">
+        <v>460</v>
+      </c>
+      <c r="F20" t="s">
         <v>513</v>
       </c>
-      <c r="C20" t="s">
-        <v>512</v>
-      </c>
-      <c r="D20" t="s">
-        <v>271</v>
-      </c>
-      <c r="E20" t="s">
-        <v>461</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>514</v>
-      </c>
-      <c r="G20" t="s">
-        <v>515</v>
       </c>
       <c r="I20">
         <v>34.99</v>
@@ -6971,22 +7189,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E21">
         <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I21">
         <v>19.95</v>
@@ -7000,31 +7218,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G22" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
@@ -7032,22 +7250,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C23" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E23">
         <v>267</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I23">
         <v>29.95</v>
@@ -7079,16 +7297,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -7096,10 +7314,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" t="s">
         <v>324</v>
-      </c>
-      <c r="C2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -7107,10 +7325,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -7118,10 +7336,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -7129,10 +7347,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -7140,10 +7358,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -7151,10 +7369,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" t="s">
         <v>433</v>
-      </c>
-      <c r="C7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -7162,10 +7380,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C8" t="s">
         <v>437</v>
-      </c>
-      <c r="C8" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -7173,10 +7391,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C9" t="s">
         <v>439</v>
-      </c>
-      <c r="C9" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -7184,10 +7402,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -7195,10 +7413,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -7206,10 +7424,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
+        <v>481</v>
+      </c>
+      <c r="C12" t="s">
         <v>482</v>
-      </c>
-      <c r="C12" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -7217,10 +7435,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
+        <v>496</v>
+      </c>
+      <c r="C13" t="s">
         <v>497</v>
-      </c>
-      <c r="C13" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -7228,10 +7446,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
+        <v>540</v>
+      </c>
+      <c r="C14" t="s">
         <v>541</v>
-      </c>
-      <c r="C14" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -7239,10 +7457,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C15" t="s">
         <v>557</v>
-      </c>
-      <c r="C15" t="s">
-        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -7279,16 +7497,16 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
@@ -7302,19 +7520,19 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" t="s">
         <v>370</v>
-      </c>
-      <c r="E2" t="s">
-        <v>371</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -7322,17 +7540,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -7340,17 +7558,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -7358,10 +7576,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5">
@@ -7374,10 +7592,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6">
@@ -7390,10 +7608,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7">
@@ -7406,10 +7624,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8">
@@ -7422,10 +7640,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9">
@@ -7438,10 +7656,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10">
@@ -7454,10 +7672,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11">
@@ -7470,17 +7688,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -7488,17 +7706,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -7506,10 +7724,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D14" s="2"/>
       <c r="F14">
@@ -7522,17 +7740,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -7540,17 +7758,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2"/>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -7558,25 +7776,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -7584,7 +7802,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -7605,46 +7823,46 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" t="s">
         <v>327</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>328</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>329</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>330</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>331</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>332</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>333</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>335</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>336</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>337</v>
-      </c>
-      <c r="N1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
@@ -7652,7 +7870,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C2" s="18">
         <v>15</v>
@@ -7696,7 +7914,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C3" s="19">
         <v>9</v>
@@ -7741,7 +7959,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C4" s="21">
         <v>5</v>
@@ -7785,7 +8003,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C5" s="18">
         <v>13</v>
@@ -7829,7 +8047,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C6" s="19">
         <v>8</v>
@@ -7873,7 +8091,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C7" s="21">
         <v>3</v>
@@ -7918,7 +8136,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C8" s="18">
         <v>13</v>
@@ -7962,7 +8180,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C9" s="19">
         <v>8</v>
@@ -8007,7 +8225,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C10" s="21">
         <v>3</v>
@@ -8052,7 +8270,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C11" s="18">
         <v>19</v>
@@ -8096,7 +8314,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C12" s="19">
         <v>6</v>
@@ -8141,7 +8359,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C13" s="21">
         <v>4</v>
@@ -8187,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C14" s="18">
         <v>20</v>
@@ -8231,7 +8449,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C15" s="19">
         <v>8</v>
@@ -8277,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C16" s="21">
         <v>5</v>
@@ -8323,7 +8541,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C17" s="18">
         <v>19</v>
@@ -8367,7 +8585,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C18" s="19">
         <v>8</v>
@@ -8413,7 +8631,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C19" s="21">
         <v>2</v>
@@ -8459,7 +8677,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C20" s="18">
         <v>19</v>
@@ -8503,7 +8721,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C21" s="19">
         <v>8</v>
@@ -8549,7 +8767,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C22" s="21">
         <v>2</v>
@@ -8595,7 +8813,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C23" s="18">
         <v>15</v>
@@ -8639,7 +8857,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C24" s="19">
         <v>9</v>
@@ -8685,7 +8903,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C25" s="21">
         <v>5</v>
@@ -8731,7 +8949,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C26" s="23">
         <v>13</v>
@@ -8775,7 +8993,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C27" s="24">
         <v>8</v>
@@ -8821,7 +9039,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C28" s="26">
         <v>3</v>
@@ -8867,7 +9085,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C29" s="23">
         <v>4</v>
@@ -8911,7 +9129,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C30" s="24">
         <v>13</v>
@@ -8957,7 +9175,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C31" s="26">
         <v>4</v>
@@ -9003,7 +9221,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C32" s="23">
         <v>15</v>
@@ -9047,7 +9265,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C33" s="24">
         <v>1</v>
@@ -9093,7 +9311,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C34" s="26">
         <v>-2</v>
@@ -9139,7 +9357,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C35" s="23">
         <v>4</v>
@@ -9183,7 +9401,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C36" s="24">
         <v>5</v>
@@ -9229,7 +9447,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C37" s="26">
         <v>-6</v>
@@ -9275,7 +9493,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C38" s="23">
         <v>15</v>
@@ -9319,7 +9537,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C39" s="24">
         <v>8</v>
@@ -9365,7 +9583,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C40" s="26">
         <v>5</v>
@@ -9411,7 +9629,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C41" s="23">
         <v>16</v>
@@ -9455,7 +9673,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C42" s="19">
         <v>8</v>
@@ -9500,7 +9718,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C43" s="21">
         <v>6</v>
@@ -9545,7 +9763,7 @@
         <v>18</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C44" s="18">
         <v>17</v>
@@ -9589,7 +9807,7 @@
         <v>18</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C45" s="19">
         <v>7</v>
@@ -9634,7 +9852,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C46" s="21">
         <v>2</v>
@@ -9683,7 +9901,7 @@
         <v>15</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C47" s="18">
         <v>4</v>
@@ -9731,7 +9949,7 @@
         <v>15</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C48" s="19">
         <v>4.2</v>
@@ -9779,7 +9997,7 @@
         <v>15</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C49" s="21">
         <v>-7.8</v>
@@ -9827,7 +10045,7 @@
         <v>19</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C50" s="18">
         <v>9</v>
@@ -9875,7 +10093,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C51" s="19">
         <v>-10</v>
@@ -9923,7 +10141,7 @@
         <v>19</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C52" s="21">
         <v>-15</v>
@@ -9971,7 +10189,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C53" s="18">
         <v>18</v>
@@ -10019,7 +10237,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C54" s="19">
         <v>5</v>
@@ -10068,7 +10286,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C55" s="21">
         <v>0</v>
@@ -10117,7 +10335,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C56" s="18">
         <v>6</v>
@@ -10166,7 +10384,7 @@
         <v>21</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C57" s="19">
         <v>18</v>
@@ -10215,7 +10433,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C58" s="21">
         <v>14</v>
@@ -10259,7 +10477,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C59" s="18">
         <v>15</v>
@@ -10304,7 +10522,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C60" s="19">
         <v>9</v>
@@ -10349,7 +10567,7 @@
         <v>9</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C61" s="21">
         <v>0</v>
@@ -10462,10 +10680,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10480,28 +10698,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>381</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -11313,8 +11531,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" t="str">
+        <f>CLIMBS!A24</f>
+        <v>Heiliger Geist</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="str">
+        <f>CLIMBS!B24</f>
+        <v>publish</v>
+      </c>
+      <c r="D24">
+        <f>IF(CLIMBS!R24&lt;&gt;0,1,0)+IF(CLIMBS!G24&lt;&gt;0,1,0)+IF(CLIMBS!H24&lt;&gt;0,1,0)+IF(CLIMBS!I24&lt;&gt;0,1,0)+IF(CLIMBS!J24&lt;&gt;0,1,0)+IF(CLIMBS!N24&lt;&gt;0,1,0)+IF(CLIMBS!M24&lt;&gt;0,1,0)+IF(CLIMBS!O24&lt;&gt;0,1,0)+IF(CLIMBS!P24&lt;&gt;0,1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <f>IF(CLIMBS!S24&lt;&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B24,"tile"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B24,"crag"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B24,"topo"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B24,"map"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B24,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B24,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D23">
+  <conditionalFormatting sqref="D2:D24">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
@@ -11322,7 +11576,7 @@
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C23">
+  <conditionalFormatting sqref="C2:C24">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"draft"</formula>
     </cfRule>
@@ -11332,12 +11586,12 @@
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C23">
+  <conditionalFormatting sqref="C3:C24">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E23">
+  <conditionalFormatting sqref="E2:E24">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -11345,7 +11599,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F23">
+  <conditionalFormatting sqref="F2:F24">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
@@ -11353,7 +11607,7 @@
       <formula>"missing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H23">
+  <conditionalFormatting sqref="G2:H24">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7745D8-E2F3-4AE6-BC11-3086F6211BEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDDD002-0218-4ED2-AE99-956621A93775}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2940,7 +2940,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4410,7 +4410,7 @@
         <v>591</v>
       </c>
       <c r="O24" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P24" s="2">
         <v>1</v>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDDD002-0218-4ED2-AE99-956621A93775}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30A722F-A5E7-4B2C-BC0F-D427776BBC84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -1870,13 +1870,13 @@
     <t>img/topos/meteor/holy-ghost-crag-pillar-of-dreams-topo.jpg</t>
   </si>
   <si>
-    <t>img/maps/meteor-climbing</t>
-  </si>
-  <si>
     <t>Location of Meteor climbing in Greece</t>
   </si>
   <si>
     <t>Arguably one of the best sea stacks in the United Kingdom, The Old Man of Stoer (Stake), makes for an adventurous day out and an all round exceptional climb. The rock is Torridonian sandstone, meaning it was formed before any significant life on earth existed. The approach is either some wet rock hopping 100m north of the stack at the lowest tide or the more classic Tyrolean traverse which needs to be set up by swimming the 8 meter channel if there is not one left in place when you arrive. The route itself, Original Route, meanders the landward face. Larger cams and hexs are recommended. Be wary of nesting seagulls who first line of defence is usually to attack you with projectile vomit.</t>
+  </si>
+  <si>
+    <t>img/maps/meteor-climbing.png</t>
   </si>
 </sst>
 </file>
@@ -2939,7 +2939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -3079,7 +3079,7 @@
         <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>30</v>
@@ -4446,8 +4446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6564,10 +6564,10 @@
         <v>113</v>
       </c>
       <c r="C90" t="s">
+        <v>605</v>
+      </c>
+      <c r="D90" t="s">
         <v>603</v>
-      </c>
-      <c r="D90" t="s">
-        <v>604</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>110</v>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30A722F-A5E7-4B2C-BC0F-D427776BBC84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B698068-6BAA-4905-A301-2C9B572A3E7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -4446,8 +4446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6592,10 +6592,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB58989-DB9B-42B8-8BEA-AD863D94E91D}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="A1:J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7272,6 +7272,11 @@
       </c>
       <c r="J23">
         <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="4">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -11560,7 +11565,7 @@
       </c>
       <c r="G24">
         <f>_xlfn.IFNA(IF(VLOOKUP(B24,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <f>_xlfn.IFNA(IF(VLOOKUP(B24,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B698068-6BAA-4905-A301-2C9B572A3E7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB744558-FBCD-46E3-89FC-2704CD82B62B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="610">
   <si>
     <t>cliff</t>
   </si>
@@ -1877,6 +1877,18 @@
   </si>
   <si>
     <t>img/maps/meteor-climbing.png</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2UxZN8z</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2C1KKgp</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2RJohKd</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2zQOEY3</t>
   </si>
 </sst>
 </file>
@@ -6595,7 +6607,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6664,6 +6676,9 @@
       <c r="G2" t="s">
         <v>309</v>
       </c>
+      <c r="H2" t="s">
+        <v>606</v>
+      </c>
       <c r="I2">
         <v>24.99</v>
       </c>
@@ -6693,6 +6708,9 @@
       <c r="G3" t="s">
         <v>314</v>
       </c>
+      <c r="H3" t="s">
+        <v>607</v>
+      </c>
       <c r="I3">
         <v>25</v>
       </c>
@@ -6722,6 +6740,9 @@
       <c r="G4" t="s">
         <v>318</v>
       </c>
+      <c r="H4" s="13" t="s">
+        <v>608</v>
+      </c>
       <c r="I4">
         <v>24.99</v>
       </c>
@@ -6768,6 +6789,9 @@
       <c r="G6" t="s">
         <v>341</v>
       </c>
+      <c r="H6" t="s">
+        <v>609</v>
+      </c>
       <c r="I6">
         <v>20</v>
       </c>
@@ -6829,6 +6853,9 @@
       <c r="G8" t="s">
         <v>318</v>
       </c>
+      <c r="H8" s="13" t="s">
+        <v>608</v>
+      </c>
       <c r="I8">
         <v>24.99</v>
       </c>
@@ -6858,6 +6885,9 @@
       <c r="G9" t="s">
         <v>309</v>
       </c>
+      <c r="H9" t="s">
+        <v>606</v>
+      </c>
       <c r="I9">
         <v>24.99</v>
       </c>
@@ -6916,6 +6946,9 @@
       <c r="G11" t="s">
         <v>309</v>
       </c>
+      <c r="H11" t="s">
+        <v>606</v>
+      </c>
       <c r="I11">
         <v>24.99</v>
       </c>
@@ -6945,6 +6978,9 @@
       <c r="G12" t="s">
         <v>341</v>
       </c>
+      <c r="H12" t="s">
+        <v>609</v>
+      </c>
       <c r="I12">
         <v>20</v>
       </c>
@@ -6974,6 +7010,9 @@
       <c r="G13" t="s">
         <v>318</v>
       </c>
+      <c r="H13" s="13" t="s">
+        <v>608</v>
+      </c>
       <c r="I13">
         <v>24.99</v>
       </c>
@@ -7032,6 +7071,9 @@
       <c r="G15" t="s">
         <v>309</v>
       </c>
+      <c r="H15" t="s">
+        <v>606</v>
+      </c>
       <c r="I15">
         <v>24.99</v>
       </c>
@@ -7280,8 +7322,13 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{14007672-E4E3-4A8F-8DD0-45E59BDCCEDC}"/>
+    <hyperlink ref="H8" r:id="rId2" xr:uid="{B67B1897-7EEF-4BFD-B837-658E489AF517}"/>
+    <hyperlink ref="H13" r:id="rId3" xr:uid="{6357674A-8282-416E-BCEF-A2B394B14AEA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB744558-FBCD-46E3-89FC-2704CD82B62B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859F3355-ADA4-489D-BFB4-3CB833A8D0B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6607,7 +6607,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7317,9 +7317,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
+      <c r="A24" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11612,7 +11610,7 @@
       </c>
       <c r="G24">
         <f>_xlfn.IFNA(IF(VLOOKUP(B24,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <f>_xlfn.IFNA(IF(VLOOKUP(B24,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859F3355-ADA4-489D-BFB4-3CB833A8D0B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BD8E86-4F5A-45D8-A131-78C3D15BD35D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="618">
   <si>
     <t>cliff</t>
   </si>
@@ -1676,9 +1676,6 @@
   </si>
   <si>
     <t>Região do Norte</t>
-  </si>
-  <si>
-    <t>IV+ &amp; f6b</t>
   </si>
   <si>
     <t xml:space="preserve">Meadinha is a dome of granite in North Portugal which makes for some brilliant pitches if you can handle the high technical grade! The route Queles is on the left side an is half trad climbing and half sport route.  The line is only 60m long, but the crag has some routes up to 200m. The other routes are either pure sport line or have challenging sport or aid sections with a little easy trad in them. Check out meadinha.com for more information if you fancy your hand at some of the more challenging parts of the cliff. </t>
@@ -1889,6 +1886,33 @@
   </si>
   <si>
     <t>https://amzn.to/2zQOEY3</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Aiguille Dibona</t>
+  </si>
+  <si>
+    <t>Hautes-Alpes</t>
+  </si>
+  <si>
+    <t>TD (f6a+)</t>
+  </si>
+  <si>
+    <t>IV+ &amp; (f6b)</t>
+  </si>
+  <si>
+    <t>france</t>
+  </si>
+  <si>
+    <t>Visite Obligatoire</t>
+  </si>
+  <si>
+    <t>44.961162,6.243941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The picturesque peak of Aiguille Dibona was re-named (formerly: Pain de Sucre du Soreiller) after Italian mountaineer Angelo Dibona after the first accent in 1913 with Guido Mayer. The route Visite Obligatoire or Obligatory Visit in English wasn’t climbed until 1988. This is a long, sustained route has mixed bolted and traditional protection. The peak finishes at an altitude just over 3,000m. Although the bottom half contains the technically hardest moves, the route doesn’t let up much. Its graded f6a+. Escape is much harder after the 8th pitch. </t>
   </si>
 </sst>
 </file>
@@ -2951,8 +2975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3091,7 +3115,7 @@
         <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>30</v>
@@ -3557,10 +3581,10 @@
         <v>61</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>547</v>
+        <v>613</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>210</v>
@@ -3575,10 +3599,10 @@
         <v>41</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>44</v>
@@ -4333,7 +4357,7 @@
         <v>524</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G23" s="2">
         <v>228</v>
@@ -4354,7 +4378,7 @@
         <v>220</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O23" s="2">
         <v>20</v>
@@ -4366,10 +4390,10 @@
         <v>65</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>244</v>
@@ -4380,7 +4404,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>107</v>
@@ -4389,13 +4413,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G24" s="2">
         <v>250</v>
@@ -4413,13 +4437,13 @@
         <v>26</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="O24" s="2">
         <v>21</v>
@@ -4431,10 +4455,10 @@
         <v>223</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="T24" s="2" t="s">
         <v>244</v>
@@ -4443,9 +4467,68 @@
         <v>345</v>
       </c>
     </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G25" s="2">
+        <v>350</v>
+      </c>
+      <c r="H25" s="2">
+        <v>13</v>
+      </c>
+      <c r="I25" s="2">
+        <v>7</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="O25" s="2">
+        <v>190</v>
+      </c>
+      <c r="P25" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -6336,16 +6419,16 @@
         <v>118</v>
       </c>
       <c r="C80" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D80" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E80" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F80" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="2"/>
@@ -6360,13 +6443,13 @@
         <v>121</v>
       </c>
       <c r="C81" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D81" t="s">
+        <v>551</v>
+      </c>
+      <c r="E81" t="s">
         <v>552</v>
-      </c>
-      <c r="E81" t="s">
-        <v>553</v>
       </c>
       <c r="F81" t="s">
         <v>301</v>
@@ -6384,10 +6467,10 @@
         <v>113</v>
       </c>
       <c r="C82" t="s">
+        <v>553</v>
+      </c>
+      <c r="D82" t="s">
         <v>554</v>
-      </c>
-      <c r="D82" t="s">
-        <v>555</v>
       </c>
       <c r="E82" t="s">
         <v>110</v>
@@ -6408,13 +6491,13 @@
         <v>121</v>
       </c>
       <c r="C83" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D83" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E83" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F83" t="s">
         <v>301</v>
@@ -6432,13 +6515,13 @@
         <v>187</v>
       </c>
       <c r="C84" t="s">
+        <v>568</v>
+      </c>
+      <c r="D84" t="s">
         <v>569</v>
       </c>
-      <c r="D84" t="s">
-        <v>570</v>
-      </c>
       <c r="E84" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F84" t="s">
         <v>301</v>
@@ -6456,16 +6539,16 @@
         <v>118</v>
       </c>
       <c r="C85" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E85" t="s">
+        <v>575</v>
+      </c>
+      <c r="F85" t="s">
         <v>576</v>
-      </c>
-      <c r="F85" t="s">
-        <v>577</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="2"/>
@@ -6480,10 +6563,10 @@
         <v>113</v>
       </c>
       <c r="C86" t="s">
+        <v>583</v>
+      </c>
+      <c r="D86" t="s">
         <v>584</v>
-      </c>
-      <c r="D86" t="s">
-        <v>585</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>110</v>
@@ -6504,16 +6587,16 @@
         <v>121</v>
       </c>
       <c r="C87" t="s">
+        <v>594</v>
+      </c>
+      <c r="D87" t="s">
         <v>595</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>596</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>597</v>
-      </c>
-      <c r="F87" t="s">
-        <v>598</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="2"/>
@@ -6528,13 +6611,13 @@
         <v>187</v>
       </c>
       <c r="C88" t="s">
+        <v>598</v>
+      </c>
+      <c r="D88" t="s">
+        <v>595</v>
+      </c>
+      <c r="E88" t="s">
         <v>599</v>
-      </c>
-      <c r="D88" t="s">
-        <v>596</v>
-      </c>
-      <c r="E88" t="s">
-        <v>600</v>
       </c>
       <c r="F88" t="s">
         <v>119</v>
@@ -6552,16 +6635,16 @@
         <v>118</v>
       </c>
       <c r="C89" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D89" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E89" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F89" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="2"/>
@@ -6576,10 +6659,10 @@
         <v>113</v>
       </c>
       <c r="C90" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D90" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>110</v>
@@ -6606,7 +6689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB58989-DB9B-42B8-8BEA-AD863D94E91D}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -6677,7 +6760,7 @@
         <v>309</v>
       </c>
       <c r="H2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I2">
         <v>24.99</v>
@@ -6709,7 +6792,7 @@
         <v>314</v>
       </c>
       <c r="H3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I3">
         <v>25</v>
@@ -6741,7 +6824,7 @@
         <v>318</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I4">
         <v>24.99</v>
@@ -6790,7 +6873,7 @@
         <v>341</v>
       </c>
       <c r="H6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I6">
         <v>20</v>
@@ -6854,7 +6937,7 @@
         <v>318</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I8">
         <v>24.99</v>
@@ -6886,7 +6969,7 @@
         <v>309</v>
       </c>
       <c r="H9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I9">
         <v>24.99</v>
@@ -6912,10 +6995,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I10">
         <v>34.950000000000003</v>
@@ -6947,7 +7030,7 @@
         <v>309</v>
       </c>
       <c r="H11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I11">
         <v>24.99</v>
@@ -6979,7 +7062,7 @@
         <v>341</v>
       </c>
       <c r="H12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I12">
         <v>20</v>
@@ -7011,7 +7094,7 @@
         <v>318</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I13">
         <v>24.99</v>
@@ -7072,7 +7155,7 @@
         <v>309</v>
       </c>
       <c r="H15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I15">
         <v>24.99</v>
@@ -7266,25 +7349,25 @@
         <v>520</v>
       </c>
       <c r="D22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H22" t="s">
         <v>540</v>
       </c>
       <c r="I22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
@@ -7292,7 +7375,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C23" t="s">
         <v>524</v>
@@ -7304,10 +7387,10 @@
         <v>267</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I23">
         <v>29.95</v>
@@ -7507,10 +7590,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C15" t="s">
         <v>556</v>
-      </c>
-      <c r="C15" t="s">
-        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -10730,10 +10813,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11617,8 +11700,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" t="str">
+        <f>CLIMBS!A25</f>
+        <v>Aiguille Dibona</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="str">
+        <f>CLIMBS!B25</f>
+        <v>draft</v>
+      </c>
+      <c r="D25">
+        <f>IF(CLIMBS!R25&lt;&gt;0,1,0)+IF(CLIMBS!G25&lt;&gt;0,1,0)+IF(CLIMBS!H25&lt;&gt;0,1,0)+IF(CLIMBS!I25&lt;&gt;0,1,0)+IF(CLIMBS!J25&lt;&gt;0,1,0)+IF(CLIMBS!N25&lt;&gt;0,1,0)+IF(CLIMBS!M25&lt;&gt;0,1,0)+IF(CLIMBS!O25&lt;&gt;0,1,0)+IF(CLIMBS!P25&lt;&gt;0,1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <f>IF(CLIMBS!S25&lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
+        <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B25,"tile"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B25,"crag"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B25,"topo"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B25,"map"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
+        <v>missing</v>
+      </c>
+      <c r="G25">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B25,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B25,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D24">
+  <conditionalFormatting sqref="D2:D25">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
@@ -11626,7 +11745,7 @@
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C24">
+  <conditionalFormatting sqref="C2:C25">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"draft"</formula>
     </cfRule>
@@ -11636,12 +11755,12 @@
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C24">
+  <conditionalFormatting sqref="C3:C25">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E24">
+  <conditionalFormatting sqref="E2:E25">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -11649,7 +11768,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F24">
+  <conditionalFormatting sqref="F2:F25">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
@@ -11657,7 +11776,7 @@
       <formula>"missing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H24">
+  <conditionalFormatting sqref="G2:H25">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BD8E86-4F5A-45D8-A131-78C3D15BD35D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD97F11-9F02-4C41-B099-BBD7C293B55E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="671">
   <si>
     <t>cliff</t>
   </si>
@@ -1912,14 +1912,196 @@
     <t>44.961162,6.243941</t>
   </si>
   <si>
-    <t xml:space="preserve">The picturesque peak of Aiguille Dibona was re-named (formerly: Pain de Sucre du Soreiller) after Italian mountaineer Angelo Dibona after the first accent in 1913 with Guido Mayer. The route Visite Obligatoire or Obligatory Visit in English wasn’t climbed until 1988. This is a long, sustained route has mixed bolted and traditional protection. The peak finishes at an altitude just over 3,000m. Although the bottom half contains the technically hardest moves, the route doesn’t let up much. Its graded f6a+. Escape is much harder after the 8th pitch. </t>
+    <t>https://www.camptocamp.org/images/304934/fr/aiguille-dibona</t>
+  </si>
+  <si>
+    <t>original: RémiB</t>
+  </si>
+  <si>
+    <t>http://clive.rocks/aiguille-dibona/</t>
+  </si>
+  <si>
+    <t>img: Clive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aiguille Dibona in the Haute-Alps </t>
+  </si>
+  <si>
+    <t>The Obligatory Climb on Aiguille Dibona</t>
+  </si>
+  <si>
+    <t>img/topos/aiguille-dibona/aiguille-debona-visite-obligatoire.jpg</t>
+  </si>
+  <si>
+    <t>img/topos/aiguille-dibona/aiguille-debona.jpg</t>
+  </si>
+  <si>
+    <t>img/tiles/aiguille-debona.jpg</t>
+  </si>
+  <si>
+    <t>The picturesque peak of Aiguille Dibona was re-named (formerly: Pain de Sucre du Soreiller) after Italian mountaineer Angelo Dibona after the first accent in 1913 with Guido Mayer. The route Visite Obligatoire or Obligatory Visit in English wasn’t climbed until 1988. This is a long, sustained route that is reasonably well bolted but will require a trad rack of nuts and cams to supplement. The peak finishes at an altitude just over 3,000m. Although the bottom half contains the technically hardest moves, the route doesn’t let up much. Its graded f6a+ with an alpine grade of TD (très difficile) . Escape is much harder after the 8th pitch so make sure you consider this before pressing on.</t>
+  </si>
+  <si>
+    <t>Approach: Allow a few hours for the approach which can be made from Les Etages. There is mountain hut at the base of the mountain, Ref du Soreiller.
+Decent: This is done via a couple of assails off the back followed by a climbers path off the back of the mountain that weaves around to the front bringing climbers back to the hut.</t>
+  </si>
+  <si>
+    <t>img/maps/aiguille-debona.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aiguille Dibona location in the Haute-Alps </t>
+  </si>
+  <si>
+    <t>https://amzn.to/2QTmPrH</t>
+  </si>
+  <si>
+    <t>img/guidebooks/plaisir-selection.jpg</t>
+  </si>
+  <si>
+    <t>9783906087405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plaisir Selection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to recommend this guidebook but I just can’t. In some ways it’s brilliant, the hand drawn topos are very artistic, the book has 3 languages and it takes the approach of highlighting the best climbs on the cliff, much like the approach we have taken on multi-pitch.com. Sadly, a lot of the photography is poor to terrible. The “action” shots are from the belay to the leader or second, so give little in the way of inspiration and many of the mountain images are blurry silhouettes.  In addition, the images of the mountains are often just a third of the page. In this pocket-sized book, it means a 400m climb could be reduced to the size of your thumbnail. The final issue is the price which seem to be around £40. </t>
+  </si>
+  <si>
+    <t>https://soreiller.com/en/home/</t>
+  </si>
+  <si>
+    <t>Soreiller Refuge - Mountain Hut Info</t>
+  </si>
+  <si>
+    <t>Rock Climbing Europe</t>
+  </si>
+  <si>
+    <t>An old book presumably aimed at American climbers, however its truly brilliant can be picked up cheap. Described as the authoritative guide to the best climbing destinations in Western Europe, including Great Britain, France, Belgium, Spain, Italy, Switzerland, Greece, Germany, and Norway. The route topos are although black and white are accompanied by good route descriptions, equipment recommendations, and accurate route ratings. The book contains a good mixture of Trad and sport across single and multi-pitch climbs. Its basically a thick A4 book thou so not practical to take to the cliff. Highly recommended.</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2BwCB2b</t>
+  </si>
+  <si>
+    <t>img/guidebooks/rock-climbing-europe.jpg</t>
+  </si>
+  <si>
+    <t>9780762727179</t>
+  </si>
+  <si>
+    <t>https://www.needlesports.com/54396/products/portugal--rock-climbs-on-the-western-tip-of-europe.aspx</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2EmsTCn</t>
+  </si>
+  <si>
+    <t>https://www.needlesports.com/33708/products/montserrat-free-climbs.aspx</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2S4G1A6</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2Bp4EjV</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2Ep6xjN</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2BkLsnn</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2SKowVu</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2Emt6Wb</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>47.116966,8.985149</t>
+  </si>
+  <si>
+    <r>
+      <t>Br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ggler</t>
+    </r>
+  </si>
+  <si>
+    <t>Direkte Plattenwand</t>
+  </si>
+  <si>
+    <t>Canton of Glarus</t>
+  </si>
+  <si>
+    <t>f5a</t>
+  </si>
+  <si>
+    <t>switzerland</t>
+  </si>
+  <si>
+    <t>img/topos/bruggler/bruggler-crag-switzerland.jpg</t>
+  </si>
+  <si>
+    <t>Bruggler offers great Rock Climbing</t>
+  </si>
+  <si>
+    <t>https://www.camptocamp.org/waypoints/42475/fr/brueggler</t>
+  </si>
+  <si>
+    <t>img: Camp To Crag</t>
+  </si>
+  <si>
+    <t>img/tiles/bruggler-crag-switzerland.jpg</t>
+  </si>
+  <si>
+    <t>img/maps/bruggler.png</t>
+  </si>
+  <si>
+    <t>Briggler is a great climbing location</t>
+  </si>
+  <si>
+    <t>img/topos/bruggler/bruggler-direct-route-topo.jpg</t>
+  </si>
+  <si>
+    <t>The Direct Route up Bruggler</t>
+  </si>
+  <si>
+    <t>http://blog.buschnick.net/2013/06/climbing-bruggler-hiking-speer-1950m.html</t>
+  </si>
+  <si>
+    <t>Original: Soren</t>
+  </si>
+  <si>
+    <t>Direkte Plattenwand, is one of the easier, more popular routes up the middle of Bruggler crag. The route is bolted but requires a small trad rack to ease some of the run out sections. There are many routes on this face, some can be climbed clean. Although it’s a big face with lots of options, expect some crowds. Be wary of rockfall from other parties of climbers and be careful not to dislodge rocks from the pitted limestone route.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approach: The route is best approached from Stattboden.
+Decent. Carefully move along the summit to the cross  on the left after the final pitch. From there a path can be followed to walk off the cliff. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2075,6 +2257,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="38">
@@ -2449,7 +2637,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2506,6 +2694,7 @@
     <xf numFmtId="1" fontId="20" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2975,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView topLeftCell="G18" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4472,7 +4661,7 @@
         <v>610</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="2">
         <v>24</v>
@@ -4520,9 +4709,80 @@
         <v>41</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>617</v>
+        <v>626</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="U25" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="2">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="G26" s="2">
+        <v>230</v>
+      </c>
+      <c r="H26" s="2">
+        <v>8</v>
+      </c>
+      <c r="I26" s="2">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="O26" s="2">
+        <v>70</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="U26" s="2" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4539,10 +4799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5975,7 +6235,7 @@
         <v>119</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" ref="H61:H90" si="2">CONCATENATE(A61,B61)</f>
+        <f t="shared" ref="H61:H95" si="2">CONCATENATE(A61,B61)</f>
         <v>17tile</v>
       </c>
     </row>
@@ -6673,6 +6933,186 @@
       <c r="H90" t="str">
         <f t="shared" si="2"/>
         <v>23map</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>24</v>
+      </c>
+      <c r="B91" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" t="s">
+        <v>623</v>
+      </c>
+      <c r="D91" t="s">
+        <v>622</v>
+      </c>
+      <c r="E91" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="F91" t="s">
+        <v>618</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="2"/>
+        <v>24topo</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>24</v>
+      </c>
+      <c r="B92" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" t="s">
+        <v>624</v>
+      </c>
+      <c r="D92" t="s">
+        <v>621</v>
+      </c>
+      <c r="E92" t="s">
+        <v>619</v>
+      </c>
+      <c r="F92" t="s">
+        <v>620</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="2"/>
+        <v>24crag</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>24</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="s">
+        <v>625</v>
+      </c>
+      <c r="D93" t="s">
+        <v>621</v>
+      </c>
+      <c r="E93" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="F93" t="s">
+        <v>618</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="2"/>
+        <v>24tile</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>24</v>
+      </c>
+      <c r="B94" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" t="s">
+        <v>628</v>
+      </c>
+      <c r="D94" t="s">
+        <v>629</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F94" t="s">
+        <v>109</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="2"/>
+        <v>24map</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>25</v>
+      </c>
+      <c r="B95" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" t="s">
+        <v>658</v>
+      </c>
+      <c r="D95" t="s">
+        <v>659</v>
+      </c>
+      <c r="E95" t="s">
+        <v>660</v>
+      </c>
+      <c r="F95" t="s">
+        <v>661</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="2"/>
+        <v>25crag</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>25</v>
+      </c>
+      <c r="B96" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" t="s">
+        <v>662</v>
+      </c>
+      <c r="D96" t="s">
+        <v>659</v>
+      </c>
+      <c r="E96" t="s">
+        <v>660</v>
+      </c>
+      <c r="F96" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>25</v>
+      </c>
+      <c r="B97" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97" t="s">
+        <v>663</v>
+      </c>
+      <c r="D97" t="s">
+        <v>664</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F97" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>25</v>
+      </c>
+      <c r="B98" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" t="s">
+        <v>665</v>
+      </c>
+      <c r="D98" t="s">
+        <v>666</v>
+      </c>
+      <c r="E98" t="s">
+        <v>667</v>
+      </c>
+      <c r="F98" t="s">
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -6687,10 +7127,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB58989-DB9B-42B8-8BEA-AD863D94E91D}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7000,6 +7440,9 @@
       <c r="G10" t="s">
         <v>557</v>
       </c>
+      <c r="H10" t="s">
+        <v>642</v>
+      </c>
       <c r="I10">
         <v>34.950000000000003</v>
       </c>
@@ -7125,6 +7568,9 @@
       <c r="G14" t="s">
         <v>387</v>
       </c>
+      <c r="H14" t="s">
+        <v>643</v>
+      </c>
       <c r="I14">
         <v>25</v>
       </c>
@@ -7186,6 +7632,9 @@
       <c r="G16" t="s">
         <v>397</v>
       </c>
+      <c r="H16" t="s">
+        <v>644</v>
+      </c>
       <c r="I16">
         <v>34</v>
       </c>
@@ -7215,6 +7664,9 @@
       <c r="G17" t="s">
         <v>412</v>
       </c>
+      <c r="H17" t="s">
+        <v>645</v>
+      </c>
       <c r="I17">
         <v>34.99</v>
       </c>
@@ -7244,6 +7696,9 @@
       <c r="G18" t="s">
         <v>462</v>
       </c>
+      <c r="H18" t="s">
+        <v>646</v>
+      </c>
       <c r="I18">
         <v>25</v>
       </c>
@@ -7273,6 +7728,9 @@
       <c r="G19" t="s">
         <v>466</v>
       </c>
+      <c r="H19" t="s">
+        <v>647</v>
+      </c>
       <c r="I19">
         <v>20</v>
       </c>
@@ -7302,6 +7760,9 @@
       <c r="G20" t="s">
         <v>514</v>
       </c>
+      <c r="H20" t="s">
+        <v>648</v>
+      </c>
       <c r="I20">
         <v>34.99</v>
       </c>
@@ -7331,6 +7792,9 @@
       <c r="G21" t="s">
         <v>515</v>
       </c>
+      <c r="H21" t="s">
+        <v>649</v>
+      </c>
       <c r="I21">
         <v>19.95</v>
       </c>
@@ -7392,6 +7856,9 @@
       <c r="G23" t="s">
         <v>579</v>
       </c>
+      <c r="H23" t="s">
+        <v>650</v>
+      </c>
       <c r="I23">
         <v>29.95</v>
       </c>
@@ -7400,7 +7867,100 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
+      <c r="A24" s="4">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="C24" t="s">
+        <v>633</v>
+      </c>
+      <c r="D24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E24">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>634</v>
+      </c>
+      <c r="G24" t="s">
+        <v>631</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="I24">
+        <v>38</v>
+      </c>
+      <c r="J24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="C25" t="s">
+        <v>637</v>
+      </c>
+      <c r="D25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E25">
+        <v>410</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="G25" t="s">
+        <v>640</v>
+      </c>
+      <c r="H25" t="s">
+        <v>639</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="C26" t="s">
+        <v>633</v>
+      </c>
+      <c r="D26" t="s">
+        <v>270</v>
+      </c>
+      <c r="E26">
+        <v>300</v>
+      </c>
+      <c r="F26" t="s">
+        <v>634</v>
+      </c>
+      <c r="G26" t="s">
+        <v>631</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="I26">
+        <v>38</v>
+      </c>
+      <c r="J26">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7415,10 +7975,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091284CD-7BE4-40C5-8B13-8EF65FF7D256}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7594,6 +8154,17 @@
       </c>
       <c r="C15" t="s">
         <v>556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>635</v>
+      </c>
+      <c r="C16" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -7948,8 +8519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745174B4-A8CA-45B8-ACCB-9B5B609F0D5D}">
   <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G56" sqref="A1:N61"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10740,42 +11311,426 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A62" s="15">
+        <v>24</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C62" s="15">
+        <v>6</v>
+      </c>
+      <c r="D62" s="15">
+        <v>5</v>
+      </c>
+      <c r="E62" s="15">
+        <v>5</v>
+      </c>
+      <c r="F62" s="15">
+        <v>7</v>
+      </c>
+      <c r="G62" s="15">
+        <v>5</v>
+      </c>
+      <c r="H62" s="15">
+        <v>4</v>
+      </c>
+      <c r="I62" s="15">
+        <v>2</v>
+      </c>
+      <c r="J62" s="15">
+        <v>2</v>
+      </c>
+      <c r="K62" s="15">
+        <v>4</v>
+      </c>
+      <c r="L62" s="15">
+        <v>7</v>
+      </c>
+      <c r="M62" s="15">
+        <v>6</v>
+      </c>
+      <c r="N62" s="15">
+        <v>6</v>
+      </c>
       <c r="U62" s="8"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A63" s="14">
+        <v>24</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C63" s="14">
+        <v>1</v>
+      </c>
+      <c r="D63" s="14">
+        <v>2</v>
+      </c>
+      <c r="E63" s="14">
+        <v>7</v>
+      </c>
+      <c r="F63" s="14">
+        <v>9</v>
+      </c>
+      <c r="G63" s="14">
+        <v>14</v>
+      </c>
+      <c r="H63" s="14">
+        <v>18</v>
+      </c>
+      <c r="I63" s="14">
+        <v>21</v>
+      </c>
+      <c r="J63" s="14">
+        <v>21</v>
+      </c>
+      <c r="K63" s="14">
+        <v>16</v>
+      </c>
+      <c r="L63" s="14">
+        <v>11</v>
+      </c>
+      <c r="M63" s="14">
+        <v>5</v>
+      </c>
+      <c r="N63" s="14">
+        <v>1</v>
+      </c>
       <c r="U63" s="8"/>
     </row>
-    <row r="65" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A64" s="16">
+        <v>24</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C64" s="16">
+        <v>-9</v>
+      </c>
+      <c r="D64" s="16">
+        <v>-8</v>
+      </c>
+      <c r="E64" s="16">
+        <v>-5</v>
+      </c>
+      <c r="F64" s="16">
+        <v>-3</v>
+      </c>
+      <c r="G64" s="16">
+        <v>1</v>
+      </c>
+      <c r="H64" s="16">
+        <v>4</v>
+      </c>
+      <c r="I64" s="16">
+        <v>7</v>
+      </c>
+      <c r="J64" s="16">
+        <v>7</v>
+      </c>
+      <c r="K64" s="16">
+        <v>3</v>
+      </c>
+      <c r="L64" s="16">
+        <v>0</v>
+      </c>
+      <c r="M64" s="16">
+        <v>-5</v>
+      </c>
+      <c r="N64" s="16">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A65" s="15">
+        <v>23</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C65" s="15">
+        <v>5</v>
+      </c>
+      <c r="D65" s="15">
+        <v>6</v>
+      </c>
+      <c r="E65" s="15">
+        <v>5</v>
+      </c>
+      <c r="F65" s="15">
+        <v>5</v>
+      </c>
+      <c r="G65" s="15">
+        <v>5</v>
+      </c>
+      <c r="H65" s="15">
+        <v>3</v>
+      </c>
+      <c r="I65" s="15">
+        <v>2</v>
+      </c>
+      <c r="J65" s="15">
+        <v>2</v>
+      </c>
+      <c r="K65" s="15">
+        <v>2</v>
+      </c>
+      <c r="L65" s="15">
+        <v>5</v>
+      </c>
+      <c r="M65" s="15">
+        <v>6</v>
+      </c>
+      <c r="N65" s="15">
+        <v>6</v>
+      </c>
       <c r="U65" s="8"/>
     </row>
-    <row r="66" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A66" s="14">
+        <v>23</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C66" s="14">
+        <v>12</v>
+      </c>
+      <c r="D66" s="14">
+        <v>13</v>
+      </c>
+      <c r="E66" s="14">
+        <v>15</v>
+      </c>
+      <c r="F66" s="14">
+        <v>19</v>
+      </c>
+      <c r="G66" s="14">
+        <v>25</v>
+      </c>
+      <c r="H66" s="14">
+        <v>29</v>
+      </c>
+      <c r="I66" s="14">
+        <v>32</v>
+      </c>
+      <c r="J66" s="14">
+        <v>32</v>
+      </c>
+      <c r="K66" s="14">
+        <v>27</v>
+      </c>
+      <c r="L66" s="14">
+        <v>22</v>
+      </c>
+      <c r="M66" s="14">
+        <v>17</v>
+      </c>
+      <c r="N66" s="14">
+        <v>13</v>
+      </c>
       <c r="U66" s="8"/>
     </row>
-    <row r="68" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A67" s="16">
+        <v>23</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C67" s="16">
+        <v>4</v>
+      </c>
+      <c r="D67" s="16">
+        <v>4</v>
+      </c>
+      <c r="E67" s="16">
+        <v>6</v>
+      </c>
+      <c r="F67" s="16">
+        <v>9</v>
+      </c>
+      <c r="G67" s="16">
+        <v>14</v>
+      </c>
+      <c r="H67" s="16">
+        <v>19</v>
+      </c>
+      <c r="I67" s="16">
+        <v>22</v>
+      </c>
+      <c r="J67" s="16">
+        <v>22</v>
+      </c>
+      <c r="K67" s="16">
+        <v>18</v>
+      </c>
+      <c r="L67" s="16">
+        <v>14</v>
+      </c>
+      <c r="M67" s="16">
+        <v>9</v>
+      </c>
+      <c r="N67" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A68" s="15">
+        <v>22</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C68" s="15">
+        <v>4</v>
+      </c>
+      <c r="D68" s="15">
+        <v>3</v>
+      </c>
+      <c r="E68" s="15">
+        <v>4</v>
+      </c>
+      <c r="F68" s="15">
+        <v>4</v>
+      </c>
+      <c r="G68" s="15">
+        <v>4</v>
+      </c>
+      <c r="H68" s="15">
+        <v>2</v>
+      </c>
+      <c r="I68" s="15">
+        <v>1</v>
+      </c>
+      <c r="J68" s="15">
+        <v>1</v>
+      </c>
+      <c r="K68" s="15">
+        <v>3</v>
+      </c>
+      <c r="L68" s="15">
+        <v>4</v>
+      </c>
+      <c r="M68" s="15">
+        <v>4</v>
+      </c>
+      <c r="N68" s="15">
+        <v>4</v>
+      </c>
       <c r="U68" s="8"/>
     </row>
-    <row r="69" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A69" s="14">
+        <v>22</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C69" s="14">
+        <v>15</v>
+      </c>
+      <c r="D69" s="14">
+        <v>16</v>
+      </c>
+      <c r="E69" s="14">
+        <v>18</v>
+      </c>
+      <c r="F69" s="14">
+        <v>19</v>
+      </c>
+      <c r="G69" s="14">
+        <v>23</v>
+      </c>
+      <c r="H69" s="14">
+        <v>27</v>
+      </c>
+      <c r="I69" s="14">
+        <v>29</v>
+      </c>
+      <c r="J69" s="14">
+        <v>29</v>
+      </c>
+      <c r="K69" s="14">
+        <v>27</v>
+      </c>
+      <c r="L69" s="14">
+        <v>24</v>
+      </c>
+      <c r="M69" s="14">
+        <v>18</v>
+      </c>
+      <c r="N69" s="14">
+        <v>16</v>
+      </c>
       <c r="U69" s="8"/>
     </row>
-    <row r="71" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A70" s="16">
+        <v>22</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C70" s="16">
+        <v>6</v>
+      </c>
+      <c r="D70" s="16">
+        <v>6</v>
+      </c>
+      <c r="E70" s="16">
+        <v>8</v>
+      </c>
+      <c r="F70" s="16">
+        <v>10</v>
+      </c>
+      <c r="G70" s="16">
+        <v>13</v>
+      </c>
+      <c r="H70" s="16">
+        <v>17</v>
+      </c>
+      <c r="I70" s="16">
+        <v>20</v>
+      </c>
+      <c r="J70" s="16">
+        <v>21</v>
+      </c>
+      <c r="K70" s="16">
+        <v>18</v>
+      </c>
+      <c r="L70" s="16">
+        <v>14</v>
+      </c>
+      <c r="M70" s="16">
+        <v>9</v>
+      </c>
+      <c r="N70" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U71" s="8"/>
     </row>
-    <row r="72" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U72" s="8"/>
     </row>
-    <row r="74" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U74" s="8"/>
     </row>
-    <row r="75" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U75" s="8"/>
     </row>
-    <row r="77" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U77" s="8"/>
     </row>
-    <row r="78" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U78" s="8"/>
     </row>
-    <row r="80" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U80" s="8"/>
     </row>
     <row r="81" spans="21:21" x14ac:dyDescent="0.45">
@@ -10815,8 +11770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11661,7 +12616,7 @@
       </c>
       <c r="H23">
         <f>_xlfn.IFNA(IF(VLOOKUP(B23,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -11693,11 +12648,11 @@
       </c>
       <c r="G24">
         <f>_xlfn.IFNA(IF(VLOOKUP(B24,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <f>_xlfn.IFNA(IF(VLOOKUP(B24,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -11710,7 +12665,7 @@
       </c>
       <c r="C25" t="str">
         <f>CLIMBS!B25</f>
-        <v>draft</v>
+        <v>publish</v>
       </c>
       <c r="D25">
         <f>IF(CLIMBS!R25&lt;&gt;0,1,0)+IF(CLIMBS!G25&lt;&gt;0,1,0)+IF(CLIMBS!H25&lt;&gt;0,1,0)+IF(CLIMBS!I25&lt;&gt;0,1,0)+IF(CLIMBS!J25&lt;&gt;0,1,0)+IF(CLIMBS!N25&lt;&gt;0,1,0)+IF(CLIMBS!M25&lt;&gt;0,1,0)+IF(CLIMBS!O25&lt;&gt;0,1,0)+IF(CLIMBS!P25&lt;&gt;0,1,0)</f>
@@ -11718,22 +12673,22 @@
       </c>
       <c r="E25">
         <f>IF(CLIMBS!S25&lt;&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" t="str">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B25,"tile"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B25,"crag"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B25,"topo"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B25,"map"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>missing</v>
+        <v>4</v>
       </c>
       <c r="G25">
         <f>_xlfn.IFNA(IF(VLOOKUP(B25,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <f>_xlfn.IFNA(IF(VLOOKUP(B25,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD97F11-9F02-4C41-B099-BBD7C293B55E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547B907B-0F39-45F3-A68E-5FCF40B10090}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="674">
   <si>
     <t>cliff</t>
   </si>
@@ -2095,6 +2095,15 @@
   <si>
     <t xml:space="preserve">Approach: The route is best approached from Stattboden.
 Decent. Carefully move along the summit to the cross  on the left after the final pitch. From there a path can be followed to walk off the cliff. </t>
+  </si>
+  <si>
+    <t>Vajolet towers</t>
+  </si>
+  <si>
+    <t>46.460408,11.624514</t>
+  </si>
+  <si>
+    <t>South Tyrol</t>
   </si>
 </sst>
 </file>
@@ -3164,32 +3173,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="G18" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.53125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.86328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.46484375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.86328125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="9.46484375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.53125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.1328125" style="2" customWidth="1"/>
-    <col min="17" max="20" width="15.33203125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="4.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="9.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="2" customWidth="1"/>
+    <col min="17" max="20" width="15.28515625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3254,7 +3263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -3313,7 +3322,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -3375,7 +3384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -3437,7 +3446,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
@@ -3493,7 +3502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
@@ -3555,7 +3564,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>75</v>
       </c>
@@ -3617,7 +3626,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
@@ -3673,7 +3682,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>93</v>
       </c>
@@ -3735,7 +3744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>96</v>
       </c>
@@ -3797,7 +3806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>100</v>
       </c>
@@ -3856,7 +3865,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>195</v>
       </c>
@@ -3918,7 +3927,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>216</v>
       </c>
@@ -3980,7 +3989,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>232</v>
       </c>
@@ -4039,7 +4048,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>250</v>
       </c>
@@ -4101,7 +4110,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>283</v>
       </c>
@@ -4166,7 +4175,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>354</v>
       </c>
@@ -4228,7 +4237,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>402</v>
       </c>
@@ -4290,7 +4299,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>440</v>
       </c>
@@ -4346,7 +4355,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>473</v>
       </c>
@@ -4408,7 +4417,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>478</v>
       </c>
@@ -4467,7 +4476,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>520</v>
       </c>
@@ -4529,7 +4538,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>521</v>
       </c>
@@ -4591,7 +4600,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>589</v>
       </c>
@@ -4656,7 +4665,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>610</v>
       </c>
@@ -4721,7 +4730,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>653</v>
       </c>
@@ -4786,7 +4795,27 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="2">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>673</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>570</v>
       </c>
@@ -4805,17 +4834,17 @@
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.46484375" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
@@ -4838,7 +4867,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4862,7 +4891,7 @@
         <v>1crag</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4886,7 +4915,7 @@
         <v>1topo</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4910,7 +4939,7 @@
         <v>1map</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4934,7 +4963,7 @@
         <v>2crag</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4958,7 +4987,7 @@
         <v>2topo</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4982,7 +5011,7 @@
         <v>2map</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5006,7 +5035,7 @@
         <v>3crag</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -5030,7 +5059,7 @@
         <v>3topo</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5054,7 +5083,7 @@
         <v>3map</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -5078,7 +5107,7 @@
         <v>5crag</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -5102,7 +5131,7 @@
         <v>5topo</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -5126,7 +5155,7 @@
         <v>5map</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -5150,7 +5179,7 @@
         <v>6crag</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -5174,7 +5203,7 @@
         <v>6topo</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -5198,7 +5227,7 @@
         <v>6map</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -5222,7 +5251,7 @@
         <v>7crag</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
@@ -5246,7 +5275,7 @@
         <v>7topo</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -5270,7 +5299,7 @@
         <v>7map</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -5294,7 +5323,7 @@
         <v>8crag</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
@@ -5318,7 +5347,7 @@
         <v>8topo</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -5342,7 +5371,7 @@
         <v>8map</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
@@ -5366,7 +5395,7 @@
         <v>10crag</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -5390,7 +5419,7 @@
         <v>10topo</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10</v>
       </c>
@@ -5414,7 +5443,7 @@
         <v>10map</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -5435,7 +5464,7 @@
         <v>2tile</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -5453,7 +5482,7 @@
         <v>1tile</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -5471,7 +5500,7 @@
         <v>3tile</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5489,7 +5518,7 @@
         <v>4tile</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -5510,7 +5539,7 @@
         <v>5tile</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -5528,7 +5557,7 @@
         <v>6tile</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -5552,7 +5581,7 @@
         <v>7tile</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -5573,7 +5602,7 @@
         <v>8tile</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -5597,7 +5626,7 @@
         <v>9tile</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10</v>
       </c>
@@ -5615,7 +5644,7 @@
         <v>10tile</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11</v>
       </c>
@@ -5639,7 +5668,7 @@
         <v>11crag</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11</v>
       </c>
@@ -5663,7 +5692,7 @@
         <v>11topo</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
@@ -5687,7 +5716,7 @@
         <v>11map</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11</v>
       </c>
@@ -5711,7 +5740,7 @@
         <v>11tile</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>12</v>
       </c>
@@ -5735,7 +5764,7 @@
         <v>12crag</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12</v>
       </c>
@@ -5759,7 +5788,7 @@
         <v>12topo</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12</v>
       </c>
@@ -5783,7 +5812,7 @@
         <v>12tile</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>13</v>
       </c>
@@ -5807,7 +5836,7 @@
         <v>13tile</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>13</v>
       </c>
@@ -5831,7 +5860,7 @@
         <v>13crag</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>13</v>
       </c>
@@ -5855,7 +5884,7 @@
         <v>13topo</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>14</v>
       </c>
@@ -5879,7 +5908,7 @@
         <v>14crag</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>14</v>
       </c>
@@ -5903,7 +5932,7 @@
         <v>14topo</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>14</v>
       </c>
@@ -5927,7 +5956,7 @@
         <v>14tile</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>15</v>
       </c>
@@ -5951,7 +5980,7 @@
         <v>15topo</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>15</v>
       </c>
@@ -5975,7 +6004,7 @@
         <v>15tile</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -5999,7 +6028,7 @@
         <v>15crag</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15</v>
       </c>
@@ -6023,7 +6052,7 @@
         <v>15map</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>16</v>
       </c>
@@ -6047,7 +6076,7 @@
         <v>16crag</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>16</v>
       </c>
@@ -6071,7 +6100,7 @@
         <v>16topo</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>16</v>
       </c>
@@ -6095,7 +6124,7 @@
         <v>16tile</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>14</v>
       </c>
@@ -6119,7 +6148,7 @@
         <v>14map</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>16</v>
       </c>
@@ -6143,7 +6172,7 @@
         <v>16map</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>12</v>
       </c>
@@ -6167,7 +6196,7 @@
         <v>12map</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>17</v>
       </c>
@@ -6191,7 +6220,7 @@
         <v>17topo</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>17</v>
       </c>
@@ -6215,7 +6244,7 @@
         <v>17crag</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>17</v>
       </c>
@@ -6239,7 +6268,7 @@
         <v>17tile</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>17</v>
       </c>
@@ -6263,7 +6292,7 @@
         <v>17map</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>13</v>
       </c>
@@ -6287,7 +6316,7 @@
         <v>13map</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>18</v>
       </c>
@@ -6311,7 +6340,7 @@
         <v>18topo</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>18</v>
       </c>
@@ -6335,7 +6364,7 @@
         <v>18crag</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>18</v>
       </c>
@@ -6359,7 +6388,7 @@
         <v>18tile</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>18</v>
       </c>
@@ -6383,7 +6412,7 @@
         <v>18map</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>20</v>
       </c>
@@ -6407,7 +6436,7 @@
         <v>20crag</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>20</v>
       </c>
@@ -6431,7 +6460,7 @@
         <v>20tile</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20</v>
       </c>
@@ -6455,7 +6484,7 @@
         <v>20topo</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>20</v>
       </c>
@@ -6479,7 +6508,7 @@
         <v>20map</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>19</v>
       </c>
@@ -6503,7 +6532,7 @@
         <v>19crag</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>19</v>
       </c>
@@ -6527,7 +6556,7 @@
         <v>19tile</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>19</v>
       </c>
@@ -6551,7 +6580,7 @@
         <v>19topo</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>19</v>
       </c>
@@ -6575,7 +6604,7 @@
         <v>19map</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>21</v>
       </c>
@@ -6599,7 +6628,7 @@
         <v>21crag</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>21</v>
       </c>
@@ -6623,7 +6652,7 @@
         <v>21tile</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>21</v>
       </c>
@@ -6647,7 +6676,7 @@
         <v>21topo</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>21</v>
       </c>
@@ -6671,7 +6700,7 @@
         <v>21map</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>9</v>
       </c>
@@ -6695,7 +6724,7 @@
         <v>9topo</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>9</v>
       </c>
@@ -6719,7 +6748,7 @@
         <v>9crag</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>9</v>
       </c>
@@ -6743,7 +6772,7 @@
         <v>9map</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>22</v>
       </c>
@@ -6767,7 +6796,7 @@
         <v>22crag</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>22</v>
       </c>
@@ -6791,7 +6820,7 @@
         <v>22tile</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>22</v>
       </c>
@@ -6815,7 +6844,7 @@
         <v>22topo</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>22</v>
       </c>
@@ -6839,7 +6868,7 @@
         <v>22map</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>23</v>
       </c>
@@ -6863,7 +6892,7 @@
         <v>23crag</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>23</v>
       </c>
@@ -6887,7 +6916,7 @@
         <v>23tile</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>23</v>
       </c>
@@ -6911,7 +6940,7 @@
         <v>23topo</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>23</v>
       </c>
@@ -6935,7 +6964,7 @@
         <v>23map</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>24</v>
       </c>
@@ -6959,7 +6988,7 @@
         <v>24topo</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>24</v>
       </c>
@@ -6983,7 +7012,7 @@
         <v>24crag</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>24</v>
       </c>
@@ -7007,7 +7036,7 @@
         <v>24tile</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>24</v>
       </c>
@@ -7031,7 +7060,7 @@
         <v>24map</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>25</v>
       </c>
@@ -7055,7 +7084,7 @@
         <v>25crag</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>25</v>
       </c>
@@ -7075,7 +7104,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>25</v>
       </c>
@@ -7095,7 +7124,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>25</v>
       </c>
@@ -7129,23 +7158,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB58989-DB9B-42B8-8BEA-AD863D94E91D}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.1328125" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="8" width="7.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -7177,7 +7206,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -7209,7 +7238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -7241,7 +7270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -7273,7 +7302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -7290,7 +7319,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -7322,7 +7351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -7354,7 +7383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -7386,7 +7415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -7418,7 +7447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -7450,7 +7479,7 @@
         <v>34.950000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -7482,7 +7511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>13</v>
       </c>
@@ -7514,7 +7543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>16</v>
       </c>
@@ -7546,7 +7575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -7578,7 +7607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -7610,7 +7639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -7642,7 +7671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -7674,7 +7703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>18</v>
       </c>
@@ -7706,7 +7735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -7738,7 +7767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -7770,7 +7799,7 @@
         <v>34.99</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -7802,7 +7831,7 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -7834,7 +7863,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -7866,7 +7895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>24</v>
       </c>
@@ -7898,7 +7927,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -7930,7 +7959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -7981,14 +8010,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.53125" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -8002,7 +8031,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -8013,7 +8042,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8024,7 +8053,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -8035,7 +8064,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -8046,7 +8075,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>17</v>
       </c>
@@ -8057,7 +8086,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -8068,7 +8097,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -8079,7 +8108,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
@@ -8090,7 +8119,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -8101,7 +8130,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19</v>
       </c>
@@ -8112,7 +8141,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
@@ -8123,7 +8152,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20</v>
       </c>
@@ -8134,7 +8163,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21</v>
       </c>
@@ -8145,7 +8174,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -8156,7 +8185,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24</v>
       </c>
@@ -8180,17 +8209,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.1328125" customWidth="1"/>
-    <col min="3" max="3" width="15.46484375" customWidth="1"/>
-    <col min="4" max="4" width="15.1328125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="53.46484375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8216,7 +8245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -8239,7 +8268,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -8257,7 +8286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -8275,7 +8304,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -8291,7 +8320,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -8307,7 +8336,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -8323,7 +8352,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -8339,7 +8368,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -8355,7 +8384,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -8371,7 +8400,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -8387,7 +8416,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -8405,7 +8434,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -8423,7 +8452,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -8439,7 +8468,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -8457,7 +8486,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -8475,7 +8504,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -8501,7 +8530,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>21</v>
       </c>
@@ -8523,9 +8552,9 @@
       <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -8569,7 +8598,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>2</v>
       </c>
@@ -8613,7 +8642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -8658,7 +8687,7 @@
       </c>
       <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -8702,7 +8731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -8746,7 +8775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -8790,7 +8819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -8835,7 +8864,7 @@
       </c>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>16</v>
       </c>
@@ -8879,7 +8908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>16</v>
       </c>
@@ -8924,7 +8953,7 @@
       </c>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>16</v>
       </c>
@@ -8969,7 +8998,7 @@
       </c>
       <c r="S10" s="8"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>11</v>
       </c>
@@ -9013,7 +9042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -9058,7 +9087,7 @@
       </c>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -9104,7 +9133,7 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>1</v>
       </c>
@@ -9148,7 +9177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>1</v>
       </c>
@@ -9194,7 +9223,7 @@
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>1</v>
       </c>
@@ -9240,7 +9269,7 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>5</v>
       </c>
@@ -9284,7 +9313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>5</v>
       </c>
@@ -9330,7 +9359,7 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>5</v>
       </c>
@@ -9376,7 +9405,7 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>13</v>
       </c>
@@ -9420,7 +9449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>13</v>
       </c>
@@ -9466,7 +9495,7 @@
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>13</v>
       </c>
@@ -9512,7 +9541,7 @@
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -9556,7 +9585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>14</v>
       </c>
@@ -9602,7 +9631,7 @@
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>14</v>
       </c>
@@ -9648,7 +9677,7 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>7</v>
       </c>
@@ -9692,7 +9721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>7</v>
       </c>
@@ -9738,7 +9767,7 @@
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>7</v>
       </c>
@@ -9784,7 +9813,7 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>12</v>
       </c>
@@ -9828,7 +9857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>12</v>
       </c>
@@ -9874,7 +9903,7 @@
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>12</v>
       </c>
@@ -9920,7 +9949,7 @@
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>17</v>
       </c>
@@ -9964,7 +9993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>17</v>
       </c>
@@ -10010,7 +10039,7 @@
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>17</v>
       </c>
@@ -10056,7 +10085,7 @@
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>6</v>
       </c>
@@ -10100,7 +10129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>6</v>
       </c>
@@ -10146,7 +10175,7 @@
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>6</v>
       </c>
@@ -10192,7 +10221,7 @@
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>8</v>
       </c>
@@ -10236,7 +10265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>8</v>
       </c>
@@ -10282,7 +10311,7 @@
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>8</v>
       </c>
@@ -10328,7 +10357,7 @@
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>10</v>
       </c>
@@ -10372,7 +10401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>10</v>
       </c>
@@ -10417,7 +10446,7 @@
       </c>
       <c r="R42" s="8"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>10</v>
       </c>
@@ -10462,7 +10491,7 @@
       </c>
       <c r="R43" s="8"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>18</v>
       </c>
@@ -10506,7 +10535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>18</v>
       </c>
@@ -10551,7 +10580,7 @@
       </c>
       <c r="R45" s="8"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>18</v>
       </c>
@@ -10600,7 +10629,7 @@
       <c r="U46" s="17"/>
       <c r="V46" s="17"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>15</v>
       </c>
@@ -10648,7 +10677,7 @@
       <c r="U47" s="17"/>
       <c r="V47" s="17"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>15</v>
       </c>
@@ -10696,7 +10725,7 @@
       <c r="U48" s="17"/>
       <c r="V48" s="17"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>15</v>
       </c>
@@ -10744,7 +10773,7 @@
       <c r="U49" s="17"/>
       <c r="V49" s="17"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>19</v>
       </c>
@@ -10792,7 +10821,7 @@
       <c r="U50" s="17"/>
       <c r="V50" s="17"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>19</v>
       </c>
@@ -10840,7 +10869,7 @@
       <c r="U51" s="17"/>
       <c r="V51" s="17"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>19</v>
       </c>
@@ -10888,7 +10917,7 @@
       <c r="U52" s="17"/>
       <c r="V52" s="17"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>20</v>
       </c>
@@ -10936,7 +10965,7 @@
       <c r="U53" s="17"/>
       <c r="V53" s="17"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>20</v>
       </c>
@@ -10985,7 +11014,7 @@
       <c r="U54" s="17"/>
       <c r="V54" s="17"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>20</v>
       </c>
@@ -11034,7 +11063,7 @@
       <c r="U55" s="17"/>
       <c r="V55" s="17"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>21</v>
       </c>
@@ -11083,7 +11112,7 @@
       <c r="U56" s="17"/>
       <c r="V56" s="17"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>21</v>
       </c>
@@ -11132,7 +11161,7 @@
       <c r="U57" s="8"/>
       <c r="V57" s="17"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>21</v>
       </c>
@@ -11176,7 +11205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>9</v>
       </c>
@@ -11221,7 +11250,7 @@
       </c>
       <c r="U59" s="8"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>9</v>
       </c>
@@ -11266,7 +11295,7 @@
       </c>
       <c r="U60" s="8"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>9</v>
       </c>
@@ -11310,7 +11339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>24</v>
       </c>
@@ -11355,7 +11384,7 @@
       </c>
       <c r="U62" s="8"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>24</v>
       </c>
@@ -11400,7 +11429,7 @@
       </c>
       <c r="U63" s="8"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <v>24</v>
       </c>
@@ -11444,7 +11473,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>23</v>
       </c>
@@ -11489,7 +11518,7 @@
       </c>
       <c r="U65" s="8"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>23</v>
       </c>
@@ -11534,7 +11563,7 @@
       </c>
       <c r="U66" s="8"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>23</v>
       </c>
@@ -11578,7 +11607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>22</v>
       </c>
@@ -11623,7 +11652,7 @@
       </c>
       <c r="U68" s="8"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>22</v>
       </c>
@@ -11668,7 +11697,7 @@
       </c>
       <c r="U69" s="8"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>22</v>
       </c>
@@ -11712,52 +11741,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U71" s="8"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U72" s="8"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U74" s="8"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U75" s="8"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U77" s="8"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U78" s="8"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U80" s="8"/>
     </row>
-    <row r="81" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="81" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U81" s="8"/>
     </row>
-    <row r="83" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="83" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U83" s="8"/>
     </row>
-    <row r="84" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="84" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U84" s="8"/>
     </row>
-    <row r="86" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="86" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U86" s="8"/>
     </row>
-    <row r="87" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="87" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U87" s="8"/>
     </row>
-    <row r="89" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="89" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U89" s="8"/>
     </row>
-    <row r="90" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="90" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U90" s="8"/>
     </row>
-    <row r="92" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="92" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U92" s="8"/>
     </row>
-    <row r="93" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="93" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U93" s="8"/>
     </row>
   </sheetData>
@@ -11768,23 +11797,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.53125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.53125" customWidth="1"/>
-    <col min="8" max="8" width="10.1328125" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>376</v>
       </c>
@@ -11810,7 +11839,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CLIMBS!A2</f>
         <v>Old Man of Stoer</v>
@@ -11847,7 +11876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CLIMBS!A3</f>
         <v>Bosigran</v>
@@ -11884,7 +11913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CLIMBS!A4</f>
         <v>Clogwyn Du'r Arddu</v>
@@ -11921,7 +11950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CLIMBS!A5</f>
         <v>Vratsa</v>
@@ -11958,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CLIMBS!A6</f>
         <v>Tormore Group</v>
@@ -11995,7 +12024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CLIMBS!A7</f>
         <v>Sass Pordoi</v>
@@ -12032,7 +12061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CLIMBS!A8</f>
         <v>Cwm Idwal</v>
@@ -12069,7 +12098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CLIMBS!A9</f>
         <v>Lundy</v>
@@ -12106,7 +12135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CLIMBS!A10</f>
         <v>Meadinha</v>
@@ -12143,7 +12172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CLIMBS!A11</f>
         <v>Cornakey Cliff</v>
@@ -12180,7 +12209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CLIMBS!A12</f>
         <v>Cir Mhor</v>
@@ -12217,7 +12246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CLIMBS!A13</f>
         <v>Roca Gris</v>
@@ -12254,7 +12283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CLIMBS!A14</f>
         <v>Sail Rock</v>
@@ -12291,7 +12320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CLIMBS!A15</f>
         <v>Chair Ladder</v>
@@ -12328,7 +12357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CLIMBS!A16</f>
         <v>The Devils Tower</v>
@@ -12365,7 +12394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CLIMBS!A17</f>
         <v>Lliwedd</v>
@@ -12402,7 +12431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CLIMBS!A18</f>
         <v>Stetind</v>
@@ -12439,7 +12468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CLIMBS!A19</f>
         <v>Scafell</v>
@@ -12475,7 +12504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CLIMBS!A20</f>
         <v>Mount Indefatigable</v>
@@ -12511,7 +12540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CLIMBS!A21</f>
         <v>Slieve Beg</v>
@@ -12547,7 +12576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CLIMBS!A22</f>
         <v>Lion Rock</v>
@@ -12583,7 +12612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CLIMBS!A23</f>
         <v>Peñón de Ifach</v>
@@ -12619,7 +12648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CLIMBS!A24</f>
         <v>Heiliger Geist</v>
@@ -12655,7 +12684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>CLIMBS!A25</f>
         <v>Aiguille Dibona</v>
@@ -12691,8 +12720,80 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>CLIMBS!A26</f>
+        <v>Brüggler</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="str">
+        <f>CLIMBS!B26</f>
+        <v>publish</v>
+      </c>
+      <c r="D26">
+        <f>IF(CLIMBS!R26&lt;&gt;0,1,0)+IF(CLIMBS!G26&lt;&gt;0,1,0)+IF(CLIMBS!H26&lt;&gt;0,1,0)+IF(CLIMBS!I26&lt;&gt;0,1,0)+IF(CLIMBS!J26&lt;&gt;0,1,0)+IF(CLIMBS!N26&lt;&gt;0,1,0)+IF(CLIMBS!M26&lt;&gt;0,1,0)+IF(CLIMBS!O26&lt;&gt;0,1,0)+IF(CLIMBS!P26&lt;&gt;0,1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <f>IF(CLIMBS!S26&lt;&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F26" t="str">
+        <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B26,"tile"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B26,"crag"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B26,"topo"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B26,"map"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
+        <v>missing</v>
+      </c>
+      <c r="G26">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B26,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B26,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>CLIMBS!A27</f>
+        <v>Vajolet towers</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="str">
+        <f>CLIMBS!B27</f>
+        <v>draft</v>
+      </c>
+      <c r="D27">
+        <f>IF(CLIMBS!R27&lt;&gt;0,1,0)+IF(CLIMBS!G27&lt;&gt;0,1,0)+IF(CLIMBS!H27&lt;&gt;0,1,0)+IF(CLIMBS!I27&lt;&gt;0,1,0)+IF(CLIMBS!J27&lt;&gt;0,1,0)+IF(CLIMBS!N27&lt;&gt;0,1,0)+IF(CLIMBS!M27&lt;&gt;0,1,0)+IF(CLIMBS!O27&lt;&gt;0,1,0)+IF(CLIMBS!P27&lt;&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f>IF(CLIMBS!S27&lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" t="str">
+        <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B27,"tile"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B27,"crag"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B27,"topo"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B27,"map"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
+        <v>missing</v>
+      </c>
+      <c r="G27">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B27,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B27,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D25">
+  <conditionalFormatting sqref="D2:D27">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
@@ -12700,7 +12801,7 @@
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C25">
+  <conditionalFormatting sqref="C2:C27">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"draft"</formula>
     </cfRule>
@@ -12710,12 +12811,12 @@
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C25">
+  <conditionalFormatting sqref="C3:C27">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E25">
+  <conditionalFormatting sqref="E2:E27">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -12723,7 +12824,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F25">
+  <conditionalFormatting sqref="F2:F27">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
@@ -12731,7 +12832,7 @@
       <formula>"missing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H25">
+  <conditionalFormatting sqref="G2:H27">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547B907B-0F39-45F3-A68E-5FCF40B10090}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F715009-64F9-47DB-9349-6F0EAE9D5662}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,14 @@
     <sheet name="to-do-score-card" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IMAGES!$A$1:$F$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IMAGES!$A$1:$F$102</definedName>
   </definedNames>
   <calcPr calcId="181029" iterateDelta="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="673">
   <si>
     <t>cliff</t>
   </si>
@@ -184,9 +184,6 @@
     <t>img/tiles/cloggy-west-butress-small.jpg</t>
   </si>
   <si>
-    <t>4C</t>
-  </si>
-  <si>
     <t>wales</t>
   </si>
   <si>
@@ -367,9 +364,6 @@
     <t>The Old Man of Stoer's Location in Scotland</t>
   </si>
   <si>
-    <t>img/maps/old-man-of-stoer-map.png</t>
-  </si>
-  <si>
     <t>map</t>
   </si>
   <si>
@@ -436,9 +430,6 @@
     <t>original image source</t>
   </si>
   <si>
-    <t>img/maps/bosigran.png</t>
-  </si>
-  <si>
     <t>Bosigran's Location in Cornwall</t>
   </si>
   <si>
@@ -460,9 +451,6 @@
     <t>The Great Slab Topo on Clogwyn Du'r Arddu</t>
   </si>
   <si>
-    <t>img/maps/cloggy-map-wales.png</t>
-  </si>
-  <si>
     <t>Map showing the location of the great slab on Cloggy</t>
   </si>
   <si>
@@ -484,9 +472,6 @@
     <t>Cnoc Na Mara Route Topography</t>
   </si>
   <si>
-    <t>img/maps/tormore-group-map-ireland.png</t>
-  </si>
-  <si>
     <t>Map showing the location of the Tormore Sea Stacks</t>
   </si>
   <si>
@@ -511,9 +496,6 @@
     <t>https://pixabay.com/en/sass-pordoi-sella-massif-2738856/</t>
   </si>
   <si>
-    <t>img/maps/sass-pordoi.png</t>
-  </si>
-  <si>
     <t>Map showing Sass Pordoi In the Dolomites</t>
   </si>
   <si>
@@ -535,9 +517,6 @@
     <t>owner unknown - referenced UKC</t>
   </si>
   <si>
-    <t>img/maps/cwm-idwal.png</t>
-  </si>
-  <si>
     <t>Map showing Cwm Idwal in Wales</t>
   </si>
   <si>
@@ -562,9 +541,6 @@
     <t>Original By Tom MacDonald</t>
   </si>
   <si>
-    <t>img/maps/devils-slide-map-lundy.png</t>
-  </si>
-  <si>
     <t>img/topos/wreakers/wreakers-slab.jpg</t>
   </si>
   <si>
@@ -583,9 +559,6 @@
     <t>Wreakers Slab Topo on Cornakey Cliff</t>
   </si>
   <si>
-    <t>img/maps/cornakey-cliff-cornwall-map.png</t>
-  </si>
-  <si>
     <t>Map showing Wreakers Slab on Cornakey Cliff</t>
   </si>
   <si>
@@ -766,9 +739,6 @@
     <t>Slab &amp; Vertical</t>
   </si>
   <si>
-    <t>54.626153, -8.685230</t>
-  </si>
-  <si>
     <t>img/topos/sail-rock/sail-rock-topo-ireland-donegal.jpg</t>
   </si>
   <si>
@@ -901,9 +871,6 @@
     <t>usa</t>
   </si>
   <si>
-    <t>44.589680, -104.715252</t>
-  </si>
-  <si>
     <t>Phonolite</t>
   </si>
   <si>
@@ -1180,9 +1147,6 @@
     <t>concatHelper</t>
   </si>
   <si>
-    <t>img/maps/cir-mhor.png</t>
-  </si>
-  <si>
     <t>Cir Mhor Ridge location</t>
   </si>
   <si>
@@ -1201,18 +1165,12 @@
     <t>This book comes into its own for so many areas in the south west of Britain. This guide covers a huge mix of regions with clear images and good topography. The section on Chair Ladder is brilliant covers a great mix of multi-pitch routes across the grades.</t>
   </si>
   <si>
-    <t>img/maps/chair-ladder.jpg</t>
-  </si>
-  <si>
     <t>Chair Ladder Location in Cornwall</t>
   </si>
   <si>
     <t>Mount Y Lliwedd Location in Wales</t>
   </si>
   <si>
-    <t>img/maps/montserrat-climb-location.png</t>
-  </si>
-  <si>
     <t>Grey Rock climb location at Montserrat</t>
   </si>
   <si>
@@ -1228,9 +1186,6 @@
     <t>no ISBN</t>
   </si>
   <si>
-    <t>img/maps/lliwedd-climbing-location-wales.png</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -1303,15 +1258,9 @@
     <t>img/topos/stetind/stetind-south-pillar-route-topo.jpg</t>
   </si>
   <si>
-    <t>img/maps/stetind.png</t>
-  </si>
-  <si>
     <t>Location of Stetind in Norway</t>
   </si>
   <si>
-    <t>img/maps/sail-rock-location-donegal.png</t>
-  </si>
-  <si>
     <t>Sail Rock location in Co. Donegal</t>
   </si>
   <si>
@@ -1391,9 +1340,6 @@
   </si>
   <si>
     <t>The Keswick Brothers were some of the key early rock climbing pioneers. What is particularly important about them is fact they travelled with an camera making them some of the first people to capture rock climbing imagery. They set first accents up and down the UK including their first climb on Scafell Crag in 1897. Keswick Brother’s Climb takes a shorter line up the left side of the buttress over easy ground and up the grooved slab. If you have ever wondered why Very Difficult climbs are generally Very Easy, you need to understand the adjectival grading system used in Britain comes from the 1800’s. Climbers in that period didn’t have cams or even nuts. They didn’t have Kernmantle dynamic ropes or dedicated sticky rubber climbing shoes. In fact this climb was graded over 20 years before the carabiner was invented!</t>
-  </si>
-  <si>
-    <t>img/maps/scafell-crag-location.png</t>
   </si>
   <si>
     <t>Scafell Crag location</t>
@@ -1463,9 +1409,6 @@
     <t>https://www.mountainproject.com/route/107186623/joy</t>
   </si>
   <si>
-    <t>50.637466, -115.167377</t>
-  </si>
-  <si>
     <t>Poetic Justice</t>
   </si>
   <si>
@@ -1512,9 +1455,6 @@
   </si>
   <si>
     <t>img/topos/mournes/slieve-beg-crag-in-the-mournes.jpg</t>
-  </si>
-  <si>
-    <t>img/maps/mourne-mountains.png</t>
   </si>
   <si>
     <t>Slieve Beg in the Mourne Mountains</t>
@@ -1594,9 +1534,6 @@
     <t>9780902940291</t>
   </si>
   <si>
-    <t>img/maps/devils-tower.png</t>
-  </si>
-  <si>
     <t>Lion Rock</t>
   </si>
   <si>
@@ -1663,15 +1600,9 @@
     <t>Guid to climbing Lion Rock</t>
   </si>
   <si>
-    <t>img/maps/indefatigable.png</t>
-  </si>
-  <si>
     <t>Location of Lion Rock in Hong Kong China</t>
   </si>
   <si>
-    <t>img/maps/lion-rock.png</t>
-  </si>
-  <si>
     <t>http://www.stetind.nu/uploads/6/1/8/8/6188415/stetind_sydpillaren.pdf</t>
   </si>
   <si>
@@ -1694,9 +1625,6 @@
   </si>
   <si>
     <t>http://noroestetrad.blogspot.com/p/situacion-y-acceso-la-peneda.html</t>
-  </si>
-  <si>
-    <t>img/maps/meadinha-map-portugal.png</t>
   </si>
   <si>
     <t>Location of Meadinha in North Portugal</t>
@@ -1798,9 +1726,6 @@
     <t>img/topos/penon/penon-topo-for-diedre-UBSA.jpg</t>
   </si>
   <si>
-    <t>img/maps/penon-near-calp.png</t>
-  </si>
-  <si>
     <t>Costa Blanca climbing location</t>
   </si>
   <si>
@@ -1873,9 +1798,6 @@
     <t>Arguably one of the best sea stacks in the United Kingdom, The Old Man of Stoer (Stake), makes for an adventurous day out and an all round exceptional climb. The rock is Torridonian sandstone, meaning it was formed before any significant life on earth existed. The approach is either some wet rock hopping 100m north of the stack at the lowest tide or the more classic Tyrolean traverse which needs to be set up by swimming the 8 meter channel if there is not one left in place when you arrive. The route itself, Original Route, meanders the landward face. Larger cams and hexs are recommended. Be wary of nesting seagulls who first line of defence is usually to attack you with projectile vomit.</t>
   </si>
   <si>
-    <t>img/maps/meteor-climbing.png</t>
-  </si>
-  <si>
     <t>https://amzn.to/2UxZN8z</t>
   </si>
   <si>
@@ -1898,9 +1820,6 @@
   </si>
   <si>
     <t>TD (f6a+)</t>
-  </si>
-  <si>
-    <t>IV+ &amp; (f6b)</t>
   </si>
   <si>
     <t>france</t>
@@ -1944,9 +1863,6 @@
   <si>
     <t>Approach: Allow a few hours for the approach which can be made from Les Etages. There is mountain hut at the base of the mountain, Ref du Soreiller.
 Decent: This is done via a couple of assails off the back followed by a climbers path off the back of the mountain that weaves around to the front bringing climbers back to the hut.</t>
-  </si>
-  <si>
-    <t>img/maps/aiguille-debona.png</t>
   </si>
   <si>
     <t xml:space="preserve">Aiguille Dibona location in the Haute-Alps </t>
@@ -2072,9 +1988,6 @@
     <t>img/tiles/bruggler-crag-switzerland.jpg</t>
   </si>
   <si>
-    <t>img/maps/bruggler.png</t>
-  </si>
-  <si>
     <t>Briggler is a great climbing location</t>
   </si>
   <si>
@@ -2104,6 +2017,90 @@
   </si>
   <si>
     <t>South Tyrol</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Arete on the Torre Delago Tower is a true classic. It's both polished and popular, but for a reason. The exposure and views are incredible and the climbing sits firmly at the easier end of the scale with a grade of UIAA IV+. The is a mountain refuge nearby but it’s over an hours hike to get here. </t>
+  </si>
+  <si>
+    <t>img/topos/vejolet/vejolet-towers-rock-climbing-dolomites.jpg</t>
+  </si>
+  <si>
+    <t>The Vejolet Towers rock climbing</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Vajolett%C3%BCrme_1.jpg</t>
+  </si>
+  <si>
+    <t>img: X-Weinzar</t>
+  </si>
+  <si>
+    <t>img/tiles/vejolet-towers-rock-climbing-dolomites.jpg</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Vajolett%C3%BCrme_W.JPG</t>
+  </si>
+  <si>
+    <t>original: Svíčková</t>
+  </si>
+  <si>
+    <t>img/topos/vejolet/piaz-arete-delagokante-topo.jpg</t>
+  </si>
+  <si>
+    <t>The Vejolet Towers topo for Piaz Arete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Vejolet Towers rock climbing location </t>
+  </si>
+  <si>
+    <t>VI+ &amp; (f6b)</t>
+  </si>
+  <si>
+    <t>coming soon</t>
+  </si>
+  <si>
+    <t>Piaz Arete Delagokante</t>
+  </si>
+  <si>
+    <t>img/topos/aiguille-dibona/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/stetind/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/indefatigable/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/sass/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/cir-mhor/maps/</t>
+  </si>
+  <si>
+    <t>50.637466,-115.167377</t>
+  </si>
+  <si>
+    <t>44.589680,-104.715252</t>
+  </si>
+  <si>
+    <t>54.626153,-8.685230</t>
+  </si>
+  <si>
+    <t>img/topos/lliwedd/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/meteor/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/bruggler/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/penon/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/montserrat/maps/</t>
   </si>
 </sst>
 </file>
@@ -3173,37 +3170,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="9.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="2" customWidth="1"/>
-    <col min="17" max="20" width="15.28515625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.73046875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.86328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.3984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.86328125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="9.3984375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.59765625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.73046875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.265625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15.1328125" style="2" customWidth="1"/>
+    <col min="17" max="20" width="15.265625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.59765625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3263,12 +3260,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -3313,7 +3310,7 @@
         <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>30</v>
@@ -3322,12 +3319,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -3384,12 +3381,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -3416,13 +3413,13 @@
         <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="O4" s="2">
         <v>120</v>
@@ -3431,39 +3428,39 @@
         <v>2</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="G5" s="2">
         <v>400</v>
@@ -3475,19 +3472,19 @@
         <v>7</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="O5" s="2">
         <v>40</v>
@@ -3496,30 +3493,30 @@
         <v>2</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="G6" s="2">
         <v>152</v>
@@ -3537,10 +3534,10 @@
         <v>38</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="O6" s="2">
         <v>90</v>
@@ -3548,40 +3545,40 @@
       <c r="P6" s="2">
         <v>3</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" t="s">
+        <v>228</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="G7" s="2">
         <v>555</v>
@@ -3596,16 +3593,16 @@
         <v>37</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="O7" s="2">
         <v>45</v>
@@ -3614,24 +3611,24 @@
         <v>2</v>
       </c>
       <c r="Q7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -3643,7 +3640,7 @@
         <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="2">
         <v>140</v>
@@ -3655,13 +3652,13 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="O8" s="2">
         <v>30</v>
@@ -3670,24 +3667,24 @@
         <v>1</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="T8" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="T8" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2">
         <v>8</v>
@@ -3696,10 +3693,10 @@
         <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="G9" s="2">
         <v>117</v>
@@ -3714,13 +3711,13 @@
         <v>37</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="O9" s="2">
         <v>120</v>
@@ -3732,36 +3729,36 @@
         <v>41</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="G10" s="2">
         <v>60</v>
@@ -3773,19 +3770,19 @@
         <v>7</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>613</v>
+        <v>657</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="O10" s="2">
         <v>10</v>
@@ -3797,21 +3794,21 @@
         <v>41</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
@@ -3823,7 +3820,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G11" s="2">
         <v>130</v>
@@ -3844,7 +3841,7 @@
         <v>39</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="O11" s="2">
         <v>50</v>
@@ -3853,24 +3850,24 @@
         <v>2</v>
       </c>
       <c r="Q11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S11" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="T11" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2">
         <v>11</v>
@@ -3879,10 +3876,10 @@
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G12" s="2">
         <v>330</v>
@@ -3903,7 +3900,7 @@
         <v>27</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O12" s="2">
         <v>140</v>
@@ -3915,36 +3912,36 @@
         <v>41</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="2">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G13" s="2">
         <v>190</v>
@@ -3956,19 +3953,19 @@
         <v>6</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="O13" s="2">
         <v>20</v>
@@ -3977,36 +3974,36 @@
         <v>1</v>
       </c>
       <c r="Q13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="2">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G14" s="2">
         <v>81</v>
@@ -4021,13 +4018,13 @@
         <v>25</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>245</v>
+        <v>667</v>
       </c>
       <c r="O14" s="2">
         <v>20</v>
@@ -4036,24 +4033,24 @@
         <v>2</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2">
         <v>14</v>
@@ -4065,7 +4062,7 @@
         <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G15" s="2">
         <v>70</v>
@@ -4086,7 +4083,7 @@
         <v>39</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="O15" s="2">
         <v>15</v>
@@ -4098,36 +4095,36 @@
         <v>41</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="G16" s="2">
         <v>152</v>
@@ -4142,16 +4139,16 @@
         <v>25</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>290</v>
+        <v>666</v>
       </c>
       <c r="O16" s="2">
         <v>5</v>
@@ -4160,27 +4157,27 @@
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
@@ -4192,7 +4189,7 @@
         <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="G17" s="2">
         <v>280</v>
@@ -4204,16 +4201,16 @@
         <v>3</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="O17" s="2">
         <v>75</v>
@@ -4222,39 +4219,39 @@
         <v>2</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E18" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="G18" s="2">
         <v>575</v>
@@ -4266,19 +4263,19 @@
         <v>7</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="O18" s="2">
         <v>90</v>
@@ -4287,24 +4284,24 @@
         <v>2</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="2">
         <v>18</v>
@@ -4313,10 +4310,10 @@
         <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="G19" s="2">
         <v>74</v>
@@ -4328,16 +4325,16 @@
         <v>2</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="O19" s="2">
         <v>70</v>
@@ -4346,33 +4343,33 @@
         <v>2</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="E20" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="G20" s="2">
         <v>300</v>
@@ -4384,19 +4381,19 @@
         <v>3</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>476</v>
+        <v>665</v>
       </c>
       <c r="O20" s="2">
         <v>40</v>
@@ -4405,36 +4402,36 @@
         <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="S20" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="G21" s="2">
         <v>80</v>
@@ -4452,10 +4449,10 @@
         <v>38</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="O21" s="2">
         <v>90</v>
@@ -4467,33 +4464,33 @@
         <v>41</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="2">
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="G22" s="2">
         <v>80</v>
@@ -4505,16 +4502,16 @@
         <v>6</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="O22" s="2">
         <v>40</v>
@@ -4526,36 +4523,36 @@
         <v>41</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="G23" s="2">
         <v>228</v>
@@ -4567,16 +4564,16 @@
         <v>6</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="M23" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="O23" s="2">
         <v>20</v>
@@ -4585,39 +4582,39 @@
         <v>1</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="2">
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="G24" s="2">
         <v>250</v>
@@ -4635,13 +4632,13 @@
         <v>26</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="O24" s="2">
         <v>21</v>
@@ -4650,39 +4647,39 @@
         <v>1</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="2">
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>615</v>
+        <v>588</v>
       </c>
       <c r="G25" s="2">
         <v>350</v>
@@ -4694,19 +4691,19 @@
         <v>7</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>616</v>
+        <v>589</v>
       </c>
       <c r="O25" s="2">
         <v>190</v>
@@ -4718,36 +4715,36 @@
         <v>41</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>654</v>
+        <v>626</v>
       </c>
       <c r="G26" s="2">
         <v>230</v>
@@ -4762,16 +4759,16 @@
         <v>25</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>657</v>
+        <v>629</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>652</v>
+        <v>624</v>
       </c>
       <c r="O26" s="2">
         <v>70</v>
@@ -4780,44 +4777,86 @@
         <v>1</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>669</v>
+        <v>640</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>670</v>
+        <v>641</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>671</v>
+        <v>642</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2">
         <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>673</v>
+        <v>644</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="G27" s="2">
+        <v>160</v>
+      </c>
+      <c r="H27" s="2">
+        <v>6</v>
+      </c>
+      <c r="I27" s="2">
+        <v>4</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+      <c r="O27" s="2">
+        <v>80</v>
+      </c>
+      <c r="P27" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -4828,627 +4867,607 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
-  <dimension ref="A1:H98"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.265625" customWidth="1"/>
+    <col min="4" max="4" width="37.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(A2,B2)</f>
         <v>1crag</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H56" si="0">CONCATENATE(A3,B3)</f>
         <v>1topo</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
         <v>1map</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
         <v>2crag</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
         <v>131</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>132</v>
-      </c>
-      <c r="E6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" t="s">
-        <v>134</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>2topo</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>2map</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
         <v>137</v>
-      </c>
-      <c r="D8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" t="s">
-        <v>140</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>3crag</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>3topo</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>3map</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>5crag</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>5topo</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>5map</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>6crag</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>6topo</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>663</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>6map</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>7crag</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v>7topo</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
         <v>7map</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
         <v>8crag</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
         <v>8topo</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
         <v>8map</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E23" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
         <v>10crag</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E24" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F24" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
         <v>10topo</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
         <v>10map</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -5457,1695 +5476,1785 @@
         <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
         <v>2tile</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
         <v>1tile</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
         <v>3tile</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
         <v>4tile</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
         <v>5tile</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
         <v>6tile</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F32" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
         <v>7tile</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E33" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
         <v>8tile</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E34" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F34" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
         <v>9tile</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
         <v>10tile</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D36" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F36" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
         <v>11crag</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D37" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E37" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
         <v>11topo</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>383</v>
+        <v>664</v>
       </c>
       <c r="D38" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
         <v>11map</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" t="s">
         <v>205</v>
       </c>
-      <c r="D39" t="s">
-        <v>214</v>
-      </c>
       <c r="E39" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
         <v>11tile</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D40" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E40" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
         <v>12crag</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D41" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E41" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F41" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
         <v>12topo</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C42" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D42" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E42" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="F42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
         <v>12tile</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C43" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D43" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E43" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F43" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
         <v>13tile</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D44" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E44" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F44" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
         <v>13crag</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D45" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E45" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F45" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
         <v>13topo</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D46" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E46" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F46" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
         <v>14crag</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D47" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E47" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F47" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
         <v>14topo</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C48" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D48" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E48" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F48" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
         <v>14tile</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D49" t="s">
+        <v>277</v>
+      </c>
+      <c r="E49" t="s">
+        <v>278</v>
+      </c>
+      <c r="F49" t="s">
         <v>287</v>
-      </c>
-      <c r="E49" t="s">
-        <v>288</v>
-      </c>
-      <c r="F49" t="s">
-        <v>298</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
         <v>15topo</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C50" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D50" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E50" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F50" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
         <v>15tile</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D51" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E51" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F51" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
         <v>15crag</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" t="s">
-        <v>519</v>
+        <v>111</v>
       </c>
       <c r="D52" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="E52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
         <v>15map</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="D53" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E53" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F53" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
         <v>16crag</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C54" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D54" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E54" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
         <v>16topo</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C55" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D55" t="s">
+        <v>342</v>
+      </c>
+      <c r="E55" t="s">
         <v>353</v>
       </c>
-      <c r="E55" t="s">
-        <v>364</v>
-      </c>
       <c r="F55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
         <v>16tile</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" t="s">
-        <v>390</v>
+        <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
         <v>14map</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>399</v>
+        <v>668</v>
       </c>
       <c r="D57" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" ref="H57:H60" si="1">CONCATENATE(A57,B57)</f>
         <v>16map</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>393</v>
+        <v>672</v>
       </c>
       <c r="D58" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
         <v>12map</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D59" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="E59" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
         <v>17topo</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D60" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E60" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="F60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
         <v>17crag</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C61" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D61" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="E61" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="F61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" ref="H61:H95" si="2">CONCATENATE(A61,B61)</f>
+        <f t="shared" ref="H61:H74" si="2">CONCATENATE(A61,B61)</f>
         <v>17tile</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>424</v>
+        <v>661</v>
       </c>
       <c r="D62" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="2"/>
         <v>17map</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63" t="s">
-        <v>426</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="2"/>
         <v>13map</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D64" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="E64" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="F64" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="2"/>
         <v>18topo</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C65" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D65" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="E65" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="F65" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="2"/>
         <v>18crag</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C66" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D66" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="E66" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="F66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="2"/>
         <v>18tile</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
-      </c>
-      <c r="C67" t="s">
-        <v>454</v>
+        <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="2"/>
         <v>18map</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="D68" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="E68" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="2"/>
         <v>20crag</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C69" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="D69" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="E69" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="2"/>
         <v>20tile</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="D70" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="E70" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="2"/>
         <v>20topo</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
-      </c>
-      <c r="C71" t="s">
-        <v>493</v>
+        <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="E71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="2"/>
         <v>20map</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C72" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="D72" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="E72" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="F72" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="2"/>
         <v>19crag</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C73" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="D73" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="E73" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="F73" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="2"/>
         <v>19tile</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C74" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="D74" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="E74" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="F74" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="2"/>
         <v>19topo</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C75" t="s">
-        <v>542</v>
+        <v>662</v>
       </c>
       <c r="D75" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" ref="H75" si="3">CONCATENATE(A75,B75)</f>
         <v>19map</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C76" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="D76" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="E76" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="F76" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H76:H102" si="4">CONCATENATE(A76,B76)</f>
         <v>21crag</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C77" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="D77" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="E77" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="F77" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21tile</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C78" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="D78" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="E78" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="F78" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21topo</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>113</v>
-      </c>
-      <c r="C79" t="s">
-        <v>544</v>
+        <v>111</v>
       </c>
       <c r="D79" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21map</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C80" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="D80" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="E80" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="F80" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9topo</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C81" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="D81" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="E81" t="s">
-        <v>552</v>
+        <v>529</v>
       </c>
       <c r="F81" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9crag</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
-      </c>
-      <c r="C82" t="s">
-        <v>553</v>
+        <v>111</v>
       </c>
       <c r="D82" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="E82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9map</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C83" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="D83" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="E83" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="F83" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22crag</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C84" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="D84" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="E84" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="F84" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22tile</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C85" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="E85" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="F85" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22topo</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C86" t="s">
-        <v>583</v>
+        <v>671</v>
       </c>
       <c r="D86" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22map</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>23</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C87" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="D87" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="E87" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="F87" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23crag</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="D88" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="E88" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="F88" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23tile</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C89" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="D89" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="E89" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="F89" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23topo</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>23</v>
       </c>
       <c r="B90" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C90" t="s">
-        <v>604</v>
+        <v>669</v>
       </c>
       <c r="D90" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23map</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>24</v>
       </c>
       <c r="B91" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C91" t="s">
-        <v>623</v>
+        <v>596</v>
       </c>
       <c r="D91" t="s">
-        <v>622</v>
+        <v>595</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="F91" t="s">
-        <v>618</v>
+        <v>591</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24topo</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>24</v>
       </c>
       <c r="B92" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="D92" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
       <c r="E92" t="s">
-        <v>619</v>
+        <v>592</v>
       </c>
       <c r="F92" t="s">
-        <v>620</v>
+        <v>593</v>
       </c>
       <c r="H92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24crag</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>24</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C93" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="D93" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="F93" t="s">
-        <v>618</v>
+        <v>591</v>
       </c>
       <c r="H93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24tile</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>24</v>
       </c>
       <c r="B94" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C94" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
       <c r="D94" t="s">
-        <v>629</v>
+        <v>601</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24map</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>25</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="D95" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="E95" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="F95" t="s">
-        <v>661</v>
+        <v>633</v>
       </c>
       <c r="H95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25crag</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C96" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="D96" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="E96" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="F96" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="4"/>
+        <v>25tile</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>25</v>
       </c>
       <c r="B97" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C97" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="D97" t="s">
-        <v>664</v>
+        <v>635</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="4"/>
+        <v>25map</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C98" t="s">
-        <v>665</v>
+        <v>636</v>
       </c>
       <c r="D98" t="s">
-        <v>666</v>
+        <v>637</v>
       </c>
       <c r="E98" t="s">
-        <v>667</v>
+        <v>638</v>
       </c>
       <c r="F98" t="s">
-        <v>668</v>
+        <v>639</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="4"/>
+        <v>25topo</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>26</v>
+      </c>
+      <c r="B99" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" t="s">
+        <v>647</v>
+      </c>
+      <c r="D99" t="s">
+        <v>648</v>
+      </c>
+      <c r="E99" t="s">
+        <v>649</v>
+      </c>
+      <c r="F99" t="s">
+        <v>650</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="4"/>
+        <v>26crag</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>26</v>
+      </c>
+      <c r="B100" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" t="s">
+        <v>651</v>
+      </c>
+      <c r="D100" t="s">
+        <v>648</v>
+      </c>
+      <c r="E100" t="s">
+        <v>649</v>
+      </c>
+      <c r="F100" t="s">
+        <v>650</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="4"/>
+        <v>26tile</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>26</v>
+      </c>
+      <c r="B101" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" t="s">
+        <v>654</v>
+      </c>
+      <c r="D101" t="s">
+        <v>655</v>
+      </c>
+      <c r="E101" t="s">
+        <v>652</v>
+      </c>
+      <c r="F101" t="s">
+        <v>653</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="4"/>
+        <v>26topo</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>26</v>
+      </c>
+      <c r="B102" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" t="s">
+        <v>656</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F102" t="s">
+        <v>108</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="4"/>
+        <v>26map</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F82" xr:uid="{BFB1D3BA-7B83-4CA6-BA2B-968EDE266848}"/>
+  <autoFilter ref="A1:F102" xr:uid="{BFB1D3BA-7B83-4CA6-BA2B-968EDE266848}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="map"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="E63" r:id="rId1" xr:uid="{35DF19F2-37DF-43EA-B6CA-AD2C731AF59E}"/>
   </hyperlinks>
@@ -7162,74 +7271,74 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.265625" customWidth="1"/>
+    <col min="2" max="2" width="20.265625" customWidth="1"/>
+    <col min="3" max="3" width="34.1328125" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.265625" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.1328125" customWidth="1"/>
+    <col min="10" max="10" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="H1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="I1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="J1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E2">
         <v>206</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H2" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="I2">
         <v>24.99</v>
@@ -7238,30 +7347,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E3">
         <v>266</v>
       </c>
       <c r="F3" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="G3" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="H3" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="I3">
         <v>25</v>
@@ -7270,30 +7379,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E4">
         <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="G4" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="I4">
         <v>24.99</v>
@@ -7302,47 +7411,47 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E5">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E6">
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G6" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="H6" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="I6">
         <v>20</v>
@@ -7351,30 +7460,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E7">
         <v>175</v>
       </c>
       <c r="F7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="H7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="I7">
         <v>29.95</v>
@@ -7383,30 +7492,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E8">
         <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G8" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="I8">
         <v>24.99</v>
@@ -7415,30 +7524,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D9" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E9">
         <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="G9" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H9" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="I9">
         <v>24.99</v>
@@ -7447,30 +7556,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C10" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E10">
         <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="G10" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="H10" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
       <c r="I10">
         <v>34.950000000000003</v>
@@ -7479,30 +7588,30 @@
         <v>34.950000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C11" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D11" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E11">
         <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G11" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H11" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="I11">
         <v>24.99</v>
@@ -7511,30 +7620,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C12" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E12">
         <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G12" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="H12" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="I12">
         <v>20</v>
@@ -7543,30 +7652,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C13" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E13">
         <v>156</v>
       </c>
       <c r="F13" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G13" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="I13">
         <v>24.99</v>
@@ -7575,30 +7684,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C14" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D14" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E14">
         <v>32</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G14" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H14" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="I14">
         <v>25</v>
@@ -7607,30 +7716,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D15" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E15">
         <v>258</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="G15" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H15" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="I15">
         <v>24.99</v>
@@ -7639,30 +7748,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C16" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="D16" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E16">
         <v>162</v>
       </c>
       <c r="F16" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="G16" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="H16" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
       <c r="I16">
         <v>34</v>
@@ -7671,30 +7780,30 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C17" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="D17" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E17">
         <v>354</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="G17" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="H17" t="s">
-        <v>645</v>
+        <v>617</v>
       </c>
       <c r="I17">
         <v>34.99</v>
@@ -7703,30 +7812,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="C18" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="D18" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E18" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="F18" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="G18" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="H18" t="s">
-        <v>646</v>
+        <v>618</v>
       </c>
       <c r="I18">
         <v>25</v>
@@ -7735,30 +7844,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="C19" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="D19" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E19" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="F19" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="G19" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="H19" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="I19">
         <v>20</v>
@@ -7767,30 +7876,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="C20" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="D20" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E20" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="F20" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="G20" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="H20" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="I20">
         <v>34.99</v>
@@ -7799,30 +7908,30 @@
         <v>34.99</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="C21" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E21">
         <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="G21" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="H21" t="s">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="I21">
         <v>19.95</v>
@@ -7831,62 +7940,62 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C22" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="D22" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="G22" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="H22" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="I22" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="J22" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="C23" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="D23" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E23">
         <v>267</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="G23" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="H23" t="s">
-        <v>650</v>
+        <v>622</v>
       </c>
       <c r="I23">
         <v>29.95</v>
@@ -7895,30 +8004,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>24</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>632</v>
+        <v>604</v>
       </c>
       <c r="C24" t="s">
-        <v>633</v>
+        <v>605</v>
       </c>
       <c r="D24" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E24">
         <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>634</v>
+        <v>606</v>
       </c>
       <c r="G24" t="s">
-        <v>631</v>
+        <v>603</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>630</v>
+        <v>602</v>
       </c>
       <c r="I24">
         <v>38</v>
@@ -7927,30 +8036,30 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>641</v>
+        <v>613</v>
       </c>
       <c r="C25" t="s">
-        <v>637</v>
+        <v>609</v>
       </c>
       <c r="D25" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E25">
         <v>410</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>638</v>
+        <v>610</v>
       </c>
       <c r="G25" t="s">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="H25" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="I25">
         <v>10</v>
@@ -7959,30 +8068,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>632</v>
+        <v>604</v>
       </c>
       <c r="C26" t="s">
-        <v>633</v>
+        <v>605</v>
       </c>
       <c r="D26" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E26">
         <v>300</v>
       </c>
       <c r="F26" t="s">
-        <v>634</v>
+        <v>606</v>
       </c>
       <c r="G26" t="s">
-        <v>631</v>
+        <v>603</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>630</v>
+        <v>602</v>
       </c>
       <c r="I26">
         <v>38</v>
@@ -8010,190 +8119,190 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="51.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="C6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="C7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C8" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="C9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="C10" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="C11" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="C12" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="C13" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="C14" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="C15" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>635</v>
+        <v>607</v>
       </c>
       <c r="C16" t="s">
-        <v>636</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -8209,17 +8318,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="53.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.1328125" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" customWidth="1"/>
+    <col min="7" max="7" width="53.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8230,22 +8339,22 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -8256,19 +8365,19 @@
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -8286,30 +8395,30 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>44</v>
@@ -8320,15 +8429,15 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6">
@@ -8336,12 +8445,12 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>44</v>
@@ -8352,15 +8461,15 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8">
@@ -8368,7 +8477,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -8376,7 +8485,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9">
@@ -8384,7 +8493,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -8400,15 +8509,15 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11">
@@ -8416,7 +8525,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -8424,22 +8533,22 @@
         <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>44</v>
@@ -8449,18 +8558,18 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D14" s="2"/>
       <c r="F14">
@@ -8468,7 +8577,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -8476,22 +8585,22 @@
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>44</v>
@@ -8501,36 +8610,36 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E17" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>21</v>
       </c>
@@ -8552,58 +8661,58 @@
       <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L1" t="s">
+        <v>324</v>
+      </c>
+      <c r="M1" t="s">
+        <v>325</v>
+      </c>
+      <c r="N1" t="s">
         <v>326</v>
       </c>
-      <c r="D1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H1" t="s">
-        <v>331</v>
-      </c>
-      <c r="I1" t="s">
-        <v>332</v>
-      </c>
-      <c r="J1" t="s">
-        <v>333</v>
-      </c>
-      <c r="K1" t="s">
-        <v>334</v>
-      </c>
-      <c r="L1" t="s">
-        <v>335</v>
-      </c>
-      <c r="M1" t="s">
-        <v>336</v>
-      </c>
-      <c r="N1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="15">
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C2" s="18">
         <v>15</v>
@@ -8642,12 +8751,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C3" s="19">
         <v>9</v>
@@ -8687,12 +8796,12 @@
       </c>
       <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C4" s="21">
         <v>5</v>
@@ -8731,12 +8840,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="15">
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C5" s="18">
         <v>13</v>
@@ -8775,12 +8884,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="14">
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C6" s="19">
         <v>8</v>
@@ -8819,12 +8928,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="16">
         <v>3</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C7" s="21">
         <v>3</v>
@@ -8864,12 +8973,12 @@
       </c>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="15">
         <v>16</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C8" s="18">
         <v>13</v>
@@ -8908,12 +9017,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="14">
         <v>16</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C9" s="19">
         <v>8</v>
@@ -8953,12 +9062,12 @@
       </c>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="16">
         <v>16</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C10" s="21">
         <v>3</v>
@@ -8998,12 +9107,12 @@
       </c>
       <c r="S10" s="8"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="15">
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C11" s="18">
         <v>19</v>
@@ -9042,12 +9151,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C12" s="19">
         <v>6</v>
@@ -9087,12 +9196,12 @@
       </c>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="16">
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C13" s="21">
         <v>4</v>
@@ -9133,12 +9242,12 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="15">
         <v>1</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C14" s="18">
         <v>20</v>
@@ -9177,12 +9286,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="14">
         <v>1</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C15" s="19">
         <v>8</v>
@@ -9223,12 +9332,12 @@
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="16">
         <v>1</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C16" s="21">
         <v>5</v>
@@ -9269,12 +9378,12 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="15">
         <v>5</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C17" s="18">
         <v>19</v>
@@ -9313,12 +9422,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="14">
         <v>5</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C18" s="19">
         <v>8</v>
@@ -9359,12 +9468,12 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="16">
         <v>5</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C19" s="21">
         <v>2</v>
@@ -9405,12 +9514,12 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="15">
         <v>13</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C20" s="18">
         <v>19</v>
@@ -9449,12 +9558,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="14">
         <v>13</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C21" s="19">
         <v>8</v>
@@ -9495,12 +9604,12 @@
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="16">
         <v>13</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C22" s="21">
         <v>2</v>
@@ -9541,12 +9650,12 @@
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="15">
         <v>14</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C23" s="18">
         <v>15</v>
@@ -9585,12 +9694,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="14">
         <v>14</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C24" s="19">
         <v>9</v>
@@ -9631,12 +9740,12 @@
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="16">
         <v>14</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C25" s="21">
         <v>5</v>
@@ -9677,12 +9786,12 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="15">
         <v>7</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C26" s="23">
         <v>13</v>
@@ -9721,12 +9830,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="14">
         <v>7</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C27" s="24">
         <v>8</v>
@@ -9767,12 +9876,12 @@
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="16">
         <v>7</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C28" s="26">
         <v>3</v>
@@ -9813,12 +9922,12 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="15">
         <v>12</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C29" s="23">
         <v>4</v>
@@ -9857,12 +9966,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="14">
         <v>12</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C30" s="24">
         <v>13</v>
@@ -9903,12 +10012,12 @@
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="16">
         <v>12</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C31" s="26">
         <v>4</v>
@@ -9949,12 +10058,12 @@
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="15">
         <v>17</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C32" s="23">
         <v>15</v>
@@ -9993,12 +10102,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" s="14">
         <v>17</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C33" s="24">
         <v>1</v>
@@ -10039,12 +10148,12 @@
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" s="16">
         <v>17</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C34" s="26">
         <v>-2</v>
@@ -10085,12 +10194,12 @@
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" s="15">
         <v>6</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C35" s="23">
         <v>4</v>
@@ -10129,12 +10238,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" s="14">
         <v>6</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C36" s="24">
         <v>5</v>
@@ -10175,12 +10284,12 @@
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" s="16">
         <v>6</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C37" s="26">
         <v>-6</v>
@@ -10221,12 +10330,12 @@
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" s="15">
         <v>8</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C38" s="23">
         <v>15</v>
@@ -10265,12 +10374,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" s="14">
         <v>8</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C39" s="24">
         <v>8</v>
@@ -10311,12 +10420,12 @@
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" s="16">
         <v>8</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C40" s="26">
         <v>5</v>
@@ -10357,12 +10466,12 @@
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" s="15">
         <v>10</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C41" s="23">
         <v>16</v>
@@ -10401,12 +10510,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" s="14">
         <v>10</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C42" s="19">
         <v>8</v>
@@ -10446,12 +10555,12 @@
       </c>
       <c r="R42" s="8"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" s="16">
         <v>10</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C43" s="21">
         <v>6</v>
@@ -10491,12 +10600,12 @@
       </c>
       <c r="R43" s="8"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" s="15">
         <v>18</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C44" s="18">
         <v>17</v>
@@ -10535,12 +10644,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" s="14">
         <v>18</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C45" s="19">
         <v>7</v>
@@ -10580,12 +10689,12 @@
       </c>
       <c r="R45" s="8"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" s="16">
         <v>18</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C46" s="21">
         <v>2</v>
@@ -10629,12 +10738,12 @@
       <c r="U46" s="17"/>
       <c r="V46" s="17"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" s="15">
         <v>15</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C47" s="18">
         <v>4</v>
@@ -10677,12 +10786,12 @@
       <c r="U47" s="17"/>
       <c r="V47" s="17"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" s="14">
         <v>15</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C48" s="19">
         <v>4.2</v>
@@ -10725,12 +10834,12 @@
       <c r="U48" s="17"/>
       <c r="V48" s="17"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" s="16">
         <v>15</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C49" s="21">
         <v>-7.8</v>
@@ -10773,12 +10882,12 @@
       <c r="U49" s="17"/>
       <c r="V49" s="17"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" s="15">
         <v>19</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C50" s="18">
         <v>9</v>
@@ -10821,12 +10930,12 @@
       <c r="U50" s="17"/>
       <c r="V50" s="17"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" s="14">
         <v>19</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C51" s="19">
         <v>-10</v>
@@ -10869,12 +10978,12 @@
       <c r="U51" s="17"/>
       <c r="V51" s="17"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" s="16">
         <v>19</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C52" s="21">
         <v>-15</v>
@@ -10917,12 +11026,12 @@
       <c r="U52" s="17"/>
       <c r="V52" s="17"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" s="15">
         <v>20</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C53" s="18">
         <v>18</v>
@@ -10965,12 +11074,12 @@
       <c r="U53" s="17"/>
       <c r="V53" s="17"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" s="14">
         <v>20</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C54" s="19">
         <v>5</v>
@@ -11014,12 +11123,12 @@
       <c r="U54" s="17"/>
       <c r="V54" s="17"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" s="16">
         <v>20</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C55" s="21">
         <v>0</v>
@@ -11063,12 +11172,12 @@
       <c r="U55" s="17"/>
       <c r="V55" s="17"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" s="15">
         <v>21</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C56" s="18">
         <v>6</v>
@@ -11112,12 +11221,12 @@
       <c r="U56" s="17"/>
       <c r="V56" s="17"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" s="14">
         <v>21</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C57" s="19">
         <v>18</v>
@@ -11161,12 +11270,12 @@
       <c r="U57" s="8"/>
       <c r="V57" s="17"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" s="16">
         <v>21</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C58" s="21">
         <v>14</v>
@@ -11205,12 +11314,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" s="15">
         <v>9</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C59" s="18">
         <v>15</v>
@@ -11250,12 +11359,12 @@
       </c>
       <c r="U59" s="8"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" s="14">
         <v>9</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C60" s="19">
         <v>9</v>
@@ -11295,12 +11404,12 @@
       </c>
       <c r="U60" s="8"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" s="16">
         <v>9</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C61" s="21">
         <v>0</v>
@@ -11339,12 +11448,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" s="15">
         <v>24</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C62" s="15">
         <v>6</v>
@@ -11384,12 +11493,12 @@
       </c>
       <c r="U62" s="8"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" s="14">
         <v>24</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C63" s="14">
         <v>1</v>
@@ -11429,12 +11538,12 @@
       </c>
       <c r="U63" s="8"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64" s="16">
         <v>24</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C64" s="16">
         <v>-9</v>
@@ -11473,12 +11582,12 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65" s="15">
         <v>23</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C65" s="15">
         <v>5</v>
@@ -11518,12 +11627,12 @@
       </c>
       <c r="U65" s="8"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66" s="14">
         <v>23</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C66" s="14">
         <v>12</v>
@@ -11563,12 +11672,12 @@
       </c>
       <c r="U66" s="8"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67" s="16">
         <v>23</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C67" s="16">
         <v>4</v>
@@ -11607,12 +11716,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68" s="15">
         <v>22</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C68" s="15">
         <v>4</v>
@@ -11652,12 +11761,12 @@
       </c>
       <c r="U68" s="8"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A69" s="14">
         <v>22</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C69" s="14">
         <v>15</v>
@@ -11697,12 +11806,12 @@
       </c>
       <c r="U69" s="8"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A70" s="16">
         <v>22</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C70" s="16">
         <v>6</v>
@@ -11741,52 +11850,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U71" s="8"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U72" s="8"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U74" s="8"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U75" s="8"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U77" s="8"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U78" s="8"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U80" s="8"/>
     </row>
-    <row r="81" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U81" s="8"/>
     </row>
-    <row r="83" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U83" s="8"/>
     </row>
-    <row r="84" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U84" s="8"/>
     </row>
-    <row r="86" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U86" s="8"/>
     </row>
-    <row r="87" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U87" s="8"/>
     </row>
-    <row r="89" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U89" s="8"/>
     </row>
-    <row r="90" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U90" s="8"/>
     </row>
-    <row r="92" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U92" s="8"/>
     </row>
-    <row r="93" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U93" s="8"/>
     </row>
   </sheetData>
@@ -11803,43 +11912,43 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.73046875" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" customWidth="1"/>
+    <col min="6" max="6" width="8.265625" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" customWidth="1"/>
+    <col min="8" max="8" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="str">
         <f>CLIMBS!A2</f>
         <v>Old Man of Stoer</v>
@@ -11876,7 +11985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f>CLIMBS!A3</f>
         <v>Bosigran</v>
@@ -11913,7 +12022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f>CLIMBS!A4</f>
         <v>Clogwyn Du'r Arddu</v>
@@ -11950,7 +12059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f>CLIMBS!A5</f>
         <v>Vratsa</v>
@@ -11987,7 +12096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <f>CLIMBS!A6</f>
         <v>Tormore Group</v>
@@ -12024,7 +12133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f>CLIMBS!A7</f>
         <v>Sass Pordoi</v>
@@ -12061,7 +12170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <f>CLIMBS!A8</f>
         <v>Cwm Idwal</v>
@@ -12098,7 +12207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <f>CLIMBS!A9</f>
         <v>Lundy</v>
@@ -12135,7 +12244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f>CLIMBS!A10</f>
         <v>Meadinha</v>
@@ -12172,7 +12281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <f>CLIMBS!A11</f>
         <v>Cornakey Cliff</v>
@@ -12209,7 +12318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
         <f>CLIMBS!A12</f>
         <v>Cir Mhor</v>
@@ -12246,7 +12355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
         <f>CLIMBS!A13</f>
         <v>Roca Gris</v>
@@ -12283,7 +12392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f>CLIMBS!A14</f>
         <v>Sail Rock</v>
@@ -12320,7 +12429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <f>CLIMBS!A15</f>
         <v>Chair Ladder</v>
@@ -12357,7 +12466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <f>CLIMBS!A16</f>
         <v>The Devils Tower</v>
@@ -12394,7 +12503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f>CLIMBS!A17</f>
         <v>Lliwedd</v>
@@ -12431,7 +12540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <f>CLIMBS!A18</f>
         <v>Stetind</v>
@@ -12468,7 +12577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f>CLIMBS!A19</f>
         <v>Scafell</v>
@@ -12504,7 +12613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
         <f>CLIMBS!A20</f>
         <v>Mount Indefatigable</v>
@@ -12540,7 +12649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f>CLIMBS!A21</f>
         <v>Slieve Beg</v>
@@ -12576,7 +12685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f>CLIMBS!A22</f>
         <v>Lion Rock</v>
@@ -12612,7 +12721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
         <f>CLIMBS!A23</f>
         <v>Peñón de Ifach</v>
@@ -12648,7 +12757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="str">
         <f>CLIMBS!A24</f>
         <v>Heiliger Geist</v>
@@ -12684,7 +12793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="str">
         <f>CLIMBS!A25</f>
         <v>Aiguille Dibona</v>
@@ -12720,7 +12829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="str">
         <f>CLIMBS!A26</f>
         <v>Brüggler</v>
@@ -12740,12 +12849,12 @@
         <f>IF(CLIMBS!S26&lt;&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F26">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B26,"tile"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B26,"crag"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B26,"topo"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B26,"map"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>missing</v>
+        <v>4</v>
       </c>
       <c r="G26">
         <f>_xlfn.IFNA(IF(VLOOKUP(B26,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
@@ -12756,7 +12865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="str">
         <f>CLIMBS!A27</f>
         <v>Vajolet towers</v>
@@ -12770,18 +12879,18 @@
       </c>
       <c r="D27">
         <f>IF(CLIMBS!R27&lt;&gt;0,1,0)+IF(CLIMBS!G27&lt;&gt;0,1,0)+IF(CLIMBS!H27&lt;&gt;0,1,0)+IF(CLIMBS!I27&lt;&gt;0,1,0)+IF(CLIMBS!J27&lt;&gt;0,1,0)+IF(CLIMBS!N27&lt;&gt;0,1,0)+IF(CLIMBS!M27&lt;&gt;0,1,0)+IF(CLIMBS!O27&lt;&gt;0,1,0)+IF(CLIMBS!P27&lt;&gt;0,1,0)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <f>IF(CLIMBS!S27&lt;&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" t="str">
+        <v>1</v>
+      </c>
+      <c r="F27">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B27,"tile"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B27,"crag"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B27,"topo"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B27,"map"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>missing</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <f>_xlfn.IFNA(IF(VLOOKUP(B27,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F715009-64F9-47DB-9349-6F0EAE9D5662}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FB6B00-83B2-437D-8213-FABEB7F6DD9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="686">
   <si>
     <t>cliff</t>
   </si>
@@ -2052,9 +2052,6 @@
     <t>The Vejolet Towers topo for Piaz Arete</t>
   </si>
   <si>
-    <t xml:space="preserve">The Vejolet Towers rock climbing location </t>
-  </si>
-  <si>
     <t>VI+ &amp; (f6b)</t>
   </si>
   <si>
@@ -2101,6 +2098,48 @@
   </si>
   <si>
     <t>img/topos/montserrat/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/stoer/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/bosigran/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/cloggy/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/cnoc/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/idwal/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/lundy/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/wreakers/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/meadinha/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/sail-rock/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/chair/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/devils-tower/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/mournes/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/lion-rock/maps/</t>
+  </si>
+  <si>
+    <t>img/topos/scafell/maps/</t>
   </si>
 </sst>
 </file>
@@ -3171,7 +3210,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="I27" sqref="I27:R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3776,7 +3815,7 @@
         <v>60</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>540</v>
@@ -4024,7 +4063,7 @@
         <v>70</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="O14" s="2">
         <v>20</v>
@@ -4148,7 +4187,7 @@
         <v>279</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O16" s="2">
         <v>5</v>
@@ -4393,7 +4432,7 @@
         <v>451</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O20" s="2">
         <v>40</v>
@@ -4809,7 +4848,7 @@
         <v>644</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G27" s="2">
         <v>160</v>
@@ -4848,7 +4887,7 @@
         <v>646</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>243</v>
@@ -4867,11 +4906,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4907,7 +4945,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4931,7 +4969,7 @@
         <v>1crag</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4939,7 +4977,7 @@
         <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>672</v>
       </c>
       <c r="D3" t="s">
         <v>114</v>
@@ -4962,6 +5000,9 @@
       <c r="B4" t="s">
         <v>111</v>
       </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
       <c r="D4" t="s">
         <v>110</v>
       </c>
@@ -4976,52 +5017,46 @@
         <v>1map</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>2crag</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>1tile</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>2topo</v>
+        <v>2crag</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -5029,68 +5064,68 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>2map</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>2topo</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>673</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>3crag</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>2map</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>3topo</v>
+        <v>2tile</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -5098,358 +5133,352 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>3map</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>3crag</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>5crag</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>3topo</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>674</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>5topo</v>
+        <v>3map</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>178</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>5map</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>3tile</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>6crag</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>4tile</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>6topo</v>
+        <v>5crag</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>663</v>
+        <v>145</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>6map</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>5topo</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>675</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>7crag</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>5map</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>7topo</v>
+        <v>5tile</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>7map</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>6crag</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>8crag</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>6topo</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>412</v>
+        <v>662</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E21" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>8topo</v>
+        <v>6map</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>178</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>8map</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>6tile</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E23" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>10crag</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>7crag</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D24" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F24" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>10topo</v>
+        <v>7topo</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>111</v>
       </c>
+      <c r="C25" t="s">
+        <v>676</v>
+      </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E25" t="s">
         <v>109</v>
@@ -5459,270 +5488,300 @@
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>10map</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>7map</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>178</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="E26" t="s">
-        <v>179</v>
+        <v>157</v>
+      </c>
+      <c r="F26" t="s">
+        <v>151</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>2tile</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>7tile</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>164</v>
+      </c>
+      <c r="E27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" t="s">
+        <v>166</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
-        <v>1tile</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>8crag</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>412</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>167</v>
+      </c>
+      <c r="E28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" t="s">
+        <v>169</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>3tile</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>8topo</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>677</v>
       </c>
       <c r="D29" t="s">
-        <v>182</v>
+        <v>147</v>
+      </c>
+      <c r="E29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" t="s">
+        <v>108</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>4tile</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>8map</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>5tile</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>8tile</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>679</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>530</v>
+      </c>
+      <c r="E31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" t="s">
+        <v>108</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>6tile</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>9map</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>178</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E32" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="F32" t="s">
-        <v>151</v>
+        <v>290</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v>7tile</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>9tile</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>539</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>527</v>
       </c>
       <c r="E33" t="s">
-        <v>180</v>
+        <v>526</v>
+      </c>
+      <c r="F33" t="s">
+        <v>525</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>8tile</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>9topo</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>538</v>
       </c>
       <c r="D34" t="s">
-        <v>185</v>
+        <v>528</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>529</v>
       </c>
       <c r="F34" t="s">
         <v>290</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
-        <v>9tile</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>9crag</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="D35" t="s">
-        <v>184</v>
+        <v>171</v>
+      </c>
+      <c r="E35" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" t="s">
+        <v>173</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
-        <v>10tile</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>10crag</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="E36" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="F36" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
-        <v>11crag</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>10topo</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C37" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>205</v>
-      </c>
-      <c r="E37" t="s">
-        <v>194</v>
-      </c>
-      <c r="F37" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
-        <v>11topo</v>
+        <v>10tile</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
         <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="D38" t="s">
-        <v>372</v>
+        <v>176</v>
       </c>
       <c r="E38" t="s">
         <v>109</v>
@@ -5732,21 +5791,21 @@
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
-        <v>11map</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>10map</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E39" t="s">
         <v>189</v>
@@ -5756,545 +5815,551 @@
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
-        <v>11tile</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>11crag</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E40" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="F40" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
-        <v>12crag</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>11topo</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="D41" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E41" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="F41" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
-        <v>12topo</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>11tile</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>362</v>
+        <v>663</v>
       </c>
       <c r="D42" t="s">
-        <v>219</v>
+        <v>372</v>
       </c>
       <c r="E42" t="s">
-        <v>363</v>
+        <v>109</v>
       </c>
       <c r="F42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
-        <v>12tile</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>11map</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D43" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="E43" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="F43" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
-        <v>13tile</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>12crag</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D44" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E44" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="F44" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
-        <v>13crag</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>12topo</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C45" t="s">
-        <v>236</v>
+        <v>362</v>
       </c>
       <c r="D45" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="E45" t="s">
-        <v>238</v>
+        <v>363</v>
       </c>
       <c r="F45" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
-        <v>13topo</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>12tile</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
+        <v>671</v>
       </c>
       <c r="D46" t="s">
-        <v>248</v>
-      </c>
-      <c r="E46" t="s">
-        <v>244</v>
-      </c>
-      <c r="F46" t="s">
-        <v>245</v>
+        <v>380</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
-        <v>14crag</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>12map</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="D47" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="E47" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="F47" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
-        <v>14topo</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>13tile</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D48" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="E48" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="F48" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
-        <v>14tile</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>13crag</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
         <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="D49" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="E49" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="F49" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
-        <v>15topo</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>13topo</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>284</v>
+        <v>680</v>
       </c>
       <c r="D50" t="s">
-        <v>285</v>
-      </c>
-      <c r="E50" t="s">
-        <v>286</v>
+        <v>410</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="F50" t="s">
-        <v>287</v>
+        <v>108</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
-        <v>15tile</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>13map</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
         <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="D51" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="E51" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="F51" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
-        <v>15crag</v>
+        <v>14crag</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
+        <v>252</v>
       </c>
       <c r="D52" t="s">
-        <v>329</v>
+        <v>249</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>246</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>247</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
-        <v>15map</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>14topo</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="C53" t="s">
-        <v>350</v>
+        <v>253</v>
       </c>
       <c r="D53" t="s">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="E53" t="s">
-        <v>340</v>
+        <v>246</v>
       </c>
       <c r="F53" t="s">
-        <v>341</v>
+        <v>247</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
-        <v>16crag</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>14tile</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>351</v>
+        <v>681</v>
       </c>
       <c r="D54" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="E54" t="s">
-        <v>348</v>
+        <v>109</v>
       </c>
       <c r="F54" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
-        <v>16topo</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>14map</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>364</v>
+        <v>291</v>
       </c>
       <c r="D55" t="s">
-        <v>342</v>
+        <v>277</v>
       </c>
       <c r="E55" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
       <c r="F55" t="s">
-        <v>112</v>
+        <v>287</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
-        <v>16tile</v>
+        <v>15topo</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>178</v>
+      </c>
+      <c r="C56" t="s">
+        <v>284</v>
       </c>
       <c r="D56" t="s">
-        <v>378</v>
+        <v>285</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>286</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>287</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
-        <v>14map</v>
+        <v>15tile</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>668</v>
+        <v>292</v>
       </c>
       <c r="D57" t="s">
-        <v>379</v>
+        <v>288</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>289</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>290</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" ref="H57:H60" si="1">CONCATENATE(A57,B57)</f>
-        <v>16map</v>
+        <v>15crag</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
         <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="D58" t="s">
-        <v>380</v>
-      </c>
-      <c r="E58" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E58" t="s">
         <v>109</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" t="s">
         <v>108</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
-        <v>12map</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>15map</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="D59" t="s">
-        <v>402</v>
+        <v>342</v>
       </c>
       <c r="E59" t="s">
-        <v>392</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>393</v>
+        <v>340</v>
+      </c>
+      <c r="F59" t="s">
+        <v>341</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
-        <v>17topo</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>16crag</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="D60" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="E60" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="F60" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
-        <v>17crag</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>16topo</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
         <v>178</v>
       </c>
       <c r="C61" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="D61" t="s">
-        <v>406</v>
+        <v>342</v>
       </c>
       <c r="E61" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" ref="H61:H74" si="2">CONCATENATE(A61,B61)</f>
-        <v>17tile</v>
+        <v>16tile</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
         <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="D62" t="s">
-        <v>409</v>
-      </c>
-      <c r="E62" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="E62" t="s">
         <v>109</v>
       </c>
       <c r="F62" t="s">
@@ -6302,100 +6367,103 @@
       </c>
       <c r="H62" t="str">
         <f t="shared" si="2"/>
-        <v>17map</v>
+        <v>16map</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="C63" t="s">
+        <v>408</v>
       </c>
       <c r="D63" t="s">
-        <v>410</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F63" t="s">
-        <v>108</v>
+        <v>402</v>
+      </c>
+      <c r="E63" t="s">
+        <v>392</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>393</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="2"/>
-        <v>13map</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>17topo</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="D64" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="E64" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="F64" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="2"/>
-        <v>18topo</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>17crag</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="C65" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="D65" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="E65" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="F65" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="2"/>
-        <v>18crag</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>17tile</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="C66" t="s">
-        <v>433</v>
+        <v>660</v>
       </c>
       <c r="D66" t="s">
-        <v>434</v>
-      </c>
-      <c r="E66" t="s">
-        <v>435</v>
+        <v>409</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="F66" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="2"/>
-        <v>18tile</v>
+        <v>17map</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
@@ -6403,281 +6471,287 @@
         <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="C67" t="s">
+        <v>429</v>
       </c>
       <c r="D67" t="s">
-        <v>437</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>108</v>
+        <v>430</v>
+      </c>
+      <c r="E67" t="s">
+        <v>431</v>
+      </c>
+      <c r="F67" t="s">
+        <v>112</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="2"/>
-        <v>18map</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>18topo</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
         <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="D68" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="E68" t="s">
-        <v>465</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>466</v>
+        <v>435</v>
+      </c>
+      <c r="F68" t="s">
+        <v>137</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="2"/>
-        <v>20crag</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>18crag</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
         <v>178</v>
       </c>
       <c r="C69" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
       <c r="D69" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="E69" t="s">
-        <v>467</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>466</v>
+        <v>435</v>
+      </c>
+      <c r="F69" t="s">
+        <v>137</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="2"/>
-        <v>20tile</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>18tile</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C70" t="s">
-        <v>471</v>
+        <v>685</v>
       </c>
       <c r="D70" t="s">
-        <v>468</v>
-      </c>
-      <c r="E70" t="s">
-        <v>467</v>
+        <v>437</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>469</v>
+        <v>108</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="2"/>
-        <v>20topo</v>
+        <v>18map</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>111</v>
+        <v>119</v>
+      </c>
+      <c r="C71" t="s">
+        <v>485</v>
       </c>
       <c r="D71" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E71" t="s">
-        <v>109</v>
+        <v>486</v>
       </c>
       <c r="F71" t="s">
-        <v>108</v>
+        <v>290</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="2"/>
-        <v>20map</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>19crag</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D72" t="s">
         <v>479</v>
       </c>
       <c r="E72" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F72" t="s">
-        <v>290</v>
+        <v>481</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="2"/>
-        <v>19crag</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>19tile</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="C73" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D73" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E73" t="s">
         <v>480</v>
       </c>
       <c r="F73" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="2"/>
-        <v>19tile</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>19topo</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C74" t="s">
-        <v>484</v>
+        <v>661</v>
       </c>
       <c r="D74" t="s">
-        <v>483</v>
-      </c>
-      <c r="E74" t="s">
-        <v>480</v>
+        <v>490</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="F74" t="s">
-        <v>482</v>
+        <v>108</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="2"/>
-        <v>19topo</v>
+        <v>19map</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C75" t="s">
-        <v>662</v>
+        <v>473</v>
       </c>
       <c r="D75" t="s">
-        <v>490</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F75" t="s">
-        <v>108</v>
+        <v>464</v>
+      </c>
+      <c r="E75" t="s">
+        <v>465</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>466</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" ref="H75" si="3">CONCATENATE(A75,B75)</f>
-        <v>19map</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>20crag</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="C76" t="s">
-        <v>514</v>
+        <v>472</v>
       </c>
       <c r="D76" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="E76" t="s">
-        <v>512</v>
-      </c>
-      <c r="F76" t="s">
-        <v>513</v>
+        <v>467</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>466</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" ref="H76:H102" si="4">CONCATENATE(A76,B76)</f>
-        <v>21crag</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>20tile</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
       <c r="D77" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="E77" t="s">
-        <v>512</v>
-      </c>
-      <c r="F77" t="s">
-        <v>513</v>
+        <v>467</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>469</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="4"/>
-        <v>21tile</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>20topo</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>515</v>
+        <v>683</v>
       </c>
       <c r="D78" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="E78" t="s">
-        <v>517</v>
+        <v>109</v>
       </c>
       <c r="F78" t="s">
-        <v>518</v>
+        <v>108</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="4"/>
-        <v>21topo</v>
+        <v>20map</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
@@ -6685,81 +6759,87 @@
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>119</v>
+      </c>
+      <c r="C79" t="s">
+        <v>514</v>
       </c>
       <c r="D79" t="s">
-        <v>521</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>109</v>
+        <v>511</v>
+      </c>
+      <c r="E79" t="s">
+        <v>512</v>
       </c>
       <c r="F79" t="s">
-        <v>108</v>
+        <v>513</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="4"/>
-        <v>21map</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>21crag</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C80" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="D80" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="E80" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="F80" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="4"/>
-        <v>9topo</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>21tile</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C81" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="D81" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="E81" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F81" t="s">
-        <v>290</v>
+        <v>518</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="4"/>
-        <v>9crag</v>
+        <v>21topo</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B82" t="s">
         <v>111</v>
       </c>
+      <c r="C82" t="s">
+        <v>684</v>
+      </c>
       <c r="D82" t="s">
-        <v>530</v>
-      </c>
-      <c r="E82" t="s">
+        <v>521</v>
+      </c>
+      <c r="E82" s="12" t="s">
         <v>109</v>
       </c>
       <c r="F82" t="s">
@@ -6767,10 +6847,10 @@
       </c>
       <c r="H82" t="str">
         <f t="shared" si="4"/>
-        <v>9map</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+        <v>21map</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>22</v>
       </c>
@@ -6794,7 +6874,7 @@
         <v>22crag</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>22</v>
       </c>
@@ -6818,7 +6898,7 @@
         <v>22tile</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>22</v>
       </c>
@@ -6850,7 +6930,7 @@
         <v>111</v>
       </c>
       <c r="C86" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D86" t="s">
         <v>559</v>
@@ -6866,7 +6946,7 @@
         <v>22map</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>23</v>
       </c>
@@ -6890,7 +6970,7 @@
         <v>23crag</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>23</v>
       </c>
@@ -6914,7 +6994,7 @@
         <v>23tile</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>23</v>
       </c>
@@ -6946,7 +7026,7 @@
         <v>111</v>
       </c>
       <c r="C90" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D90" t="s">
         <v>577</v>
@@ -6962,7 +7042,7 @@
         <v>23map</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>24</v>
       </c>
@@ -6986,7 +7066,7 @@
         <v>24topo</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>24</v>
       </c>
@@ -7010,7 +7090,7 @@
         <v>24crag</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>24</v>
       </c>
@@ -7042,7 +7122,7 @@
         <v>111</v>
       </c>
       <c r="C94" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D94" t="s">
         <v>601</v>
@@ -7058,7 +7138,7 @@
         <v>24map</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>25</v>
       </c>
@@ -7082,7 +7162,7 @@
         <v>25crag</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>25</v>
       </c>
@@ -7114,7 +7194,7 @@
         <v>111</v>
       </c>
       <c r="C97" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D97" t="s">
         <v>635</v>
@@ -7130,7 +7210,7 @@
         <v>25map</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>25</v>
       </c>
@@ -7154,7 +7234,7 @@
         <v>25topo</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>26</v>
       </c>
@@ -7178,7 +7258,7 @@
         <v>26crag</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>26</v>
       </c>
@@ -7202,7 +7282,7 @@
         <v>26tile</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>26</v>
       </c>
@@ -7227,36 +7307,16 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A102">
-        <v>26</v>
-      </c>
-      <c r="B102" t="s">
-        <v>111</v>
-      </c>
-      <c r="D102" t="s">
-        <v>656</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F102" t="s">
-        <v>108</v>
-      </c>
-      <c r="H102" t="str">
-        <f t="shared" si="4"/>
-        <v>26map</v>
-      </c>
+      <c r="E102" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F102" xr:uid="{BFB1D3BA-7B83-4CA6-BA2B-968EDE266848}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="map"/>
-      </filters>
-    </filterColumn>
+    <sortState ref="A2:F102">
+      <sortCondition ref="A1:A102"/>
+    </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E63" r:id="rId1" xr:uid="{35DF19F2-37DF-43EA-B6CA-AD2C731AF59E}"/>
+    <hyperlink ref="E50" r:id="rId1" xr:uid="{35DF19F2-37DF-43EA-B6CA-AD2C731AF59E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -12885,12 +12945,12 @@
         <f>IF(CLIMBS!S27&lt;&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="str">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B27,"tile"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B27,"crag"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B27,"topo"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B27,"map"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>missing</v>
       </c>
       <c r="G27">
         <f>_xlfn.IFNA(IF(VLOOKUP(B27,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FB6B00-83B2-437D-8213-FABEB7F6DD9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E653F2-DB23-4517-8ED0-44B8247B476C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="690">
   <si>
     <t>cliff</t>
   </si>
@@ -355,12 +355,6 @@
     <t>draft</t>
   </si>
   <si>
-    <t>Google Map</t>
-  </si>
-  <si>
-    <t>http://google.com/maps</t>
-  </si>
-  <si>
     <t>The Old Man of Stoer's Location in Scotland</t>
   </si>
   <si>
@@ -878,9 +872,6 @@
   </si>
   <si>
     <t>rrp</t>
-  </si>
-  <si>
-    <t>guidePrice</t>
   </si>
   <si>
     <t>img/tiles/devils-tower-wyoming.jpg</t>
@@ -2055,9 +2046,6 @@
     <t>VI+ &amp; (f6b)</t>
   </si>
   <si>
-    <t>coming soon</t>
-  </si>
-  <si>
     <t>Piaz Arete Delagokante</t>
   </si>
   <si>
@@ -2140,6 +2128,31 @@
   </si>
   <si>
     <t>img/topos/scafell/maps/</t>
+  </si>
+  <si>
+    <t>Approach: There is a shuttle bus that runs between Pera in the Val di Fassa and Rufugio Gardenccia (approach time is measured from Rufugio Gardenccia [Gardenccia shelter/mountain refuge]). The service departs from the large carpark by the Ciampedie chairlift in Pera. From here hike to the Rufugio Re Alberto, then follow the well worn path to the towers. Take the path behind Torre Piaz until reaching the gully between the larger towers of Stabeler and Delago. The rout starts from the ledge.
+Decent: From the east edge of Delago, make a 40m absail to a notch between the two larger towers (Stabeler and Delago). Make another 40 then 45m abseil to the base of the gully between the towers to the ledge the route started on. From here you can hike back.</t>
+  </si>
+  <si>
+    <t>absail</t>
+  </si>
+  <si>
+    <t>traverse</t>
+  </si>
+  <si>
+    <t>This guide covers everything you need for a multi-pitch climbing trip regardless of ability, it also has sport, trad and via ferrata routes. It features all the major areas and has very clear topos and route descriptions including the Catinaccio / Rosengarten region where the Vajolet Towers are located in the Alps.</t>
+  </si>
+  <si>
+    <t>img/topos/vejolet/maps/</t>
+  </si>
+  <si>
+    <t>Location of the Vejolet Towers</t>
+  </si>
+  <si>
+    <t>https://www.mapbox.com/</t>
+  </si>
+  <si>
+    <t>Mapbox</t>
   </si>
 </sst>
 </file>
@@ -3207,10 +3220,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:R27"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3232,9 +3246,10 @@
     <col min="16" max="16" width="15.1328125" style="2" customWidth="1"/>
     <col min="17" max="20" width="15.265625" style="2" customWidth="1"/>
     <col min="21" max="21" width="4.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3298,8 +3313,14 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V1" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -3349,7 +3370,7 @@
         <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>30</v>
@@ -3357,8 +3378,11 @@
       <c r="T2" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -3420,7 +3444,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -3452,7 +3476,7 @@
         <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>51</v>
@@ -3473,16 +3497,16 @@
         <v>54</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -3511,7 +3535,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>60</v>
@@ -3538,7 +3562,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
@@ -3585,22 +3609,25 @@
         <v>3</v>
       </c>
       <c r="Q6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>73</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+        <v>331</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>74</v>
       </c>
@@ -3662,7 +3689,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>86</v>
       </c>
@@ -3697,7 +3724,7 @@
         <v>51</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O8" s="2">
         <v>30</v>
@@ -3715,10 +3742,10 @@
         <v>91</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -3756,7 +3783,7 @@
         <v>39</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O9" s="2">
         <v>120</v>
@@ -3768,19 +3795,22 @@
         <v>41</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>95</v>
       </c>
@@ -3794,7 +3824,7 @@
         <v>96</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>97</v>
@@ -3809,19 +3839,19 @@
         <v>7</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>60</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O10" s="2">
         <v>10</v>
@@ -3833,16 +3863,16 @@
         <v>41</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>99</v>
       </c>
@@ -3880,7 +3910,7 @@
         <v>39</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O11" s="2">
         <v>50</v>
@@ -3898,12 +3928,12 @@
         <v>104</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>106</v>
@@ -3915,10 +3945,10 @@
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G12" s="2">
         <v>330</v>
@@ -3939,7 +3969,7 @@
         <v>27</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O12" s="2">
         <v>140</v>
@@ -3951,21 +3981,21 @@
         <v>41</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>106</v>
@@ -3974,13 +4004,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="E13" t="s">
-        <v>209</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="G13" s="2">
         <v>190</v>
@@ -3998,13 +4028,13 @@
         <v>26</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="O13" s="2">
         <v>20</v>
@@ -4013,21 +4043,24 @@
         <v>1</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>106</v>
@@ -4039,10 +4072,10 @@
         <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G14" s="2">
         <v>81</v>
@@ -4057,13 +4090,13 @@
         <v>25</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="O14" s="2">
         <v>20</v>
@@ -4072,21 +4105,24 @@
         <v>2</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+        <v>233</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>106</v>
@@ -4101,7 +4137,7 @@
         <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G15" s="2">
         <v>70</v>
@@ -4122,7 +4158,7 @@
         <v>39</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O15" s="2">
         <v>15</v>
@@ -4134,21 +4170,21 @@
         <v>41</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>106</v>
@@ -4157,13 +4193,13 @@
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="G16" s="2">
         <v>152</v>
@@ -4178,16 +4214,16 @@
         <v>25</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="O16" s="2">
         <v>5</v>
@@ -4196,24 +4232,27 @@
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>106</v>
@@ -4228,7 +4267,7 @@
         <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G17" s="2">
         <v>280</v>
@@ -4240,7 +4279,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>38</v>
@@ -4249,7 +4288,7 @@
         <v>51</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="O17" s="2">
         <v>75</v>
@@ -4261,21 +4300,21 @@
         <v>53</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>106</v>
@@ -4284,13 +4323,13 @@
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E18" t="s">
+        <v>383</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="E18" t="s">
-        <v>386</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="G18" s="2">
         <v>575</v>
@@ -4302,19 +4341,19 @@
         <v>7</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M18" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="O18" s="2">
         <v>90</v>
@@ -4323,21 +4362,24 @@
         <v>2</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+        <v>233</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>106</v>
@@ -4349,10 +4391,10 @@
         <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G19" s="2">
         <v>74</v>
@@ -4364,16 +4406,16 @@
         <v>2</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="O19" s="2">
         <v>70</v>
@@ -4385,15 +4427,15 @@
         <v>53</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>106</v>
@@ -4402,13 +4444,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E20" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G20" s="2">
         <v>300</v>
@@ -4420,19 +4462,19 @@
         <v>3</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>79</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="O20" s="2">
         <v>40</v>
@@ -4444,18 +4486,18 @@
         <v>64</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="S20" t="s">
+        <v>453</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>106</v>
@@ -4467,10 +4509,10 @@
         <v>66</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G21" s="2">
         <v>80</v>
@@ -4491,7 +4533,7 @@
         <v>70</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="O21" s="2">
         <v>90</v>
@@ -4503,18 +4545,18 @@
         <v>41</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>106</v>
@@ -4523,13 +4565,13 @@
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="G22" s="2">
         <v>80</v>
@@ -4544,13 +4586,13 @@
         <v>59</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="O22" s="2">
         <v>40</v>
@@ -4562,21 +4604,21 @@
         <v>41</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>106</v>
@@ -4585,13 +4627,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G23" s="2">
         <v>228</v>
@@ -4609,10 +4651,10 @@
         <v>60</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="O23" s="2">
         <v>20</v>
@@ -4624,21 +4666,24 @@
         <v>64</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>106</v>
@@ -4647,13 +4692,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G24" s="2">
         <v>250</v>
@@ -4671,13 +4716,13 @@
         <v>26</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M24" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="O24" s="2">
         <v>21</v>
@@ -4686,24 +4731,27 @@
         <v>1</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+        <v>331</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>106</v>
@@ -4712,13 +4760,13 @@
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="G25" s="2">
         <v>350</v>
@@ -4730,19 +4778,19 @@
         <v>7</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="L25" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>589</v>
       </c>
       <c r="O25" s="2">
         <v>190</v>
@@ -4754,21 +4802,24 @@
         <v>41</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>106</v>
@@ -4777,13 +4828,13 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="G26" s="2">
         <v>230</v>
@@ -4798,16 +4849,16 @@
         <v>25</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="O26" s="2">
         <v>70</v>
@@ -4819,24 +4870,24 @@
         <v>64</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="2">
         <v>26</v>
@@ -4845,10 +4896,10 @@
         <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G27" s="2">
         <v>160</v>
@@ -4863,7 +4914,7 @@
         <v>37</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>80</v>
@@ -4872,7 +4923,7 @@
         <v>81</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O27" s="2">
         <v>80</v>
@@ -4884,18 +4935,27 @@
         <v>83</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>657</v>
+        <v>643</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>243</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S28" s="17"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -4906,10 +4966,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4924,25 +4985,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -4950,19 +5011,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(A2,B2)</f>
@@ -4974,19 +5035,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>672</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H56" si="0">CONCATENATE(A3,B3)</f>
@@ -4998,19 +5059,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>668</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>688</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -5022,13 +5083,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -5040,19 +5101,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -5064,19 +5125,19 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" t="s">
         <v>129</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>130</v>
-      </c>
-      <c r="E7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" t="s">
-        <v>132</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -5088,19 +5149,19 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>688</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -5112,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -5121,7 +5182,7 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -5133,19 +5194,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" t="s">
         <v>134</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>135</v>
-      </c>
-      <c r="E10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" t="s">
-        <v>137</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -5157,19 +5218,19 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -5181,19 +5242,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>688</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -5205,13 +5266,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -5223,13 +5284,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C14" t="s">
         <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -5241,19 +5302,19 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" t="s">
         <v>141</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>142</v>
-      </c>
-      <c r="E15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" t="s">
-        <v>144</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -5265,19 +5326,19 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -5289,19 +5350,19 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>688</v>
       </c>
       <c r="F17" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -5313,16 +5374,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
         <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -5334,19 +5395,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" t="s">
         <v>148</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>149</v>
-      </c>
-      <c r="E19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" t="s">
-        <v>151</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -5358,19 +5419,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" t="s">
         <v>152</v>
       </c>
-      <c r="D20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" t="s">
-        <v>154</v>
-      </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -5382,19 +5443,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>688</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -5406,13 +5467,13 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
         <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -5424,19 +5485,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -5448,19 +5509,19 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" t="s">
         <v>158</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>159</v>
-      </c>
-      <c r="E24" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" t="s">
-        <v>161</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -5472,19 +5533,19 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>688</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -5496,19 +5557,19 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
         <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -5520,19 +5581,19 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" t="s">
         <v>163</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>164</v>
-      </c>
-      <c r="E27" t="s">
-        <v>165</v>
-      </c>
-      <c r="F27" t="s">
-        <v>166</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -5544,19 +5605,19 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D28" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" t="s">
         <v>167</v>
-      </c>
-      <c r="E28" t="s">
-        <v>168</v>
-      </c>
-      <c r="F28" t="s">
-        <v>169</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -5568,19 +5629,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>688</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -5592,16 +5653,16 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C30" t="s">
         <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
@@ -5613,19 +5674,19 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D31" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>688</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
@@ -5637,19 +5698,19 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C32" t="s">
         <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F32" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
@@ -5661,19 +5722,19 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D33" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E33" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F33" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
@@ -5685,19 +5746,19 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D34" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E34" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F34" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
@@ -5709,19 +5770,19 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" t="s">
         <v>170</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>171</v>
-      </c>
-      <c r="E35" t="s">
-        <v>172</v>
-      </c>
-      <c r="F35" t="s">
-        <v>173</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
@@ -5733,19 +5794,19 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
@@ -5757,13 +5818,13 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C37" t="s">
         <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
@@ -5775,19 +5836,19 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>688</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
@@ -5799,19 +5860,19 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D39" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F39" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
@@ -5823,19 +5884,19 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
@@ -5847,19 +5908,19 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
@@ -5871,19 +5932,19 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D42" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>688</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
@@ -5895,19 +5956,19 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
@@ -5919,19 +5980,19 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
@@ -5943,19 +6004,19 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C45" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E45" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
@@ -5967,19 +6028,19 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D46" t="s">
-        <v>380</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>108</v>
+        <v>377</v>
+      </c>
+      <c r="E46" t="s">
+        <v>688</v>
+      </c>
+      <c r="F46" t="s">
+        <v>689</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
@@ -5991,19 +6052,19 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C47" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" t="s">
         <v>230</v>
       </c>
-      <c r="D47" t="s">
-        <v>232</v>
-      </c>
       <c r="E47" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
@@ -6015,19 +6076,19 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
+        <v>229</v>
+      </c>
+      <c r="D48" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" t="s">
         <v>231</v>
       </c>
-      <c r="D48" t="s">
-        <v>232</v>
-      </c>
-      <c r="E48" t="s">
-        <v>233</v>
-      </c>
       <c r="F48" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
@@ -6039,19 +6100,19 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49" t="s">
+        <v>235</v>
+      </c>
+      <c r="E49" t="s">
         <v>236</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>237</v>
-      </c>
-      <c r="E49" t="s">
-        <v>238</v>
-      </c>
-      <c r="F49" t="s">
-        <v>239</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
@@ -6063,19 +6124,19 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D50" t="s">
-        <v>410</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>109</v>
+        <v>407</v>
+      </c>
+      <c r="E50" t="s">
+        <v>688</v>
       </c>
       <c r="F50" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
@@ -6087,19 +6148,19 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D51" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F51" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
@@ -6111,19 +6172,19 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F52" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
@@ -6135,19 +6196,19 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C53" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E53" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F53" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
@@ -6159,19 +6220,19 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D54" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>688</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
@@ -6183,19 +6244,19 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D55" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E55" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F55" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
@@ -6207,19 +6268,19 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C56" t="s">
+        <v>281</v>
+      </c>
+      <c r="D56" t="s">
+        <v>282</v>
+      </c>
+      <c r="E56" t="s">
+        <v>283</v>
+      </c>
+      <c r="F56" t="s">
         <v>284</v>
-      </c>
-      <c r="D56" t="s">
-        <v>285</v>
-      </c>
-      <c r="E56" t="s">
-        <v>286</v>
-      </c>
-      <c r="F56" t="s">
-        <v>287</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
@@ -6231,19 +6292,19 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C57" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D57" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E57" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F57" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" ref="H57:H60" si="1">CONCATENATE(A57,B57)</f>
@@ -6255,19 +6316,19 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D58" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>688</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
@@ -6279,19 +6340,19 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D59" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E59" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F59" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
@@ -6303,19 +6364,19 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D60" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E60" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
@@ -6327,19 +6388,19 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D61" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E61" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" ref="H61:H74" si="2">CONCATENATE(A61,B61)</f>
@@ -6351,19 +6412,19 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D62" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E62" t="s">
-        <v>109</v>
+        <v>688</v>
       </c>
       <c r="F62" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="2"/>
@@ -6375,19 +6436,19 @@
         <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D63" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E63" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="2"/>
@@ -6399,19 +6460,19 @@
         <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C64" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D64" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E64" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="2"/>
@@ -6423,19 +6484,19 @@
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C65" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D65" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E65" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="2"/>
@@ -6447,19 +6508,19 @@
         <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D66" t="s">
-        <v>409</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>109</v>
+        <v>406</v>
+      </c>
+      <c r="E66" t="s">
+        <v>688</v>
       </c>
       <c r="F66" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="2"/>
@@ -6471,19 +6532,19 @@
         <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D67" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E67" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F67" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="2"/>
@@ -6495,19 +6556,19 @@
         <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
+        <v>429</v>
+      </c>
+      <c r="D68" t="s">
+        <v>431</v>
+      </c>
+      <c r="E68" t="s">
         <v>432</v>
       </c>
-      <c r="D68" t="s">
-        <v>434</v>
-      </c>
-      <c r="E68" t="s">
-        <v>435</v>
-      </c>
       <c r="F68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="2"/>
@@ -6519,19 +6580,19 @@
         <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C69" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D69" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E69" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="2"/>
@@ -6543,19 +6604,19 @@
         <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D70" t="s">
-        <v>437</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>108</v>
+        <v>434</v>
+      </c>
+      <c r="E70" t="s">
+        <v>688</v>
+      </c>
+      <c r="F70" t="s">
+        <v>689</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="2"/>
@@ -6567,19 +6628,19 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D71" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E71" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="2"/>
@@ -6591,19 +6652,19 @@
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C72" t="s">
+        <v>475</v>
+      </c>
+      <c r="D72" t="s">
+        <v>476</v>
+      </c>
+      <c r="E72" t="s">
+        <v>477</v>
+      </c>
+      <c r="F72" t="s">
         <v>478</v>
-      </c>
-      <c r="D72" t="s">
-        <v>479</v>
-      </c>
-      <c r="E72" t="s">
-        <v>480</v>
-      </c>
-      <c r="F72" t="s">
-        <v>481</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="2"/>
@@ -6615,19 +6676,19 @@
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C73" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D73" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E73" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F73" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="2"/>
@@ -6639,19 +6700,19 @@
         <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C74" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D74" t="s">
-        <v>490</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>109</v>
+        <v>487</v>
+      </c>
+      <c r="E74" t="s">
+        <v>688</v>
       </c>
       <c r="F74" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="2"/>
@@ -6663,19 +6724,19 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D75" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E75" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" ref="H75" si="3">CONCATENATE(A75,B75)</f>
@@ -6687,22 +6748,22 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C76" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D76" t="s">
+        <v>461</v>
+      </c>
+      <c r="E76" t="s">
         <v>464</v>
       </c>
-      <c r="E76" t="s">
-        <v>467</v>
-      </c>
       <c r="F76" s="12" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" ref="H76:H102" si="4">CONCATENATE(A76,B76)</f>
+        <f t="shared" ref="H76:H117" si="4">CONCATENATE(A76,B76)</f>
         <v>20tile</v>
       </c>
     </row>
@@ -6711,19 +6772,19 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C77" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D77" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E77" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="4"/>
@@ -6735,19 +6796,19 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D78" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E78" t="s">
-        <v>109</v>
+        <v>688</v>
       </c>
       <c r="F78" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="4"/>
@@ -6759,19 +6820,19 @@
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D79" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E79" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F79" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="4"/>
@@ -6783,19 +6844,19 @@
         <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C80" t="s">
+        <v>507</v>
+      </c>
+      <c r="D80" t="s">
+        <v>508</v>
+      </c>
+      <c r="E80" t="s">
+        <v>509</v>
+      </c>
+      <c r="F80" t="s">
         <v>510</v>
-      </c>
-      <c r="D80" t="s">
-        <v>511</v>
-      </c>
-      <c r="E80" t="s">
-        <v>512</v>
-      </c>
-      <c r="F80" t="s">
-        <v>513</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="4"/>
@@ -6807,19 +6868,19 @@
         <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C81" t="s">
+        <v>512</v>
+      </c>
+      <c r="D81" t="s">
+        <v>513</v>
+      </c>
+      <c r="E81" t="s">
+        <v>514</v>
+      </c>
+      <c r="F81" t="s">
         <v>515</v>
-      </c>
-      <c r="D81" t="s">
-        <v>516</v>
-      </c>
-      <c r="E81" t="s">
-        <v>517</v>
-      </c>
-      <c r="F81" t="s">
-        <v>518</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="4"/>
@@ -6831,19 +6892,19 @@
         <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C82" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D82" t="s">
-        <v>521</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>109</v>
+        <v>518</v>
+      </c>
+      <c r="E82" t="s">
+        <v>688</v>
       </c>
       <c r="F82" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="4"/>
@@ -6855,19 +6916,19 @@
         <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D83" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E83" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F83" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="4"/>
@@ -6879,19 +6940,19 @@
         <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C84" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D84" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E84" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F84" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="4"/>
@@ -6903,19 +6964,19 @@
         <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C85" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E85" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F85" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="4"/>
@@ -6927,19 +6988,19 @@
         <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C86" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D86" t="s">
-        <v>559</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>109</v>
+        <v>556</v>
+      </c>
+      <c r="E86" t="s">
+        <v>688</v>
       </c>
       <c r="F86" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="4"/>
@@ -6951,19 +7012,19 @@
         <v>23</v>
       </c>
       <c r="B87" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
+        <v>566</v>
+      </c>
+      <c r="D87" t="s">
+        <v>567</v>
+      </c>
+      <c r="E87" t="s">
+        <v>568</v>
+      </c>
+      <c r="F87" t="s">
         <v>569</v>
-      </c>
-      <c r="D87" t="s">
-        <v>570</v>
-      </c>
-      <c r="E87" t="s">
-        <v>571</v>
-      </c>
-      <c r="F87" t="s">
-        <v>572</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="4"/>
@@ -6975,19 +7036,19 @@
         <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C88" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D88" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E88" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F88" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="4"/>
@@ -6999,19 +7060,19 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D89" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E89" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F89" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="4"/>
@@ -7023,19 +7084,19 @@
         <v>23</v>
       </c>
       <c r="B90" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C90" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D90" t="s">
-        <v>577</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>109</v>
+        <v>574</v>
+      </c>
+      <c r="E90" t="s">
+        <v>688</v>
       </c>
       <c r="F90" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="4"/>
@@ -7047,19 +7108,19 @@
         <v>24</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C91" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D91" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F91" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="4"/>
@@ -7071,19 +7132,19 @@
         <v>24</v>
       </c>
       <c r="B92" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D92" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E92" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F92" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="4"/>
@@ -7095,19 +7156,19 @@
         <v>24</v>
       </c>
       <c r="B93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C93" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D93" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F93" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="4"/>
@@ -7119,19 +7180,19 @@
         <v>24</v>
       </c>
       <c r="B94" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C94" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D94" t="s">
-        <v>601</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>109</v>
+        <v>598</v>
+      </c>
+      <c r="E94" t="s">
+        <v>688</v>
       </c>
       <c r="F94" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="4"/>
@@ -7143,19 +7204,19 @@
         <v>25</v>
       </c>
       <c r="B95" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C95" t="s">
+        <v>627</v>
+      </c>
+      <c r="D95" t="s">
+        <v>628</v>
+      </c>
+      <c r="E95" t="s">
+        <v>629</v>
+      </c>
+      <c r="F95" t="s">
         <v>630</v>
-      </c>
-      <c r="D95" t="s">
-        <v>631</v>
-      </c>
-      <c r="E95" t="s">
-        <v>632</v>
-      </c>
-      <c r="F95" t="s">
-        <v>633</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="4"/>
@@ -7167,19 +7228,19 @@
         <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C96" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D96" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E96" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F96" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="4"/>
@@ -7191,19 +7252,19 @@
         <v>25</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C97" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D97" t="s">
-        <v>635</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>109</v>
+        <v>632</v>
+      </c>
+      <c r="E97" t="s">
+        <v>688</v>
       </c>
       <c r="F97" t="s">
-        <v>108</v>
+        <v>689</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="4"/>
@@ -7215,19 +7276,19 @@
         <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C98" t="s">
+        <v>633</v>
+      </c>
+      <c r="D98" t="s">
+        <v>634</v>
+      </c>
+      <c r="E98" t="s">
+        <v>635</v>
+      </c>
+      <c r="F98" t="s">
         <v>636</v>
-      </c>
-      <c r="D98" t="s">
-        <v>637</v>
-      </c>
-      <c r="E98" t="s">
-        <v>638</v>
-      </c>
-      <c r="F98" t="s">
-        <v>639</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="4"/>
@@ -7239,19 +7300,19 @@
         <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C99" t="s">
+        <v>644</v>
+      </c>
+      <c r="D99" t="s">
+        <v>645</v>
+      </c>
+      <c r="E99" t="s">
+        <v>646</v>
+      </c>
+      <c r="F99" t="s">
         <v>647</v>
-      </c>
-      <c r="D99" t="s">
-        <v>648</v>
-      </c>
-      <c r="E99" t="s">
-        <v>649</v>
-      </c>
-      <c r="F99" t="s">
-        <v>650</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="4"/>
@@ -7263,19 +7324,19 @@
         <v>26</v>
       </c>
       <c r="B100" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C100" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D100" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E100" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F100" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="4"/>
@@ -7287,19 +7348,19 @@
         <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D101" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E101" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F101" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="4"/>
@@ -7307,7 +7368,118 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E102" s="12"/>
+      <c r="A102">
+        <v>26</v>
+      </c>
+      <c r="B102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" t="s">
+        <v>686</v>
+      </c>
+      <c r="D102" t="s">
+        <v>687</v>
+      </c>
+      <c r="E102" t="s">
+        <v>688</v>
+      </c>
+      <c r="F102" t="s">
+        <v>689</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="4"/>
+        <v>26map</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H103" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H104" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H105" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H106" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H107" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H109" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H110" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H111" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H112" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H113" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H114" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H115" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H116" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H117" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F102" xr:uid="{BFB1D3BA-7B83-4CA6-BA2B-968EDE266848}">
@@ -7315,20 +7487,17 @@
       <sortCondition ref="A1:A102"/>
     </sortState>
   </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="E50" r:id="rId1" xr:uid="{35DF19F2-37DF-43EA-B6CA-AD2C731AF59E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB58989-DB9B-42B8-8BEA-AD863D94E91D}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7340,824 +7509,777 @@
     <col min="6" max="6" width="27.265625" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
     <col min="8" max="8" width="7.1328125" customWidth="1"/>
-    <col min="10" max="10" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" t="s">
         <v>256</v>
       </c>
-      <c r="C1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" t="s">
-        <v>258</v>
-      </c>
       <c r="F1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I1" t="s">
-        <v>282</v>
-      </c>
-      <c r="J1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E2">
         <v>206</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I2">
         <v>24.99</v>
       </c>
-      <c r="J2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E3">
         <v>266</v>
       </c>
       <c r="F3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="I3">
         <v>25</v>
       </c>
-      <c r="J3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E4">
         <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I4">
         <v>24.99</v>
       </c>
-      <c r="J4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E5">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E6">
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="I6">
         <v>20</v>
       </c>
-      <c r="J6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E7">
         <v>175</v>
       </c>
       <c r="F7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I7">
         <v>29.95</v>
       </c>
-      <c r="J7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E8">
         <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I8">
         <v>24.99</v>
       </c>
-      <c r="J8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E9">
         <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H9" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I9">
         <v>24.99</v>
       </c>
-      <c r="J9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E10">
         <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I10">
         <v>34.950000000000003</v>
       </c>
-      <c r="J10">
-        <v>34.950000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E11">
         <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H11" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I11">
         <v>24.99</v>
       </c>
-      <c r="J11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E12">
         <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H12" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="I12">
         <v>20</v>
       </c>
-      <c r="J12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E13">
         <v>156</v>
       </c>
       <c r="F13" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I13">
         <v>24.99</v>
       </c>
-      <c r="J13">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C14" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E14">
         <v>32</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="I14">
         <v>25</v>
       </c>
-      <c r="J14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E15">
         <v>258</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H15" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I15">
         <v>24.99</v>
       </c>
-      <c r="J15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C16" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E16">
         <v>162</v>
       </c>
       <c r="F16" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G16" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I16">
         <v>34</v>
       </c>
-      <c r="J16">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E17">
         <v>354</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G17" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H17" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="I17">
         <v>34.99</v>
       </c>
-      <c r="J17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C18" t="s">
+        <v>438</v>
+      </c>
+      <c r="D18" t="s">
+        <v>258</v>
+      </c>
+      <c r="E18" t="s">
+        <v>439</v>
+      </c>
+      <c r="F18" t="s">
         <v>440</v>
       </c>
-      <c r="C18" t="s">
+      <c r="G18" t="s">
         <v>441</v>
       </c>
-      <c r="D18" t="s">
-        <v>260</v>
-      </c>
-      <c r="E18" t="s">
-        <v>442</v>
-      </c>
-      <c r="F18" t="s">
-        <v>443</v>
-      </c>
-      <c r="G18" t="s">
-        <v>444</v>
-      </c>
       <c r="H18" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="I18">
         <v>25</v>
       </c>
-      <c r="J18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C19" t="s">
+        <v>442</v>
+      </c>
+      <c r="D19" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" t="s">
+        <v>439</v>
+      </c>
+      <c r="F19" t="s">
+        <v>444</v>
+      </c>
+      <c r="G19" t="s">
         <v>445</v>
       </c>
-      <c r="D19" t="s">
-        <v>260</v>
-      </c>
-      <c r="E19" t="s">
-        <v>442</v>
-      </c>
-      <c r="F19" t="s">
-        <v>447</v>
-      </c>
-      <c r="G19" t="s">
-        <v>448</v>
-      </c>
       <c r="H19" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I19">
         <v>20</v>
       </c>
-      <c r="J19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C20" t="s">
+        <v>488</v>
+      </c>
+      <c r="D20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20" t="s">
+        <v>439</v>
+      </c>
+      <c r="F20" t="s">
+        <v>490</v>
+      </c>
+      <c r="G20" t="s">
         <v>491</v>
       </c>
-      <c r="D20" t="s">
-        <v>260</v>
-      </c>
-      <c r="E20" t="s">
-        <v>442</v>
-      </c>
-      <c r="F20" t="s">
-        <v>493</v>
-      </c>
-      <c r="G20" t="s">
-        <v>494</v>
-      </c>
       <c r="H20" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="I20">
         <v>34.99</v>
       </c>
-      <c r="J20">
-        <v>34.99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C21" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E21">
         <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G21" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H21" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="I21">
         <v>19.95</v>
       </c>
-      <c r="J21">
-        <v>19.95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C22" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D22" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G22" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H22" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="I22" t="s">
-        <v>535</v>
-      </c>
-      <c r="J22" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C23" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E23">
         <v>267</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G23" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H23" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="I23">
         <v>29.95</v>
       </c>
-      <c r="J23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>24</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C24" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E24">
         <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G24" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="I24">
         <v>38</v>
       </c>
-      <c r="J24">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C25" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D25" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E25">
         <v>410</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G25" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H25" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I25">
         <v>10</v>
       </c>
-      <c r="J25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C26" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E26">
         <v>300</v>
       </c>
       <c r="F26" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="I26">
         <v>38</v>
       </c>
-      <c r="J26">
-        <v>38</v>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C27" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" t="s">
+        <v>258</v>
+      </c>
+      <c r="E27">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>685</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="H27" t="s">
+        <v>335</v>
+      </c>
+      <c r="I27">
+        <v>29.95</v>
       </c>
     </row>
   </sheetData>
@@ -8176,7 +8298,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C25" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8188,16 +8310,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -8205,10 +8327,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -8216,10 +8338,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -8227,10 +8349,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -8238,10 +8360,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -8249,10 +8371,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -8260,10 +8382,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -8271,10 +8393,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -8282,10 +8404,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -8293,10 +8415,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C10" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -8304,10 +8426,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -8315,10 +8437,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C12" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -8326,10 +8448,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C13" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -8337,10 +8459,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C14" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -8348,10 +8470,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C15" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -8359,10 +8481,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C16" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -8399,16 +8521,16 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
@@ -8425,16 +8547,16 @@
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -8463,14 +8585,14 @@
         <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -8497,7 +8619,7 @@
         <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6">
@@ -8529,7 +8651,7 @@
         <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8">
@@ -8545,7 +8667,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9">
@@ -8577,7 +8699,7 @@
         <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11">
@@ -8593,14 +8715,14 @@
         <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -8608,7 +8730,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>44</v>
@@ -8618,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -8626,10 +8748,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D14" s="2"/>
       <c r="F14">
@@ -8645,14 +8767,14 @@
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -8660,7 +8782,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>44</v>
@@ -8670,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -8681,22 +8803,22 @@
         <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E17" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -8725,46 +8847,46 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" t="s">
         <v>315</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>316</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>317</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>318</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>319</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>320</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>321</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>322</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>323</v>
-      </c>
-      <c r="L1" t="s">
-        <v>324</v>
-      </c>
-      <c r="M1" t="s">
-        <v>325</v>
-      </c>
-      <c r="N1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
@@ -8772,7 +8894,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C2" s="18">
         <v>15</v>
@@ -8816,7 +8938,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C3" s="19">
         <v>9</v>
@@ -8861,7 +8983,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C4" s="21">
         <v>5</v>
@@ -8905,7 +9027,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C5" s="18">
         <v>13</v>
@@ -8949,7 +9071,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C6" s="19">
         <v>8</v>
@@ -8993,7 +9115,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C7" s="21">
         <v>3</v>
@@ -9038,7 +9160,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C8" s="18">
         <v>13</v>
@@ -9082,7 +9204,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C9" s="19">
         <v>8</v>
@@ -9127,7 +9249,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C10" s="21">
         <v>3</v>
@@ -9172,7 +9294,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C11" s="18">
         <v>19</v>
@@ -9216,7 +9338,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C12" s="19">
         <v>6</v>
@@ -9261,7 +9383,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C13" s="21">
         <v>4</v>
@@ -9307,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C14" s="18">
         <v>20</v>
@@ -9351,7 +9473,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C15" s="19">
         <v>8</v>
@@ -9397,7 +9519,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C16" s="21">
         <v>5</v>
@@ -9443,7 +9565,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C17" s="18">
         <v>19</v>
@@ -9487,7 +9609,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C18" s="19">
         <v>8</v>
@@ -9533,7 +9655,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C19" s="21">
         <v>2</v>
@@ -9579,7 +9701,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C20" s="18">
         <v>19</v>
@@ -9623,7 +9745,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C21" s="19">
         <v>8</v>
@@ -9669,7 +9791,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C22" s="21">
         <v>2</v>
@@ -9715,7 +9837,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C23" s="18">
         <v>15</v>
@@ -9759,7 +9881,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C24" s="19">
         <v>9</v>
@@ -9805,7 +9927,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C25" s="21">
         <v>5</v>
@@ -9851,7 +9973,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C26" s="23">
         <v>13</v>
@@ -9895,7 +10017,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C27" s="24">
         <v>8</v>
@@ -9941,7 +10063,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C28" s="26">
         <v>3</v>
@@ -9987,7 +10109,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C29" s="23">
         <v>4</v>
@@ -10031,7 +10153,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C30" s="24">
         <v>13</v>
@@ -10077,7 +10199,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C31" s="26">
         <v>4</v>
@@ -10123,7 +10245,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C32" s="23">
         <v>15</v>
@@ -10167,7 +10289,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C33" s="24">
         <v>1</v>
@@ -10213,7 +10335,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C34" s="26">
         <v>-2</v>
@@ -10259,7 +10381,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C35" s="23">
         <v>4</v>
@@ -10303,7 +10425,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C36" s="24">
         <v>5</v>
@@ -10349,7 +10471,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C37" s="26">
         <v>-6</v>
@@ -10395,7 +10517,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C38" s="23">
         <v>15</v>
@@ -10439,7 +10561,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C39" s="24">
         <v>8</v>
@@ -10485,7 +10607,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C40" s="26">
         <v>5</v>
@@ -10531,7 +10653,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C41" s="23">
         <v>16</v>
@@ -10575,7 +10697,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C42" s="19">
         <v>8</v>
@@ -10620,7 +10742,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C43" s="21">
         <v>6</v>
@@ -10665,7 +10787,7 @@
         <v>18</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C44" s="18">
         <v>17</v>
@@ -10709,7 +10831,7 @@
         <v>18</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C45" s="19">
         <v>7</v>
@@ -10754,7 +10876,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C46" s="21">
         <v>2</v>
@@ -10803,7 +10925,7 @@
         <v>15</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C47" s="18">
         <v>4</v>
@@ -10851,7 +10973,7 @@
         <v>15</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C48" s="19">
         <v>4.2</v>
@@ -10899,7 +11021,7 @@
         <v>15</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C49" s="21">
         <v>-7.8</v>
@@ -10947,7 +11069,7 @@
         <v>19</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C50" s="18">
         <v>9</v>
@@ -10995,7 +11117,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C51" s="19">
         <v>-10</v>
@@ -11043,7 +11165,7 @@
         <v>19</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C52" s="21">
         <v>-15</v>
@@ -11091,7 +11213,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C53" s="18">
         <v>18</v>
@@ -11139,7 +11261,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C54" s="19">
         <v>5</v>
@@ -11188,7 +11310,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C55" s="21">
         <v>0</v>
@@ -11237,7 +11359,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C56" s="18">
         <v>6</v>
@@ -11286,7 +11408,7 @@
         <v>21</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C57" s="19">
         <v>18</v>
@@ -11335,7 +11457,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C58" s="21">
         <v>14</v>
@@ -11379,7 +11501,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C59" s="18">
         <v>15</v>
@@ -11424,7 +11546,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C60" s="19">
         <v>9</v>
@@ -11469,7 +11591,7 @@
         <v>9</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C61" s="21">
         <v>0</v>
@@ -11513,7 +11635,7 @@
         <v>24</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C62" s="15">
         <v>6</v>
@@ -11558,7 +11680,7 @@
         <v>24</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C63" s="14">
         <v>1</v>
@@ -11603,7 +11725,7 @@
         <v>24</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C64" s="16">
         <v>-9</v>
@@ -11647,7 +11769,7 @@
         <v>23</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C65" s="15">
         <v>5</v>
@@ -11692,7 +11814,7 @@
         <v>23</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C66" s="14">
         <v>12</v>
@@ -11737,7 +11859,7 @@
         <v>23</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C67" s="16">
         <v>4</v>
@@ -11781,7 +11903,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C68" s="15">
         <v>4</v>
@@ -11826,7 +11948,7 @@
         <v>22</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C69" s="14">
         <v>15</v>
@@ -11871,7 +11993,7 @@
         <v>22</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C70" s="16">
         <v>6</v>
@@ -11969,7 +12091,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11984,7 +12106,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -11993,19 +12115,19 @@
         <v>105</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>367</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -12935,7 +13057,7 @@
       </c>
       <c r="C27" t="str">
         <f>CLIMBS!B27</f>
-        <v>draft</v>
+        <v>publish</v>
       </c>
       <c r="D27">
         <f>IF(CLIMBS!R27&lt;&gt;0,1,0)+IF(CLIMBS!G27&lt;&gt;0,1,0)+IF(CLIMBS!H27&lt;&gt;0,1,0)+IF(CLIMBS!I27&lt;&gt;0,1,0)+IF(CLIMBS!J27&lt;&gt;0,1,0)+IF(CLIMBS!N27&lt;&gt;0,1,0)+IF(CLIMBS!M27&lt;&gt;0,1,0)+IF(CLIMBS!O27&lt;&gt;0,1,0)+IF(CLIMBS!P27&lt;&gt;0,1,0)</f>
@@ -12945,16 +13067,16 @@
         <f>IF(CLIMBS!S27&lt;&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B27,"tile"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B27,"crag"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B27,"topo"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B27,"map"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>missing</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <f>_xlfn.IFNA(IF(VLOOKUP(B27,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <f>_xlfn.IFNA(IF(VLOOKUP(B27,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
@@ -12993,7 +13115,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F27">
+  <conditionalFormatting sqref="F2:F30">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E653F2-DB23-4517-8ED0-44B8247B476C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33997BC0-1EAC-4115-8593-864EE9655CF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="691">
   <si>
     <t>cliff</t>
   </si>
@@ -2153,6 +2153,9 @@
   </si>
   <si>
     <t>Mapbox</t>
+  </si>
+  <si>
+    <t>tidal</t>
   </si>
 </sst>
 </file>
@@ -3220,11 +3223,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3249,7 +3252,7 @@
     <col min="22" max="22" width="5.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3319,8 +3322,11 @@
       <c r="W1" s="1" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X1" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -3381,8 +3387,11 @@
       <c r="V2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -3444,7 +3453,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -3506,7 +3515,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -3562,7 +3571,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
@@ -3626,8 +3635,11 @@
       <c r="V6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>74</v>
       </c>
@@ -3689,7 +3701,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>86</v>
       </c>
@@ -3745,7 +3757,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -3810,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>95</v>
       </c>
@@ -3872,7 +3884,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>99</v>
       </c>
@@ -3930,8 +3942,11 @@
       <c r="T11" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>184</v>
       </c>
@@ -3993,7 +4008,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>205</v>
       </c>
@@ -4058,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>221</v>
       </c>
@@ -4120,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>238</v>
       </c>
@@ -4182,7 +4197,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>271</v>
       </c>
@@ -4968,7 +4983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33997BC0-1EAC-4115-8593-864EE9655CF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D687934-2F5D-4799-B324-616D88639810}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="696">
   <si>
     <t>cliff</t>
   </si>
@@ -2156,6 +2156,21 @@
   </si>
   <si>
     <t>tidal</t>
+  </si>
+  <si>
+    <t>Rock Around The World</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>img/guidebooks/rock-around-the-world.jpg</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2RmOhyX</t>
+  </si>
+  <si>
+    <t>9782952638876</t>
   </si>
 </sst>
 </file>
@@ -3225,7 +3240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="P29" sqref="P29"/>
     </sheetView>
@@ -7509,10 +7524,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB58989-DB9B-42B8-8BEA-AD863D94E91D}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8295,6 +8310,35 @@
       </c>
       <c r="I27">
         <v>29.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="C28" t="s">
+        <v>691</v>
+      </c>
+      <c r="D28" t="s">
+        <v>258</v>
+      </c>
+      <c r="E28" t="s">
+        <v>439</v>
+      </c>
+      <c r="F28" t="s">
+        <v>692</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="H28" t="s">
+        <v>694</v>
+      </c>
+      <c r="I28">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D687934-2F5D-4799-B324-616D88639810}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BC9BCC-70EE-4D17-9713-0B9BE188C6CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="699">
   <si>
     <t>cliff</t>
   </si>
@@ -685,9 +685,6 @@
     <t>Grey Rock at Montserrat</t>
   </si>
   <si>
-    <t>Esparraguera offers an exciting multi-pitch climb on the fantastic Conglomerate rock of Montserrat in Spain. Whilst described as a clean trad route in many guidebooks, Esparraguera will have good amount bolts and pitons in sections. That said you will need a full trad rack of nuts and cams etc. The route is given f5c in some guides or UIAA V+ in others, this makes it hard to convert to British grades. It sits somewhere between VS and E1, but given the protection is good I have converted it to a HVS 5a which I think airs on the side of caution. The decent requires 3 abseils ideally using 60m ropes to avoid a downclimb at the end or creating a trad anchor.</t>
-  </si>
-  <si>
     <t>img/topos/montserrat/roca-gris-esparreguera-crag-montserrat.jpg</t>
   </si>
   <si>
@@ -1274,9 +1271,6 @@
   </si>
   <si>
     <t>A great overview of Lliwedd by Kate Edhouse</t>
-  </si>
-  <si>
-    <t>Park in the lower parking lot of Vinya Nova (41.585600, 1.816281). From there take the path north into the forest towards Torrent del Pont. Advance through the torrent and shortly after follow the path that goes to the right (milestones and white marks). Follow this uphill and arrive at a turnoff, head north. Pass by the foot of Pollegó de la Vinya Nova. Continue to the base of the Gray Rock.</t>
   </si>
   <si>
     <t>https://www.google.com/maps/d/u/0/viewer?mid=19-UZpbBH4Q90XN_z9Huj85GhcZI&amp;ll=41.58559982322766%2C1.8162812289963313&amp;z=16</t>
@@ -2171,6 +2165,34 @@
   </si>
   <si>
     <t>9782952638876</t>
+  </si>
+  <si>
+    <t>pitchs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's fair to say everyone has a slightly different experience on wreakers slab, partly because the cliff is loose and the holds likely change regularly, even between the leader and the second! This makes helmets an absolute must. Due to its scale it's likely a lot of people also take slightly different lines, especially at the bottom and top pitches where the route is less clear. I think it justifies the grade of VS 4b. With the low technical grade it's an easy route to underestimate. A lot of the protection early on is marginal and some placements could actually make the climb more dangerous. For instance, a cam behind a large loose block could put the seconds life in danger. In short, it's not an ideal choice for those new to traditional multi-pitch climbing, but it offers stunning views and is a wonderful lengthy adventure if you have the experience lead it.
+&lt;br /&gt;
+&lt;strong&gt;Pitch 1&lt;/strong&gt;&lt;br /&gt;
+My experience here is reasonably worthless except to say if you leave the guidebook at the top of the cliff (because who wants to climb with a guide book in their bag), then the chances are you won’t actually know exactly which way to go and may attack the first belay head on. This takes you over loose ground with little or no gear and possibly makes the route a harder grade. Instead I’d recommend you don’t start too far right, climb up a few of meters to where the cliff eases off then traverse all the way left and head up to the belay.
+&lt;br /&gt;
+There are 2 pegs that you can use to form part of your belay. I’d highly recommend a 3 or 4 point anchor in addition to them. I placed my gear below the pegs giving a reasonably comfy ledge to belay from. Your nut tool comes in handy to clean the cracks when you lead this pitch!
+&lt;br /&gt;
+&lt;strong&gt;Pitch 2&lt;/strong&gt;&lt;br /&gt;
+Head up and around the overhanging block just above the belay. Whilst this is probably the steepest part of the climb it’s not fully vertical making gear placements easier than it looks. Be careful not to throw too many handholds at the belay below and follow the reasonably obvious crack up to a big grassy ledge with a pillar of rock on it.  There are lots of options for a multi-point anchor here. You can use the front of the pillar, side or even the nearby crack.
+&lt;br /&gt;
+&lt;strong&gt;Pitch 3&lt;/strong&gt;&lt;br /&gt;
+This is where the rock climbing becomes utterly enjoyable. For the most part the rock is solid and there are plenty of placements for gear the left hand ridge is recommended with its stunning if a little intense views. Guidebooks suggest the pitch is 45m, but a the full 50m will take you over the top and right a little. A good belay can be built on the other side of the top ridge. Consider belaying your partner off the top 10m walk. It would be a stretch to call it a 4th pitch, but placing a couple of pieces of gear makes it a safer scrable.
+</t>
+  </si>
+  <si>
+    <t>Pitches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Park in the lower parking lot of Vinya Nova (41.585600, 1.816281). From there take the path north into the forest towards Torrent del Pont. Advance through the torrent and shortly after follow the path that goes to the right (milestones and white marks). Follow this uphill and arrive at a turnoff, head north. Pass by the foot of Pollegó de la Vinya Nova. Continue to the base of the Gray Rock.&lt;br /&gt;&lt;br /&gt;
+The decent requires 3 abseils of 40m, 40m and just under 60m. To find the anchor to abseil you need to walk along the ridge for 80m. You go over a couple of small peaks. You may want to stay roped for this slinging the occasional bush as the ground can be loose. If you use a pair of 50m ropes you can either use a tree to break the last abseil into 2 or create a trad anchor on the way or even abseil carefully off the end of the rope and downclimb the last 10m. All these options have risk especially if you end up doing it in the dark. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esparraguera offers an exciting 190m HVS (f5c) multi-pitch climb on the fantastic conglomerate rock of Montserrat in Spain. The route is sustained and consistent in grade. The hardest pitch is steep but has big holds and is well bolted, this may well feel like the easiest pitch if you are used to indoor climbing / bouldering. Whilst described as a clean trad route in many guidebooks, Esparraguera has a good amount bolts (17) and pitons (2) in sections in the middle pitches. Most of the harder moves are protected by old bolts. You will need a full trad rack of nuts and cams. Tri cams are particularly helpful for the pockets. The last pitch has no fixed protection. The route is given f5c in some guides or UIAA V+ in others, it is hard to convert to British grades but given the protection is good at the harder sections, the British grade of HVS 5a seems best. If anything feels hard, take some time and search for better holds, there will be some. The decent requires 3 abseils of 40m, 40m and just under 60m. </t>
   </si>
 </sst>
 </file>
@@ -2817,7 +2839,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3238,11 +3280,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3262,12 +3304,12 @@
     <col min="14" max="14" width="12.73046875" style="2" customWidth="1"/>
     <col min="15" max="15" width="11.265625" style="2" customWidth="1"/>
     <col min="16" max="16" width="15.1328125" style="2" customWidth="1"/>
-    <col min="17" max="20" width="15.265625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="4.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.796875" customWidth="1"/>
+    <col min="17" max="21" width="15.265625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3326,22 +3368,25 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>683</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+        <v>682</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -3391,22 +3436,22 @@
         <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -3461,14 +3506,14 @@
       <c r="S3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -3500,7 +3545,7 @@
         <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>51</v>
@@ -3521,16 +3566,16 @@
         <v>54</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="T4" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="V4" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -3559,7 +3604,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>60</v>
@@ -3582,11 +3627,11 @@
       <c r="Q5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
@@ -3633,28 +3678,28 @@
         <v>3</v>
       </c>
       <c r="Q6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>73</v>
       </c>
       <c r="S6" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="V6">
+      <c r="W6">
         <v>1</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>74</v>
       </c>
@@ -3712,11 +3757,11 @@
       <c r="S7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>86</v>
       </c>
@@ -3768,11 +3813,11 @@
       <c r="S8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -3822,22 +3867,22 @@
         <v>41</v>
       </c>
       <c r="R9" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>95</v>
       </c>
@@ -3851,7 +3896,7 @@
         <v>96</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>97</v>
@@ -3866,16 +3911,16 @@
         <v>7</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>60</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>199</v>
@@ -3890,16 +3935,17 @@
         <v>41</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="T10" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>99</v>
       </c>
@@ -3955,13 +4001,16 @@
         <v>104</v>
       </c>
       <c r="T11" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>184</v>
       </c>
@@ -4016,14 +4065,14 @@
       <c r="S12" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="V12" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>205</v>
       </c>
@@ -4067,7 +4116,7 @@
         <v>211</v>
       </c>
       <c r="O13" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
@@ -4076,21 +4125,22 @@
         <v>212</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>218</v>
+        <v>698</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="U13" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="V13" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>106</v>
@@ -4102,10 +4152,10 @@
         <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="G14" s="2">
         <v>81</v>
@@ -4120,13 +4170,13 @@
         <v>25</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="O14" s="2">
         <v>20</v>
@@ -4135,24 +4185,24 @@
         <v>2</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S14" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="U14" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="T14" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="V14">
+      <c r="W14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>106</v>
@@ -4167,7 +4217,7 @@
         <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G15" s="2">
         <v>70</v>
@@ -4188,7 +4238,7 @@
         <v>39</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O15" s="2">
         <v>15</v>
@@ -4200,21 +4250,22 @@
         <v>41</v>
       </c>
       <c r="R15" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="S15" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>233</v>
-      </c>
+      <c r="T15" s="3"/>
       <c r="U15" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>106</v>
@@ -4223,13 +4274,13 @@
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="G16" s="2">
         <v>152</v>
@@ -4244,16 +4295,16 @@
         <v>25</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="O16" s="2">
         <v>5</v>
@@ -4262,27 +4313,27 @@
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="T16" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="U16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="V16" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>106</v>
@@ -4297,7 +4348,7 @@
         <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G17" s="2">
         <v>280</v>
@@ -4318,7 +4369,7 @@
         <v>51</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O17" s="2">
         <v>75</v>
@@ -4330,21 +4381,22 @@
         <v>53</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="T17" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="U17" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="V17" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>106</v>
@@ -4353,13 +4405,13 @@
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E18" t="s">
         <v>382</v>
       </c>
-      <c r="E18" t="s">
-        <v>383</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G18" s="2">
         <v>575</v>
@@ -4371,19 +4423,19 @@
         <v>7</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="N18" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O18" s="2">
         <v>90</v>
@@ -4392,24 +4444,24 @@
         <v>2</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="V18">
+        <v>396</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="W18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>106</v>
@@ -4421,10 +4473,10 @@
         <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G19" s="2">
         <v>74</v>
@@ -4436,16 +4488,16 @@
         <v>2</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O19" s="2">
         <v>70</v>
@@ -4457,15 +4509,16 @@
         <v>53</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+        <v>423</v>
+      </c>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>106</v>
@@ -4474,13 +4527,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G20" s="2">
         <v>300</v>
@@ -4498,13 +4551,13 @@
         <v>79</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="O20" s="2">
         <v>40</v>
@@ -4516,18 +4569,19 @@
         <v>64</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="S20" t="s">
-        <v>453</v>
-      </c>
-      <c r="T20" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="T20"/>
+      <c r="U20" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>106</v>
@@ -4539,10 +4593,10 @@
         <v>66</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G21" s="2">
         <v>80</v>
@@ -4563,7 +4617,7 @@
         <v>70</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O21" s="2">
         <v>90</v>
@@ -4575,18 +4629,18 @@
         <v>41</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+        <v>465</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>106</v>
@@ -4595,13 +4649,13 @@
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="G22" s="2">
         <v>80</v>
@@ -4616,13 +4670,13 @@
         <v>59</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="O22" s="2">
         <v>40</v>
@@ -4634,21 +4688,21 @@
         <v>41</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="U22" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="V22" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>106</v>
@@ -4660,10 +4714,10 @@
         <v>206</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G23" s="2">
         <v>228</v>
@@ -4684,7 +4738,7 @@
         <v>209</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="O23" s="2">
         <v>20</v>
@@ -4696,24 +4750,24 @@
         <v>64</v>
       </c>
       <c r="R23" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="S23" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="S23" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="U23" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="V23" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>106</v>
@@ -4722,13 +4776,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>560</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G24" s="2">
         <v>250</v>
@@ -4746,13 +4800,13 @@
         <v>26</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="O24" s="2">
         <v>21</v>
@@ -4764,24 +4818,24 @@
         <v>212</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>233</v>
+        <v>562</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="V24">
+        <v>232</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="W24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>106</v>
@@ -4790,13 +4844,13 @@
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>582</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G25" s="2">
         <v>350</v>
@@ -4808,19 +4862,19 @@
         <v>7</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M25" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="O25" s="2">
         <v>190</v>
@@ -4832,24 +4886,25 @@
         <v>41</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>233</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="T25" s="3"/>
       <c r="U25" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="V25" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>106</v>
@@ -4858,13 +4913,13 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G26" s="2">
         <v>230</v>
@@ -4879,16 +4934,16 @@
         <v>25</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="O26" s="2">
         <v>70</v>
@@ -4900,21 +4955,22 @@
         <v>64</v>
       </c>
       <c r="R26" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
-        <v>639</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>106</v>
@@ -4926,10 +4982,10 @@
         <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G27" s="2">
         <v>160</v>
@@ -4944,7 +5000,7 @@
         <v>37</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>80</v>
@@ -4953,7 +5009,7 @@
         <v>81</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="O27" s="2">
         <v>80</v>
@@ -4965,27 +5021,29 @@
         <v>83</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>233</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="T27" s="3"/>
       <c r="U27" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="V27">
+        <v>232</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="W27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
       <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -5033,7 +5091,7 @@
         <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -5044,7 +5102,7 @@
         <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
         <v>116</v>
@@ -5092,16 +5150,16 @@
         <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D4" t="s">
         <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -5182,16 +5240,16 @@
         <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D8" t="s">
         <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F8" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -5275,16 +5333,16 @@
         <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D12" t="s">
         <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F12" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -5383,16 +5441,16 @@
         <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D17" t="s">
         <v>145</v>
       </c>
       <c r="E17" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F17" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -5476,16 +5534,16 @@
         <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D21" t="s">
         <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -5566,16 +5624,16 @@
         <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D25" t="s">
         <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F25" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -5638,7 +5696,7 @@
         <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D28" t="s">
         <v>165</v>
@@ -5662,16 +5720,16 @@
         <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D29" t="s">
         <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F29" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -5707,16 +5765,16 @@
         <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D31" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E31" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F31" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
@@ -5740,7 +5798,7 @@
         <v>179</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
@@ -5755,16 +5813,16 @@
         <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D33" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E33" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F33" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
@@ -5779,16 +5837,16 @@
         <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D34" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E34" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
@@ -5869,16 +5927,16 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D38" t="s">
         <v>174</v>
       </c>
       <c r="E38" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F38" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
@@ -5965,16 +6023,16 @@
         <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E42" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F42" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
@@ -5989,7 +6047,7 @@
         <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D43" t="s">
         <v>213</v>
@@ -6013,7 +6071,7 @@
         <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D44" t="s">
         <v>215</v>
@@ -6037,13 +6095,13 @@
         <v>176</v>
       </c>
       <c r="C45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D45" t="s">
         <v>217</v>
       </c>
       <c r="E45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F45" t="s">
         <v>110</v>
@@ -6061,16 +6119,16 @@
         <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E46" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F46" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
@@ -6085,16 +6143,16 @@
         <v>176</v>
       </c>
       <c r="C47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" t="s">
         <v>230</v>
       </c>
-      <c r="E47" t="s">
-        <v>231</v>
-      </c>
       <c r="F47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
@@ -6109,16 +6167,16 @@
         <v>117</v>
       </c>
       <c r="C48" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" t="s">
         <v>229</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>230</v>
       </c>
-      <c r="E48" t="s">
-        <v>231</v>
-      </c>
       <c r="F48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
@@ -6133,16 +6191,16 @@
         <v>114</v>
       </c>
       <c r="C49" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" t="s">
         <v>234</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>235</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>236</v>
-      </c>
-      <c r="F49" t="s">
-        <v>237</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
@@ -6157,16 +6215,16 @@
         <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D50" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E50" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F50" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
@@ -6181,16 +6239,16 @@
         <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E51" t="s">
+        <v>241</v>
+      </c>
+      <c r="F51" t="s">
         <v>242</v>
-      </c>
-      <c r="F51" t="s">
-        <v>243</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
@@ -6205,16 +6263,16 @@
         <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E52" t="s">
+        <v>243</v>
+      </c>
+      <c r="F52" t="s">
         <v>244</v>
-      </c>
-      <c r="F52" t="s">
-        <v>245</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
@@ -6229,16 +6287,16 @@
         <v>176</v>
       </c>
       <c r="C53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E53" t="s">
+        <v>243</v>
+      </c>
+      <c r="F53" t="s">
         <v>244</v>
-      </c>
-      <c r="F53" t="s">
-        <v>245</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
@@ -6253,16 +6311,16 @@
         <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D54" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E54" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F54" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
@@ -6277,16 +6335,16 @@
         <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D55" t="s">
+        <v>274</v>
+      </c>
+      <c r="E55" t="s">
         <v>275</v>
       </c>
-      <c r="E55" t="s">
-        <v>276</v>
-      </c>
       <c r="F55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
@@ -6301,16 +6359,16 @@
         <v>176</v>
       </c>
       <c r="C56" t="s">
+        <v>280</v>
+      </c>
+      <c r="D56" t="s">
         <v>281</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>282</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>283</v>
-      </c>
-      <c r="F56" t="s">
-        <v>284</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
@@ -6325,16 +6383,16 @@
         <v>117</v>
       </c>
       <c r="C57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D57" t="s">
+        <v>284</v>
+      </c>
+      <c r="E57" t="s">
         <v>285</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>286</v>
-      </c>
-      <c r="F57" t="s">
-        <v>287</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" ref="H57:H60" si="1">CONCATENATE(A57,B57)</f>
@@ -6349,16 +6407,16 @@
         <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E58" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F58" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
@@ -6373,16 +6431,16 @@
         <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E59" t="s">
+        <v>336</v>
+      </c>
+      <c r="F59" t="s">
         <v>337</v>
-      </c>
-      <c r="F59" t="s">
-        <v>338</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
@@ -6397,13 +6455,13 @@
         <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D60" t="s">
+        <v>343</v>
+      </c>
+      <c r="E60" t="s">
         <v>344</v>
-      </c>
-      <c r="E60" t="s">
-        <v>345</v>
       </c>
       <c r="F60" t="s">
         <v>110</v>
@@ -6421,13 +6479,13 @@
         <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F61" t="s">
         <v>110</v>
@@ -6445,16 +6503,16 @@
         <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D62" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E62" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F62" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="2"/>
@@ -6469,16 +6527,16 @@
         <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E63" t="s">
+        <v>388</v>
+      </c>
+      <c r="F63" s="12" t="s">
         <v>389</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>390</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="2"/>
@@ -6493,13 +6551,13 @@
         <v>117</v>
       </c>
       <c r="C64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D64" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E64" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F64" t="s">
         <v>115</v>
@@ -6517,13 +6575,13 @@
         <v>176</v>
       </c>
       <c r="C65" t="s">
+        <v>401</v>
+      </c>
+      <c r="D65" t="s">
         <v>402</v>
       </c>
-      <c r="D65" t="s">
-        <v>403</v>
-      </c>
       <c r="E65" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F65" t="s">
         <v>115</v>
@@ -6541,16 +6599,16 @@
         <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D66" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E66" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F66" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="2"/>
@@ -6565,13 +6623,13 @@
         <v>114</v>
       </c>
       <c r="C67" t="s">
+        <v>424</v>
+      </c>
+      <c r="D67" t="s">
+        <v>425</v>
+      </c>
+      <c r="E67" t="s">
         <v>426</v>
-      </c>
-      <c r="D67" t="s">
-        <v>427</v>
-      </c>
-      <c r="E67" t="s">
-        <v>428</v>
       </c>
       <c r="F67" t="s">
         <v>110</v>
@@ -6589,13 +6647,13 @@
         <v>117</v>
       </c>
       <c r="C68" t="s">
+        <v>427</v>
+      </c>
+      <c r="D68" t="s">
         <v>429</v>
       </c>
-      <c r="D68" t="s">
-        <v>431</v>
-      </c>
       <c r="E68" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F68" t="s">
         <v>135</v>
@@ -6613,13 +6671,13 @@
         <v>176</v>
       </c>
       <c r="C69" t="s">
+        <v>428</v>
+      </c>
+      <c r="D69" t="s">
+        <v>429</v>
+      </c>
+      <c r="E69" t="s">
         <v>430</v>
-      </c>
-      <c r="D69" t="s">
-        <v>431</v>
-      </c>
-      <c r="E69" t="s">
-        <v>432</v>
       </c>
       <c r="F69" t="s">
         <v>135</v>
@@ -6637,16 +6695,16 @@
         <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D70" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E70" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F70" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="2"/>
@@ -6661,16 +6719,16 @@
         <v>117</v>
       </c>
       <c r="C71" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D71" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E71" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="2"/>
@@ -6685,16 +6743,16 @@
         <v>176</v>
       </c>
       <c r="C72" t="s">
+        <v>473</v>
+      </c>
+      <c r="D72" t="s">
+        <v>474</v>
+      </c>
+      <c r="E72" t="s">
         <v>475</v>
       </c>
-      <c r="D72" t="s">
+      <c r="F72" t="s">
         <v>476</v>
-      </c>
-      <c r="E72" t="s">
-        <v>477</v>
-      </c>
-      <c r="F72" t="s">
-        <v>478</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="2"/>
@@ -6709,16 +6767,16 @@
         <v>114</v>
       </c>
       <c r="C73" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D73" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E73" t="s">
+        <v>475</v>
+      </c>
+      <c r="F73" t="s">
         <v>477</v>
-      </c>
-      <c r="F73" t="s">
-        <v>479</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="2"/>
@@ -6733,16 +6791,16 @@
         <v>109</v>
       </c>
       <c r="C74" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D74" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E74" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F74" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="2"/>
@@ -6757,16 +6815,16 @@
         <v>117</v>
       </c>
       <c r="C75" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D75" t="s">
+        <v>459</v>
+      </c>
+      <c r="E75" t="s">
+        <v>460</v>
+      </c>
+      <c r="F75" s="12" t="s">
         <v>461</v>
-      </c>
-      <c r="E75" t="s">
-        <v>462</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>463</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" ref="H75" si="3">CONCATENATE(A75,B75)</f>
@@ -6781,16 +6839,16 @@
         <v>176</v>
       </c>
       <c r="C76" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D76" t="s">
+        <v>459</v>
+      </c>
+      <c r="E76" t="s">
+        <v>462</v>
+      </c>
+      <c r="F76" s="12" t="s">
         <v>461</v>
-      </c>
-      <c r="E76" t="s">
-        <v>464</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>463</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" ref="H76:H117" si="4">CONCATENATE(A76,B76)</f>
@@ -6805,16 +6863,16 @@
         <v>114</v>
       </c>
       <c r="C77" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D77" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E77" t="s">
+        <v>462</v>
+      </c>
+      <c r="F77" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>466</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="4"/>
@@ -6829,16 +6887,16 @@
         <v>109</v>
       </c>
       <c r="C78" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D78" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E78" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F78" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="4"/>
@@ -6853,16 +6911,16 @@
         <v>117</v>
       </c>
       <c r="C79" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D79" t="s">
+        <v>506</v>
+      </c>
+      <c r="E79" t="s">
+        <v>507</v>
+      </c>
+      <c r="F79" t="s">
         <v>508</v>
-      </c>
-      <c r="E79" t="s">
-        <v>509</v>
-      </c>
-      <c r="F79" t="s">
-        <v>510</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="4"/>
@@ -6877,16 +6935,16 @@
         <v>176</v>
       </c>
       <c r="C80" t="s">
+        <v>505</v>
+      </c>
+      <c r="D80" t="s">
+        <v>506</v>
+      </c>
+      <c r="E80" t="s">
         <v>507</v>
       </c>
-      <c r="D80" t="s">
+      <c r="F80" t="s">
         <v>508</v>
-      </c>
-      <c r="E80" t="s">
-        <v>509</v>
-      </c>
-      <c r="F80" t="s">
-        <v>510</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="4"/>
@@ -6901,16 +6959,16 @@
         <v>114</v>
       </c>
       <c r="C81" t="s">
+        <v>510</v>
+      </c>
+      <c r="D81" t="s">
+        <v>511</v>
+      </c>
+      <c r="E81" t="s">
         <v>512</v>
       </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
         <v>513</v>
-      </c>
-      <c r="E81" t="s">
-        <v>514</v>
-      </c>
-      <c r="F81" t="s">
-        <v>515</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="4"/>
@@ -6925,16 +6983,16 @@
         <v>109</v>
       </c>
       <c r="C82" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D82" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E82" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F82" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="4"/>
@@ -6949,16 +7007,16 @@
         <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D83" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E83" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="4"/>
@@ -6973,16 +7031,16 @@
         <v>176</v>
       </c>
       <c r="C84" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D84" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E84" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F84" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="4"/>
@@ -6997,16 +7055,16 @@
         <v>114</v>
       </c>
       <c r="C85" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E85" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F85" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="4"/>
@@ -7021,16 +7079,16 @@
         <v>109</v>
       </c>
       <c r="C86" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D86" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E86" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F86" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="4"/>
@@ -7045,16 +7103,16 @@
         <v>117</v>
       </c>
       <c r="C87" t="s">
+        <v>564</v>
+      </c>
+      <c r="D87" t="s">
+        <v>565</v>
+      </c>
+      <c r="E87" t="s">
         <v>566</v>
       </c>
-      <c r="D87" t="s">
+      <c r="F87" t="s">
         <v>567</v>
-      </c>
-      <c r="E87" t="s">
-        <v>568</v>
-      </c>
-      <c r="F87" t="s">
-        <v>569</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="4"/>
@@ -7069,13 +7127,13 @@
         <v>176</v>
       </c>
       <c r="C88" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D88" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E88" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F88" t="s">
         <v>115</v>
@@ -7093,16 +7151,16 @@
         <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D89" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E89" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F89" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="4"/>
@@ -7117,16 +7175,16 @@
         <v>109</v>
       </c>
       <c r="C90" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D90" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E90" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F90" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="4"/>
@@ -7141,16 +7199,16 @@
         <v>114</v>
       </c>
       <c r="C91" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D91" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F91" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="4"/>
@@ -7165,16 +7223,16 @@
         <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E92" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F92" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="4"/>
@@ -7189,16 +7247,16 @@
         <v>176</v>
       </c>
       <c r="C93" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D93" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F93" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="4"/>
@@ -7213,16 +7271,16 @@
         <v>109</v>
       </c>
       <c r="C94" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D94" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E94" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F94" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="4"/>
@@ -7237,16 +7295,16 @@
         <v>117</v>
       </c>
       <c r="C95" t="s">
+        <v>625</v>
+      </c>
+      <c r="D95" t="s">
+        <v>626</v>
+      </c>
+      <c r="E95" t="s">
         <v>627</v>
       </c>
-      <c r="D95" t="s">
+      <c r="F95" t="s">
         <v>628</v>
-      </c>
-      <c r="E95" t="s">
-        <v>629</v>
-      </c>
-      <c r="F95" t="s">
-        <v>630</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="4"/>
@@ -7261,16 +7319,16 @@
         <v>176</v>
       </c>
       <c r="C96" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D96" t="s">
+        <v>626</v>
+      </c>
+      <c r="E96" t="s">
+        <v>627</v>
+      </c>
+      <c r="F96" t="s">
         <v>628</v>
-      </c>
-      <c r="E96" t="s">
-        <v>629</v>
-      </c>
-      <c r="F96" t="s">
-        <v>630</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="4"/>
@@ -7285,16 +7343,16 @@
         <v>109</v>
       </c>
       <c r="C97" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D97" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E97" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F97" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="4"/>
@@ -7309,16 +7367,16 @@
         <v>114</v>
       </c>
       <c r="C98" t="s">
+        <v>631</v>
+      </c>
+      <c r="D98" t="s">
+        <v>632</v>
+      </c>
+      <c r="E98" t="s">
         <v>633</v>
       </c>
-      <c r="D98" t="s">
+      <c r="F98" t="s">
         <v>634</v>
-      </c>
-      <c r="E98" t="s">
-        <v>635</v>
-      </c>
-      <c r="F98" t="s">
-        <v>636</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="4"/>
@@ -7333,16 +7391,16 @@
         <v>117</v>
       </c>
       <c r="C99" t="s">
+        <v>642</v>
+      </c>
+      <c r="D99" t="s">
+        <v>643</v>
+      </c>
+      <c r="E99" t="s">
         <v>644</v>
       </c>
-      <c r="D99" t="s">
+      <c r="F99" t="s">
         <v>645</v>
-      </c>
-      <c r="E99" t="s">
-        <v>646</v>
-      </c>
-      <c r="F99" t="s">
-        <v>647</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="4"/>
@@ -7357,16 +7415,16 @@
         <v>176</v>
       </c>
       <c r="C100" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D100" t="s">
+        <v>643</v>
+      </c>
+      <c r="E100" t="s">
+        <v>644</v>
+      </c>
+      <c r="F100" t="s">
         <v>645</v>
-      </c>
-      <c r="E100" t="s">
-        <v>646</v>
-      </c>
-      <c r="F100" t="s">
-        <v>647</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="4"/>
@@ -7381,16 +7439,16 @@
         <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D101" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E101" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F101" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="4"/>
@@ -7405,16 +7463,16 @@
         <v>109</v>
       </c>
       <c r="C102" t="s">
+        <v>684</v>
+      </c>
+      <c r="D102" t="s">
+        <v>685</v>
+      </c>
+      <c r="E102" t="s">
         <v>686</v>
       </c>
-      <c r="D102" t="s">
+      <c r="F102" t="s">
         <v>687</v>
-      </c>
-      <c r="E102" t="s">
-        <v>688</v>
-      </c>
-      <c r="F102" t="s">
-        <v>689</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="4"/>
@@ -7526,7 +7584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB58989-DB9B-42B8-8BEA-AD863D94E91D}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="116" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -7546,28 +7604,28 @@
         <v>123</v>
       </c>
       <c r="B1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" t="s">
         <v>254</v>
-      </c>
-      <c r="C1" t="s">
-        <v>255</v>
       </c>
       <c r="D1" t="s">
         <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -7575,25 +7633,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" t="s">
         <v>257</v>
-      </c>
-      <c r="D2" t="s">
-        <v>258</v>
       </c>
       <c r="E2">
         <v>206</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G2" t="s">
         <v>294</v>
       </c>
-      <c r="G2" t="s">
-        <v>295</v>
-      </c>
       <c r="H2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I2">
         <v>24.99</v>
@@ -7604,25 +7662,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E3">
         <v>266</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I3">
         <v>25</v>
@@ -7633,25 +7691,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E4">
         <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I4">
         <v>24.99</v>
@@ -7662,13 +7720,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5">
         <v>169</v>
@@ -7679,25 +7737,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E6">
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I6">
         <v>20</v>
@@ -7708,25 +7766,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E7">
         <v>175</v>
       </c>
       <c r="F7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="H7" t="s">
         <v>334</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="H7" t="s">
-        <v>335</v>
       </c>
       <c r="I7">
         <v>29.95</v>
@@ -7737,25 +7795,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E8">
         <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I8">
         <v>24.99</v>
@@ -7766,25 +7824,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" t="s">
         <v>257</v>
-      </c>
-      <c r="D9" t="s">
-        <v>258</v>
       </c>
       <c r="E9">
         <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I9">
         <v>24.99</v>
@@ -7795,25 +7853,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E10">
         <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I10">
         <v>34.950000000000003</v>
@@ -7824,25 +7882,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" t="s">
         <v>257</v>
-      </c>
-      <c r="D11" t="s">
-        <v>258</v>
       </c>
       <c r="E11">
         <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I11">
         <v>24.99</v>
@@ -7853,25 +7911,25 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E12">
         <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I12">
         <v>20</v>
@@ -7882,25 +7940,25 @@
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E13">
         <v>156</v>
       </c>
       <c r="F13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I13">
         <v>24.99</v>
@@ -7911,25 +7969,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E14">
         <v>32</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G14" t="s">
         <v>371</v>
       </c>
-      <c r="G14" t="s">
-        <v>372</v>
-      </c>
       <c r="H14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I14">
         <v>25</v>
@@ -7940,25 +7998,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" t="s">
         <v>257</v>
-      </c>
-      <c r="D15" t="s">
-        <v>258</v>
       </c>
       <c r="E15">
         <v>258</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H15" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I15">
         <v>24.99</v>
@@ -7969,25 +8027,25 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E16">
         <v>162</v>
       </c>
       <c r="F16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G16" t="s">
         <v>379</v>
       </c>
-      <c r="G16" t="s">
-        <v>380</v>
-      </c>
       <c r="H16" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I16">
         <v>34</v>
@@ -7998,25 +8056,25 @@
         <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E17">
         <v>354</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H17" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I17">
         <v>34.99</v>
@@ -8027,25 +8085,25 @@
         <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C18" t="s">
+        <v>436</v>
+      </c>
+      <c r="D18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" t="s">
         <v>437</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
         <v>438</v>
       </c>
-      <c r="D18" t="s">
-        <v>258</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>439</v>
       </c>
-      <c r="F18" t="s">
-        <v>440</v>
-      </c>
-      <c r="G18" t="s">
-        <v>441</v>
-      </c>
       <c r="H18" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="I18">
         <v>25</v>
@@ -8056,25 +8114,25 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C19" t="s">
+        <v>440</v>
+      </c>
+      <c r="D19" t="s">
+        <v>257</v>
+      </c>
+      <c r="E19" t="s">
+        <v>437</v>
+      </c>
+      <c r="F19" t="s">
+        <v>442</v>
+      </c>
+      <c r="G19" t="s">
         <v>443</v>
       </c>
-      <c r="C19" t="s">
-        <v>442</v>
-      </c>
-      <c r="D19" t="s">
-        <v>258</v>
-      </c>
-      <c r="E19" t="s">
-        <v>439</v>
-      </c>
-      <c r="F19" t="s">
-        <v>444</v>
-      </c>
-      <c r="G19" t="s">
-        <v>445</v>
-      </c>
       <c r="H19" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I19">
         <v>20</v>
@@ -8085,25 +8143,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C20" t="s">
+        <v>486</v>
+      </c>
+      <c r="D20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E20" t="s">
+        <v>437</v>
+      </c>
+      <c r="F20" t="s">
+        <v>488</v>
+      </c>
+      <c r="G20" t="s">
         <v>489</v>
       </c>
-      <c r="C20" t="s">
-        <v>488</v>
-      </c>
-      <c r="D20" t="s">
-        <v>258</v>
-      </c>
-      <c r="E20" t="s">
-        <v>439</v>
-      </c>
-      <c r="F20" t="s">
-        <v>490</v>
-      </c>
-      <c r="G20" t="s">
-        <v>491</v>
-      </c>
       <c r="H20" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I20">
         <v>34.99</v>
@@ -8114,25 +8172,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C21" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E21">
         <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G21" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H21" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I21">
         <v>19.95</v>
@@ -8143,28 +8201,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D22" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G22" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
@@ -8172,25 +8230,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C23" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E23">
         <v>267</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G23" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I23">
         <v>29.95</v>
@@ -8201,25 +8259,25 @@
         <v>24</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C24" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E24">
         <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I24">
         <v>38</v>
@@ -8230,25 +8288,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C25" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E25">
         <v>410</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="G25" t="s">
         <v>607</v>
       </c>
-      <c r="G25" t="s">
-        <v>609</v>
-      </c>
       <c r="H25" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I25">
         <v>10</v>
@@ -8259,25 +8317,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C26" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E26">
         <v>300</v>
       </c>
       <c r="F26" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G26" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I26">
         <v>38</v>
@@ -8288,25 +8346,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E27">
         <v>86</v>
       </c>
       <c r="F27" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I27">
         <v>29.95</v>
@@ -8317,25 +8375,25 @@
         <v>23</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C28" t="s">
+        <v>689</v>
+      </c>
+      <c r="D28" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" t="s">
+        <v>437</v>
+      </c>
+      <c r="F28" t="s">
+        <v>690</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="D28" t="s">
-        <v>258</v>
-      </c>
-      <c r="E28" t="s">
-        <v>439</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>692</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="H28" t="s">
-        <v>694</v>
       </c>
       <c r="I28">
         <v>35</v>
@@ -8375,10 +8433,10 @@
         <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -8386,10 +8444,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" t="s">
         <v>309</v>
-      </c>
-      <c r="C2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -8400,7 +8458,7 @@
         <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -8411,7 +8469,7 @@
         <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -8419,10 +8477,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -8430,10 +8488,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -8441,10 +8499,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C7" t="s">
         <v>412</v>
-      </c>
-      <c r="C7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -8452,10 +8510,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -8463,10 +8521,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -8474,10 +8532,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -8485,10 +8543,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -8496,10 +8554,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -8507,10 +8565,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -8518,10 +8576,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -8529,10 +8587,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C15" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -8540,10 +8598,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C16" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -8580,16 +8638,16 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
@@ -8606,16 +8664,16 @@
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" t="s">
         <v>355</v>
-      </c>
-      <c r="E2" t="s">
-        <v>356</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -8651,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -8807,10 +8865,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D14" s="2"/>
       <c r="F14">
@@ -8826,14 +8884,14 @@
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -8841,7 +8899,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>44</v>
@@ -8865,19 +8923,19 @@
         <v>189</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -8912,40 +8970,40 @@
         <v>122</v>
       </c>
       <c r="C1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" t="s">
         <v>312</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>313</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>314</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>315</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>316</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>317</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>318</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>319</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>320</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>321</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>322</v>
-      </c>
-      <c r="N1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
@@ -8953,7 +9011,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" s="18">
         <v>15</v>
@@ -8997,7 +9055,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C3" s="19">
         <v>9</v>
@@ -9042,7 +9100,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C4" s="21">
         <v>5</v>
@@ -9086,7 +9144,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C5" s="18">
         <v>13</v>
@@ -9130,7 +9188,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C6" s="19">
         <v>8</v>
@@ -9174,7 +9232,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C7" s="21">
         <v>3</v>
@@ -9219,7 +9277,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" s="18">
         <v>13</v>
@@ -9263,7 +9321,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" s="19">
         <v>8</v>
@@ -9308,7 +9366,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C10" s="21">
         <v>3</v>
@@ -9353,7 +9411,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C11" s="18">
         <v>19</v>
@@ -9397,7 +9455,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C12" s="19">
         <v>6</v>
@@ -9442,7 +9500,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C13" s="21">
         <v>4</v>
@@ -9488,7 +9546,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C14" s="18">
         <v>20</v>
@@ -9532,7 +9590,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C15" s="19">
         <v>8</v>
@@ -9578,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C16" s="21">
         <v>5</v>
@@ -9624,7 +9682,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C17" s="18">
         <v>19</v>
@@ -9668,7 +9726,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C18" s="19">
         <v>8</v>
@@ -9714,7 +9772,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C19" s="21">
         <v>2</v>
@@ -9760,7 +9818,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C20" s="18">
         <v>19</v>
@@ -9804,7 +9862,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C21" s="19">
         <v>8</v>
@@ -9850,7 +9908,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C22" s="21">
         <v>2</v>
@@ -9896,7 +9954,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C23" s="18">
         <v>15</v>
@@ -9940,7 +9998,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C24" s="19">
         <v>9</v>
@@ -9986,7 +10044,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C25" s="21">
         <v>5</v>
@@ -10032,7 +10090,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C26" s="23">
         <v>13</v>
@@ -10076,7 +10134,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C27" s="24">
         <v>8</v>
@@ -10122,7 +10180,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C28" s="26">
         <v>3</v>
@@ -10168,7 +10226,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C29" s="23">
         <v>4</v>
@@ -10212,7 +10270,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C30" s="24">
         <v>13</v>
@@ -10258,7 +10316,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C31" s="26">
         <v>4</v>
@@ -10304,7 +10362,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C32" s="23">
         <v>15</v>
@@ -10348,7 +10406,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C33" s="24">
         <v>1</v>
@@ -10394,7 +10452,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C34" s="26">
         <v>-2</v>
@@ -10440,7 +10498,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C35" s="23">
         <v>4</v>
@@ -10484,7 +10542,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C36" s="24">
         <v>5</v>
@@ -10530,7 +10588,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C37" s="26">
         <v>-6</v>
@@ -10576,7 +10634,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C38" s="23">
         <v>15</v>
@@ -10620,7 +10678,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C39" s="24">
         <v>8</v>
@@ -10666,7 +10724,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C40" s="26">
         <v>5</v>
@@ -10712,7 +10770,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C41" s="23">
         <v>16</v>
@@ -10756,7 +10814,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C42" s="19">
         <v>8</v>
@@ -10801,7 +10859,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C43" s="21">
         <v>6</v>
@@ -10846,7 +10904,7 @@
         <v>18</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C44" s="18">
         <v>17</v>
@@ -10890,7 +10948,7 @@
         <v>18</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C45" s="19">
         <v>7</v>
@@ -10935,7 +10993,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C46" s="21">
         <v>2</v>
@@ -10984,7 +11042,7 @@
         <v>15</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C47" s="18">
         <v>4</v>
@@ -11032,7 +11090,7 @@
         <v>15</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C48" s="19">
         <v>4.2</v>
@@ -11080,7 +11138,7 @@
         <v>15</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C49" s="21">
         <v>-7.8</v>
@@ -11128,7 +11186,7 @@
         <v>19</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C50" s="18">
         <v>9</v>
@@ -11176,7 +11234,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C51" s="19">
         <v>-10</v>
@@ -11224,7 +11282,7 @@
         <v>19</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C52" s="21">
         <v>-15</v>
@@ -11272,7 +11330,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C53" s="18">
         <v>18</v>
@@ -11320,7 +11378,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C54" s="19">
         <v>5</v>
@@ -11369,7 +11427,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C55" s="21">
         <v>0</v>
@@ -11418,7 +11476,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C56" s="18">
         <v>6</v>
@@ -11467,7 +11525,7 @@
         <v>21</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C57" s="19">
         <v>18</v>
@@ -11516,7 +11574,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C58" s="21">
         <v>14</v>
@@ -11560,7 +11618,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C59" s="18">
         <v>15</v>
@@ -11605,7 +11663,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C60" s="19">
         <v>9</v>
@@ -11650,7 +11708,7 @@
         <v>9</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C61" s="21">
         <v>0</v>
@@ -11694,7 +11752,7 @@
         <v>24</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C62" s="15">
         <v>6</v>
@@ -11739,7 +11797,7 @@
         <v>24</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C63" s="14">
         <v>1</v>
@@ -11784,7 +11842,7 @@
         <v>24</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C64" s="16">
         <v>-9</v>
@@ -11828,7 +11886,7 @@
         <v>23</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C65" s="15">
         <v>5</v>
@@ -11873,7 +11931,7 @@
         <v>23</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C66" s="14">
         <v>12</v>
@@ -11918,7 +11976,7 @@
         <v>23</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C67" s="16">
         <v>4</v>
@@ -11962,7 +12020,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C68" s="15">
         <v>4</v>
@@ -12007,7 +12065,7 @@
         <v>22</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C69" s="14">
         <v>15</v>
@@ -12052,7 +12110,7 @@
         <v>22</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C70" s="16">
         <v>6</v>
@@ -12147,10 +12205,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12163,9 +12221,9 @@
     <col min="8" max="8" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -12174,22 +12232,25 @@
         <v>105</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I1" s="11" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="str">
         <f>CLIMBS!A2</f>
         <v>Old Man of Stoer</v>
@@ -12225,8 +12286,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B2,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I2">
+        <f>IF(CLIMBS!T3 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f>CLIMBS!A3</f>
         <v>Bosigran</v>
@@ -12262,8 +12327,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B3,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I3">
+        <f>IF(CLIMBS!T4 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f>CLIMBS!A4</f>
         <v>Clogwyn Du'r Arddu</v>
@@ -12299,8 +12368,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B4,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I4">
+        <f>IF(CLIMBS!T5 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f>CLIMBS!A5</f>
         <v>Vratsa</v>
@@ -12336,8 +12409,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B5,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I5">
+        <f>IF(CLIMBS!T6 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <f>CLIMBS!A6</f>
         <v>Tormore Group</v>
@@ -12373,8 +12450,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B6,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I6">
+        <f>IF(CLIMBS!T7 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f>CLIMBS!A7</f>
         <v>Sass Pordoi</v>
@@ -12410,8 +12491,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B7,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I7">
+        <f>IF(CLIMBS!T8 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <f>CLIMBS!A8</f>
         <v>Cwm Idwal</v>
@@ -12447,8 +12532,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B8,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I8">
+        <f>IF(CLIMBS!T9 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <f>CLIMBS!A9</f>
         <v>Lundy</v>
@@ -12484,8 +12573,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B9,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I9">
+        <f>IF(CLIMBS!T10 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f>CLIMBS!A10</f>
         <v>Meadinha</v>
@@ -12521,8 +12614,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B10,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I10">
+        <f>IF(CLIMBS!T11 &lt;&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <f>CLIMBS!A11</f>
         <v>Cornakey Cliff</v>
@@ -12558,8 +12655,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B11,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I11">
+        <f>IF(CLIMBS!T12 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
         <f>CLIMBS!A12</f>
         <v>Cir Mhor</v>
@@ -12595,8 +12696,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B12,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I12">
+        <f>IF(CLIMBS!T13 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
         <f>CLIMBS!A13</f>
         <v>Roca Gris</v>
@@ -12632,8 +12737,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B13,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I13">
+        <f>IF(CLIMBS!T14 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f>CLIMBS!A14</f>
         <v>Sail Rock</v>
@@ -12669,8 +12778,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B14,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I14">
+        <f>IF(CLIMBS!T15 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <f>CLIMBS!A15</f>
         <v>Chair Ladder</v>
@@ -12706,8 +12819,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B15,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I15">
+        <f>IF(CLIMBS!T16 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <f>CLIMBS!A16</f>
         <v>The Devils Tower</v>
@@ -12743,8 +12860,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B16,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I16">
+        <f>IF(CLIMBS!T17 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f>CLIMBS!A17</f>
         <v>Lliwedd</v>
@@ -12780,8 +12901,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B17,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I17">
+        <f>IF(CLIMBS!T18 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <f>CLIMBS!A18</f>
         <v>Stetind</v>
@@ -12817,8 +12942,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B18,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I18">
+        <f>IF(CLIMBS!T19 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f>CLIMBS!A19</f>
         <v>Scafell</v>
@@ -12853,8 +12982,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B19,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I19">
+        <f>IF(CLIMBS!T20 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
         <f>CLIMBS!A20</f>
         <v>Mount Indefatigable</v>
@@ -12889,8 +13022,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B20,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I20">
+        <f>IF(CLIMBS!T21 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f>CLIMBS!A21</f>
         <v>Slieve Beg</v>
@@ -12925,8 +13062,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B21,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I21">
+        <f>IF(CLIMBS!T22 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f>CLIMBS!A22</f>
         <v>Lion Rock</v>
@@ -12961,8 +13102,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B22,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I22">
+        <f>IF(CLIMBS!T23 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
         <f>CLIMBS!A23</f>
         <v>Peñón de Ifach</v>
@@ -12997,8 +13142,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B23,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I23">
+        <f>IF(CLIMBS!T24 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="str">
         <f>CLIMBS!A24</f>
         <v>Heiliger Geist</v>
@@ -13033,8 +13182,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B24,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I24">
+        <f>IF(CLIMBS!T25 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="str">
         <f>CLIMBS!A25</f>
         <v>Aiguille Dibona</v>
@@ -13069,8 +13222,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B25,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I25">
+        <f>IF(CLIMBS!T26 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="str">
         <f>CLIMBS!A26</f>
         <v>Brüggler</v>
@@ -13105,8 +13262,12 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B26,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I26">
+        <f>IF(CLIMBS!T27 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="str">
         <f>CLIMBS!A27</f>
         <v>Vajolet towers</v>
@@ -13141,48 +13302,60 @@
         <f>_xlfn.IFNA(IF(VLOOKUP(B27,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>0</v>
       </c>
+      <c r="I27">
+        <f>IF(CLIMBS!T28 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D27">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C27">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"draft"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C27">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E27">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"missing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H27">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I27">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BC9BCC-70EE-4D17-9713-0B9BE188C6CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E7C4D1-EDC8-4C6C-AF54-2C2885CA49AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10785" windowHeight="4050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="700">
   <si>
     <t>cliff</t>
   </si>
@@ -2167,32 +2167,52 @@
     <t>9782952638876</t>
   </si>
   <si>
-    <t>pitchs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's fair to say everyone has a slightly different experience on wreakers slab, partly because the cliff is loose and the holds likely change regularly, even between the leader and the second! This makes helmets an absolute must. Due to its scale it's likely a lot of people also take slightly different lines, especially at the bottom and top pitches where the route is less clear. I think it justifies the grade of VS 4b. With the low technical grade it's an easy route to underestimate. A lot of the protection early on is marginal and some placements could actually make the climb more dangerous. For instance, a cam behind a large loose block could put the seconds life in danger. In short, it's not an ideal choice for those new to traditional multi-pitch climbing, but it offers stunning views and is a wonderful lengthy adventure if you have the experience lead it.
+    <t>Pitches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Park in the lower parking lot of Vinya Nova (41.585600, 1.816281). From there take the path north into the forest towards Torrent del Pont. Advance through the torrent and shortly after follow the path that goes to the right (milestones and white marks). Follow this uphill and arrive at a turnoff, head north. Pass by the foot of Pollegó de la Vinya Nova. Continue to the base of the Gray Rock.&lt;br /&gt;&lt;br /&gt;
+The decent requires 3 abseils of 40m, 40m and just under 60m. To find the anchor to abseil you need to walk along the ridge for 80m. You go over a couple of small peaks. You may want to stay roped for this slinging the occasional bush as the ground can be loose. If you use a pair of 50m ropes you can either use a tree to break the last abseil into 2 or create a trad anchor on the way or even abseil carefully off the end of the rope and downclimb the last 10m. All these options have risk especially if you end up doing it in the dark. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esparraguera offers an exciting 190m HVS (f5c) multi-pitch climb on the fantastic conglomerate rock of Montserrat in Spain. The route is sustained and consistent in grade. The hardest pitch is steep but has big holds and is well bolted, this may well feel like the easiest pitch if you are used to indoor climbing / bouldering. Whilst described as a clean trad route in many guidebooks, Esparraguera has a good amount bolts (17) and pitons (2) in sections in the middle pitches. Most of the harder moves are protected by old bolts. You will need a full trad rack of nuts and cams. Tri cams are particularly helpful for the pockets. The last pitch has no fixed protection. The route is given f5c in some guides or UIAA V+ in others, it is hard to convert to British grades but given the protection is good at the harder sections, the British grade of HVS 5a (maybe 5b) seems best. If anything feels hard, take some time and search for better holds, there will be some. The decent requires 3 abseils of 40m, 40m and just under 60m. </t>
+  </si>
+  <si>
+    <t>pitchInfo</t>
+  </si>
+  <si>
+    <t>It's fair to say everyone has a slightly different experience on wreckers slab, partly because the cliff is loose and the holds likely change regularly, even between the leader and the second! This makes helmets an absolute must. Due to its scale it's likely a lot of people also take slightly different lines, especially at the bottom and top pitches where the route is less clear. I think it justifies the grade of VS 4b. With the low technical grade it's an easy route to underestimate. A lot of the protection early on is marginal and some placements could actually make the climb more dangerous. For instance, a cam behind a large loose block could put the seconds life in danger. In short, it's not an ideal choice for those new to traditional multi-pitch climbing, but it offers stunning views and is a wonderful lengthy adventure if you have the experience lead it.
 &lt;br /&gt;
-&lt;strong&gt;Pitch 1&lt;/strong&gt;&lt;br /&gt;
-My experience here is reasonably worthless except to say if you leave the guidebook at the top of the cliff (because who wants to climb with a guide book in their bag), then the chances are you won’t actually know exactly which way to go and may attack the first belay head on. This takes you over loose ground with little or no gear and possibly makes the route a harder grade. Instead I’d recommend you don’t start too far right, climb up a few of meters to where the cliff eases off then traverse all the way left and head up to the belay.
+&lt;strong class="pitch-title"&gt;Pitch 1 –&lt;span class="length"&gt;40m&lt;/span&gt; &lt;span class="pitchGrade""&gt;4a&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+My experience here is reasonably worthless except to say if you leave the guidebook at the top of the cliff (because who wants to climb with a guide book in their bag), then the chances are you won’t actually know exactly which way to go and may attack the first belay head on. This takes you over loose ground with little or no gear and possibly makes the route a harder grade. Instead I’d recommend you don’t start too far right, climb up a few of meters to where the cliff eases off then traverse all the way left to the arete and head up to the belay.
 &lt;br /&gt;
 There are 2 pegs that you can use to form part of your belay. I’d highly recommend a 3 or 4 point anchor in addition to them. I placed my gear below the pegs giving a reasonably comfy ledge to belay from. Your nut tool comes in handy to clean the cracks when you lead this pitch!
 &lt;br /&gt;
-&lt;strong&gt;Pitch 2&lt;/strong&gt;&lt;br /&gt;
-Head up and around the overhanging block just above the belay. Whilst this is probably the steepest part of the climb it’s not fully vertical making gear placements easier than it looks. Be careful not to throw too many handholds at the belay below and follow the reasonably obvious crack up to a big grassy ledge with a pillar of rock on it.  There are lots of options for a multi-point anchor here. You can use the front of the pillar, side or even the nearby crack.
+&lt;strong class="pitch-title"&gt;Pitch 2 – &lt;span class="length"&gt;40m&lt;/span&gt; &lt;span class="pitchGrade""&gt;4b&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+Head up and around the overhanging block just above the belay. Whilst this is probably the steepest part of the climb it’s not fully vertical making gear placements easier than it looks. Be careful not to throw too many handholds at the belay below and follow the reasonably obvious crack up to a big grassy ledge with a pillar of rock on it.  There are lots of options to build a traditional anchor here. You can use the front of the pillar, side or even the nearby crack further up.
 &lt;br /&gt;
-&lt;strong&gt;Pitch 3&lt;/strong&gt;&lt;br /&gt;
-This is where the rock climbing becomes utterly enjoyable. For the most part the rock is solid and there are plenty of placements for gear the left hand ridge is recommended with its stunning if a little intense views. Guidebooks suggest the pitch is 45m, but a the full 50m will take you over the top and right a little. A good belay can be built on the other side of the top ridge. Consider belaying your partner off the top 10m walk. It would be a stretch to call it a 4th pitch, but placing a couple of pieces of gear makes it a safer scrable.
-</t>
-  </si>
-  <si>
-    <t>Pitches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Park in the lower parking lot of Vinya Nova (41.585600, 1.816281). From there take the path north into the forest towards Torrent del Pont. Advance through the torrent and shortly after follow the path that goes to the right (milestones and white marks). Follow this uphill and arrive at a turnoff, head north. Pass by the foot of Pollegó de la Vinya Nova. Continue to the base of the Gray Rock.&lt;br /&gt;&lt;br /&gt;
-The decent requires 3 abseils of 40m, 40m and just under 60m. To find the anchor to abseil you need to walk along the ridge for 80m. You go over a couple of small peaks. You may want to stay roped for this slinging the occasional bush as the ground can be loose. If you use a pair of 50m ropes you can either use a tree to break the last abseil into 2 or create a trad anchor on the way or even abseil carefully off the end of the rope and downclimb the last 10m. All these options have risk especially if you end up doing it in the dark. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esparraguera offers an exciting 190m HVS (f5c) multi-pitch climb on the fantastic conglomerate rock of Montserrat in Spain. The route is sustained and consistent in grade. The hardest pitch is steep but has big holds and is well bolted, this may well feel like the easiest pitch if you are used to indoor climbing / bouldering. Whilst described as a clean trad route in many guidebooks, Esparraguera has a good amount bolts (17) and pitons (2) in sections in the middle pitches. Most of the harder moves are protected by old bolts. You will need a full trad rack of nuts and cams. Tri cams are particularly helpful for the pockets. The last pitch has no fixed protection. The route is given f5c in some guides or UIAA V+ in others, it is hard to convert to British grades but given the protection is good at the harder sections, the British grade of HVS 5a seems best. If anything feels hard, take some time and search for better holds, there will be some. The decent requires 3 abseils of 40m, 40m and just under 60m. </t>
+&lt;strong class="pitch-title"&gt;Pitch 3 – &lt;span class="length"&gt;50m&lt;/span&gt; &lt;span class="pitchGrade""&gt;4a&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+This is where the rock climbing becomes utterly enjoyable. For the most part the rock is solid and there are plenty of placements for gear, the left ridge is recommended with its stunning if a little intense views. Guidebooks suggest the pitch is 45m, but a the full 50m will take you over the top and right a little. A good belay can be built on the other side of the top ridge. Consider belaying your partner off the top 10m walk. It would be a stretch to call it a 4th pitch, but placing a couple of pieces of gear makes it a safer scramble.</t>
+  </si>
+  <si>
+    <t>This route is a popular mixed multi-pitch rock climb. Because it’s an absolute classic it can be popular, even out of season. The climb is interesting and sustained, with a mixture of delicate slab work and a few big moves on a steep wall on the 3rd pitch. The views are incredible looking out over the valley and the exposure is immense in places.  Especially where the climb moves between the spires, up the middle of the 4th pitch and the travers across a ledge on the 5th pitch. The route could be climbed clean without use of the bolts if you have the confidence, time, patience and stamina to find protection on the slab sections which can be quite blank. It’s quicker and likely more enjoyable if you climb the route mixed, using the in-situ bolts and with additional gear to protect the run out sections on the 1st, 4th and 5th pitches and protection for the entire 6th pitch. A set of cams, nuts and tri-cams should cover you. Larger pieces could be helpful on the last pitch. 50m ropes are enough to get to the top, but 60m ropes are needed for the decent to save down climbing the last abseil or using a tree / bush for the last part. The rock can be loose, especially on pitch 1. Loose rocks also tend to gather on the ledges, so make sure you wear helmet and try to avid dislodging rock onto the path below which can be popular with hikers (who won’t have helmets). All the belay points have 3 expansion bolts which can be used for the anchors, except the top of the route where you will need to sling a bush or two and make sure you are not belaying more weight up than can be comfortably held. If climbing as a 3, it would be safer to belay the 2nd and 3rd climber separately on this pitch.
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 1 –&lt;span class="length"&gt;35m&lt;/span&gt; &lt;span class="pitchGrade" uiaa"&gt;IV+&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+The first pitch moves up to some trees on the ledge then left onto the ridge and directly up the centre of the slab spire to the belay. 
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 2 –&lt;span class="length"&gt;40m&lt;/span&gt; &lt;span class="pitchGrade" uiaa"&gt;V&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+Climb up the spire to some harder moves not long after the belay. These are well protected by bolts and pitons. This pitch then eases off near the top to a belay behind the next spire.
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 3 –&lt;span class="length"&gt;25m&lt;/span&gt; &lt;span class="pitchGrade" uiaa"&gt;V+&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+Climb the steep face using the big pockets which make for jug sized hand holds. Follow the bolts up onto the summit of this little spire and find the anchor in the gap between the next spire. This pitch is a quite different in style to the others, so although the crux on paper it may fell super easy to someone comfortable with bouldering.
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 4 –&lt;span class="length"&gt;50m&lt;/span&gt; &lt;span class="pitchGrade" uiaa"&gt;V&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+A long, exposed climb up the largest spire. Harder moves early on that change into a lower angled slab with no bolts and limited protection options.  The anchor is to the right near where this spire joins the next. Don’t climb to the top of this spire. 
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 5 –&lt;span class="length"&gt;25m&lt;/span&gt; &lt;span class="pitchGrade" uiaa"&gt;IV&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+The is a single bolt on this pitch and no clear path to the next anchor. Moving up to a ledge and wall offers good hand holds and some pockets for protection, before a traverse right to the anchor. 
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 6 –&lt;span class="length"&gt;30m&lt;/span&gt; &lt;span class="pitchGrade" uiaa"&gt;IV+&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+Move straight up following the crack system. There is no fixed protection but a number of placements can be found. Move over a small ledge to the summit. This is a sustained pitch of UIAA grave IV or IV+ all the way. There are no bolts at the top so you will need to sling a bush or two and make sure you are not belaying more weight up than can be comfortably held. If climbing as a 3, it would be safer to belay the 2nd and 3rd climber separately on this pitch.</t>
   </si>
 </sst>
 </file>
@@ -3282,9 +3302,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R13" sqref="R13"/>
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3368,7 +3388,7 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>18</v>
@@ -4001,7 +4021,7 @@
         <v>104</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>189</v>
@@ -4095,7 +4115,7 @@
         <v>190</v>
       </c>
       <c r="H13" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I13" s="2">
         <v>6</v>
@@ -4125,16 +4145,21 @@
         <v>212</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="T13" s="3"/>
+        <v>695</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>699</v>
+      </c>
       <c r="V13" s="2" t="s">
         <v>190</v>
       </c>
       <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
         <v>1</v>
       </c>
     </row>
@@ -4571,10 +4596,9 @@
       <c r="R20" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="T20"/>
       <c r="U20" s="2" t="s">
         <v>189</v>
       </c>
@@ -5038,8 +5062,8 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
@@ -7584,8 +7608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB58989-DB9B-42B8-8BEA-AD863D94E91D}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="116" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12247,7 +12271,7 @@
         <v>366</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -12698,7 +12722,7 @@
       </c>
       <c r="I12">
         <f>IF(CLIMBS!T13 &lt;&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E7C4D1-EDC8-4C6C-AF54-2C2885CA49AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C180321C-D64F-43A0-B15B-76A934A129EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10785" windowHeight="4050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="700">
   <si>
     <t>cliff</t>
   </si>
@@ -2155,9 +2155,6 @@
     <t>Rock Around The World</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>img/guidebooks/rock-around-the-world.jpg</t>
   </si>
   <si>
@@ -2213,6 +2210,9 @@
 &lt;br /&gt;
 &lt;strong class="pitch-title"&gt;Pitch 6 –&lt;span class="length"&gt;30m&lt;/span&gt; &lt;span class="pitchGrade" uiaa"&gt;IV+&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
 Move straight up following the crack system. There is no fixed protection but a number of placements can be found. Move over a small ledge to the summit. This is a sustained pitch of UIAA grave IV or IV+ all the way. There are no bolts at the top so you will need to sling a bush or two and make sure you are not belaying more weight up than can be comfortably held. If climbing as a 3, it would be safer to belay the 2nd and 3rd climber separately on this pitch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The book is in French and English and covers regions around the world. The book has clear photo topographies of most routes and good descriptions including gear recommendations. The book covers trad, sport and mixed protection routes like Traumpfeiler. The only issue is, its not a cheap book, but it's well designed and tends to cover harder longer routes with most graded TD / ED alpine grades which is low to mid E grades in the British system, i.e. serious climbs. </t>
   </si>
 </sst>
 </file>
@@ -3388,7 +3388,7 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>18</v>
@@ -4021,7 +4021,7 @@
         <v>104</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>189</v>
@@ -4145,13 +4145,13 @@
         <v>212</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>190</v>
@@ -7609,7 +7609,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="116" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8399,7 +8399,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C28" t="s">
         <v>689</v>
@@ -8407,17 +8407,17 @@
       <c r="D28" t="s">
         <v>257</v>
       </c>
-      <c r="E28" t="s">
-        <v>437</v>
+      <c r="E28">
+        <v>157</v>
       </c>
       <c r="F28" t="s">
+        <v>699</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="H28" t="s">
         <v>691</v>
-      </c>
-      <c r="H28" t="s">
-        <v>692</v>
       </c>
       <c r="I28">
         <v>35</v>
@@ -12271,7 +12271,7 @@
         <v>366</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C180321C-D64F-43A0-B15B-76A934A129EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACCE890-6378-41CE-9A6D-8A20D0E870DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10785" windowHeight="4050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10785" windowHeight="4050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="716">
   <si>
     <t>cliff</t>
   </si>
@@ -2213,6 +2213,54 @@
   </si>
   <si>
     <t xml:space="preserve">The book is in French and English and covers regions around the world. The book has clear photo topographies of most routes and good descriptions including gear recommendations. The book covers trad, sport and mixed protection routes like Traumpfeiler. The only issue is, its not a cheap book, but it's well designed and tends to cover harder longer routes with most graded TD / ED alpine grades which is low to mid E grades in the British system, i.e. serious climbs. </t>
+  </si>
+  <si>
+    <t>jordan</t>
+  </si>
+  <si>
+    <t>Sandstone</t>
+  </si>
+  <si>
+    <t>Jodan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wadi Rum </t>
+  </si>
+  <si>
+    <t>Rum Doodle</t>
+  </si>
+  <si>
+    <t>Difficile</t>
+  </si>
+  <si>
+    <t>Djebel Rum</t>
+  </si>
+  <si>
+    <t>29.569981,35.406197</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>Super Zoom for Grey Rock climb in Montserrat</t>
+  </si>
+  <si>
+    <t>https://www.multi-pitch.com</t>
+  </si>
+  <si>
+    <t>img/topos/montserrat/zoom/</t>
+  </si>
+  <si>
+    <t>Cathedral Rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teneriffe </t>
+  </si>
+  <si>
+    <t>28.2222531,-16.6373766</t>
+  </si>
+  <si>
+    <t>Via Mendez &amp; Guillermo</t>
   </si>
 </sst>
 </file>
@@ -3302,9 +3350,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5062,8 +5110,112 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>706</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="2">
+        <v>27</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G28" s="2">
+        <v>250</v>
+      </c>
+      <c r="H28" s="2">
+        <v>9</v>
+      </c>
+      <c r="I28" s="2">
+        <v>4</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="O28" s="2">
+        <v>30</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>701</v>
+      </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="2">
+        <v>28</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="G29" s="2">
+        <v>115</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3</v>
+      </c>
+      <c r="I29" s="2">
+        <v>6</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="O29" s="2">
+        <v>15</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
@@ -5080,9 +5232,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7504,9 +7656,27 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>12</v>
+      </c>
+      <c r="B103" t="s">
+        <v>708</v>
+      </c>
+      <c r="C103" t="s">
+        <v>711</v>
+      </c>
+      <c r="D103" t="s">
+        <v>709</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="F103" t="s">
+        <v>171</v>
+      </c>
       <c r="H103" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>12super</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
@@ -7599,8 +7769,11 @@
       <sortCondition ref="A1:A102"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="E103" r:id="rId1" xr:uid="{0A321C65-D310-4F4B-93FB-7FA86D5B9B94}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7608,7 +7781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB58989-DB9B-42B8-8BEA-AD863D94E91D}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="116" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="116" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -8439,7 +8612,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C24:C25"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8638,7 +8811,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12229,10 +12402,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13331,8 +13504,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" t="str">
+        <f>CLIMBS!A28</f>
+        <v>Djebel Rum</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="str">
+        <f>CLIMBS!B28</f>
+        <v>draft</v>
+      </c>
+      <c r="D28">
+        <f>IF(CLIMBS!R28&lt;&gt;0,1,0)+IF(CLIMBS!G28&lt;&gt;0,1,0)+IF(CLIMBS!H28&lt;&gt;0,1,0)+IF(CLIMBS!I28&lt;&gt;0,1,0)+IF(CLIMBS!J28&lt;&gt;0,1,0)+IF(CLIMBS!N28&lt;&gt;0,1,0)+IF(CLIMBS!M28&lt;&gt;0,1,0)+IF(CLIMBS!O28&lt;&gt;0,1,0)+IF(CLIMBS!P28&lt;&gt;0,1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <f>IF(CLIMBS!S28&lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B28,"tile"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B28,"crag"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B28,"topo"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B28,"map"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B28,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B28,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>IF(CLIMBS!T29 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D27">
+  <conditionalFormatting sqref="D2:D28">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
@@ -13340,7 +13553,7 @@
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C27">
+  <conditionalFormatting sqref="C2:C28">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"draft"</formula>
     </cfRule>
@@ -13350,12 +13563,12 @@
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C27">
+  <conditionalFormatting sqref="C3:C28">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E27">
+  <conditionalFormatting sqref="E2:E28">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -13371,7 +13584,7 @@
       <formula>"missing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H27">
+  <conditionalFormatting sqref="G2:H28">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -13379,7 +13592,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I27">
+  <conditionalFormatting sqref="I2:I28">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACCE890-6378-41CE-9A6D-8A20D0E870DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2609BFBC-3488-40BE-8642-7DB9F60618FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10785" windowHeight="4050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="718">
   <si>
     <t>cliff</t>
   </si>
@@ -2261,6 +2261,12 @@
   </si>
   <si>
     <t>Via Mendez &amp; Guillermo</t>
+  </si>
+  <si>
+    <t>Refs</t>
+  </si>
+  <si>
+    <t>3a</t>
   </si>
 </sst>
 </file>
@@ -3350,9 +3356,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3859,6 +3865,9 @@
       </c>
       <c r="J8" s="2" t="s">
         <v>89</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>717</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>51</v>
@@ -12402,10 +12411,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12416,9 +12425,10 @@
     <col min="6" max="6" width="8.265625" customWidth="1"/>
     <col min="7" max="7" width="11.59765625" customWidth="1"/>
     <col min="8" max="8" width="10.1328125" customWidth="1"/>
+    <col min="9" max="9" width="7.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>361</v>
       </c>
@@ -12444,10 +12454,13 @@
         <v>366</v>
       </c>
       <c r="I1" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="str">
         <f>CLIMBS!A2</f>
         <v>Old Man of Stoer</v>
@@ -12484,11 +12497,15 @@
         <v>1</v>
       </c>
       <c r="I2">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B2,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
         <f>IF(CLIMBS!T3 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f>CLIMBS!A3</f>
         <v>Bosigran</v>
@@ -12525,11 +12542,15 @@
         <v>1</v>
       </c>
       <c r="I3">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B3,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
         <f>IF(CLIMBS!T4 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f>CLIMBS!A4</f>
         <v>Clogwyn Du'r Arddu</v>
@@ -12566,11 +12587,15 @@
         <v>1</v>
       </c>
       <c r="I4">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B4,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J4">
         <f>IF(CLIMBS!T5 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f>CLIMBS!A5</f>
         <v>Vratsa</v>
@@ -12607,11 +12632,15 @@
         <v>0</v>
       </c>
       <c r="I5">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B5,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
         <f>IF(CLIMBS!T6 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <f>CLIMBS!A6</f>
         <v>Tormore Group</v>
@@ -12648,11 +12677,15 @@
         <v>1</v>
       </c>
       <c r="I6">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B6,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J6">
         <f>IF(CLIMBS!T7 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f>CLIMBS!A7</f>
         <v>Sass Pordoi</v>
@@ -12689,11 +12722,15 @@
         <v>1</v>
       </c>
       <c r="I7">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B7,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
         <f>IF(CLIMBS!T8 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <f>CLIMBS!A8</f>
         <v>Cwm Idwal</v>
@@ -12730,11 +12767,15 @@
         <v>1</v>
       </c>
       <c r="I8">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B8,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
         <f>IF(CLIMBS!T9 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <f>CLIMBS!A9</f>
         <v>Lundy</v>
@@ -12771,11 +12812,15 @@
         <v>1</v>
       </c>
       <c r="I9">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B9,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J9">
         <f>IF(CLIMBS!T10 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f>CLIMBS!A10</f>
         <v>Meadinha</v>
@@ -12812,11 +12857,15 @@
         <v>1</v>
       </c>
       <c r="I10">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B10,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J10">
         <f>IF(CLIMBS!T11 &lt;&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <f>CLIMBS!A11</f>
         <v>Cornakey Cliff</v>
@@ -12853,11 +12902,15 @@
         <v>1</v>
       </c>
       <c r="I11">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B11,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
         <f>IF(CLIMBS!T12 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
         <f>CLIMBS!A12</f>
         <v>Cir Mhor</v>
@@ -12894,11 +12947,15 @@
         <v>1</v>
       </c>
       <c r="I12">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B12,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
         <f>IF(CLIMBS!T13 &lt;&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
         <f>CLIMBS!A13</f>
         <v>Roca Gris</v>
@@ -12935,11 +12992,15 @@
         <v>1</v>
       </c>
       <c r="I13">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B13,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J13">
         <f>IF(CLIMBS!T14 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f>CLIMBS!A14</f>
         <v>Sail Rock</v>
@@ -12976,11 +13037,15 @@
         <v>1</v>
       </c>
       <c r="I14">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B14,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
         <f>IF(CLIMBS!T15 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <f>CLIMBS!A15</f>
         <v>Chair Ladder</v>
@@ -13017,11 +13082,15 @@
         <v>1</v>
       </c>
       <c r="I15">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B15,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
         <f>IF(CLIMBS!T16 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <f>CLIMBS!A16</f>
         <v>The Devils Tower</v>
@@ -13058,11 +13127,15 @@
         <v>1</v>
       </c>
       <c r="I16">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B16,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J16">
         <f>IF(CLIMBS!T17 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f>CLIMBS!A17</f>
         <v>Lliwedd</v>
@@ -13099,11 +13172,15 @@
         <v>1</v>
       </c>
       <c r="I17">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B17,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J17">
         <f>IF(CLIMBS!T18 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <f>CLIMBS!A18</f>
         <v>Stetind</v>
@@ -13140,11 +13217,15 @@
         <v>1</v>
       </c>
       <c r="I18">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B18,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J18">
         <f>IF(CLIMBS!T19 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f>CLIMBS!A19</f>
         <v>Scafell</v>
@@ -13180,11 +13261,15 @@
         <v>1</v>
       </c>
       <c r="I19">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B19,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
         <f>IF(CLIMBS!T20 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
         <f>CLIMBS!A20</f>
         <v>Mount Indefatigable</v>
@@ -13220,11 +13305,15 @@
         <v>1</v>
       </c>
       <c r="I20">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B20,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J20">
         <f>IF(CLIMBS!T21 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f>CLIMBS!A21</f>
         <v>Slieve Beg</v>
@@ -13260,11 +13349,15 @@
         <v>1</v>
       </c>
       <c r="I21">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B21,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J21">
         <f>IF(CLIMBS!T22 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f>CLIMBS!A22</f>
         <v>Lion Rock</v>
@@ -13300,11 +13393,15 @@
         <v>1</v>
       </c>
       <c r="I22">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B22,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J22">
         <f>IF(CLIMBS!T23 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
         <f>CLIMBS!A23</f>
         <v>Peñón de Ifach</v>
@@ -13340,11 +13437,15 @@
         <v>1</v>
       </c>
       <c r="I23">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B23,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
         <f>IF(CLIMBS!T24 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" t="str">
         <f>CLIMBS!A24</f>
         <v>Heiliger Geist</v>
@@ -13380,11 +13481,15 @@
         <v>1</v>
       </c>
       <c r="I24">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B24,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
         <f>IF(CLIMBS!T25 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" t="str">
         <f>CLIMBS!A25</f>
         <v>Aiguille Dibona</v>
@@ -13420,11 +13525,15 @@
         <v>1</v>
       </c>
       <c r="I25">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B25,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J25">
         <f>IF(CLIMBS!T26 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" t="str">
         <f>CLIMBS!A26</f>
         <v>Brüggler</v>
@@ -13460,11 +13569,15 @@
         <v>0</v>
       </c>
       <c r="I26">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B26,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
         <f>IF(CLIMBS!T27 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" t="str">
         <f>CLIMBS!A27</f>
         <v>Vajolet towers</v>
@@ -13500,17 +13613,21 @@
         <v>0</v>
       </c>
       <c r="I27">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B27,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
         <f>IF(CLIMBS!T28 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" t="str">
         <f>CLIMBS!A28</f>
         <v>Djebel Rum</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" t="str">
         <f>CLIMBS!B28</f>
@@ -13524,28 +13641,76 @@
         <f>IF(CLIMBS!S28&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="str">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B28,"tile"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B28,"crag"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B28,"topo"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B28,"map"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>missing</v>
       </c>
       <c r="G28">
         <f>_xlfn.IFNA(IF(VLOOKUP(B28,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <f>_xlfn.IFNA(IF(VLOOKUP(B28,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="I28">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B28,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J28">
         <f>IF(CLIMBS!T29 &lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" t="str">
+        <f>CLIMBS!A29</f>
+        <v>Cathedral Rock</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="str">
+        <f>CLIMBS!B29</f>
+        <v>draft</v>
+      </c>
+      <c r="D29">
+        <f>IF(CLIMBS!R29&lt;&gt;0,1,0)+IF(CLIMBS!G29&lt;&gt;0,1,0)+IF(CLIMBS!H29&lt;&gt;0,1,0)+IF(CLIMBS!I29&lt;&gt;0,1,0)+IF(CLIMBS!J29&lt;&gt;0,1,0)+IF(CLIMBS!N29&lt;&gt;0,1,0)+IF(CLIMBS!M29&lt;&gt;0,1,0)+IF(CLIMBS!O29&lt;&gt;0,1,0)+IF(CLIMBS!P29&lt;&gt;0,1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <f>IF(CLIMBS!S29&lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" t="str">
+        <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B29,"tile"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B29,"crag"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B29,"topo"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B29,"map"),IMAGES!H:H,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
+        <v>missing</v>
+      </c>
+      <c r="G29">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B29,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B29,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B29,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f>IF(CLIMBS!T30 &lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D28">
+  <conditionalFormatting sqref="D2:D29">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
@@ -13553,7 +13718,7 @@
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C28">
+  <conditionalFormatting sqref="C2:C29">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"draft"</formula>
     </cfRule>
@@ -13563,12 +13728,12 @@
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C28">
+  <conditionalFormatting sqref="C3:C29">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E28">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -13584,7 +13749,7 @@
       <formula>"missing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H28">
+  <conditionalFormatting sqref="G2:I29">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -13592,7 +13757,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I28">
+  <conditionalFormatting sqref="J2:J29">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2609BFBC-3488-40BE-8642-7DB9F60618FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BAA883-B103-49BF-83D3-FB9B94E0EC33}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="15390" windowHeight="9532" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="722">
   <si>
     <t>cliff</t>
   </si>
@@ -2267,6 +2267,18 @@
   </si>
   <si>
     <t>3a</t>
+  </si>
+  <si>
+    <t>Setesdal</t>
+  </si>
+  <si>
+    <t>https://earth.app.goo.gl/XCHT6i</t>
+  </si>
+  <si>
+    <t>location on Google Earth</t>
+  </si>
+  <si>
+    <t>Brilliant drawn topo and blog</t>
   </si>
 </sst>
 </file>
@@ -3356,9 +3368,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K8" sqref="K8"/>
+      <selection pane="topRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5226,6 +5238,17 @@
         <v>701</v>
       </c>
     </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="2">
+        <v>29</v>
+      </c>
+    </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>541</v>
@@ -5242,8 +5265,8 @@
   <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7686,66 +7709,6 @@
       <c r="H103" t="str">
         <f t="shared" si="4"/>
         <v>12super</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H104" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H105" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H106" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H107" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H108" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H109" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H110" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H111" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H112" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H113" t="str">
-        <f t="shared" si="4"/>
-        <v/>
       </c>
     </row>
     <row r="114" spans="8:8" x14ac:dyDescent="0.45">
@@ -8618,10 +8581,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091284CD-7BE4-40C5-8B13-8EF65FF7D256}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8808,6 +8771,28 @@
       </c>
       <c r="C16" t="s">
         <v>603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>719</v>
+      </c>
+      <c r="C17" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BAA883-B103-49BF-83D3-FB9B94E0EC33}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F007D28-1814-4DF7-8D2E-B40B4D4CC797}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="15390" windowHeight="9532" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="723">
   <si>
     <t>cliff</t>
   </si>
@@ -2279,6 +2279,9 @@
   </si>
   <si>
     <t>Brilliant drawn topo and blog</t>
+  </si>
+  <si>
+    <t>El Catedral, (the Cathedral in English) is a volcanic plug that stands in Teide National Park in the centre of Tenerife. It offers a variety of traditional multipitch climbs that tend to be around 3 or 4 pitches in length to reach that summit via just over 100 meters of climbing. Whilst Tenerife has a lot of incredible climbing the majority of it is single pitch sport routes. El Catedral offers some of the best trad multi-pitch climbing on the island.  In order to climb there, you need to seek permission from the national park which seems to be a straightforward process (see links in references section below). The route Via Mendez &amp; Guillermo is not the original route up the face but offers a high quality adventure at grade UIAA V+. Whilst a completely different grading system it sits around VS. There are easier options to the summit if needed like the original route which is graded UIAA IV or around VDiff in British grades.</t>
   </si>
 </sst>
 </file>
@@ -3368,9 +3371,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5235,7 +5238,13 @@
         <v>1</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>701</v>
+        <v>41</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.45">
@@ -5264,8 +5273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
@@ -8583,7 +8592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091284CD-7BE4-40C5-8B13-8EF65FF7D256}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -9147,8 +9156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745174B4-A8CA-45B8-ACCB-9B5B609F0D5D}">
   <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70"/>
+    <sheetView topLeftCell="A50" zoomScale="94" workbookViewId="0">
+      <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12341,16 +12350,272 @@
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A71" s="15">
+        <v>25</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C71" s="15">
+        <v>10</v>
+      </c>
+      <c r="D71" s="15">
+        <v>10</v>
+      </c>
+      <c r="E71" s="15">
+        <v>12</v>
+      </c>
+      <c r="F71" s="15">
+        <v>14</v>
+      </c>
+      <c r="G71" s="15">
+        <v>16</v>
+      </c>
+      <c r="H71" s="15">
+        <v>17</v>
+      </c>
+      <c r="I71" s="15">
+        <v>17</v>
+      </c>
+      <c r="J71" s="15">
+        <v>16</v>
+      </c>
+      <c r="K71" s="15">
+        <v>13</v>
+      </c>
+      <c r="L71" s="15">
+        <v>10</v>
+      </c>
+      <c r="M71" s="15">
+        <v>11</v>
+      </c>
+      <c r="N71" s="15">
+        <v>12</v>
+      </c>
       <c r="U71" s="8"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A72" s="14">
+        <v>25</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C72" s="14">
+        <v>-7</v>
+      </c>
+      <c r="D72" s="14">
+        <v>-8</v>
+      </c>
+      <c r="E72" s="14">
+        <v>-5</v>
+      </c>
+      <c r="F72" s="14">
+        <v>-2</v>
+      </c>
+      <c r="G72" s="14">
+        <v>1</v>
+      </c>
+      <c r="H72" s="14">
+        <v>5</v>
+      </c>
+      <c r="I72" s="14">
+        <v>7</v>
+      </c>
+      <c r="J72" s="14">
+        <v>8</v>
+      </c>
+      <c r="K72" s="14">
+        <v>4</v>
+      </c>
+      <c r="L72" s="14">
+        <v>1</v>
+      </c>
+      <c r="M72" s="14">
+        <v>-4</v>
+      </c>
+      <c r="N72" s="14">
+        <v>-6</v>
+      </c>
       <c r="U72" s="8"/>
     </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A73" s="16">
+        <v>25</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C73" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D73" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E73" s="16">
+        <v>2</v>
+      </c>
+      <c r="F73" s="16">
+        <v>6</v>
+      </c>
+      <c r="G73" s="16">
+        <v>10</v>
+      </c>
+      <c r="H73" s="16">
+        <v>12</v>
+      </c>
+      <c r="I73" s="16">
+        <v>15</v>
+      </c>
+      <c r="J73" s="16">
+        <v>16</v>
+      </c>
+      <c r="K73" s="16">
+        <v>13</v>
+      </c>
+      <c r="L73" s="16">
+        <v>10</v>
+      </c>
+      <c r="M73" s="16">
+        <v>3</v>
+      </c>
+      <c r="N73" s="16">
+        <v>-1</v>
+      </c>
+    </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A74" s="15">
+        <v>28</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74" s="15">
+        <v>4</v>
+      </c>
+      <c r="D74" s="15">
+        <v>4</v>
+      </c>
+      <c r="E74" s="15">
+        <v>4</v>
+      </c>
+      <c r="F74" s="15">
+        <v>4</v>
+      </c>
+      <c r="G74" s="15">
+        <v>4</v>
+      </c>
+      <c r="H74" s="15">
+        <v>2</v>
+      </c>
+      <c r="I74" s="15">
+        <v>0</v>
+      </c>
+      <c r="J74" s="15">
+        <v>1</v>
+      </c>
+      <c r="K74" s="15">
+        <v>2</v>
+      </c>
+      <c r="L74" s="15">
+        <v>4</v>
+      </c>
+      <c r="M74" s="15">
+        <v>5</v>
+      </c>
+      <c r="N74" s="15">
+        <v>4</v>
+      </c>
       <c r="U74" s="8"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A75" s="14">
+        <v>28</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C75" s="14">
+        <v>15</v>
+      </c>
+      <c r="D75" s="14">
+        <v>16</v>
+      </c>
+      <c r="E75" s="14">
+        <v>18</v>
+      </c>
+      <c r="F75" s="14">
+        <v>21</v>
+      </c>
+      <c r="G75" s="14">
+        <v>24</v>
+      </c>
+      <c r="H75" s="14">
+        <v>29</v>
+      </c>
+      <c r="I75" s="14">
+        <v>31</v>
+      </c>
+      <c r="J75" s="14">
+        <v>32</v>
+      </c>
+      <c r="K75" s="14">
+        <v>28</v>
+      </c>
+      <c r="L75" s="14">
+        <v>23</v>
+      </c>
+      <c r="M75" s="14">
+        <v>18</v>
+      </c>
+      <c r="N75" s="14">
+        <v>16</v>
+      </c>
       <c r="U75" s="8"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A76" s="16">
+        <v>28</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C76" s="16">
+        <v>5</v>
+      </c>
+      <c r="D76" s="16">
+        <v>5</v>
+      </c>
+      <c r="E76" s="16">
+        <v>7</v>
+      </c>
+      <c r="F76" s="16">
+        <v>9</v>
+      </c>
+      <c r="G76" s="16">
+        <v>13</v>
+      </c>
+      <c r="H76" s="16">
+        <v>17</v>
+      </c>
+      <c r="I76" s="16">
+        <v>19</v>
+      </c>
+      <c r="J76" s="16">
+        <v>20</v>
+      </c>
+      <c r="K76" s="16">
+        <v>17</v>
+      </c>
+      <c r="L76" s="16">
+        <v>14</v>
+      </c>
+      <c r="M76" s="16">
+        <v>9</v>
+      </c>
+      <c r="N76" s="16">
+        <v>6</v>
+      </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U77" s="8"/>
@@ -12398,8 +12663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13551,7 +13816,7 @@
       </c>
       <c r="H26">
         <f>_xlfn.IFNA(IF(VLOOKUP(B26,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <f>_xlfn.IFNA(IF(VLOOKUP(B26,REFERANCES!A:A,1,FALSE),1,0),0)</f>
@@ -13664,7 +13929,7 @@
       </c>
       <c r="D29">
         <f>IF(CLIMBS!R29&lt;&gt;0,1,0)+IF(CLIMBS!G29&lt;&gt;0,1,0)+IF(CLIMBS!H29&lt;&gt;0,1,0)+IF(CLIMBS!I29&lt;&gt;0,1,0)+IF(CLIMBS!J29&lt;&gt;0,1,0)+IF(CLIMBS!N29&lt;&gt;0,1,0)+IF(CLIMBS!M29&lt;&gt;0,1,0)+IF(CLIMBS!O29&lt;&gt;0,1,0)+IF(CLIMBS!P29&lt;&gt;0,1,0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <f>IF(CLIMBS!S29&lt;&gt;0,1,0)</f>
@@ -13683,7 +13948,7 @@
       </c>
       <c r="H29">
         <f>_xlfn.IFNA(IF(VLOOKUP(B29,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <f>_xlfn.IFNA(IF(VLOOKUP(B29,REFERANCES!A:A,1,FALSE),1,0),0)</f>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3944367-A0A3-4713-8B12-92D5CB9500AF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D275F52-0BDD-442F-828A-C1BB5918D289}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="28770" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,14 @@
     <sheet name="to-do-score-card" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IMAGES!$A$1:$F$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IMAGES!$A$1:$I$117</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="686">
   <si>
     <t>cliff</t>
   </si>
@@ -382,9 +382,6 @@
     <t>The Sea Stack Know as The Old Man of Stoer</t>
   </si>
   <si>
-    <t>crag</t>
-  </si>
-  <si>
     <t>attributionText</t>
   </si>
   <si>
@@ -403,15 +400,6 @@
     <t>climbId</t>
   </si>
   <si>
-    <t>img/topos/bosigran/Bosigran-sea-cliff.jpg</t>
-  </si>
-  <si>
-    <t>https://www.flickr.com/photos/ebygomm</t>
-  </si>
-  <si>
-    <t>image credit: Elizabeth Gomm</t>
-  </si>
-  <si>
     <t>img/topos/bosigran/doorpost-topo.jpg</t>
   </si>
   <si>
@@ -427,9 +415,6 @@
     <t>Bosigran's Location in Cornwall</t>
   </si>
   <si>
-    <t>img/topos/cloggy/cloggy-crag.jpg</t>
-  </si>
-  <si>
     <t>The crag at Clogwyn Du'r Arddu or Cloggy</t>
   </si>
   <si>
@@ -448,9 +433,6 @@
     <t>Map showing the location of the great slab on Cloggy</t>
   </si>
   <si>
-    <t>img/topos/cnoc/tormore-trio.jpg</t>
-  </si>
-  <si>
     <t>Cnoc Na Mara Sea Stack</t>
   </si>
   <si>
@@ -469,15 +451,9 @@
     <t>Map showing the location of the Tormore Sea Stacks</t>
   </si>
   <si>
-    <t>img/topos/sass/sass-pordoi-crag.jpg</t>
-  </si>
-  <si>
     <t>The Amazing Alpine Crag of Sass Pordoig</t>
   </si>
   <si>
-    <t>https://pixabay.com/en/sass-pordoi-sella-massif-2738859/</t>
-  </si>
-  <si>
     <t>image credit</t>
   </si>
   <si>
@@ -493,9 +469,6 @@
     <t>Map showing Sass Pordoi In the Dolomites</t>
   </si>
   <si>
-    <t>img/topos/idwal/idwal-slabs-crag.jpg</t>
-  </si>
-  <si>
     <t>https://climbmountains.wordpress.com/2010/06/10/new-ogwen-climbing-guidebook-out-now/</t>
   </si>
   <si>
@@ -514,18 +487,9 @@
     <t>Map showing Cwm Idwal in Wales</t>
   </si>
   <si>
-    <t>img/topos/lundy/devols-slide-on-lundy-island.jpg</t>
-  </si>
-  <si>
     <t>The Devils slide On Lundy</t>
   </si>
   <si>
-    <t>https://www.flickr.com/photos/geographyalltheway_photos/6843213186/in/photostream/</t>
-  </si>
-  <si>
-    <t>Image: Richard Allaway</t>
-  </si>
-  <si>
     <t>The Devils Slide Route Topography</t>
   </si>
   <si>
@@ -535,12 +499,6 @@
     <t>Original By Tom MacDonald</t>
   </si>
   <si>
-    <t>img/topos/wreakers/wreakers-slab.jpg</t>
-  </si>
-  <si>
-    <t>The Amazing Sea Crag in Cornwall</t>
-  </si>
-  <si>
     <t>https://creativecommons.org/licenses/by/2.0/uk/</t>
   </si>
   <si>
@@ -556,9 +514,6 @@
     <t>Map showing Wreakers Slab on Cornakey Cliff</t>
   </si>
   <si>
-    <t>The easiest route up Cwm Idwal Slabs</t>
-  </si>
-  <si>
     <t>tile</t>
   </si>
   <si>
@@ -604,9 +559,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>https://commons.wikimedia.org/wiki/File:2011_Schotland_The_Old_Man_of_Stoer_30-05-2011_15-32-59.png</t>
-  </si>
-  <si>
     <t>http://beantinblog.blogspot.com/2016/08/south-ridge-direct-cir-mhor-arran.html</t>
   </si>
   <si>
@@ -619,9 +571,6 @@
     <t>img/topos/cir-mhor/south-ridge-direct-topo-maybe.jpg</t>
   </si>
   <si>
-    <t>img/topos/cir-mhor/south-ridge-cir-mhor.jpg</t>
-  </si>
-  <si>
     <t>55.636681,-5.223240</t>
   </si>
   <si>
@@ -637,9 +586,6 @@
     <t>53.11047,-4.02601</t>
   </si>
   <si>
-    <t>The stunning Rosa Pinicle on Cir Mhor</t>
-  </si>
-  <si>
     <t>The South Ridge Direct Route on Cir Mhor</t>
   </si>
   <si>
@@ -670,9 +616,6 @@
     <t>Conglomerate</t>
   </si>
   <si>
-    <t>The Grey Rock in Montserrat</t>
-  </si>
-  <si>
     <t>https://elcoleccionistadevies.blogspot.com/2016/07/18-anys-de-laresta-esparreguera-la-roca.html</t>
   </si>
   <si>
@@ -682,9 +625,6 @@
     <t>Grey Rock at Montserrat</t>
   </si>
   <si>
-    <t>img/topos/montserrat/roca-gris-esparreguera-crag-montserrat.jpg</t>
-  </si>
-  <si>
     <t>img/topos/montserrat/roca-gris-esparreguera-topo.jpg</t>
   </si>
   <si>
@@ -712,9 +652,6 @@
     <t>img/topos/sail-rock/sail-rock-donegal-crag-s.jpg</t>
   </si>
   <si>
-    <t>img/topos/sail-rock/sail-rock-donegal-crag.jpg</t>
-  </si>
-  <si>
     <t>Sail Rock in County Donegal offers great climbing</t>
   </si>
   <si>
@@ -751,30 +688,18 @@
     <t>SW</t>
   </si>
   <si>
-    <t>https://www.geograph.org.uk/profile/180</t>
-  </si>
-  <si>
-    <t>img: David Medcalf</t>
-  </si>
-  <si>
     <t>http://www.cornishcamping.co.uk/photographs/cornish-seascapes/</t>
   </si>
   <si>
     <t>img: Cornish Camping</t>
   </si>
   <si>
-    <t>Chair Ladder Climbing Wall from the side</t>
-  </si>
-  <si>
     <t>Chair Ladder Route Topo for Pegasus</t>
   </si>
   <si>
     <t>Chair Ladder Crag</t>
   </si>
   <si>
-    <t>img/topos/chair/chair-ladder-crag-side.jpg</t>
-  </si>
-  <si>
     <t>img/topos/chair/chair-ladder-topo-for-pegasus.jpg</t>
   </si>
   <si>
@@ -880,27 +805,15 @@
     <t>img: national parks service</t>
   </si>
   <si>
-    <t>The Side of the Devils tower</t>
-  </si>
-  <si>
-    <t>https://commons.wikimedia.org/wiki/File:Devils_Tower_as_Seen_From_the_Path_Along_the_Base.jpg</t>
-  </si>
-  <si>
     <t>img source</t>
   </si>
   <si>
     <t>img/topos/devils-tower/devils-tower-durance-climb-topo.jpg</t>
   </si>
   <si>
-    <t>img/topos/devils-tower/devils-tower-wyoming-crag.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Durance Route on the Devils Tower in Wyoming is listed as one of the 50 classic climbs in North America. It's a 4-6 pitch route in which the harder sections are mainly off-width and hand-cracks with a few spots of chimney. Don't forget to register at the Visitor's Center before the climb or you risk a fine. This is a crowded route so get on super early or be ready to follow others and possibly do the abseil decent in the dark with headtorches.  </t>
   </si>
   <si>
-    <t>img/topos/stoer/The-Old-Man-of-Stoer-climb.jpg</t>
-  </si>
-  <si>
     <t>imgURL</t>
   </si>
   <si>
@@ -1036,12 +949,6 @@
     <t>link</t>
   </si>
   <si>
-    <t>https://liamchesterblog.wordpress.com/2013/07/22/slanting-buttress-ridge-route-and-the-horseshoe/</t>
-  </si>
-  <si>
-    <t>img: Liam Chester</t>
-  </si>
-  <si>
     <t>Lliwedd Buttress</t>
   </si>
   <si>
@@ -1066,9 +973,6 @@
     <t>A brilliant guidebok with a good section on Lliwedd. Overall this book covers a good selection of climbs from a good selection of cliffs, including the 300m routes up Lliwedd</t>
   </si>
   <si>
-    <t>img/topos/lliwedd/lliwedd-butress.jpg</t>
-  </si>
-  <si>
     <t>img/topos/lliwedd/longlands-red-wall-avalanche-topo-on-lliwedd.jpg</t>
   </si>
   <si>
@@ -1228,18 +1132,12 @@
     <t>http://www.stetind.nu</t>
   </si>
   <si>
-    <t>An overview of Stetind Mountain</t>
-  </si>
-  <si>
     <t>img/tiles/stetind-mountain.jpg</t>
   </si>
   <si>
     <t>Stetind Mountain offers incredible multi-pitch</t>
   </si>
   <si>
-    <t>img/topos/stetind/stetind-mountain-south-side.jpg</t>
-  </si>
-  <si>
     <t>img/topos/stetind/stetind-south-pillar-route-topo.jpg</t>
   </si>
   <si>
@@ -1307,9 +1205,6 @@
   </si>
   <si>
     <t>lakelandpilgrimage.blogspot.com/p/the-cathedrals.html</t>
-  </si>
-  <si>
-    <t>img/topos/scafell/scarfell-pike-climbs.jpg</t>
   </si>
   <si>
     <t>img/topos/scafell/scarfell-pike-climbs-s.jpg</t>
@@ -1412,9 +1307,6 @@
     <t>slieve beg crag in the mournes</t>
   </si>
   <si>
-    <t>https://www.geograph.ie/profile/7056</t>
-  </si>
-  <si>
     <t>img: Eric Jones</t>
   </si>
   <si>
@@ -1436,9 +1328,6 @@
     <t>img/topos/mournes/slieve-beg-crag-in-the-mournes-s.jpg</t>
   </si>
   <si>
-    <t>img/topos/mournes/slieve-beg-crag-in-the-mournes.jpg</t>
-  </si>
-  <si>
     <t>Slieve Beg in the Mourne Mountains</t>
   </si>
   <si>
@@ -1470,12 +1359,6 @@
   </si>
   <si>
     <t>img/topos/indefatigable/mount-indefatigable-topo.jpg</t>
-  </si>
-  <si>
-    <t>img/topos/indefatigable/mount-indefatigable-crag.jpg</t>
-  </si>
-  <si>
-    <t>https://www.mountainproject.com/photo/107188369/joy-and-the-shining-path-approach-and-scree-descent</t>
   </si>
   <si>
     <t>YDS 5.6</t>
@@ -1561,9 +1444,6 @@
     <t>img: Warren R. M. Stuart</t>
   </si>
   <si>
-    <t>img/topos/lion-rock/lion-rock-crag-hong-kong.jpg</t>
-  </si>
-  <si>
     <t>img/topos/lion-rock/lion-rock-topo-for-gweilo-via-topcat.jpg</t>
   </si>
   <si>
@@ -1603,12 +1483,6 @@
     <t>Topo for Queles on Meadinha in Portugal</t>
   </si>
   <si>
-    <t>Meadinha Granite Dome in Portugal</t>
-  </si>
-  <si>
-    <t>http://noroestetrad.blogspot.com/p/situacion-y-acceso-la-peneda.html</t>
-  </si>
-  <si>
     <t>Location of Meadinha in North Portugal</t>
   </si>
   <si>
@@ -1631,9 +1505,6 @@
   </si>
   <si>
     <t xml:space="preserve">This publicly availible guidebook is so clear and comprehensive that I almost didn't bother adding Lion Rock to this website because its covered in far better detail in this guide. </t>
-  </si>
-  <si>
-    <t>img/topos/meadinha/meadina-crag-in-north-portugal.jpg</t>
   </si>
   <si>
     <t>img/topos/meadinha/meadina-topo-for-queles.jpg</t>
@@ -1702,9 +1573,6 @@
     </r>
   </si>
   <si>
-    <t>img/topos/penon/penon-costa-blanca.jpg</t>
-  </si>
-  <si>
     <t>img/topos/penon/penon-topo-for-diedre-UBSA.jpg</t>
   </si>
   <si>
@@ -1750,18 +1618,9 @@
     </r>
   </si>
   <si>
-    <t>img/topos/meteor/meteor-crag-pillar-of-dreams.jpg</t>
-  </si>
-  <si>
     <t>Meteor crag in Greece - Holy Ghost Rock</t>
   </si>
   <si>
-    <t>https://www.tripsite.com/bike/tours/meteora-undiscovered-greece/</t>
-  </si>
-  <si>
-    <t>img: tripsite</t>
-  </si>
-  <si>
     <t>img/tiles/meteor-holy-ghost-cliff.jpg</t>
   </si>
   <si>
@@ -1819,12 +1678,6 @@
     <t>original: RémiB</t>
   </si>
   <si>
-    <t>http://clive.rocks/aiguille-dibona/</t>
-  </si>
-  <si>
-    <t>img: Clive</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aiguille Dibona in the Haute-Alps </t>
   </si>
   <si>
@@ -1832,9 +1685,6 @@
   </si>
   <si>
     <t>img/topos/aiguille-dibona/aiguille-debona-visite-obligatoire.jpg</t>
-  </si>
-  <si>
-    <t>img/topos/aiguille-dibona/aiguille-debona.jpg</t>
   </si>
   <si>
     <t>img/tiles/aiguille-debona.jpg</t>
@@ -1955,9 +1805,6 @@
     <t>switzerland</t>
   </si>
   <si>
-    <t>img/topos/bruggler/bruggler-crag-switzerland.jpg</t>
-  </si>
-  <si>
     <t>Bruggler offers great Rock Climbing</t>
   </si>
   <si>
@@ -2005,9 +1852,6 @@
   </si>
   <si>
     <t xml:space="preserve">The Arete on the Torre Delago Tower is a true classic. It's both polished and popular, but for a reason. The exposure and views are incredible and the climbing sits firmly at the easier end of the scale with a grade of UIAA IV+. The is a mountain refuge nearby but it’s over an hours hike to get here. </t>
-  </si>
-  <si>
-    <t>img/topos/vejolet/vejolet-towers-rock-climbing-dolomites.jpg</t>
   </si>
   <si>
     <t>The Vejolet Towers rock climbing</t>
@@ -2324,6 +2168,9 @@
   </si>
   <si>
     <t>https://www.multi-pitch.com/about-us/</t>
+  </si>
+  <si>
+    <t>topo data</t>
   </si>
 </sst>
 </file>
@@ -2966,7 +2813,207 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3409,9 +3456,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F29" sqref="F29"/>
+      <selection pane="topRight" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3495,7 +3542,7 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>695</v>
+        <v>643</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>18</v>
@@ -3504,13 +3551,13 @@
         <v>19</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>680</v>
+        <v>628</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>681</v>
+        <v>629</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>687</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -3563,7 +3610,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>572</v>
+        <v>525</v>
       </c>
       <c r="S2" t="s">
         <v>30</v>
@@ -3672,7 +3719,7 @@
         <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="M4" t="s">
         <v>51</v>
@@ -3693,13 +3740,13 @@
         <v>54</v>
       </c>
       <c r="S4" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="V4" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3731,7 +3778,7 @@
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="K5" t="s">
         <v>60</v>
@@ -3805,19 +3852,19 @@
         <v>3</v>
       </c>
       <c r="Q6" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="R6" t="s">
         <v>73</v>
       </c>
       <c r="S6" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="V6" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -3920,13 +3967,13 @@
         <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>715</v>
+        <v>663</v>
       </c>
       <c r="M8" t="s">
         <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="O8">
         <v>30</v>
@@ -3944,7 +3991,7 @@
         <v>91</v>
       </c>
       <c r="U8" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -3985,7 +4032,7 @@
         <v>39</v>
       </c>
       <c r="N9" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="O9">
         <v>120</v>
@@ -3997,13 +4044,13 @@
         <v>41</v>
       </c>
       <c r="R9" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="S9" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="U9" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="V9" t="s">
         <v>45</v>
@@ -4026,7 +4073,7 @@
         <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
       <c r="F10" t="s">
         <v>97</v>
@@ -4041,19 +4088,19 @@
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="K10" t="s">
         <v>60</v>
       </c>
       <c r="L10" t="s">
-        <v>650</v>
+        <v>598</v>
       </c>
       <c r="M10" t="s">
-        <v>534</v>
+        <v>491</v>
       </c>
       <c r="N10" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="O10">
         <v>10</v>
@@ -4065,10 +4112,10 @@
         <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>528</v>
+        <v>486</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" t="s">
@@ -4113,7 +4160,7 @@
         <v>39</v>
       </c>
       <c r="N11" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="O11">
         <v>50</v>
@@ -4131,10 +4178,10 @@
         <v>104</v>
       </c>
       <c r="T11" t="s">
-        <v>696</v>
+        <v>644</v>
       </c>
       <c r="U11" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -4142,7 +4189,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>106</v>
@@ -4154,10 +4201,10 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="G12">
         <v>330</v>
@@ -4178,7 +4225,7 @@
         <v>27</v>
       </c>
       <c r="N12" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="O12">
         <v>140</v>
@@ -4190,21 +4237,21 @@
         <v>41</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="S12" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="U12" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="V12" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
         <v>106</v>
@@ -4213,13 +4260,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="F13" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="G13">
         <v>190</v>
@@ -4237,13 +4284,13 @@
         <v>26</v>
       </c>
       <c r="L13" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="M13" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="N13" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="O13">
         <v>35</v>
@@ -4252,19 +4299,19 @@
         <v>1</v>
       </c>
       <c r="Q13" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>694</v>
+        <v>642</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>693</v>
+        <v>641</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>697</v>
+        <v>645</v>
       </c>
       <c r="V13" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="W13">
         <v>1</v>
@@ -4275,7 +4322,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
         <v>106</v>
@@ -4287,10 +4334,10 @@
         <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F14" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="G14">
         <v>81</v>
@@ -4305,13 +4352,13 @@
         <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="M14" t="s">
         <v>70</v>
       </c>
       <c r="N14" t="s">
-        <v>659</v>
+        <v>607</v>
       </c>
       <c r="O14">
         <v>20</v>
@@ -4320,16 +4367,16 @@
         <v>2</v>
       </c>
       <c r="Q14" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="R14" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S14" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="U14" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="W14">
         <v>1</v>
@@ -4337,7 +4384,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
         <v>106</v>
@@ -4352,7 +4399,7 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="G15">
         <v>70</v>
@@ -4373,7 +4420,7 @@
         <v>39</v>
       </c>
       <c r="N15" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="O15">
         <v>15</v>
@@ -4385,22 +4432,22 @@
         <v>41</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="V15" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
         <v>106</v>
@@ -4409,13 +4456,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="E16" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="F16" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="G16">
         <v>152</v>
@@ -4430,16 +4477,16 @@
         <v>25</v>
       </c>
       <c r="K16" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="L16" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="M16" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="N16" t="s">
-        <v>658</v>
+        <v>606</v>
       </c>
       <c r="O16">
         <v>5</v>
@@ -4448,19 +4495,19 @@
         <v>1</v>
       </c>
       <c r="Q16" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="R16" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="S16" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="U16" t="s">
         <v>44</v>
       </c>
       <c r="V16" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -4468,7 +4515,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="B17" t="s">
         <v>106</v>
@@ -4483,7 +4530,7 @@
         <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="G17">
         <v>280</v>
@@ -4495,7 +4542,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
         <v>38</v>
@@ -4504,7 +4551,7 @@
         <v>51</v>
       </c>
       <c r="N17" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="O17">
         <v>75</v>
@@ -4516,22 +4563,22 @@
         <v>53</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="V17" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="B18" t="s">
         <v>106</v>
@@ -4540,13 +4587,13 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="E18" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="F18" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="G18">
         <v>575</v>
@@ -4558,19 +4605,19 @@
         <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="K18" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="L18" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="M18" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="N18" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="O18">
         <v>90</v>
@@ -4579,16 +4626,16 @@
         <v>2</v>
       </c>
       <c r="Q18" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="S18" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="U18" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="W18">
         <v>1</v>
@@ -4596,7 +4643,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="B19" t="s">
         <v>106</v>
@@ -4608,10 +4655,10 @@
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="F19" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="G19">
         <v>74</v>
@@ -4623,16 +4670,16 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="K19" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="M19" t="s">
         <v>39</v>
       </c>
       <c r="N19" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="O19">
         <v>70</v>
@@ -4644,16 +4691,16 @@
         <v>53</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="B20" t="s">
         <v>106</v>
@@ -4662,13 +4709,13 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="E20" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="F20" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="G20">
         <v>300</v>
@@ -4680,19 +4727,19 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
         <v>79</v>
       </c>
       <c r="L20" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="M20" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="N20" t="s">
-        <v>657</v>
+        <v>605</v>
       </c>
       <c r="O20">
         <v>40</v>
@@ -4704,18 +4751,18 @@
         <v>64</v>
       </c>
       <c r="R20" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="S20" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="U20" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="B21" t="s">
         <v>106</v>
@@ -4727,10 +4774,10 @@
         <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="F21" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="G21">
         <v>80</v>
@@ -4751,7 +4798,7 @@
         <v>70</v>
       </c>
       <c r="N21" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="O21">
         <v>90</v>
@@ -4763,18 +4810,18 @@
         <v>41</v>
       </c>
       <c r="R21" t="s">
-        <v>469</v>
+        <v>432</v>
       </c>
       <c r="S21" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="V21" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="B22" t="s">
         <v>106</v>
@@ -4783,13 +4830,13 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="E22" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
       <c r="F22" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="G22">
         <v>80</v>
@@ -4804,13 +4851,13 @@
         <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="M22" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="N22" t="s">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="O22">
         <v>40</v>
@@ -4822,13 +4869,13 @@
         <v>41</v>
       </c>
       <c r="R22" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="S22" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="U22" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="V22" t="s">
         <v>45</v>
@@ -4836,7 +4883,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="B23" t="s">
         <v>106</v>
@@ -4845,13 +4892,13 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="E23" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="F23" t="s">
-        <v>537</v>
+        <v>494</v>
       </c>
       <c r="G23">
         <v>228</v>
@@ -4869,10 +4916,10 @@
         <v>60</v>
       </c>
       <c r="M23" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="N23" t="s">
-        <v>542</v>
+        <v>499</v>
       </c>
       <c r="O23">
         <v>20</v>
@@ -4884,16 +4931,16 @@
         <v>64</v>
       </c>
       <c r="R23" t="s">
-        <v>541</v>
+        <v>498</v>
       </c>
       <c r="S23" t="s">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="U23" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="V23" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="W23">
         <v>1</v>
@@ -4901,7 +4948,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>558</v>
+        <v>514</v>
       </c>
       <c r="B24" t="s">
         <v>106</v>
@@ -4910,13 +4957,13 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>555</v>
+        <v>511</v>
       </c>
       <c r="E24" t="s">
-        <v>557</v>
+        <v>513</v>
       </c>
       <c r="F24" t="s">
-        <v>554</v>
+        <v>510</v>
       </c>
       <c r="G24">
         <v>250</v>
@@ -4934,13 +4981,13 @@
         <v>26</v>
       </c>
       <c r="L24" t="s">
-        <v>560</v>
+        <v>516</v>
       </c>
       <c r="M24" t="s">
-        <v>556</v>
+        <v>512</v>
       </c>
       <c r="N24" t="s">
-        <v>559</v>
+        <v>515</v>
       </c>
       <c r="O24">
         <v>21</v>
@@ -4949,19 +4996,19 @@
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="R24" t="s">
-        <v>562</v>
+        <v>518</v>
       </c>
       <c r="S24" t="s">
-        <v>561</v>
+        <v>517</v>
       </c>
       <c r="U24" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="V24" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="W24">
         <v>1</v>
@@ -4969,7 +5016,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>578</v>
+        <v>531</v>
       </c>
       <c r="B25" t="s">
         <v>106</v>
@@ -4978,13 +5025,13 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>577</v>
+        <v>530</v>
       </c>
       <c r="E25" t="s">
-        <v>579</v>
+        <v>532</v>
       </c>
       <c r="F25" t="s">
-        <v>582</v>
+        <v>535</v>
       </c>
       <c r="G25">
         <v>350</v>
@@ -4996,19 +5043,19 @@
         <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="K25" t="s">
         <v>60</v>
       </c>
       <c r="L25" t="s">
-        <v>580</v>
+        <v>533</v>
       </c>
       <c r="M25" t="s">
-        <v>581</v>
+        <v>534</v>
       </c>
       <c r="N25" t="s">
-        <v>583</v>
+        <v>536</v>
       </c>
       <c r="O25">
         <v>190</v>
@@ -5020,17 +5067,17 @@
         <v>41</v>
       </c>
       <c r="R25" t="s">
-        <v>593</v>
+        <v>543</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>594</v>
+        <v>544</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="V25" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="W25">
         <v>1</v>
@@ -5038,7 +5085,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
       <c r="B26" t="s">
         <v>106</v>
@@ -5047,13 +5094,13 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>617</v>
+        <v>567</v>
       </c>
       <c r="E26" t="s">
-        <v>621</v>
+        <v>571</v>
       </c>
       <c r="F26" t="s">
-        <v>620</v>
+        <v>570</v>
       </c>
       <c r="G26">
         <v>230</v>
@@ -5068,16 +5115,16 @@
         <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="L26" t="s">
-        <v>622</v>
+        <v>572</v>
       </c>
       <c r="M26" t="s">
-        <v>623</v>
+        <v>573</v>
       </c>
       <c r="N26" t="s">
-        <v>618</v>
+        <v>568</v>
       </c>
       <c r="O26">
         <v>70</v>
@@ -5089,22 +5136,22 @@
         <v>64</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>634</v>
+        <v>583</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>635</v>
+        <v>584</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="V26" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>636</v>
+        <v>585</v>
       </c>
       <c r="B27" t="s">
         <v>106</v>
@@ -5116,10 +5163,10 @@
         <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>638</v>
+        <v>587</v>
       </c>
       <c r="F27" t="s">
-        <v>651</v>
+        <v>599</v>
       </c>
       <c r="G27">
         <v>160</v>
@@ -5134,7 +5181,7 @@
         <v>37</v>
       </c>
       <c r="K27" t="s">
-        <v>639</v>
+        <v>588</v>
       </c>
       <c r="L27" t="s">
         <v>80</v>
@@ -5143,7 +5190,7 @@
         <v>81</v>
       </c>
       <c r="N27" t="s">
-        <v>637</v>
+        <v>586</v>
       </c>
       <c r="O27">
         <v>80</v>
@@ -5155,17 +5202,17 @@
         <v>83</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>640</v>
+        <v>589</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>679</v>
+        <v>627</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="V27" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="W27">
         <v>1</v>
@@ -5173,7 +5220,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>705</v>
+        <v>653</v>
       </c>
       <c r="B28" t="s">
         <v>107</v>
@@ -5182,13 +5229,13 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>701</v>
+        <v>649</v>
       </c>
       <c r="E28" t="s">
-        <v>702</v>
+        <v>650</v>
       </c>
       <c r="F28" t="s">
-        <v>703</v>
+        <v>651</v>
       </c>
       <c r="G28">
         <v>250</v>
@@ -5206,13 +5253,13 @@
         <v>38</v>
       </c>
       <c r="L28" t="s">
-        <v>704</v>
+        <v>652</v>
       </c>
       <c r="M28" t="s">
-        <v>699</v>
+        <v>647</v>
       </c>
       <c r="N28" t="s">
-        <v>706</v>
+        <v>654</v>
       </c>
       <c r="O28">
         <v>30</v>
@@ -5221,14 +5268,14 @@
         <v>1</v>
       </c>
       <c r="Q28" t="s">
-        <v>700</v>
+        <v>648</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>711</v>
+        <v>659</v>
       </c>
       <c r="B29" t="s">
         <v>106</v>
@@ -5237,13 +5284,13 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>712</v>
+        <v>660</v>
       </c>
       <c r="E29" t="s">
-        <v>712</v>
+        <v>660</v>
       </c>
       <c r="F29" t="s">
-        <v>734</v>
+        <v>682</v>
       </c>
       <c r="G29">
         <v>115</v>
@@ -5258,16 +5305,16 @@
         <v>25</v>
       </c>
       <c r="K29" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="L29" t="s">
-        <v>560</v>
+        <v>516</v>
       </c>
       <c r="M29" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="N29" t="s">
-        <v>713</v>
+        <v>661</v>
       </c>
       <c r="O29">
         <v>15</v>
@@ -5279,10 +5326,10 @@
         <v>41</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>729</v>
+        <v>677</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>730</v>
+        <v>678</v>
       </c>
       <c r="W29">
         <v>1</v>
@@ -5290,7 +5337,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
       <c r="B30" t="s">
         <v>107</v>
@@ -5301,7 +5348,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>540</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -5314,9 +5361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44:G44"/>
+    <sheetView zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5332,28 +5379,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>733</v>
+        <v>681</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5361,23 +5408,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I2" t="str">
         <f>CONCATENATE(A2,B2)</f>
-        <v>1crag</v>
+        <v>1topo</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5385,23 +5432,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I56" si="0">CONCATENATE(A3,B3)</f>
-        <v>1topo</v>
+        <f>CONCATENATE(A3,B3)</f>
+        <v>1tile</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5412,38 +5453,44 @@
         <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>665</v>
+        <v>613</v>
       </c>
       <c r="D4" t="s">
         <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>685</v>
+        <v>633</v>
       </c>
       <c r="F4" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A4,B4)</f>
         <v>1map</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="0"/>
-        <v>1tile</v>
+        <f>CONCATENATE(A5,B5)</f>
+        <v>2topo</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5451,23 +5498,20 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="0"/>
-        <v>2crag</v>
+        <f>CONCATENATE(A6,B6)</f>
+        <v>2tile</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5475,68 +5519,65 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
+        <v>614</v>
+      </c>
+      <c r="D7" t="s">
         <v>127</v>
       </c>
-      <c r="D7" t="s">
-        <v>128</v>
-      </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>633</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>634</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="0"/>
-        <v>2topo</v>
+        <f>CONCATENATE(A7,B7)</f>
+        <v>2map</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>666</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>685</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>686</v>
+        <v>130</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="0"/>
-        <v>2map</v>
+        <f>CONCATENATE(A8,B8)</f>
+        <v>3topo</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="0"/>
-        <v>2tile</v>
+        <f>CONCATENATE(A9,B9)</f>
+        <v>3tile</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5544,2365 +5585,1751 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>615</v>
       </c>
       <c r="D10" t="s">
         <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>633</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>634</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="0"/>
-        <v>3crag</v>
+        <f>CONCATENATE(A10,B10)</f>
+        <v>3map</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="0"/>
-        <v>3topo</v>
+        <f>CONCATENATE(A11,B11)</f>
+        <v>4tile</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>667</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
         <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>685</v>
+        <v>135</v>
       </c>
       <c r="F12" t="s">
-        <v>686</v>
+        <v>136</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="0"/>
-        <v>3map</v>
+        <f>CONCATENATE(A12,B12)</f>
+        <v>5topo</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="E13" t="s">
+        <v>135</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="0"/>
-        <v>3tile</v>
+        <f>CONCATENATE(A13,B13)</f>
+        <v>5tile</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>616</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>139</v>
+      </c>
+      <c r="E14" t="s">
+        <v>633</v>
+      </c>
+      <c r="F14" t="s">
+        <v>634</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="0"/>
-        <v>4tile</v>
+        <f>CONCATENATE(A14,B14)</f>
+        <v>5map</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="0"/>
-        <v>5crag</v>
+        <f>CONCATENATE(A15,B15)</f>
+        <v>6topo</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="0"/>
-        <v>5topo</v>
+        <f>CONCATENATE(A16,B16)</f>
+        <v>6tile</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>668</v>
+        <v>603</v>
       </c>
       <c r="D17" t="s">
         <v>145</v>
       </c>
       <c r="E17" t="s">
-        <v>685</v>
+        <v>633</v>
       </c>
       <c r="F17" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="0"/>
-        <v>5map</v>
+        <f>CONCATENATE(A17,B17)</f>
+        <v>6map</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>149</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="0"/>
-        <v>5tile</v>
+        <f>CONCATENATE(A18,B18)</f>
+        <v>7topo</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" t="s">
         <v>146</v>
       </c>
-      <c r="D19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" t="s">
-        <v>148</v>
-      </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="0"/>
-        <v>6crag</v>
+        <f>CONCATENATE(A19,B19)</f>
+        <v>7tile</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>617</v>
       </c>
       <c r="D20" t="s">
         <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>152</v>
+        <v>633</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>634</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="0"/>
-        <v>6topo</v>
+        <f>CONCATENATE(A20,B20)</f>
+        <v>7map</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>655</v>
+        <v>373</v>
       </c>
       <c r="D21" t="s">
         <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>685</v>
+        <v>154</v>
       </c>
       <c r="F21" t="s">
-        <v>686</v>
+        <v>155</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="0"/>
-        <v>6map</v>
+        <f>CONCATENATE(A21,B21)</f>
+        <v>8topo</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>152</v>
+      </c>
+      <c r="E22" t="s">
+        <v>163</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="0"/>
-        <v>6tile</v>
+        <f>CONCATENATE(A22,B22)</f>
+        <v>8tile</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>618</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>633</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>634</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="0"/>
-        <v>7crag</v>
+        <f>CONCATENATE(A23,B23)</f>
+        <v>8map</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>490</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>481</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>480</v>
       </c>
       <c r="F24" t="s">
-        <v>159</v>
+        <v>479</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="0"/>
-        <v>7topo</v>
+        <f>CONCATENATE(A24,B24)</f>
+        <v>9topo</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
-        <v>669</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E25" t="s">
-        <v>685</v>
+        <v>164</v>
       </c>
       <c r="F25" t="s">
-        <v>686</v>
+        <v>258</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="0"/>
-        <v>7map</v>
+        <f>CONCATENATE(A25,B25)</f>
+        <v>9tile</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>620</v>
       </c>
       <c r="D26" t="s">
-        <v>181</v>
+        <v>482</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
+        <v>633</v>
       </c>
       <c r="F26" t="s">
-        <v>149</v>
+        <v>634</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="0"/>
-        <v>7tile</v>
+        <f>CONCATENATE(A26,B26)</f>
+        <v>9map</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="0"/>
-        <v>8crag</v>
+        <f>CONCATENATE(A27,B27)</f>
+        <v>10topo</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
-        <v>407</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
-      </c>
-      <c r="E28" t="s">
-        <v>166</v>
-      </c>
-      <c r="F28" t="s">
         <v>167</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="0"/>
-        <v>8topo</v>
+        <f>CONCATENATE(A28,B28)</f>
+        <v>10tile</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>670</v>
+        <v>619</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E29" t="s">
-        <v>685</v>
+        <v>633</v>
       </c>
       <c r="F29" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="0"/>
-        <v>8map</v>
+        <f>CONCATENATE(A29,B29)</f>
+        <v>10map</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" t="s">
         <v>176</v>
       </c>
-      <c r="C30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" t="s">
-        <v>162</v>
-      </c>
-      <c r="E30" t="s">
-        <v>178</v>
+      <c r="F30" t="s">
+        <v>110</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="0"/>
-        <v>8tile</v>
+        <f>CONCATENATE(A30,B30)</f>
+        <v>11topo</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>672</v>
+        <v>178</v>
       </c>
       <c r="D31" t="s">
-        <v>524</v>
+        <v>185</v>
       </c>
       <c r="E31" t="s">
-        <v>685</v>
+        <v>172</v>
       </c>
       <c r="F31" t="s">
-        <v>686</v>
+        <v>173</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="0"/>
-        <v>9map</v>
+        <f>CONCATENATE(A31,B31)</f>
+        <v>11tile</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>604</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>335</v>
       </c>
       <c r="E32" t="s">
-        <v>179</v>
+        <v>633</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="0"/>
-        <v>9tile</v>
+        <f>CONCATENATE(A32,B32)</f>
+        <v>11map</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
         <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>533</v>
+        <v>198</v>
       </c>
       <c r="D33" t="s">
-        <v>521</v>
-      </c>
-      <c r="E33" t="s">
-        <v>520</v>
+        <v>196</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>684</v>
       </c>
       <c r="F33" t="s">
-        <v>519</v>
+        <v>157</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="0"/>
-        <v>9topo</v>
+        <f>CONCATENATE(A33,B33)</f>
+        <v>12topo</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
-        <v>532</v>
+        <v>325</v>
       </c>
       <c r="D34" t="s">
-        <v>522</v>
+        <v>197</v>
       </c>
       <c r="E34" t="s">
-        <v>523</v>
+        <v>326</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
+        <v>110</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="0"/>
-        <v>9crag</v>
+        <f>CONCATENATE(A34,B34)</f>
+        <v>12tile</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>655</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>658</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E35" t="s">
-        <v>170</v>
+        <v>656</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>657</v>
       </c>
       <c r="F35" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="0"/>
-        <v>10crag</v>
+        <f>CONCATENATE(A35,B35)</f>
+        <v>12super</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>612</v>
       </c>
       <c r="D36" t="s">
-        <v>173</v>
+        <v>343</v>
       </c>
       <c r="E36" t="s">
-        <v>170</v>
+        <v>633</v>
       </c>
       <c r="F36" t="s">
-        <v>171</v>
+        <v>634</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="0"/>
-        <v>10topo</v>
+        <f>CONCATENATE(A36,B36)</f>
+        <v>12map</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>212</v>
+      </c>
+      <c r="E37" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" t="s">
+        <v>214</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="0"/>
-        <v>10tile</v>
+        <f>CONCATENATE(A37,B37)</f>
+        <v>13topo</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
-        <v>671</v>
+        <v>206</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="E38" t="s">
-        <v>685</v>
+        <v>208</v>
       </c>
       <c r="F38" t="s">
-        <v>686</v>
+        <v>205</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="0"/>
-        <v>10map</v>
+        <f>CONCATENATE(A38,B38)</f>
+        <v>13tile</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>621</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>371</v>
       </c>
       <c r="E39" t="s">
-        <v>187</v>
+        <v>633</v>
       </c>
       <c r="F39" t="s">
-        <v>188</v>
+        <v>634</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="0"/>
-        <v>11crag</v>
+        <f>CONCATENATE(A39,B39)</f>
+        <v>13map</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
         <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="D40" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="E40" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="F40" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="0"/>
-        <v>11topo</v>
+        <f>CONCATENATE(A40,B40)</f>
+        <v>14topo</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="D41" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="E41" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="F41" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="0"/>
-        <v>11tile</v>
+        <f>CONCATENATE(A41,B41)</f>
+        <v>14tile</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
         <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>656</v>
+        <v>622</v>
       </c>
       <c r="D42" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="E42" t="s">
-        <v>685</v>
+        <v>633</v>
       </c>
       <c r="F42" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="0"/>
-        <v>11map</v>
+        <f>CONCATENATE(A42,B42)</f>
+        <v>14map</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="D43" t="s">
-        <v>213</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>736</v>
+        <v>248</v>
+      </c>
+      <c r="E43" t="s">
+        <v>249</v>
       </c>
       <c r="F43" t="s">
-        <v>171</v>
-      </c>
-      <c r="G43">
-        <v>5</v>
+        <v>257</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="0"/>
-        <v>12crag</v>
+        <f>CONCATENATE(A43,B43)</f>
+        <v>15topo</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="D44" t="s">
-        <v>215</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>736</v>
+        <v>255</v>
+      </c>
+      <c r="E44" t="s">
+        <v>256</v>
       </c>
       <c r="F44" t="s">
-        <v>171</v>
-      </c>
-      <c r="G44">
-        <v>5</v>
+        <v>257</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="0"/>
-        <v>12topo</v>
+        <f>CONCATENATE(A44,B44)</f>
+        <v>15tile</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>357</v>
+        <v>623</v>
       </c>
       <c r="D45" t="s">
-        <v>216</v>
+        <v>295</v>
       </c>
       <c r="E45" t="s">
-        <v>358</v>
+        <v>633</v>
       </c>
       <c r="F45" t="s">
-        <v>110</v>
+        <v>634</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="0"/>
-        <v>12tile</v>
+        <f>CONCATENATE(A45,B45)</f>
+        <v>15map</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>664</v>
+        <v>314</v>
       </c>
       <c r="D46" t="s">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="E46" t="s">
-        <v>685</v>
+        <v>312</v>
       </c>
       <c r="F46" t="s">
-        <v>686</v>
+        <v>110</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="0"/>
-        <v>12map</v>
+        <f>CONCATENATE(A46,B46)</f>
+        <v>16topo</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>226</v>
+        <v>327</v>
       </c>
       <c r="D47" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="E47" t="s">
-        <v>229</v>
+        <v>316</v>
       </c>
       <c r="F47" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="0"/>
-        <v>13tile</v>
+        <f>CONCATENATE(A47,B47)</f>
+        <v>16tile</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>227</v>
+        <v>608</v>
       </c>
       <c r="D48" t="s">
-        <v>228</v>
+        <v>342</v>
       </c>
       <c r="E48" t="s">
-        <v>229</v>
+        <v>633</v>
       </c>
       <c r="F48" t="s">
-        <v>225</v>
+        <v>634</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="0"/>
-        <v>13crag</v>
+        <f>CONCATENATE(A48,B48)</f>
+        <v>16map</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
         <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>232</v>
+        <v>369</v>
       </c>
       <c r="D49" t="s">
-        <v>233</v>
+        <v>365</v>
       </c>
       <c r="E49" t="s">
-        <v>234</v>
+        <v>355</v>
       </c>
       <c r="F49" t="s">
-        <v>235</v>
+        <v>356</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="0"/>
-        <v>13topo</v>
+        <f>CONCATENATE(A49,B49)</f>
+        <v>17topo</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
-        <v>673</v>
+        <v>367</v>
       </c>
       <c r="D50" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="E50" t="s">
-        <v>685</v>
+        <v>366</v>
       </c>
       <c r="F50" t="s">
-        <v>686</v>
+        <v>115</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="0"/>
-        <v>13map</v>
+        <f>CONCATENATE(A50,B50)</f>
+        <v>17tile</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>247</v>
+        <v>601</v>
       </c>
       <c r="D51" t="s">
-        <v>244</v>
+        <v>370</v>
       </c>
       <c r="E51" t="s">
-        <v>240</v>
+        <v>633</v>
       </c>
       <c r="F51" t="s">
-        <v>241</v>
+        <v>634</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="0"/>
-        <v>14crag</v>
+        <f>CONCATENATE(A51,B51)</f>
+        <v>17map</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
         <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="D52" t="s">
-        <v>245</v>
+        <v>390</v>
       </c>
       <c r="E52" t="s">
-        <v>242</v>
+        <v>391</v>
       </c>
       <c r="F52" t="s">
-        <v>243</v>
+        <v>110</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="0"/>
-        <v>14topo</v>
+        <f>CONCATENATE(A52,B52)</f>
+        <v>18topo</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>249</v>
+        <v>392</v>
       </c>
       <c r="D53" t="s">
-        <v>246</v>
+        <v>393</v>
       </c>
       <c r="E53" t="s">
-        <v>242</v>
+        <v>394</v>
       </c>
       <c r="F53" t="s">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="0"/>
-        <v>14tile</v>
+        <f>CONCATENATE(A53,B53)</f>
+        <v>18tile</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
         <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="D54" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="E54" t="s">
-        <v>685</v>
+        <v>633</v>
       </c>
       <c r="F54" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="0"/>
-        <v>14map</v>
+        <f>CONCATENATE(A54,B54)</f>
+        <v>18map</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
         <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>286</v>
+        <v>441</v>
       </c>
       <c r="D55" t="s">
-        <v>273</v>
+        <v>440</v>
       </c>
       <c r="E55" t="s">
-        <v>274</v>
+        <v>437</v>
       </c>
       <c r="F55" t="s">
-        <v>282</v>
+        <v>439</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="0"/>
-        <v>15topo</v>
+        <f>CONCATENATE(A55,B55)</f>
+        <v>19topo</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>279</v>
+        <v>435</v>
       </c>
       <c r="D56" t="s">
-        <v>280</v>
+        <v>436</v>
       </c>
       <c r="E56" t="s">
-        <v>281</v>
+        <v>437</v>
       </c>
       <c r="F56" t="s">
-        <v>282</v>
+        <v>438</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="0"/>
-        <v>15tile</v>
+        <f>CONCATENATE(A56,B56)</f>
+        <v>19tile</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>287</v>
+        <v>602</v>
       </c>
       <c r="D57" t="s">
-        <v>283</v>
+        <v>445</v>
       </c>
       <c r="E57" t="s">
-        <v>284</v>
+        <v>633</v>
       </c>
       <c r="F57" t="s">
-        <v>285</v>
+        <v>634</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" ref="I57:I60" si="1">CONCATENATE(A57,B57)</f>
-        <v>15crag</v>
+        <f>CONCATENATE(A57,B57)</f>
+        <v>19map</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>675</v>
+        <v>429</v>
       </c>
       <c r="D58" t="s">
-        <v>324</v>
+        <v>426</v>
       </c>
       <c r="E58" t="s">
-        <v>685</v>
+        <v>425</v>
       </c>
       <c r="F58" t="s">
-        <v>686</v>
+        <v>427</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="1"/>
-        <v>15map</v>
+        <f>CONCATENATE(A58,B58)</f>
+        <v>20topo</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="C59" t="s">
-        <v>345</v>
+        <v>430</v>
       </c>
       <c r="D59" t="s">
-        <v>337</v>
+        <v>423</v>
       </c>
       <c r="E59" t="s">
-        <v>335</v>
+        <v>425</v>
       </c>
       <c r="F59" t="s">
-        <v>336</v>
+        <v>424</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="1"/>
-        <v>16crag</v>
+        <f>CONCATENATE(A59,B59)</f>
+        <v>20tile</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>346</v>
+        <v>624</v>
       </c>
       <c r="D60" t="s">
-        <v>342</v>
+        <v>431</v>
       </c>
       <c r="E60" t="s">
-        <v>343</v>
+        <v>633</v>
       </c>
       <c r="F60" t="s">
-        <v>110</v>
+        <v>634</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="1"/>
-        <v>16topo</v>
+        <f>CONCATENATE(A60,B60)</f>
+        <v>20map</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
-        <v>359</v>
+        <v>469</v>
       </c>
       <c r="D61" t="s">
-        <v>337</v>
+        <v>470</v>
       </c>
       <c r="E61" t="s">
-        <v>348</v>
+        <v>471</v>
       </c>
       <c r="F61" t="s">
-        <v>110</v>
+        <v>472</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" ref="I61:I74" si="2">CONCATENATE(A61,B61)</f>
-        <v>16tile</v>
+        <f>CONCATENATE(A61,B61)</f>
+        <v>21topo</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="C62" t="s">
-        <v>660</v>
+        <v>465</v>
       </c>
       <c r="D62" t="s">
-        <v>374</v>
+        <v>466</v>
       </c>
       <c r="E62" t="s">
-        <v>685</v>
+        <v>467</v>
       </c>
       <c r="F62" t="s">
-        <v>686</v>
+        <v>468</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="2"/>
-        <v>16map</v>
+        <f>CONCATENATE(A62,B62)</f>
+        <v>21tile</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>403</v>
+        <v>625</v>
       </c>
       <c r="D63" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="E63" t="s">
-        <v>387</v>
+        <v>633</v>
       </c>
       <c r="F63" t="s">
-        <v>388</v>
+        <v>634</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="2"/>
-        <v>17topo</v>
+        <f>CONCATENATE(A63,B63)</f>
+        <v>21map</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C64" t="s">
-        <v>402</v>
+        <v>508</v>
       </c>
       <c r="D64" t="s">
-        <v>399</v>
+        <v>504</v>
       </c>
       <c r="E64" t="s">
-        <v>398</v>
+        <v>502</v>
       </c>
       <c r="F64" t="s">
-        <v>115</v>
+        <v>503</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="2"/>
-        <v>17crag</v>
+        <f>CONCATENATE(A64,B64)</f>
+        <v>22topo</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
-        <v>400</v>
+        <v>495</v>
       </c>
       <c r="D65" t="s">
-        <v>401</v>
+        <v>496</v>
       </c>
       <c r="E65" t="s">
-        <v>398</v>
+        <v>501</v>
       </c>
       <c r="F65" t="s">
-        <v>115</v>
+        <v>258</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="2"/>
-        <v>17tile</v>
+        <f>CONCATENATE(A65,B65)</f>
+        <v>22tile</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
         <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>653</v>
+        <v>611</v>
       </c>
       <c r="D66" t="s">
-        <v>404</v>
+        <v>509</v>
       </c>
       <c r="E66" t="s">
-        <v>685</v>
+        <v>633</v>
       </c>
       <c r="F66" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="2"/>
-        <v>17map</v>
+        <f>CONCATENATE(A66,B66)</f>
+        <v>22map</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B67" t="s">
         <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>423</v>
+        <v>523</v>
       </c>
       <c r="D67" t="s">
-        <v>424</v>
+        <v>522</v>
       </c>
       <c r="E67" t="s">
-        <v>425</v>
+        <v>521</v>
       </c>
       <c r="F67" t="s">
-        <v>110</v>
+        <v>479</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="2"/>
-        <v>18topo</v>
+        <f>CONCATENATE(A67,B67)</f>
+        <v>23topo</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>426</v>
+        <v>520</v>
       </c>
       <c r="D68" t="s">
-        <v>428</v>
+        <v>519</v>
       </c>
       <c r="E68" t="s">
-        <v>429</v>
+        <v>521</v>
       </c>
       <c r="F68" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="2"/>
-        <v>18crag</v>
+        <f>CONCATENATE(A68,B68)</f>
+        <v>23tile</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
-        <v>427</v>
+        <v>609</v>
       </c>
       <c r="D69" t="s">
-        <v>428</v>
+        <v>524</v>
       </c>
       <c r="E69" t="s">
-        <v>429</v>
+        <v>633</v>
       </c>
       <c r="F69" t="s">
-        <v>135</v>
+        <v>634</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="2"/>
-        <v>18tile</v>
+        <f>CONCATENATE(A69,B69)</f>
+        <v>23map</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s">
-        <v>678</v>
+        <v>541</v>
       </c>
       <c r="D70" t="s">
-        <v>431</v>
+        <v>540</v>
       </c>
       <c r="E70" t="s">
-        <v>685</v>
+        <v>537</v>
       </c>
       <c r="F70" t="s">
-        <v>686</v>
+        <v>538</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="2"/>
-        <v>18map</v>
+        <f>CONCATENATE(A70,B70)</f>
+        <v>24topo</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="D71" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="E71" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="F71" t="s">
-        <v>285</v>
+        <v>538</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="2"/>
-        <v>19crag</v>
+        <f>CONCATENATE(A71,B71)</f>
+        <v>24tile</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="C72" t="s">
-        <v>472</v>
+        <v>600</v>
       </c>
       <c r="D72" t="s">
-        <v>473</v>
+        <v>545</v>
       </c>
       <c r="E72" t="s">
-        <v>474</v>
+        <v>633</v>
       </c>
       <c r="F72" t="s">
-        <v>475</v>
+        <v>634</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="2"/>
-        <v>19tile</v>
+        <f>CONCATENATE(A72,B72)</f>
+        <v>24map</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
         <v>114</v>
       </c>
       <c r="C73" t="s">
-        <v>478</v>
+        <v>579</v>
       </c>
       <c r="D73" t="s">
-        <v>477</v>
+        <v>580</v>
       </c>
       <c r="E73" t="s">
-        <v>474</v>
+        <v>581</v>
       </c>
       <c r="F73" t="s">
-        <v>476</v>
+        <v>582</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="2"/>
-        <v>19topo</v>
+        <f>CONCATENATE(A73,B73)</f>
+        <v>25topo</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>654</v>
+        <v>577</v>
       </c>
       <c r="D74" t="s">
-        <v>484</v>
+        <v>574</v>
       </c>
       <c r="E74" t="s">
-        <v>685</v>
+        <v>575</v>
       </c>
       <c r="F74" t="s">
-        <v>686</v>
+        <v>576</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="2"/>
-        <v>19map</v>
+        <f>CONCATENATE(A74,B74)</f>
+        <v>25tile</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C75" t="s">
-        <v>467</v>
+        <v>610</v>
       </c>
       <c r="D75" t="s">
-        <v>458</v>
+        <v>578</v>
       </c>
       <c r="E75" t="s">
-        <v>459</v>
+        <v>633</v>
       </c>
       <c r="F75" t="s">
-        <v>460</v>
+        <v>634</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" ref="I75" si="3">CONCATENATE(A75,B75)</f>
-        <v>20crag</v>
+        <f>CONCATENATE(A75,B75)</f>
+        <v>25map</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="C76" t="s">
-        <v>466</v>
+        <v>596</v>
       </c>
       <c r="D76" t="s">
-        <v>458</v>
+        <v>597</v>
       </c>
       <c r="E76" t="s">
-        <v>461</v>
+        <v>594</v>
       </c>
       <c r="F76" t="s">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" ref="I76:I117" si="4">CONCATENATE(A76,B76)</f>
-        <v>20tile</v>
+        <f>CONCATENATE(A76,B76)</f>
+        <v>26topo</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>465</v>
+        <v>593</v>
       </c>
       <c r="D77" t="s">
-        <v>462</v>
+        <v>590</v>
       </c>
       <c r="E77" t="s">
-        <v>461</v>
+        <v>591</v>
       </c>
       <c r="F77" t="s">
-        <v>463</v>
+        <v>592</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="4"/>
-        <v>20topo</v>
+        <f>CONCATENATE(A77,B77)</f>
+        <v>26tile</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B78" t="s">
         <v>109</v>
       </c>
       <c r="C78" t="s">
-        <v>676</v>
+        <v>631</v>
       </c>
       <c r="D78" t="s">
-        <v>468</v>
+        <v>632</v>
       </c>
       <c r="E78" t="s">
-        <v>685</v>
+        <v>633</v>
       </c>
       <c r="F78" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="4"/>
-        <v>20map</v>
+        <f>CONCATENATE(A78,B78)</f>
+        <v>26map</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s">
-        <v>508</v>
+        <v>668</v>
       </c>
       <c r="D79" t="s">
-        <v>505</v>
-      </c>
-      <c r="E79" t="s">
-        <v>506</v>
-      </c>
-      <c r="F79" t="s">
-        <v>507</v>
+        <v>669</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="G79" s="14">
+        <v>2</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="4"/>
-        <v>21crag</v>
+        <f>CONCATENATE(A79,B79)</f>
+        <v>28topo</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B80" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>504</v>
+        <v>672</v>
       </c>
       <c r="D80" t="s">
-        <v>505</v>
+        <v>683</v>
       </c>
       <c r="E80" t="s">
-        <v>506</v>
+        <v>674</v>
       </c>
       <c r="F80" t="s">
-        <v>507</v>
+        <v>673</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="4"/>
-        <v>21tile</v>
+        <f>CONCATENATE(A80,B80)</f>
+        <v>28tile</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C81" t="s">
-        <v>509</v>
+        <v>680</v>
       </c>
       <c r="D81" t="s">
-        <v>510</v>
+        <v>679</v>
       </c>
       <c r="E81" t="s">
-        <v>511</v>
+        <v>633</v>
       </c>
       <c r="F81" t="s">
-        <v>512</v>
+        <v>634</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="4"/>
-        <v>21topo</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>21</v>
-      </c>
-      <c r="B82" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82" t="s">
-        <v>677</v>
-      </c>
-      <c r="D82" t="s">
-        <v>515</v>
-      </c>
-      <c r="E82" t="s">
-        <v>685</v>
-      </c>
-      <c r="F82" t="s">
-        <v>686</v>
-      </c>
-      <c r="I82" t="str">
-        <f t="shared" si="4"/>
-        <v>21map</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>22</v>
-      </c>
-      <c r="B83" t="s">
-        <v>117</v>
-      </c>
-      <c r="C83" t="s">
-        <v>551</v>
-      </c>
-      <c r="D83" t="s">
-        <v>539</v>
-      </c>
-      <c r="E83" t="s">
-        <v>544</v>
-      </c>
-      <c r="F83" t="s">
-        <v>285</v>
-      </c>
-      <c r="I83" t="str">
-        <f t="shared" si="4"/>
-        <v>22crag</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>22</v>
-      </c>
-      <c r="B84" t="s">
-        <v>176</v>
-      </c>
-      <c r="C84" t="s">
-        <v>538</v>
-      </c>
-      <c r="D84" t="s">
-        <v>539</v>
-      </c>
-      <c r="E84" t="s">
-        <v>544</v>
-      </c>
-      <c r="F84" t="s">
-        <v>285</v>
-      </c>
-      <c r="I84" t="str">
-        <f t="shared" si="4"/>
-        <v>22tile</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>22</v>
-      </c>
-      <c r="B85" t="s">
-        <v>114</v>
-      </c>
-      <c r="C85" t="s">
-        <v>552</v>
-      </c>
-      <c r="D85" t="s">
-        <v>547</v>
-      </c>
-      <c r="E85" t="s">
-        <v>545</v>
-      </c>
-      <c r="F85" t="s">
-        <v>546</v>
-      </c>
-      <c r="I85" t="str">
-        <f t="shared" si="4"/>
-        <v>22topo</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>22</v>
-      </c>
-      <c r="B86" t="s">
-        <v>109</v>
-      </c>
-      <c r="C86" t="s">
-        <v>663</v>
-      </c>
-      <c r="D86" t="s">
-        <v>553</v>
-      </c>
-      <c r="E86" t="s">
-        <v>685</v>
-      </c>
-      <c r="F86" t="s">
-        <v>686</v>
-      </c>
-      <c r="I86" t="str">
-        <f t="shared" si="4"/>
-        <v>22map</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>23</v>
-      </c>
-      <c r="B87" t="s">
-        <v>117</v>
-      </c>
-      <c r="C87" t="s">
-        <v>563</v>
-      </c>
-      <c r="D87" t="s">
-        <v>564</v>
-      </c>
-      <c r="E87" t="s">
-        <v>565</v>
-      </c>
-      <c r="F87" t="s">
-        <v>566</v>
-      </c>
-      <c r="I87" t="str">
-        <f t="shared" si="4"/>
-        <v>23crag</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>23</v>
-      </c>
-      <c r="B88" t="s">
-        <v>176</v>
-      </c>
-      <c r="C88" t="s">
-        <v>567</v>
-      </c>
-      <c r="D88" t="s">
-        <v>564</v>
-      </c>
-      <c r="E88" t="s">
-        <v>568</v>
-      </c>
-      <c r="F88" t="s">
-        <v>115</v>
-      </c>
-      <c r="I88" t="str">
-        <f t="shared" si="4"/>
-        <v>23tile</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>23</v>
-      </c>
-      <c r="B89" t="s">
-        <v>114</v>
-      </c>
-      <c r="C89" t="s">
-        <v>570</v>
-      </c>
-      <c r="D89" t="s">
-        <v>569</v>
-      </c>
-      <c r="E89" t="s">
-        <v>568</v>
-      </c>
-      <c r="F89" t="s">
-        <v>519</v>
-      </c>
-      <c r="I89" t="str">
-        <f t="shared" si="4"/>
-        <v>23topo</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>23</v>
-      </c>
-      <c r="B90" t="s">
-        <v>109</v>
-      </c>
-      <c r="C90" t="s">
-        <v>661</v>
-      </c>
-      <c r="D90" t="s">
-        <v>571</v>
-      </c>
-      <c r="E90" t="s">
-        <v>685</v>
-      </c>
-      <c r="F90" t="s">
-        <v>686</v>
-      </c>
-      <c r="I90" t="str">
-        <f t="shared" si="4"/>
-        <v>23map</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>24</v>
-      </c>
-      <c r="B91" t="s">
-        <v>114</v>
-      </c>
-      <c r="C91" t="s">
-        <v>590</v>
-      </c>
-      <c r="D91" t="s">
-        <v>589</v>
-      </c>
-      <c r="E91" t="s">
-        <v>584</v>
-      </c>
-      <c r="F91" t="s">
-        <v>585</v>
-      </c>
-      <c r="I91" t="str">
-        <f t="shared" si="4"/>
-        <v>24topo</v>
+        <f>CONCATENATE(A81,B81)</f>
+        <v>28map</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>24</v>
-      </c>
-      <c r="B92" t="s">
-        <v>117</v>
-      </c>
-      <c r="C92" t="s">
-        <v>591</v>
-      </c>
-      <c r="D92" t="s">
-        <v>588</v>
-      </c>
-      <c r="E92" t="s">
-        <v>586</v>
-      </c>
-      <c r="F92" t="s">
-        <v>587</v>
-      </c>
-      <c r="I92" t="str">
-        <f t="shared" si="4"/>
-        <v>24crag</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>24</v>
-      </c>
-      <c r="B93" t="s">
-        <v>176</v>
-      </c>
-      <c r="C93" t="s">
-        <v>592</v>
-      </c>
-      <c r="D93" t="s">
-        <v>588</v>
-      </c>
-      <c r="E93" t="s">
-        <v>584</v>
-      </c>
-      <c r="F93" t="s">
-        <v>585</v>
-      </c>
-      <c r="I93" t="str">
-        <f t="shared" si="4"/>
-        <v>24tile</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>24</v>
-      </c>
-      <c r="B94" t="s">
-        <v>109</v>
-      </c>
-      <c r="C94" t="s">
-        <v>652</v>
-      </c>
-      <c r="D94" t="s">
-        <v>595</v>
-      </c>
-      <c r="E94" t="s">
-        <v>685</v>
-      </c>
-      <c r="F94" t="s">
-        <v>686</v>
-      </c>
-      <c r="I94" t="str">
-        <f t="shared" si="4"/>
-        <v>24map</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>25</v>
-      </c>
-      <c r="B95" t="s">
-        <v>117</v>
-      </c>
-      <c r="C95" t="s">
-        <v>624</v>
-      </c>
-      <c r="D95" t="s">
-        <v>625</v>
-      </c>
-      <c r="E95" t="s">
-        <v>626</v>
-      </c>
-      <c r="F95" t="s">
-        <v>627</v>
-      </c>
-      <c r="I95" t="str">
-        <f t="shared" si="4"/>
-        <v>25crag</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>25</v>
-      </c>
-      <c r="B96" t="s">
-        <v>176</v>
-      </c>
-      <c r="C96" t="s">
-        <v>628</v>
-      </c>
-      <c r="D96" t="s">
-        <v>625</v>
-      </c>
-      <c r="E96" t="s">
-        <v>626</v>
-      </c>
-      <c r="F96" t="s">
-        <v>627</v>
-      </c>
-      <c r="I96" t="str">
-        <f t="shared" si="4"/>
-        <v>25tile</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>25</v>
-      </c>
-      <c r="B97" t="s">
-        <v>109</v>
-      </c>
-      <c r="C97" t="s">
-        <v>662</v>
-      </c>
-      <c r="D97" t="s">
-        <v>629</v>
-      </c>
-      <c r="E97" t="s">
-        <v>685</v>
-      </c>
-      <c r="F97" t="s">
-        <v>686</v>
-      </c>
-      <c r="I97" t="str">
-        <f t="shared" si="4"/>
-        <v>25map</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>25</v>
-      </c>
-      <c r="B98" t="s">
-        <v>114</v>
-      </c>
-      <c r="C98" t="s">
-        <v>630</v>
-      </c>
-      <c r="D98" t="s">
-        <v>631</v>
-      </c>
-      <c r="E98" t="s">
-        <v>632</v>
-      </c>
-      <c r="F98" t="s">
-        <v>633</v>
-      </c>
-      <c r="I98" t="str">
-        <f t="shared" si="4"/>
-        <v>25topo</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>26</v>
-      </c>
-      <c r="B99" t="s">
-        <v>117</v>
-      </c>
-      <c r="C99" t="s">
-        <v>641</v>
-      </c>
-      <c r="D99" t="s">
-        <v>642</v>
-      </c>
-      <c r="E99" t="s">
-        <v>643</v>
-      </c>
-      <c r="F99" t="s">
-        <v>644</v>
-      </c>
-      <c r="I99" t="str">
-        <f t="shared" si="4"/>
-        <v>26crag</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>26</v>
-      </c>
-      <c r="B100" t="s">
-        <v>176</v>
-      </c>
-      <c r="C100" t="s">
-        <v>645</v>
-      </c>
-      <c r="D100" t="s">
-        <v>642</v>
-      </c>
-      <c r="E100" t="s">
-        <v>643</v>
-      </c>
-      <c r="F100" t="s">
-        <v>644</v>
-      </c>
-      <c r="I100" t="str">
-        <f t="shared" si="4"/>
-        <v>26tile</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>26</v>
-      </c>
-      <c r="B101" t="s">
-        <v>114</v>
-      </c>
-      <c r="C101" t="s">
-        <v>648</v>
-      </c>
-      <c r="D101" t="s">
-        <v>649</v>
-      </c>
-      <c r="E101" t="s">
-        <v>646</v>
-      </c>
-      <c r="F101" t="s">
-        <v>647</v>
-      </c>
-      <c r="I101" t="str">
-        <f t="shared" si="4"/>
-        <v>26topo</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>26</v>
-      </c>
-      <c r="B102" t="s">
-        <v>109</v>
-      </c>
-      <c r="C102" t="s">
-        <v>683</v>
-      </c>
-      <c r="D102" t="s">
-        <v>684</v>
-      </c>
-      <c r="E102" t="s">
-        <v>685</v>
-      </c>
-      <c r="F102" t="s">
-        <v>686</v>
-      </c>
-      <c r="I102" t="str">
-        <f t="shared" si="4"/>
-        <v>26map</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>12</v>
-      </c>
-      <c r="B103" t="s">
-        <v>707</v>
-      </c>
-      <c r="C103" t="s">
-        <v>710</v>
-      </c>
-      <c r="D103" t="s">
-        <v>708</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="F103" t="s">
-        <v>171</v>
-      </c>
-      <c r="I103" t="str">
-        <f t="shared" si="4"/>
-        <v>12super</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>28</v>
-      </c>
-      <c r="B104" t="s">
-        <v>114</v>
-      </c>
-      <c r="C104" t="s">
-        <v>720</v>
-      </c>
-      <c r="D104" t="s">
-        <v>721</v>
-      </c>
-      <c r="E104" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="F104" s="14" t="s">
-        <v>723</v>
-      </c>
-      <c r="G104" s="14">
-        <v>2</v>
-      </c>
-      <c r="I104" t="str">
-        <f t="shared" si="4"/>
-        <v>28topo</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>28</v>
-      </c>
-      <c r="B105" t="s">
-        <v>176</v>
-      </c>
-      <c r="C105" t="s">
-        <v>724</v>
-      </c>
-      <c r="D105" t="s">
-        <v>735</v>
-      </c>
-      <c r="E105" t="s">
-        <v>726</v>
-      </c>
-      <c r="F105" t="s">
-        <v>725</v>
-      </c>
-      <c r="I105" t="str">
-        <f t="shared" si="4"/>
-        <v>28tile</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>28</v>
-      </c>
-      <c r="B106" t="s">
-        <v>117</v>
-      </c>
-      <c r="C106" t="s">
-        <v>724</v>
-      </c>
-      <c r="D106" t="s">
-        <v>735</v>
-      </c>
-      <c r="E106" t="s">
-        <v>726</v>
-      </c>
-      <c r="F106" t="s">
-        <v>725</v>
-      </c>
-      <c r="I106" t="str">
-        <f t="shared" si="4"/>
-        <v>28crag</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>28</v>
-      </c>
-      <c r="B107" t="s">
-        <v>109</v>
-      </c>
-      <c r="C107" t="s">
-        <v>732</v>
-      </c>
-      <c r="D107" t="s">
-        <v>731</v>
-      </c>
-      <c r="E107" t="s">
-        <v>685</v>
-      </c>
-      <c r="F107" t="s">
-        <v>686</v>
-      </c>
-      <c r="I107" t="str">
-        <f t="shared" si="4"/>
-        <v>28map</v>
-      </c>
+      <c r="E92" s="10"/>
     </row>
     <row r="114" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I114" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(A114,B114)</f>
         <v/>
       </c>
     </row>
     <row r="115" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I115" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(A115,B115)</f>
         <v/>
       </c>
     </row>
     <row r="116" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I116" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(A116,B116)</f>
         <v/>
       </c>
     </row>
     <row r="117" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I117" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(A117,B117)</f>
         <v/>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I117" xr:uid="{8A9CCE92-9934-4A85-9799-3C2EFD57E833}">
+    <sortState ref="A2:I117">
+      <sortCondition ref="A1:A117"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E103" r:id="rId1" xr:uid="{0A321C65-D310-4F4B-93FB-7FA86D5B9B94}"/>
-    <hyperlink ref="E104" r:id="rId2" display="https://commons.wikimedia.org/wiki/File:La_Catedral_-_phonolytic_necks._Teide_National_Park,_Canary_Islands,_Spain._%D0%9D%D0%B0%D1%86%D0%B8%D0%BE%D0%BD%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D0%B9_%D0%BF%D0%B0%D1%80%D0%BA_%D0%A2%D0%B5%D0%B9%D0%B4%D0%B5_-_panoramio.jpg" xr:uid="{DD2F8287-6B69-454B-8E3A-3D61B1C2B08D}"/>
-    <hyperlink ref="E43" r:id="rId3" xr:uid="{0ADBF828-42EF-42FD-A8C7-FA115B6E59AB}"/>
-    <hyperlink ref="E44" r:id="rId4" xr:uid="{B21DF02A-B4A7-4029-B6B2-B500AC489992}"/>
+    <hyperlink ref="E35" r:id="rId1" xr:uid="{0A321C65-D310-4F4B-93FB-7FA86D5B9B94}"/>
+    <hyperlink ref="E79" r:id="rId2" display="https://commons.wikimedia.org/wiki/File:La_Catedral_-_phonolytic_necks._Teide_National_Park,_Canary_Islands,_Spain._%D0%9D%D0%B0%D1%86%D0%B8%D0%BE%D0%BD%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D0%B9_%D0%BF%D0%B0%D1%80%D0%BA_%D0%A2%D0%B5%D0%B9%D0%B4%D0%B5_-_panoramio.jpg" xr:uid="{DD2F8287-6B69-454B-8E3A-3D61B1C2B08D}"/>
+    <hyperlink ref="E33" r:id="rId3" xr:uid="{B21DF02A-B4A7-4029-B6B2-B500AC489992}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -7927,31 +7354,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="C1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I1" t="s">
         <v>253</v>
-      </c>
-      <c r="D1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -7959,25 +7386,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E2">
         <v>206</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="G2" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="H2" t="s">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="I2">
         <v>24.99</v>
@@ -7988,25 +7415,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E3">
         <v>266</v>
       </c>
       <c r="F3" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="G3" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="H3" t="s">
-        <v>574</v>
+        <v>527</v>
       </c>
       <c r="I3">
         <v>25</v>
@@ -8017,25 +7444,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E4">
         <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="G4" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="I4">
         <v>24.99</v>
@@ -8046,13 +7473,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E5">
         <v>169</v>
@@ -8063,25 +7490,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E6">
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="G6" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="H6" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
       <c r="I6">
         <v>20</v>
@@ -8092,25 +7519,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E7">
         <v>175</v>
       </c>
       <c r="F7" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="H7" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="I7">
         <v>29.95</v>
@@ -8121,25 +7548,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E8">
         <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="G8" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="I8">
         <v>24.99</v>
@@ -8150,25 +7577,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E9">
         <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="G9" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="H9" t="s">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="I9">
         <v>24.99</v>
@@ -8179,25 +7606,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E10">
         <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>535</v>
+        <v>492</v>
       </c>
       <c r="G10" t="s">
-        <v>527</v>
+        <v>485</v>
       </c>
       <c r="H10" t="s">
-        <v>608</v>
+        <v>558</v>
       </c>
       <c r="I10">
         <v>34.950000000000003</v>
@@ -8208,25 +7635,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E11">
         <v>128</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="G11" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="H11" t="s">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="I11">
         <v>24.99</v>
@@ -8237,25 +7664,25 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="C12" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="D12" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E12">
         <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="G12" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="H12" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
       <c r="I12">
         <v>20</v>
@@ -8266,25 +7693,25 @@
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="C13" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="D13" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E13">
         <v>156</v>
       </c>
       <c r="F13" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="G13" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="I13">
         <v>24.99</v>
@@ -8295,25 +7722,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="D14" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E14">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="G14" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="H14" t="s">
-        <v>609</v>
+        <v>559</v>
       </c>
       <c r="I14">
         <v>25</v>
@@ -8324,25 +7751,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="C15" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E15">
         <v>258</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="G15" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="H15" t="s">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="I15">
         <v>24.99</v>
@@ -8353,25 +7780,25 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="C16" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="D16" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E16">
         <v>162</v>
       </c>
       <c r="F16" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="G16" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="H16" t="s">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="I16">
         <v>34</v>
@@ -8382,25 +7809,25 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="C17" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="D17" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E17">
         <v>354</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="G17" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="H17" t="s">
-        <v>611</v>
+        <v>561</v>
       </c>
       <c r="I17">
         <v>34.99</v>
@@ -8411,25 +7838,25 @@
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="C18" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="D18" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E18" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="F18" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="G18" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="H18" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
       <c r="I18">
         <v>25</v>
@@ -8440,25 +7867,25 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="C19" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="D19" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E19" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="F19" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="G19" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="H19" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
       <c r="I19">
         <v>20</v>
@@ -8469,25 +7896,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="C20" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="D20" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E20" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="F20" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="G20" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="H20" t="s">
-        <v>614</v>
+        <v>564</v>
       </c>
       <c r="I20">
         <v>34.99</v>
@@ -8498,25 +7925,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="C21" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="D21" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E21">
         <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
       <c r="G21" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="H21" t="s">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="I21">
         <v>19.95</v>
@@ -8527,28 +7954,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="C22" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="D22" t="s">
-        <v>530</v>
+        <v>488</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>531</v>
+        <v>489</v>
       </c>
       <c r="G22" t="s">
-        <v>536</v>
+        <v>493</v>
       </c>
       <c r="H22" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="I22" t="s">
-        <v>529</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -8556,25 +7983,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>548</v>
+        <v>505</v>
       </c>
       <c r="C23" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="D23" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E23">
         <v>267</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>550</v>
+        <v>507</v>
       </c>
       <c r="G23" t="s">
-        <v>549</v>
+        <v>506</v>
       </c>
       <c r="H23" t="s">
-        <v>616</v>
+        <v>566</v>
       </c>
       <c r="I23">
         <v>29.95</v>
@@ -8585,25 +8012,25 @@
         <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>598</v>
+        <v>548</v>
       </c>
       <c r="C24" t="s">
-        <v>599</v>
+        <v>549</v>
       </c>
       <c r="D24" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E24">
         <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="G24" t="s">
-        <v>597</v>
+        <v>547</v>
       </c>
       <c r="H24" t="s">
-        <v>596</v>
+        <v>546</v>
       </c>
       <c r="I24">
         <v>38</v>
@@ -8614,25 +8041,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>607</v>
+        <v>557</v>
       </c>
       <c r="C25" t="s">
-        <v>603</v>
+        <v>553</v>
       </c>
       <c r="D25" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E25">
         <v>410</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>604</v>
+        <v>554</v>
       </c>
       <c r="G25" t="s">
-        <v>606</v>
+        <v>556</v>
       </c>
       <c r="H25" t="s">
-        <v>605</v>
+        <v>555</v>
       </c>
       <c r="I25">
         <v>10</v>
@@ -8643,25 +8070,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>598</v>
+        <v>548</v>
       </c>
       <c r="C26" t="s">
-        <v>599</v>
+        <v>549</v>
       </c>
       <c r="D26" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E26">
         <v>300</v>
       </c>
       <c r="F26" t="s">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="G26" t="s">
-        <v>597</v>
+        <v>547</v>
       </c>
       <c r="H26" t="s">
-        <v>596</v>
+        <v>546</v>
       </c>
       <c r="I26">
         <v>38</v>
@@ -8672,25 +8099,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C27" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E27">
         <v>86</v>
       </c>
       <c r="F27" t="s">
-        <v>682</v>
+        <v>630</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="H27" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="I27">
         <v>29.95</v>
@@ -8701,25 +8128,25 @@
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>691</v>
+        <v>639</v>
       </c>
       <c r="C28" t="s">
-        <v>688</v>
+        <v>636</v>
       </c>
       <c r="D28" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E28">
         <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>698</v>
+        <v>646</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>689</v>
+        <v>637</v>
       </c>
       <c r="H28" t="s">
-        <v>690</v>
+        <v>638</v>
       </c>
       <c r="I28">
         <v>35</v>
@@ -8753,16 +8180,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="D1" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8770,10 +8197,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8781,10 +8208,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8792,10 +8219,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8803,10 +8230,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="C5" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8814,10 +8241,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="C6" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8825,10 +8252,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C7" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8836,10 +8263,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -8847,10 +8274,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="C9" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -8858,10 +8285,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="C10" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8869,10 +8296,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="C11" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -8880,10 +8307,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="C12" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -8891,10 +8318,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
       <c r="C13" t="s">
-        <v>471</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -8902,10 +8329,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="C14" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -8913,10 +8340,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>525</v>
+        <v>483</v>
       </c>
       <c r="C15" t="s">
-        <v>526</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8924,10 +8351,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>601</v>
+        <v>551</v>
       </c>
       <c r="C16" t="s">
-        <v>602</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8935,10 +8362,10 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>717</v>
+        <v>665</v>
       </c>
       <c r="C17" t="s">
-        <v>718</v>
+        <v>666</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8946,10 +8373,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>719</v>
+        <v>667</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8957,10 +8384,10 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="C19" t="s">
-        <v>728</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -8997,16 +8424,16 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
@@ -9023,16 +8450,16 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="E2" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9060,13 +8487,13 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -9091,7 +8518,7 @@
         <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -9119,7 +8546,7 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9133,7 +8560,7 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9161,7 +8588,7 @@
         <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -9175,13 +8602,13 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -9189,7 +8616,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -9198,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -9206,10 +8633,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -9223,13 +8650,13 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -9237,7 +8664,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
@@ -9246,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -9257,22 +8684,22 @@
         <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="E17" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="H17" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -9294,53 +8721,53 @@
   <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView topLeftCell="A50" zoomScale="94" workbookViewId="0">
-      <selection activeCell="O74" sqref="O74"/>
+      <selection activeCell="Q67" sqref="Q67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="D1" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="E1" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="F1" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="G1" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="H1" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="I1" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="J1" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="K1" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="L1" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="M1" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="N1" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -9348,7 +8775,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C2" s="15">
         <v>15</v>
@@ -9392,7 +8819,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C3" s="16">
         <v>9</v>
@@ -9437,7 +8864,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C4" s="18">
         <v>5</v>
@@ -9481,7 +8908,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C5" s="15">
         <v>13</v>
@@ -9525,7 +8952,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C6" s="16">
         <v>8</v>
@@ -9569,7 +8996,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C7" s="18">
         <v>3</v>
@@ -9614,7 +9041,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C8" s="15">
         <v>13</v>
@@ -9658,7 +9085,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C9" s="16">
         <v>8</v>
@@ -9703,7 +9130,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C10" s="18">
         <v>3</v>
@@ -9748,7 +9175,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C11" s="15">
         <v>19</v>
@@ -9792,7 +9219,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C12" s="16">
         <v>6</v>
@@ -9837,7 +9264,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C13" s="18">
         <v>4</v>
@@ -9883,7 +9310,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C14" s="15">
         <v>20</v>
@@ -9927,7 +9354,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C15" s="16">
         <v>8</v>
@@ -9973,7 +9400,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C16" s="18">
         <v>5</v>
@@ -10019,7 +9446,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C17" s="15">
         <v>19</v>
@@ -10063,7 +9490,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C18" s="16">
         <v>8</v>
@@ -10109,7 +9536,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C19" s="18">
         <v>2</v>
@@ -10155,7 +9582,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C20" s="15">
         <v>19</v>
@@ -10199,7 +9626,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C21" s="16">
         <v>8</v>
@@ -10245,7 +9672,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C22" s="18">
         <v>2</v>
@@ -10291,7 +9718,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C23" s="15">
         <v>15</v>
@@ -10335,7 +9762,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C24" s="16">
         <v>9</v>
@@ -10381,7 +9808,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C25" s="18">
         <v>5</v>
@@ -10427,7 +9854,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C26" s="20">
         <v>13</v>
@@ -10471,7 +9898,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C27" s="21">
         <v>8</v>
@@ -10517,7 +9944,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C28" s="23">
         <v>3</v>
@@ -10563,7 +9990,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C29" s="20">
         <v>4</v>
@@ -10607,7 +10034,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C30" s="21">
         <v>13</v>
@@ -10653,7 +10080,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C31" s="23">
         <v>4</v>
@@ -10699,7 +10126,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C32" s="20">
         <v>15</v>
@@ -10743,7 +10170,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C33" s="21">
         <v>1</v>
@@ -10789,7 +10216,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C34" s="23">
         <v>-2</v>
@@ -10835,7 +10262,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C35" s="20">
         <v>4</v>
@@ -10879,7 +10306,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C36" s="21">
         <v>5</v>
@@ -10925,7 +10352,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C37" s="23">
         <v>-6</v>
@@ -10971,7 +10398,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C38" s="20">
         <v>15</v>
@@ -11015,7 +10442,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C39" s="21">
         <v>8</v>
@@ -11061,7 +10488,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C40" s="23">
         <v>5</v>
@@ -11107,7 +10534,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C41" s="20">
         <v>16</v>
@@ -11151,7 +10578,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C42" s="16">
         <v>8</v>
@@ -11196,7 +10623,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C43" s="18">
         <v>6</v>
@@ -11241,7 +10668,7 @@
         <v>18</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C44" s="15">
         <v>17</v>
@@ -11285,7 +10712,7 @@
         <v>18</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C45" s="16">
         <v>7</v>
@@ -11330,7 +10757,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C46" s="18">
         <v>2</v>
@@ -11379,7 +10806,7 @@
         <v>15</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C47" s="15">
         <v>4</v>
@@ -11427,7 +10854,7 @@
         <v>15</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C48" s="16">
         <v>4.2</v>
@@ -11475,7 +10902,7 @@
         <v>15</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C49" s="18">
         <v>-7.8</v>
@@ -11523,7 +10950,7 @@
         <v>19</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C50" s="15">
         <v>9</v>
@@ -11571,7 +10998,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C51" s="16">
         <v>-10</v>
@@ -11619,7 +11046,7 @@
         <v>19</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C52" s="18">
         <v>-15</v>
@@ -11667,7 +11094,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C53" s="15">
         <v>18</v>
@@ -11715,7 +11142,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C54" s="16">
         <v>5</v>
@@ -11764,7 +11191,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C55" s="18">
         <v>0</v>
@@ -11813,7 +11240,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C56" s="15">
         <v>6</v>
@@ -11862,7 +11289,7 @@
         <v>21</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C57" s="16">
         <v>18</v>
@@ -11911,7 +11338,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C58" s="18">
         <v>14</v>
@@ -11955,7 +11382,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C59" s="15">
         <v>15</v>
@@ -12000,7 +11427,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C60" s="16">
         <v>9</v>
@@ -12045,7 +11472,7 @@
         <v>9</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C61" s="18">
         <v>0</v>
@@ -12089,7 +11516,7 @@
         <v>24</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C62" s="12">
         <v>6</v>
@@ -12134,7 +11561,7 @@
         <v>24</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C63" s="11">
         <v>1</v>
@@ -12179,7 +11606,7 @@
         <v>24</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C64" s="13">
         <v>-9</v>
@@ -12223,7 +11650,7 @@
         <v>23</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C65" s="12">
         <v>5</v>
@@ -12268,7 +11695,7 @@
         <v>23</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C66" s="11">
         <v>12</v>
@@ -12313,7 +11740,7 @@
         <v>23</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C67" s="13">
         <v>4</v>
@@ -12357,7 +11784,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C68" s="12">
         <v>4</v>
@@ -12402,7 +11829,7 @@
         <v>22</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C69" s="11">
         <v>15</v>
@@ -12447,7 +11874,7 @@
         <v>22</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C70" s="13">
         <v>6</v>
@@ -12491,7 +11918,7 @@
         <v>25</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C71" s="12">
         <v>10</v>
@@ -12536,43 +11963,43 @@
         <v>25</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C72" s="11">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="D72" s="11">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="E72" s="11">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="F72" s="11">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="G72" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H72" s="11">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I72" s="11">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J72" s="11">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K72" s="11">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L72" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M72" s="11">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="N72" s="11">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="U72" s="7"/>
     </row>
@@ -12581,43 +12008,43 @@
         <v>25</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C73" s="13">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="D73" s="13">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="E73" s="13">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="F73" s="13">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="G73" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H73" s="13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I73" s="13">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J73" s="13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K73" s="13">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L73" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M73" s="13">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="N73" s="13">
-        <v>-1</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
@@ -12625,7 +12052,7 @@
         <v>28</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C74" s="12">
         <v>4</v>
@@ -12670,7 +12097,7 @@
         <v>28</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C75" s="11">
         <v>15</v>
@@ -12715,7 +12142,7 @@
         <v>28</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C76" s="13">
         <v>5</v>
@@ -12798,10 +12225,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12810,14 +12237,15 @@
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -12826,28 +12254,31 @@
         <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>364</v>
+        <v>685</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>714</v>
+        <v>333</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CLIMBS!A2</f>
         <v>Old Man of Stoer</v>
@@ -12870,29 +12301,32 @@
       </c>
       <c r="F2">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B2,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B2,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B2,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B2,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B2,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
         <f>_xlfn.IFNA(IF(VLOOKUP(B2,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f>_xlfn.IFNA(IF(VLOOKUP(B2,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>_xlfn.IFNA(IF(VLOOKUP(B2,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="J2">
-        <f>IF(CLIMBS!T3 &lt;&gt;0,1,0)</f>
+      <c r="K2">
+        <f>IF(VLOOKUP(B2,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CLIMBS!A3</f>
         <v>Bosigran</v>
@@ -12915,29 +12349,32 @@
       </c>
       <c r="F3">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B3,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B3,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B3,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B3,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B3,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
         <f>_xlfn.IFNA(IF(VLOOKUP(B3,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <f>_xlfn.IFNA(IF(VLOOKUP(B3,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <f>_xlfn.IFNA(IF(VLOOKUP(B3,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="J3">
-        <f>IF(CLIMBS!T4 &lt;&gt;0,1,0)</f>
+      <c r="K3">
+        <f>IF(VLOOKUP(B3,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CLIMBS!A4</f>
         <v>Clogwyn Du'r Arddu</v>
@@ -12960,29 +12397,32 @@
       </c>
       <c r="F4">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B4,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B4,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B4,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B4,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B4,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
         <f>_xlfn.IFNA(IF(VLOOKUP(B4,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f>_xlfn.IFNA(IF(VLOOKUP(B4,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f>_xlfn.IFNA(IF(VLOOKUP(B4,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="J4">
-        <f>IF(CLIMBS!T5 &lt;&gt;0,1,0)</f>
+      <c r="K4">
+        <f>IF(VLOOKUP(B4,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CLIMBS!A5</f>
         <v>Vratsa</v>
@@ -13005,29 +12445,32 @@
       </c>
       <c r="F5" t="str">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B5,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B5,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B5,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B5,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
         <v>missing</v>
       </c>
       <c r="G5">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B5,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
         <f>_xlfn.IFNA(IF(VLOOKUP(B5,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f>_xlfn.IFNA(IF(VLOOKUP(B5,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f>_xlfn.IFNA(IF(VLOOKUP(B5,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="J5">
-        <f>IF(CLIMBS!T6 &lt;&gt;0,1,0)</f>
+      <c r="K5">
+        <f>IF(VLOOKUP(B5,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CLIMBS!A6</f>
         <v>Tormore Group</v>
@@ -13050,29 +12493,32 @@
       </c>
       <c r="F6">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B6,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B6,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B6,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B6,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B6,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
         <f>_xlfn.IFNA(IF(VLOOKUP(B6,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f>_xlfn.IFNA(IF(VLOOKUP(B6,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f>_xlfn.IFNA(IF(VLOOKUP(B6,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="J6">
-        <f>IF(CLIMBS!T7 &lt;&gt;0,1,0)</f>
+      <c r="K6">
+        <f>IF(VLOOKUP(B6,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CLIMBS!A7</f>
         <v>Sass Pordoi</v>
@@ -13095,29 +12541,32 @@
       </c>
       <c r="F7">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B7,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B7,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B7,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B7,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B7,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
         <f>_xlfn.IFNA(IF(VLOOKUP(B7,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f>_xlfn.IFNA(IF(VLOOKUP(B7,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f>_xlfn.IFNA(IF(VLOOKUP(B7,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="J7">
-        <f>IF(CLIMBS!T8 &lt;&gt;0,1,0)</f>
+      <c r="K7">
+        <f>IF(VLOOKUP(B7,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CLIMBS!A8</f>
         <v>Cwm Idwal</v>
@@ -13140,29 +12589,32 @@
       </c>
       <c r="F8">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B8,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B8,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B8,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B8,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B8,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
         <f>_xlfn.IFNA(IF(VLOOKUP(B8,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f>_xlfn.IFNA(IF(VLOOKUP(B8,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f>_xlfn.IFNA(IF(VLOOKUP(B8,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="J8">
-        <f>IF(CLIMBS!T9 &lt;&gt;0,1,0)</f>
+      <c r="K8">
+        <f>IF(VLOOKUP(B8,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CLIMBS!A9</f>
         <v>Lundy</v>
@@ -13185,29 +12637,32 @@
       </c>
       <c r="F9">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B9,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B9,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B9,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B9,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B9,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
         <f>_xlfn.IFNA(IF(VLOOKUP(B9,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f>_xlfn.IFNA(IF(VLOOKUP(B9,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f>_xlfn.IFNA(IF(VLOOKUP(B9,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="J9">
-        <f>IF(CLIMBS!T10 &lt;&gt;0,1,0)</f>
+      <c r="K9">
+        <f>IF(VLOOKUP(B9,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CLIMBS!A10</f>
         <v>Meadinha</v>
@@ -13230,29 +12685,32 @@
       </c>
       <c r="F10">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B10,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B10,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B10,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B10,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B10,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
         <f>_xlfn.IFNA(IF(VLOOKUP(B10,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f>_xlfn.IFNA(IF(VLOOKUP(B10,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f>_xlfn.IFNA(IF(VLOOKUP(B10,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="J10">
-        <f>IF(CLIMBS!T11 &lt;&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f>IF(VLOOKUP(B10,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CLIMBS!A11</f>
         <v>Cornakey Cliff</v>
@@ -13275,29 +12733,32 @@
       </c>
       <c r="F11">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B11,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B11,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B11,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B11,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B11,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
         <f>_xlfn.IFNA(IF(VLOOKUP(B11,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f>_xlfn.IFNA(IF(VLOOKUP(B11,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f>_xlfn.IFNA(IF(VLOOKUP(B11,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="J11">
-        <f>IF(CLIMBS!T12 &lt;&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f>IF(VLOOKUP(B11,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CLIMBS!A12</f>
         <v>Cir Mhor</v>
@@ -13320,29 +12781,32 @@
       </c>
       <c r="F12">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B12,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B12,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B12,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B12,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B12,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
         <f>_xlfn.IFNA(IF(VLOOKUP(B12,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f>_xlfn.IFNA(IF(VLOOKUP(B12,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f>_xlfn.IFNA(IF(VLOOKUP(B12,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="J12">
-        <f>IF(CLIMBS!T13 &lt;&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f>IF(VLOOKUP(B12,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CLIMBS!A13</f>
         <v>Roca Gris</v>
@@ -13365,29 +12829,32 @@
       </c>
       <c r="F13">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B13,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B13,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B13,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B13,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B13,IMAGES!B:B,"topo")</f>
+        <v>5</v>
+      </c>
+      <c r="H13">
         <f>_xlfn.IFNA(IF(VLOOKUP(B13,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f>_xlfn.IFNA(IF(VLOOKUP(B13,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f>_xlfn.IFNA(IF(VLOOKUP(B13,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="J13">
-        <f>IF(CLIMBS!T14 &lt;&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f>IF(VLOOKUP(B13,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CLIMBS!A14</f>
         <v>Sail Rock</v>
@@ -13410,29 +12877,32 @@
       </c>
       <c r="F14">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B14,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B14,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B14,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B14,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B14,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
         <f>_xlfn.IFNA(IF(VLOOKUP(B14,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f>_xlfn.IFNA(IF(VLOOKUP(B14,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f>_xlfn.IFNA(IF(VLOOKUP(B14,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="J14">
-        <f>IF(CLIMBS!T15 &lt;&gt;0,1,0)</f>
+      <c r="K14">
+        <f>IF(VLOOKUP(B14,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CLIMBS!A15</f>
         <v>Chair Ladder</v>
@@ -13455,29 +12925,32 @@
       </c>
       <c r="F15">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B15,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B15,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B15,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B15,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B15,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
         <f>_xlfn.IFNA(IF(VLOOKUP(B15,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f>_xlfn.IFNA(IF(VLOOKUP(B15,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f>_xlfn.IFNA(IF(VLOOKUP(B15,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="J15">
-        <f>IF(CLIMBS!T16 &lt;&gt;0,1,0)</f>
+      <c r="K15">
+        <f>IF(VLOOKUP(B15,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CLIMBS!A16</f>
         <v>The Devils Tower</v>
@@ -13500,29 +12973,32 @@
       </c>
       <c r="F16">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B16,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B16,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B16,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B16,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B16,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
         <f>_xlfn.IFNA(IF(VLOOKUP(B16,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f>_xlfn.IFNA(IF(VLOOKUP(B16,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f>_xlfn.IFNA(IF(VLOOKUP(B16,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="J16">
-        <f>IF(CLIMBS!T17 &lt;&gt;0,1,0)</f>
+      <c r="K16">
+        <f>IF(VLOOKUP(B16,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CLIMBS!A17</f>
         <v>Lliwedd</v>
@@ -13545,29 +13021,32 @@
       </c>
       <c r="F17">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B17,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B17,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B17,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B17,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B17,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
         <f>_xlfn.IFNA(IF(VLOOKUP(B17,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f>_xlfn.IFNA(IF(VLOOKUP(B17,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f>_xlfn.IFNA(IF(VLOOKUP(B17,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="J17">
-        <f>IF(CLIMBS!T18 &lt;&gt;0,1,0)</f>
+      <c r="K17">
+        <f>IF(VLOOKUP(B17,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CLIMBS!A18</f>
         <v>Stetind</v>
@@ -13590,29 +13069,32 @@
       </c>
       <c r="F18">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B18,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B18,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B18,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B18,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B18,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
         <f>_xlfn.IFNA(IF(VLOOKUP(B18,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f>_xlfn.IFNA(IF(VLOOKUP(B18,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f>_xlfn.IFNA(IF(VLOOKUP(B18,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="J18">
-        <f>IF(CLIMBS!T19 &lt;&gt;0,1,0)</f>
+      <c r="K18">
+        <f>IF(VLOOKUP(B18,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CLIMBS!A19</f>
         <v>Scafell</v>
@@ -13634,29 +13116,32 @@
       </c>
       <c r="F19">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B19,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B19,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B19,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B19,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B19,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
         <f>_xlfn.IFNA(IF(VLOOKUP(B19,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f>_xlfn.IFNA(IF(VLOOKUP(B19,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f>_xlfn.IFNA(IF(VLOOKUP(B19,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="J19">
-        <f>IF(CLIMBS!T20 &lt;&gt;0,1,0)</f>
+      <c r="K19">
+        <f>IF(VLOOKUP(B19,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CLIMBS!A20</f>
         <v>Mount Indefatigable</v>
@@ -13678,29 +13163,32 @@
       </c>
       <c r="F20">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B20,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B20,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B20,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B20,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B20,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
         <f>_xlfn.IFNA(IF(VLOOKUP(B20,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f>_xlfn.IFNA(IF(VLOOKUP(B20,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f>_xlfn.IFNA(IF(VLOOKUP(B20,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="J20">
-        <f>IF(CLIMBS!T21 &lt;&gt;0,1,0)</f>
+      <c r="K20">
+        <f>IF(VLOOKUP(B20,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CLIMBS!A21</f>
         <v>Slieve Beg</v>
@@ -13722,29 +13210,32 @@
       </c>
       <c r="F21">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B21,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B21,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B21,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B21,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B21,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
         <f>_xlfn.IFNA(IF(VLOOKUP(B21,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f>_xlfn.IFNA(IF(VLOOKUP(B21,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f>_xlfn.IFNA(IF(VLOOKUP(B21,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="J21">
-        <f>IF(CLIMBS!T22 &lt;&gt;0,1,0)</f>
+      <c r="K21">
+        <f>IF(VLOOKUP(B21,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CLIMBS!A22</f>
         <v>Lion Rock</v>
@@ -13766,29 +13257,32 @@
       </c>
       <c r="F22">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B22,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B22,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B22,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B22,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B22,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
         <f>_xlfn.IFNA(IF(VLOOKUP(B22,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f>_xlfn.IFNA(IF(VLOOKUP(B22,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f>_xlfn.IFNA(IF(VLOOKUP(B22,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="J22">
-        <f>IF(CLIMBS!T23 &lt;&gt;0,1,0)</f>
+      <c r="K22">
+        <f>IF(VLOOKUP(B22,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CLIMBS!A23</f>
         <v>Peñón de Ifach</v>
@@ -13810,29 +13304,32 @@
       </c>
       <c r="F23">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B23,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B23,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B23,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B23,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B23,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
         <f>_xlfn.IFNA(IF(VLOOKUP(B23,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f>_xlfn.IFNA(IF(VLOOKUP(B23,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f>_xlfn.IFNA(IF(VLOOKUP(B23,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="J23">
-        <f>IF(CLIMBS!T24 &lt;&gt;0,1,0)</f>
+      <c r="K23">
+        <f>IF(VLOOKUP(B23,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CLIMBS!A24</f>
         <v>Heiliger Geist</v>
@@ -13854,29 +13351,32 @@
       </c>
       <c r="F24">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B24,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B24,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B24,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B24,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B24,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
         <f>_xlfn.IFNA(IF(VLOOKUP(B24,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <f>_xlfn.IFNA(IF(VLOOKUP(B24,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f>_xlfn.IFNA(IF(VLOOKUP(B24,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="J24">
-        <f>IF(CLIMBS!T25 &lt;&gt;0,1,0)</f>
+      <c r="K24">
+        <f>IF(VLOOKUP(B24,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>CLIMBS!A25</f>
         <v>Aiguille Dibona</v>
@@ -13898,29 +13398,32 @@
       </c>
       <c r="F25">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B25,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B25,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B25,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B25,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B25,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
         <f>_xlfn.IFNA(IF(VLOOKUP(B25,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f>_xlfn.IFNA(IF(VLOOKUP(B25,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f>_xlfn.IFNA(IF(VLOOKUP(B25,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="J25">
-        <f>IF(CLIMBS!T26 &lt;&gt;0,1,0)</f>
+      <c r="K25">
+        <f>IF(VLOOKUP(B25,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>CLIMBS!A26</f>
         <v>Brüggler</v>
@@ -13942,29 +13445,32 @@
       </c>
       <c r="F26">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B26,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B26,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B26,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B26,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B26,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
         <f>_xlfn.IFNA(IF(VLOOKUP(B26,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <f>_xlfn.IFNA(IF(VLOOKUP(B26,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f>_xlfn.IFNA(IF(VLOOKUP(B26,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="J26">
-        <f>IF(CLIMBS!T27 &lt;&gt;0,1,0)</f>
+      <c r="K26">
+        <f>IF(VLOOKUP(B26,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>CLIMBS!A27</f>
         <v>Vajolet towers</v>
@@ -13986,29 +13492,32 @@
       </c>
       <c r="F27">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B27,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B27,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B27,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B27,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B27,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
         <f>_xlfn.IFNA(IF(VLOOKUP(B27,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f>_xlfn.IFNA(IF(VLOOKUP(B27,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f>_xlfn.IFNA(IF(VLOOKUP(B27,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="J27">
-        <f>IF(CLIMBS!T28 &lt;&gt;0,1,0)</f>
+      <c r="K27">
+        <f>IF(VLOOKUP(B27,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>CLIMBS!A28</f>
         <v>Djebel Rum</v>
@@ -14030,29 +13539,32 @@
       </c>
       <c r="F28" t="str">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B28,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B28,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B28,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B28,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
         <v>missing</v>
       </c>
       <c r="G28">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B28,IMAGES!B:B,"topo")</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
         <f>_xlfn.IFNA(IF(VLOOKUP(B28,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f>_xlfn.IFNA(IF(VLOOKUP(B28,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f>_xlfn.IFNA(IF(VLOOKUP(B28,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="J28">
-        <f>IF(CLIMBS!T29 &lt;&gt;0,1,0)</f>
+      <c r="K28">
+        <f>IF(VLOOKUP(B28,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>CLIMBS!A29</f>
         <v>Cathedral Rock</v>
@@ -14074,82 +13586,102 @@
       </c>
       <c r="F29">
         <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B29,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
-IF(VLOOKUP(CONCATENATE(B29,"crag"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B29,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
 IF(VLOOKUP(CONCATENATE(B29,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B29,IMAGES!B:B,"topo")</f>
+        <v>2</v>
+      </c>
+      <c r="H29">
         <f>_xlfn.IFNA(IF(VLOOKUP(B29,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f>_xlfn.IFNA(IF(VLOOKUP(B29,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <f>_xlfn.IFNA(IF(VLOOKUP(B29,REFERANCES!A:A,1,FALSE),1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="J29">
-        <f>IF(CLIMBS!T30 &lt;&gt;0,1,0)</f>
+      <c r="K29">
+        <f>IF(VLOOKUP(B29,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D29">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="17" operator="lessThan">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C29">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
       <formula>"draft"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C29">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E29">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F30">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="F2:G30">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>"missing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:I29">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="H2:J29">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J29">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="K2:K29">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="greaterThan">
       <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G29">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F29">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D275F52-0BDD-442F-828A-C1BB5918D289}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD0843A-1AD3-4712-BC71-DF81D4AE2BEA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="690">
   <si>
     <t>cliff</t>
   </si>
@@ -2012,9 +2012,6 @@
 The decent requires 3 abseils of 40m, 40m and just under 60m. To find the anchor to abseil you need to walk along the ridge for 80m. You go over a couple of small peaks. You may want to stay roped for this slinging the occasional bush as the ground can be loose. If you use a pair of 50m ropes you can either use a tree to break the last abseil into 2 or create a trad anchor on the way or even abseil carefully off the end of the rope and downclimb the last 10m. All these options have risk especially if you end up doing it in the dark. </t>
   </si>
   <si>
-    <t xml:space="preserve">Esparraguera offers an exciting 190m HVS (f5c) multi-pitch climb on the fantastic conglomerate rock of Montserrat in Spain. The route is sustained and consistent in grade. The hardest pitch is steep but has big holds and is well bolted, this may well feel like the easiest pitch if you are used to indoor climbing / bouldering. Whilst described as a clean trad route in many guidebooks, Esparraguera has a good amount bolts (17) and pitons (2) in sections in the middle pitches. Most of the harder moves are protected by old bolts. You will need a full trad rack of nuts and cams. Tri cams are particularly helpful for the pockets. The last pitch has no fixed protection. The route is given f5c in some guides or UIAA V+ in others, it is hard to convert to British grades but given the protection is good at the harder sections, the British grade of HVS 5a (maybe 5b) seems best. If anything feels hard, take some time and search for better holds, there will be some. The decent requires 3 abseils of 40m, 40m and just under 60m. </t>
-  </si>
-  <si>
     <t>pitchInfo</t>
   </si>
   <si>
@@ -2172,12 +2169,50 @@
   <si>
     <t>topo data</t>
   </si>
+  <si>
+    <t xml:space="preserve">Esparraguera offers an exciting 190m VS (f5c) multi-pitch climb on the fantastic conglomerate rock of Montserrat in Spain. The route is sustained and consistent in grade. The hardest pitch is steep but has big holds and is well bolted, this may well feel like the easiest pitch if you are used to indoor climbing / bouldering. Whilst described as a clean trad route in many guidebooks, Esparraguera has a good amount bolts (17) and pitons (2) in sections in the middle pitches. Most of the harder moves are protected by old bolts. You will need a full trad rack of nuts and cams. Tri cams are particularly helpful for the pockets. The last pitch has no fixed protection. The route is given f5c in some guides or UIAA V+ in others, it is hard to convert to British grades but given the protection is good at the harder sections, the British grade of VS 5a (maybe HVS 5b) seems best. If anything feels hard, take some time and search for better holds, there will be some. The decent requires 3 abseils of 40m, 40m and just under 60m. </t>
+  </si>
+  <si>
+    <t>0901601616</t>
+  </si>
+  <si>
+    <r>
+      <t>You would imagine a climbing guide dedicated to Lliwedd would be perfect for climbing this Welsh Mountain crag. Kelvin Neal’s 4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> edition of this guidebook certainly offers and good amount of detail (95 pages) and it comes in a small portable format. However, that’s where the positive points end.  Like most Climbers Climb guides, it focuses on text-based descriptions with little or no imagery. If you are looking for a very loose suggestion of where to go, when climbing almost 1,000 feet, this book might suite. And yes, despite the fourth edition being published in 1998 it still uses the imperial system of feet. Fun fact: The original first edition was published in 1909 and was one of the first guidebooks to ever be published!  To summarise, it’s not going to be hugely helpful with route finding, but it’s a cheap enough guidebook with good historical relevance.  </t>
+    </r>
+  </si>
+  <si>
+    <t>https://amzn.to/2TYdPUI</t>
+  </si>
+  <si>
+    <t>img/guidebooks/lliwedd-guidebook.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2339,6 +2374,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -2813,167 +2856,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3457,8 +3340,8 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N28" sqref="N28"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3542,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>18</v>
@@ -3967,7 +3850,7 @@
         <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M8" t="s">
         <v>51</v>
@@ -4178,7 +4061,7 @@
         <v>104</v>
       </c>
       <c r="T11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="U11" t="s">
         <v>174</v>
@@ -4275,10 +4158,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
@@ -4302,13 +4185,13 @@
         <v>194</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>642</v>
+        <v>685</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>641</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V13" t="s">
         <v>175</v>
@@ -5220,7 +5103,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B28" t="s">
         <v>107</v>
@@ -5229,13 +5112,13 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
+        <v>648</v>
+      </c>
+      <c r="E28" t="s">
         <v>649</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>650</v>
-      </c>
-      <c r="F28" t="s">
-        <v>651</v>
       </c>
       <c r="G28">
         <v>250</v>
@@ -5253,13 +5136,13 @@
         <v>38</v>
       </c>
       <c r="L28" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M28" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="N28" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="O28">
         <v>30</v>
@@ -5268,14 +5151,14 @@
         <v>1</v>
       </c>
       <c r="Q28" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B29" t="s">
         <v>106</v>
@@ -5284,13 +5167,13 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E29" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F29" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G29">
         <v>115</v>
@@ -5314,7 +5197,7 @@
         <v>191</v>
       </c>
       <c r="N29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O29">
         <v>15</v>
@@ -5326,10 +5209,10 @@
         <v>41</v>
       </c>
       <c r="R29" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="S29" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="W29">
         <v>1</v>
@@ -5337,7 +5220,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B30" t="s">
         <v>107</v>
@@ -5397,7 +5280,7 @@
         <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>334</v>
@@ -5423,7 +5306,7 @@
         <v>110</v>
       </c>
       <c r="I2" t="str">
-        <f>CONCATENATE(A2,B2)</f>
+        <f t="shared" ref="I2:I33" si="0">CONCATENATE(A2,B2)</f>
         <v>1topo</v>
       </c>
     </row>
@@ -5441,7 +5324,7 @@
         <v>116</v>
       </c>
       <c r="I3" t="str">
-        <f>CONCATENATE(A3,B3)</f>
+        <f t="shared" si="0"/>
         <v>1tile</v>
       </c>
     </row>
@@ -5465,7 +5348,7 @@
         <v>634</v>
       </c>
       <c r="I4" t="str">
-        <f>CONCATENATE(A4,B4)</f>
+        <f t="shared" si="0"/>
         <v>1map</v>
       </c>
     </row>
@@ -5489,7 +5372,7 @@
         <v>126</v>
       </c>
       <c r="I5" t="str">
-        <f>CONCATENATE(A5,B5)</f>
+        <f t="shared" si="0"/>
         <v>2topo</v>
       </c>
     </row>
@@ -5510,7 +5393,7 @@
         <v>162</v>
       </c>
       <c r="I6" t="str">
-        <f>CONCATENATE(A6,B6)</f>
+        <f t="shared" si="0"/>
         <v>2tile</v>
       </c>
     </row>
@@ -5534,7 +5417,7 @@
         <v>634</v>
       </c>
       <c r="I7" t="str">
-        <f>CONCATENATE(A7,B7)</f>
+        <f t="shared" si="0"/>
         <v>2map</v>
       </c>
     </row>
@@ -5558,7 +5441,7 @@
         <v>130</v>
       </c>
       <c r="I8" t="str">
-        <f>CONCATENATE(A8,B8)</f>
+        <f t="shared" si="0"/>
         <v>3topo</v>
       </c>
     </row>
@@ -5576,7 +5459,7 @@
         <v>128</v>
       </c>
       <c r="I9" t="str">
-        <f>CONCATENATE(A9,B9)</f>
+        <f t="shared" si="0"/>
         <v>3tile</v>
       </c>
     </row>
@@ -5600,7 +5483,7 @@
         <v>634</v>
       </c>
       <c r="I10" t="str">
-        <f>CONCATENATE(A10,B10)</f>
+        <f t="shared" si="0"/>
         <v>3map</v>
       </c>
     </row>
@@ -5618,7 +5501,7 @@
         <v>165</v>
       </c>
       <c r="I11" t="str">
-        <f>CONCATENATE(A11,B11)</f>
+        <f t="shared" si="0"/>
         <v>4tile</v>
       </c>
     </row>
@@ -5642,7 +5525,7 @@
         <v>136</v>
       </c>
       <c r="I12" t="str">
-        <f>CONCATENATE(A12,B12)</f>
+        <f t="shared" si="0"/>
         <v>5topo</v>
       </c>
     </row>
@@ -5663,7 +5546,7 @@
         <v>135</v>
       </c>
       <c r="I13" t="str">
-        <f>CONCATENATE(A13,B13)</f>
+        <f t="shared" si="0"/>
         <v>5tile</v>
       </c>
     </row>
@@ -5687,7 +5570,7 @@
         <v>634</v>
       </c>
       <c r="I14" t="str">
-        <f>CONCATENATE(A14,B14)</f>
+        <f t="shared" si="0"/>
         <v>5map</v>
       </c>
     </row>
@@ -5711,7 +5594,7 @@
         <v>126</v>
       </c>
       <c r="I15" t="str">
-        <f>CONCATENATE(A15,B15)</f>
+        <f t="shared" si="0"/>
         <v>6topo</v>
       </c>
     </row>
@@ -5729,7 +5612,7 @@
         <v>140</v>
       </c>
       <c r="I16" t="str">
-        <f>CONCATENATE(A16,B16)</f>
+        <f t="shared" si="0"/>
         <v>6tile</v>
       </c>
     </row>
@@ -5753,7 +5636,7 @@
         <v>634</v>
       </c>
       <c r="I17" t="str">
-        <f>CONCATENATE(A17,B17)</f>
+        <f t="shared" si="0"/>
         <v>6map</v>
       </c>
     </row>
@@ -5777,7 +5660,7 @@
         <v>150</v>
       </c>
       <c r="I18" t="str">
-        <f>CONCATENATE(A18,B18)</f>
+        <f t="shared" si="0"/>
         <v>7topo</v>
       </c>
     </row>
@@ -5801,7 +5684,7 @@
         <v>141</v>
       </c>
       <c r="I19" t="str">
-        <f>CONCATENATE(A19,B19)</f>
+        <f t="shared" si="0"/>
         <v>7tile</v>
       </c>
     </row>
@@ -5825,7 +5708,7 @@
         <v>634</v>
       </c>
       <c r="I20" t="str">
-        <f>CONCATENATE(A20,B20)</f>
+        <f t="shared" si="0"/>
         <v>7map</v>
       </c>
     </row>
@@ -5849,7 +5732,7 @@
         <v>155</v>
       </c>
       <c r="I21" t="str">
-        <f>CONCATENATE(A21,B21)</f>
+        <f t="shared" si="0"/>
         <v>8topo</v>
       </c>
     </row>
@@ -5870,7 +5753,7 @@
         <v>163</v>
       </c>
       <c r="I22" t="str">
-        <f>CONCATENATE(A22,B22)</f>
+        <f t="shared" si="0"/>
         <v>8tile</v>
       </c>
     </row>
@@ -5894,7 +5777,7 @@
         <v>634</v>
       </c>
       <c r="I23" t="str">
-        <f>CONCATENATE(A23,B23)</f>
+        <f t="shared" si="0"/>
         <v>8map</v>
       </c>
     </row>
@@ -5918,7 +5801,7 @@
         <v>479</v>
       </c>
       <c r="I24" t="str">
-        <f>CONCATENATE(A24,B24)</f>
+        <f t="shared" si="0"/>
         <v>9topo</v>
       </c>
     </row>
@@ -5942,7 +5825,7 @@
         <v>258</v>
       </c>
       <c r="I25" t="str">
-        <f>CONCATENATE(A25,B25)</f>
+        <f t="shared" si="0"/>
         <v>9tile</v>
       </c>
     </row>
@@ -5966,7 +5849,7 @@
         <v>634</v>
       </c>
       <c r="I26" t="str">
-        <f>CONCATENATE(A26,B26)</f>
+        <f t="shared" si="0"/>
         <v>9map</v>
       </c>
     </row>
@@ -5990,7 +5873,7 @@
         <v>157</v>
       </c>
       <c r="I27" t="str">
-        <f>CONCATENATE(A27,B27)</f>
+        <f t="shared" si="0"/>
         <v>10topo</v>
       </c>
     </row>
@@ -6008,7 +5891,7 @@
         <v>167</v>
       </c>
       <c r="I28" t="str">
-        <f>CONCATENATE(A28,B28)</f>
+        <f t="shared" si="0"/>
         <v>10tile</v>
       </c>
     </row>
@@ -6032,7 +5915,7 @@
         <v>634</v>
       </c>
       <c r="I29" t="str">
-        <f>CONCATENATE(A29,B29)</f>
+        <f t="shared" si="0"/>
         <v>10map</v>
       </c>
     </row>
@@ -6056,7 +5939,7 @@
         <v>110</v>
       </c>
       <c r="I30" t="str">
-        <f>CONCATENATE(A30,B30)</f>
+        <f t="shared" si="0"/>
         <v>11topo</v>
       </c>
     </row>
@@ -6080,7 +5963,7 @@
         <v>173</v>
       </c>
       <c r="I31" t="str">
-        <f>CONCATENATE(A31,B31)</f>
+        <f t="shared" si="0"/>
         <v>11tile</v>
       </c>
     </row>
@@ -6104,7 +5987,7 @@
         <v>634</v>
       </c>
       <c r="I32" t="str">
-        <f>CONCATENATE(A32,B32)</f>
+        <f t="shared" si="0"/>
         <v>11map</v>
       </c>
     </row>
@@ -6122,7 +6005,7 @@
         <v>196</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F33" t="s">
         <v>157</v>
@@ -6131,7 +6014,7 @@
         <v>5</v>
       </c>
       <c r="I33" t="str">
-        <f>CONCATENATE(A33,B33)</f>
+        <f t="shared" si="0"/>
         <v>12topo</v>
       </c>
     </row>
@@ -6155,7 +6038,7 @@
         <v>110</v>
       </c>
       <c r="I34" t="str">
-        <f>CONCATENATE(A34,B34)</f>
+        <f t="shared" ref="I34:I65" si="1">CONCATENATE(A34,B34)</f>
         <v>12tile</v>
       </c>
     </row>
@@ -6164,22 +6047,22 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
+        <v>654</v>
+      </c>
+      <c r="C35" t="s">
+        <v>657</v>
+      </c>
+      <c r="D35" t="s">
         <v>655</v>
       </c>
-      <c r="C35" t="s">
-        <v>658</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" s="10" t="s">
         <v>656</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>657</v>
       </c>
       <c r="F35" t="s">
         <v>157</v>
       </c>
       <c r="I35" t="str">
-        <f>CONCATENATE(A35,B35)</f>
+        <f t="shared" si="1"/>
         <v>12super</v>
       </c>
     </row>
@@ -6203,7 +6086,7 @@
         <v>634</v>
       </c>
       <c r="I36" t="str">
-        <f>CONCATENATE(A36,B36)</f>
+        <f t="shared" si="1"/>
         <v>12map</v>
       </c>
     </row>
@@ -6227,7 +6110,7 @@
         <v>214</v>
       </c>
       <c r="I37" t="str">
-        <f>CONCATENATE(A37,B37)</f>
+        <f t="shared" si="1"/>
         <v>13topo</v>
       </c>
     </row>
@@ -6251,7 +6134,7 @@
         <v>205</v>
       </c>
       <c r="I38" t="str">
-        <f>CONCATENATE(A38,B38)</f>
+        <f t="shared" si="1"/>
         <v>13tile</v>
       </c>
     </row>
@@ -6275,7 +6158,7 @@
         <v>634</v>
       </c>
       <c r="I39" t="str">
-        <f>CONCATENATE(A39,B39)</f>
+        <f t="shared" si="1"/>
         <v>13map</v>
       </c>
     </row>
@@ -6299,7 +6182,7 @@
         <v>220</v>
       </c>
       <c r="I40" t="str">
-        <f>CONCATENATE(A40,B40)</f>
+        <f t="shared" si="1"/>
         <v>14topo</v>
       </c>
     </row>
@@ -6323,7 +6206,7 @@
         <v>220</v>
       </c>
       <c r="I41" t="str">
-        <f>CONCATENATE(A41,B41)</f>
+        <f t="shared" si="1"/>
         <v>14tile</v>
       </c>
     </row>
@@ -6347,7 +6230,7 @@
         <v>634</v>
       </c>
       <c r="I42" t="str">
-        <f>CONCATENATE(A42,B42)</f>
+        <f t="shared" si="1"/>
         <v>14map</v>
       </c>
     </row>
@@ -6371,7 +6254,7 @@
         <v>257</v>
       </c>
       <c r="I43" t="str">
-        <f>CONCATENATE(A43,B43)</f>
+        <f t="shared" si="1"/>
         <v>15topo</v>
       </c>
     </row>
@@ -6395,7 +6278,7 @@
         <v>257</v>
       </c>
       <c r="I44" t="str">
-        <f>CONCATENATE(A44,B44)</f>
+        <f t="shared" si="1"/>
         <v>15tile</v>
       </c>
     </row>
@@ -6419,7 +6302,7 @@
         <v>634</v>
       </c>
       <c r="I45" t="str">
-        <f>CONCATENATE(A45,B45)</f>
+        <f t="shared" si="1"/>
         <v>15map</v>
       </c>
     </row>
@@ -6443,7 +6326,7 @@
         <v>110</v>
       </c>
       <c r="I46" t="str">
-        <f>CONCATENATE(A46,B46)</f>
+        <f t="shared" si="1"/>
         <v>16topo</v>
       </c>
     </row>
@@ -6467,7 +6350,7 @@
         <v>110</v>
       </c>
       <c r="I47" t="str">
-        <f>CONCATENATE(A47,B47)</f>
+        <f t="shared" si="1"/>
         <v>16tile</v>
       </c>
     </row>
@@ -6491,7 +6374,7 @@
         <v>634</v>
       </c>
       <c r="I48" t="str">
-        <f>CONCATENATE(A48,B48)</f>
+        <f t="shared" si="1"/>
         <v>16map</v>
       </c>
     </row>
@@ -6515,7 +6398,7 @@
         <v>356</v>
       </c>
       <c r="I49" t="str">
-        <f>CONCATENATE(A49,B49)</f>
+        <f t="shared" si="1"/>
         <v>17topo</v>
       </c>
     </row>
@@ -6539,7 +6422,7 @@
         <v>115</v>
       </c>
       <c r="I50" t="str">
-        <f>CONCATENATE(A50,B50)</f>
+        <f t="shared" si="1"/>
         <v>17tile</v>
       </c>
     </row>
@@ -6563,7 +6446,7 @@
         <v>634</v>
       </c>
       <c r="I51" t="str">
-        <f>CONCATENATE(A51,B51)</f>
+        <f t="shared" si="1"/>
         <v>17map</v>
       </c>
     </row>
@@ -6587,7 +6470,7 @@
         <v>110</v>
       </c>
       <c r="I52" t="str">
-        <f>CONCATENATE(A52,B52)</f>
+        <f t="shared" si="1"/>
         <v>18topo</v>
       </c>
     </row>
@@ -6611,7 +6494,7 @@
         <v>130</v>
       </c>
       <c r="I53" t="str">
-        <f>CONCATENATE(A53,B53)</f>
+        <f t="shared" si="1"/>
         <v>18tile</v>
       </c>
     </row>
@@ -6635,7 +6518,7 @@
         <v>634</v>
       </c>
       <c r="I54" t="str">
-        <f>CONCATENATE(A54,B54)</f>
+        <f t="shared" si="1"/>
         <v>18map</v>
       </c>
     </row>
@@ -6659,7 +6542,7 @@
         <v>439</v>
       </c>
       <c r="I55" t="str">
-        <f>CONCATENATE(A55,B55)</f>
+        <f t="shared" si="1"/>
         <v>19topo</v>
       </c>
     </row>
@@ -6683,7 +6566,7 @@
         <v>438</v>
       </c>
       <c r="I56" t="str">
-        <f>CONCATENATE(A56,B56)</f>
+        <f t="shared" si="1"/>
         <v>19tile</v>
       </c>
     </row>
@@ -6707,7 +6590,7 @@
         <v>634</v>
       </c>
       <c r="I57" t="str">
-        <f>CONCATENATE(A57,B57)</f>
+        <f t="shared" si="1"/>
         <v>19map</v>
       </c>
     </row>
@@ -6731,7 +6614,7 @@
         <v>427</v>
       </c>
       <c r="I58" t="str">
-        <f>CONCATENATE(A58,B58)</f>
+        <f t="shared" si="1"/>
         <v>20topo</v>
       </c>
     </row>
@@ -6755,7 +6638,7 @@
         <v>424</v>
       </c>
       <c r="I59" t="str">
-        <f>CONCATENATE(A59,B59)</f>
+        <f t="shared" si="1"/>
         <v>20tile</v>
       </c>
     </row>
@@ -6779,7 +6662,7 @@
         <v>634</v>
       </c>
       <c r="I60" t="str">
-        <f>CONCATENATE(A60,B60)</f>
+        <f t="shared" si="1"/>
         <v>20map</v>
       </c>
     </row>
@@ -6803,7 +6686,7 @@
         <v>472</v>
       </c>
       <c r="I61" t="str">
-        <f>CONCATENATE(A61,B61)</f>
+        <f t="shared" si="1"/>
         <v>21topo</v>
       </c>
     </row>
@@ -6827,7 +6710,7 @@
         <v>468</v>
       </c>
       <c r="I62" t="str">
-        <f>CONCATENATE(A62,B62)</f>
+        <f t="shared" si="1"/>
         <v>21tile</v>
       </c>
     </row>
@@ -6851,7 +6734,7 @@
         <v>634</v>
       </c>
       <c r="I63" t="str">
-        <f>CONCATENATE(A63,B63)</f>
+        <f t="shared" si="1"/>
         <v>21map</v>
       </c>
     </row>
@@ -6875,7 +6758,7 @@
         <v>503</v>
       </c>
       <c r="I64" t="str">
-        <f>CONCATENATE(A64,B64)</f>
+        <f t="shared" si="1"/>
         <v>22topo</v>
       </c>
     </row>
@@ -6899,7 +6782,7 @@
         <v>258</v>
       </c>
       <c r="I65" t="str">
-        <f>CONCATENATE(A65,B65)</f>
+        <f t="shared" si="1"/>
         <v>22tile</v>
       </c>
     </row>
@@ -6923,7 +6806,7 @@
         <v>634</v>
       </c>
       <c r="I66" t="str">
-        <f>CONCATENATE(A66,B66)</f>
+        <f t="shared" ref="I66:I81" si="2">CONCATENATE(A66,B66)</f>
         <v>22map</v>
       </c>
     </row>
@@ -6947,7 +6830,7 @@
         <v>479</v>
       </c>
       <c r="I67" t="str">
-        <f>CONCATENATE(A67,B67)</f>
+        <f t="shared" si="2"/>
         <v>23topo</v>
       </c>
     </row>
@@ -6971,7 +6854,7 @@
         <v>115</v>
       </c>
       <c r="I68" t="str">
-        <f>CONCATENATE(A68,B68)</f>
+        <f t="shared" si="2"/>
         <v>23tile</v>
       </c>
     </row>
@@ -6995,7 +6878,7 @@
         <v>634</v>
       </c>
       <c r="I69" t="str">
-        <f>CONCATENATE(A69,B69)</f>
+        <f t="shared" si="2"/>
         <v>23map</v>
       </c>
     </row>
@@ -7019,7 +6902,7 @@
         <v>538</v>
       </c>
       <c r="I70" t="str">
-        <f>CONCATENATE(A70,B70)</f>
+        <f t="shared" si="2"/>
         <v>24topo</v>
       </c>
     </row>
@@ -7043,7 +6926,7 @@
         <v>538</v>
       </c>
       <c r="I71" t="str">
-        <f>CONCATENATE(A71,B71)</f>
+        <f t="shared" si="2"/>
         <v>24tile</v>
       </c>
     </row>
@@ -7067,7 +6950,7 @@
         <v>634</v>
       </c>
       <c r="I72" t="str">
-        <f>CONCATENATE(A72,B72)</f>
+        <f t="shared" si="2"/>
         <v>24map</v>
       </c>
     </row>
@@ -7091,7 +6974,7 @@
         <v>582</v>
       </c>
       <c r="I73" t="str">
-        <f>CONCATENATE(A73,B73)</f>
+        <f t="shared" si="2"/>
         <v>25topo</v>
       </c>
     </row>
@@ -7115,7 +6998,7 @@
         <v>576</v>
       </c>
       <c r="I74" t="str">
-        <f>CONCATENATE(A74,B74)</f>
+        <f t="shared" si="2"/>
         <v>25tile</v>
       </c>
     </row>
@@ -7139,7 +7022,7 @@
         <v>634</v>
       </c>
       <c r="I75" t="str">
-        <f>CONCATENATE(A75,B75)</f>
+        <f t="shared" si="2"/>
         <v>25map</v>
       </c>
     </row>
@@ -7163,7 +7046,7 @@
         <v>595</v>
       </c>
       <c r="I76" t="str">
-        <f>CONCATENATE(A76,B76)</f>
+        <f t="shared" si="2"/>
         <v>26topo</v>
       </c>
     </row>
@@ -7187,7 +7070,7 @@
         <v>592</v>
       </c>
       <c r="I77" t="str">
-        <f>CONCATENATE(A77,B77)</f>
+        <f t="shared" si="2"/>
         <v>26tile</v>
       </c>
     </row>
@@ -7211,7 +7094,7 @@
         <v>634</v>
       </c>
       <c r="I78" t="str">
-        <f>CONCATENATE(A78,B78)</f>
+        <f t="shared" si="2"/>
         <v>26map</v>
       </c>
     </row>
@@ -7223,22 +7106,22 @@
         <v>114</v>
       </c>
       <c r="C79" t="s">
+        <v>667</v>
+      </c>
+      <c r="D79" t="s">
         <v>668</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="F79" s="14" t="s">
         <v>670</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>671</v>
       </c>
       <c r="G79" s="14">
         <v>2</v>
       </c>
       <c r="I79" t="str">
-        <f>CONCATENATE(A79,B79)</f>
+        <f t="shared" si="2"/>
         <v>28topo</v>
       </c>
     </row>
@@ -7250,19 +7133,19 @@
         <v>161</v>
       </c>
       <c r="C80" t="s">
+        <v>671</v>
+      </c>
+      <c r="D80" t="s">
+        <v>682</v>
+      </c>
+      <c r="E80" t="s">
+        <v>673</v>
+      </c>
+      <c r="F80" t="s">
         <v>672</v>
       </c>
-      <c r="D80" t="s">
-        <v>683</v>
-      </c>
-      <c r="E80" t="s">
-        <v>674</v>
-      </c>
-      <c r="F80" t="s">
-        <v>673</v>
-      </c>
       <c r="I80" t="str">
-        <f>CONCATENATE(A80,B80)</f>
+        <f t="shared" si="2"/>
         <v>28tile</v>
       </c>
     </row>
@@ -7274,10 +7157,10 @@
         <v>109</v>
       </c>
       <c r="C81" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D81" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E81" t="s">
         <v>633</v>
@@ -7286,7 +7169,7 @@
         <v>634</v>
       </c>
       <c r="I81" t="str">
-        <f>CONCATENATE(A81,B81)</f>
+        <f t="shared" si="2"/>
         <v>28map</v>
       </c>
     </row>
@@ -7335,10 +7218,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB58989-DB9B-42B8-8BEA-AD863D94E91D}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="116" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="116" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8140,7 +8023,7 @@
         <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>637</v>
@@ -8150,6 +8033,35 @@
       </c>
       <c r="I28">
         <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="C29" t="s">
+        <v>307</v>
+      </c>
+      <c r="D29" t="s">
+        <v>231</v>
+      </c>
+      <c r="E29">
+        <v>34</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="G29" t="s">
+        <v>689</v>
+      </c>
+      <c r="H29" t="s">
+        <v>688</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -8362,10 +8274,10 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
+        <v>664</v>
+      </c>
+      <c r="C17" t="s">
         <v>665</v>
-      </c>
-      <c r="C17" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8376,7 +8288,7 @@
         <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8384,10 +8296,10 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
+        <v>674</v>
+      </c>
+      <c r="C19" t="s">
         <v>675</v>
-      </c>
-      <c r="C19" t="s">
-        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -12227,7 +12139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -12263,7 +12175,7 @@
         <v>331</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>332</v>
@@ -12272,7 +12184,7 @@
         <v>333</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>640</v>
@@ -13613,69 +13525,69 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D29">
-    <cfRule type="cellIs" dxfId="32" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C29">
-    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"draft"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C29">
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E29">
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G30">
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"missing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J29">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K29">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G29">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD0843A-1AD3-4712-BC71-DF81D4AE2BEA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A56AA4-1DA8-4D09-B0A5-531120182B55}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="694">
   <si>
     <t>cliff</t>
   </si>
@@ -505,9 +505,6 @@
     <t>our own image</t>
   </si>
   <si>
-    <t>img/topos/wreakers/cornakey-cliff-wreakers-slab-topo-small.jpg</t>
-  </si>
-  <si>
     <t>Wreakers Slab Topo on Cornakey Cliff</t>
   </si>
   <si>
@@ -1202,9 +1199,6 @@
   </si>
   <si>
     <t>Topo for keswick Brothers Climb on Scafell Crag</t>
-  </si>
-  <si>
-    <t>lakelandpilgrimage.blogspot.com/p/the-cathedrals.html</t>
   </si>
   <si>
     <t>img/topos/scafell/scarfell-pike-climbs-s.jpg</t>
@@ -2207,12 +2201,30 @@
   <si>
     <t>img/guidebooks/lliwedd-guidebook.jpg</t>
   </si>
+  <si>
+    <t>http://lakelandpilgrimage.blogspot.com/p/the-cathedrals.html</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ifNQuBPfHJU</t>
+  </si>
+  <si>
+    <t>Headcam video of the accent on youTube</t>
+  </si>
+  <si>
+    <t>img/topos/wreakers/wreakers-slab-climb-in-cornwall.jpg</t>
+  </si>
+  <si>
+    <t>https://www.cornwalls.co.uk/weather/bude-tide-times.htm</t>
+  </si>
+  <si>
+    <t>Tide times for nearby town of Bude</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2378,6 +2390,14 @@
     <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2756,7 +2776,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2809,6 +2829,9 @@
     </xf>
     <xf numFmtId="1" fontId="20" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3340,8 +3363,8 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q2" sqref="Q2"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3425,7 +3448,7 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>18</v>
@@ -3434,13 +3457,13 @@
         <v>19</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -3493,7 +3516,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="S2" t="s">
         <v>30</v>
@@ -3602,7 +3625,7 @@
         <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M4" t="s">
         <v>51</v>
@@ -3623,13 +3646,13 @@
         <v>54</v>
       </c>
       <c r="S4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="U4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3661,7 +3684,7 @@
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K5" t="s">
         <v>60</v>
@@ -3735,19 +3758,19 @@
         <v>3</v>
       </c>
       <c r="Q6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R6" t="s">
         <v>73</v>
       </c>
       <c r="S6" t="s">
+        <v>298</v>
+      </c>
+      <c r="U6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V6" t="s">
         <v>299</v>
-      </c>
-      <c r="U6" t="s">
-        <v>174</v>
-      </c>
-      <c r="V6" t="s">
-        <v>300</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -3850,13 +3873,13 @@
         <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="M8" t="s">
         <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O8">
         <v>30</v>
@@ -3874,7 +3897,7 @@
         <v>91</v>
       </c>
       <c r="U8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -3915,7 +3938,7 @@
         <v>39</v>
       </c>
       <c r="N9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O9">
         <v>120</v>
@@ -3927,13 +3950,13 @@
         <v>41</v>
       </c>
       <c r="R9" t="s">
+        <v>373</v>
+      </c>
+      <c r="S9" t="s">
         <v>374</v>
       </c>
-      <c r="S9" t="s">
-        <v>375</v>
-      </c>
       <c r="U9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V9" t="s">
         <v>45</v>
@@ -3956,7 +3979,7 @@
         <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F10" t="s">
         <v>97</v>
@@ -3971,19 +3994,19 @@
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K10" t="s">
         <v>60</v>
       </c>
       <c r="L10" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="N10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O10">
         <v>10</v>
@@ -3995,10 +4018,10 @@
         <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" t="s">
@@ -4043,7 +4066,7 @@
         <v>39</v>
       </c>
       <c r="N11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O11">
         <v>50</v>
@@ -4061,10 +4084,10 @@
         <v>104</v>
       </c>
       <c r="T11" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="U11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -4072,7 +4095,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
         <v>106</v>
@@ -4084,10 +4107,10 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G12">
         <v>330</v>
@@ -4108,7 +4131,7 @@
         <v>27</v>
       </c>
       <c r="N12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O12">
         <v>140</v>
@@ -4120,21 +4143,21 @@
         <v>41</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U12" t="s">
+        <v>173</v>
+      </c>
+      <c r="V12" t="s">
         <v>174</v>
-      </c>
-      <c r="V12" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B13" t="s">
         <v>106</v>
@@ -4143,13 +4166,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" t="s">
         <v>188</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>189</v>
-      </c>
-      <c r="F13" t="s">
-        <v>190</v>
       </c>
       <c r="G13">
         <v>190</v>
@@ -4167,13 +4190,13 @@
         <v>26</v>
       </c>
       <c r="L13" t="s">
+        <v>191</v>
+      </c>
+      <c r="M13" t="s">
+        <v>190</v>
+      </c>
+      <c r="N13" t="s">
         <v>192</v>
-      </c>
-      <c r="M13" t="s">
-        <v>191</v>
-      </c>
-      <c r="N13" t="s">
-        <v>193</v>
       </c>
       <c r="O13">
         <v>35</v>
@@ -4182,19 +4205,19 @@
         <v>1</v>
       </c>
       <c r="Q13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="V13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W13">
         <v>1</v>
@@ -4205,7 +4228,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
         <v>106</v>
@@ -4217,10 +4240,10 @@
         <v>66</v>
       </c>
       <c r="E14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" t="s">
         <v>200</v>
-      </c>
-      <c r="F14" t="s">
-        <v>201</v>
       </c>
       <c r="G14">
         <v>81</v>
@@ -4235,13 +4258,13 @@
         <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M14" t="s">
         <v>70</v>
       </c>
       <c r="N14" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="O14">
         <v>20</v>
@@ -4250,16 +4273,16 @@
         <v>2</v>
       </c>
       <c r="Q14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S14" t="s">
+        <v>208</v>
+      </c>
+      <c r="U14" t="s">
         <v>209</v>
-      </c>
-      <c r="U14" t="s">
-        <v>210</v>
       </c>
       <c r="W14">
         <v>1</v>
@@ -4267,7 +4290,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B15" t="s">
         <v>106</v>
@@ -4282,7 +4305,7 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G15">
         <v>70</v>
@@ -4303,7 +4326,7 @@
         <v>39</v>
       </c>
       <c r="N15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O15">
         <v>15</v>
@@ -4315,22 +4338,22 @@
         <v>41</v>
       </c>
       <c r="R15" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="S15" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
         <v>106</v>
@@ -4339,13 +4362,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" t="s">
         <v>245</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>246</v>
-      </c>
-      <c r="F16" t="s">
-        <v>247</v>
       </c>
       <c r="G16">
         <v>152</v>
@@ -4360,16 +4383,16 @@
         <v>25</v>
       </c>
       <c r="K16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N16" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="O16">
         <v>5</v>
@@ -4378,19 +4401,19 @@
         <v>1</v>
       </c>
       <c r="Q16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="U16" t="s">
         <v>44</v>
       </c>
       <c r="V16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -4398,7 +4421,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B17" t="s">
         <v>106</v>
@@ -4413,7 +4436,7 @@
         <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G17">
         <v>280</v>
@@ -4425,7 +4448,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
         <v>38</v>
@@ -4434,7 +4457,7 @@
         <v>51</v>
       </c>
       <c r="N17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O17">
         <v>75</v>
@@ -4446,22 +4469,22 @@
         <v>53</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B18" t="s">
         <v>106</v>
@@ -4470,13 +4493,13 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
+        <v>347</v>
+      </c>
+      <c r="E18" t="s">
         <v>348</v>
       </c>
-      <c r="E18" t="s">
-        <v>349</v>
-      </c>
       <c r="F18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G18">
         <v>575</v>
@@ -4488,19 +4511,19 @@
         <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K18" t="s">
+        <v>352</v>
+      </c>
+      <c r="L18" t="s">
+        <v>351</v>
+      </c>
+      <c r="M18" t="s">
         <v>353</v>
       </c>
-      <c r="L18" t="s">
-        <v>352</v>
-      </c>
-      <c r="M18" t="s">
-        <v>354</v>
-      </c>
       <c r="N18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O18">
         <v>90</v>
@@ -4509,16 +4532,16 @@
         <v>2</v>
       </c>
       <c r="Q18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W18">
         <v>1</v>
@@ -4526,7 +4549,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B19" t="s">
         <v>106</v>
@@ -4538,10 +4561,10 @@
         <v>32</v>
       </c>
       <c r="E19" t="s">
+        <v>383</v>
+      </c>
+      <c r="F19" t="s">
         <v>384</v>
-      </c>
-      <c r="F19" t="s">
-        <v>385</v>
       </c>
       <c r="G19">
         <v>74</v>
@@ -4553,16 +4576,16 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M19" t="s">
         <v>39</v>
       </c>
       <c r="N19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O19">
         <v>70</v>
@@ -4574,16 +4597,16 @@
         <v>53</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B20" t="s">
         <v>106</v>
@@ -4592,13 +4615,13 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G20">
         <v>300</v>
@@ -4610,19 +4633,19 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s">
         <v>79</v>
       </c>
       <c r="L20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="N20" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="O20">
         <v>40</v>
@@ -4634,18 +4657,18 @@
         <v>64</v>
       </c>
       <c r="R20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="U20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B21" t="s">
         <v>106</v>
@@ -4657,10 +4680,10 @@
         <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G21">
         <v>80</v>
@@ -4681,7 +4704,7 @@
         <v>70</v>
       </c>
       <c r="N21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O21">
         <v>90</v>
@@ -4693,18 +4716,18 @@
         <v>41</v>
       </c>
       <c r="R21" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="S21" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="V21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B22" t="s">
         <v>106</v>
@@ -4713,13 +4736,13 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E22" t="s">
+        <v>455</v>
+      </c>
+      <c r="F22" t="s">
         <v>457</v>
-      </c>
-      <c r="F22" t="s">
-        <v>459</v>
       </c>
       <c r="G22">
         <v>80</v>
@@ -4734,13 +4757,13 @@
         <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O22">
         <v>40</v>
@@ -4752,13 +4775,13 @@
         <v>41</v>
       </c>
       <c r="R22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="S22" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="U22" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="V22" t="s">
         <v>45</v>
@@ -4766,7 +4789,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B23" t="s">
         <v>106</v>
@@ -4775,13 +4798,13 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F23" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G23">
         <v>228</v>
@@ -4799,10 +4822,10 @@
         <v>60</v>
       </c>
       <c r="M23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N23" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="O23">
         <v>20</v>
@@ -4814,16 +4837,16 @@
         <v>64</v>
       </c>
       <c r="R23" t="s">
+        <v>496</v>
+      </c>
+      <c r="S23" t="s">
         <v>498</v>
       </c>
-      <c r="S23" t="s">
-        <v>500</v>
-      </c>
       <c r="U23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W23">
         <v>1</v>
@@ -4831,7 +4854,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B24" t="s">
         <v>106</v>
@@ -4840,13 +4863,13 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
+        <v>509</v>
+      </c>
+      <c r="E24" t="s">
         <v>511</v>
       </c>
-      <c r="E24" t="s">
-        <v>513</v>
-      </c>
       <c r="F24" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G24">
         <v>250</v>
@@ -4864,13 +4887,13 @@
         <v>26</v>
       </c>
       <c r="L24" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M24" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="N24" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O24">
         <v>21</v>
@@ -4879,19 +4902,19 @@
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R24" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="S24" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="U24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="W24">
         <v>1</v>
@@ -4899,7 +4922,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B25" t="s">
         <v>106</v>
@@ -4908,13 +4931,13 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
+        <v>528</v>
+      </c>
+      <c r="E25" t="s">
         <v>530</v>
       </c>
-      <c r="E25" t="s">
-        <v>532</v>
-      </c>
       <c r="F25" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G25">
         <v>350</v>
@@ -4926,19 +4949,19 @@
         <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K25" t="s">
         <v>60</v>
       </c>
       <c r="L25" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="M25" t="s">
+        <v>532</v>
+      </c>
+      <c r="N25" t="s">
         <v>534</v>
-      </c>
-      <c r="N25" t="s">
-        <v>536</v>
       </c>
       <c r="O25">
         <v>190</v>
@@ -4950,17 +4973,17 @@
         <v>41</v>
       </c>
       <c r="R25" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W25">
         <v>1</v>
@@ -4968,7 +4991,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B26" t="s">
         <v>106</v>
@@ -4977,13 +5000,13 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E26" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F26" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G26">
         <v>230</v>
@@ -4998,16 +5021,16 @@
         <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M26" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="N26" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="O26">
         <v>70</v>
@@ -5019,22 +5042,22 @@
         <v>64</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" t="s">
+        <v>173</v>
+      </c>
+      <c r="V26" t="s">
         <v>174</v>
-      </c>
-      <c r="V26" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B27" t="s">
         <v>106</v>
@@ -5046,10 +5069,10 @@
         <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F27" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G27">
         <v>160</v>
@@ -5064,7 +5087,7 @@
         <v>37</v>
       </c>
       <c r="K27" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L27" t="s">
         <v>80</v>
@@ -5073,7 +5096,7 @@
         <v>81</v>
       </c>
       <c r="N27" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O27">
         <v>80</v>
@@ -5085,17 +5108,17 @@
         <v>83</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W27">
         <v>1</v>
@@ -5103,7 +5126,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B28" t="s">
         <v>107</v>
@@ -5112,13 +5135,13 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
+        <v>646</v>
+      </c>
+      <c r="E28" t="s">
+        <v>647</v>
+      </c>
+      <c r="F28" t="s">
         <v>648</v>
-      </c>
-      <c r="E28" t="s">
-        <v>649</v>
-      </c>
-      <c r="F28" t="s">
-        <v>650</v>
       </c>
       <c r="G28">
         <v>250</v>
@@ -5136,13 +5159,13 @@
         <v>38</v>
       </c>
       <c r="L28" t="s">
+        <v>649</v>
+      </c>
+      <c r="M28" t="s">
+        <v>644</v>
+      </c>
+      <c r="N28" t="s">
         <v>651</v>
-      </c>
-      <c r="M28" t="s">
-        <v>646</v>
-      </c>
-      <c r="N28" t="s">
-        <v>653</v>
       </c>
       <c r="O28">
         <v>30</v>
@@ -5151,14 +5174,14 @@
         <v>1</v>
       </c>
       <c r="Q28" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B29" t="s">
         <v>106</v>
@@ -5167,13 +5190,13 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E29" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F29" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G29">
         <v>115</v>
@@ -5188,16 +5211,16 @@
         <v>25</v>
       </c>
       <c r="K29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L29" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N29" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="O29">
         <v>15</v>
@@ -5209,10 +5232,10 @@
         <v>41</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="W29">
         <v>1</v>
@@ -5220,7 +5243,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B30" t="s">
         <v>107</v>
@@ -5231,7 +5254,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -5245,8 +5268,8 @@
   <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5280,10 +5303,10 @@
         <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5315,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -5336,16 +5359,16 @@
         <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D4" t="s">
         <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
@@ -5381,7 +5404,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -5390,7 +5413,7 @@
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
@@ -5405,16 +5428,16 @@
         <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D7" t="s">
         <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
@@ -5450,7 +5473,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
@@ -5471,16 +5494,16 @@
         <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D10" t="s">
         <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -5492,13 +5515,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
@@ -5534,7 +5557,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
         <v>69</v>
@@ -5558,16 +5581,16 @@
         <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D14" t="s">
         <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F14" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
@@ -5603,7 +5626,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
         <v>78</v>
@@ -5624,16 +5647,16 @@
         <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D17" t="s">
         <v>145</v>
       </c>
       <c r="E17" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F17" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
@@ -5669,13 +5692,13 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
         <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E19" t="s">
         <v>146</v>
@@ -5696,16 +5719,16 @@
         <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D20" t="s">
         <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F20" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
@@ -5720,7 +5743,7 @@
         <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D21" t="s">
         <v>153</v>
@@ -5741,7 +5764,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
         <v>94</v>
@@ -5750,7 +5773,7 @@
         <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
@@ -5765,16 +5788,16 @@
         <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D23" t="s">
         <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F23" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
@@ -5789,16 +5812,16 @@
         <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D24" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F24" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
@@ -5810,19 +5833,19 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
         <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
@@ -5837,16 +5860,16 @@
         <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E26" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F26" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
@@ -5861,16 +5884,19 @@
         <v>114</v>
       </c>
       <c r="C27" t="s">
+        <v>691</v>
+      </c>
+      <c r="D27" t="s">
         <v>158</v>
-      </c>
-      <c r="D27" t="s">
-        <v>159</v>
       </c>
       <c r="E27" t="s">
         <v>156</v>
       </c>
       <c r="F27" t="s">
         <v>157</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
@@ -5882,13 +5908,13 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
         <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
@@ -5903,16 +5929,16 @@
         <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F29" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
@@ -5927,13 +5953,13 @@
         <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F30" t="s">
         <v>110</v>
@@ -5948,19 +5974,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" t="s">
         <v>172</v>
-      </c>
-      <c r="F31" t="s">
-        <v>173</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
@@ -5975,16 +6001,16 @@
         <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E32" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F32" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
@@ -5999,13 +6025,13 @@
         <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F33" t="s">
         <v>157</v>
@@ -6023,16 +6049,16 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
+        <v>324</v>
+      </c>
+      <c r="D34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" t="s">
         <v>325</v>
-      </c>
-      <c r="D34" t="s">
-        <v>197</v>
-      </c>
-      <c r="E34" t="s">
-        <v>326</v>
       </c>
       <c r="F34" t="s">
         <v>110</v>
@@ -6047,16 +6073,16 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
+        <v>652</v>
+      </c>
+      <c r="C35" t="s">
+        <v>655</v>
+      </c>
+      <c r="D35" t="s">
+        <v>653</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>654</v>
-      </c>
-      <c r="C35" t="s">
-        <v>657</v>
-      </c>
-      <c r="D35" t="s">
-        <v>655</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>656</v>
       </c>
       <c r="F35" t="s">
         <v>157</v>
@@ -6074,16 +6100,16 @@
         <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E36" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F36" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="1"/>
@@ -6098,16 +6124,16 @@
         <v>114</v>
       </c>
       <c r="C37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" t="s">
         <v>211</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>212</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>213</v>
-      </c>
-      <c r="F37" t="s">
-        <v>214</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="1"/>
@@ -6119,19 +6145,19 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" t="s">
         <v>206</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>207</v>
       </c>
-      <c r="E38" t="s">
-        <v>208</v>
-      </c>
       <c r="F38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
@@ -6146,16 +6172,16 @@
         <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E39" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F39" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="1"/>
@@ -6170,16 +6196,16 @@
         <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E40" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" t="s">
         <v>219</v>
-      </c>
-      <c r="F40" t="s">
-        <v>220</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
@@ -6191,19 +6217,19 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E41" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" t="s">
         <v>219</v>
-      </c>
-      <c r="F41" t="s">
-        <v>220</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
@@ -6218,16 +6244,16 @@
         <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E42" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F42" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="1"/>
@@ -6242,16 +6268,16 @@
         <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D43" t="s">
+        <v>247</v>
+      </c>
+      <c r="E43" t="s">
         <v>248</v>
       </c>
-      <c r="E43" t="s">
-        <v>249</v>
-      </c>
       <c r="F43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="1"/>
@@ -6263,19 +6289,19 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D44" t="s">
         <v>254</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>255</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>256</v>
-      </c>
-      <c r="F44" t="s">
-        <v>257</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="1"/>
@@ -6290,16 +6316,16 @@
         <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E45" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F45" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="1"/>
@@ -6314,13 +6340,13 @@
         <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D46" t="s">
+        <v>310</v>
+      </c>
+      <c r="E46" t="s">
         <v>311</v>
-      </c>
-      <c r="E46" t="s">
-        <v>312</v>
       </c>
       <c r="F46" t="s">
         <v>110</v>
@@ -6335,16 +6361,16 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F47" t="s">
         <v>110</v>
@@ -6362,16 +6388,16 @@
         <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E48" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F48" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="1"/>
@@ -6386,16 +6412,16 @@
         <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D49" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E49" t="s">
+        <v>354</v>
+      </c>
+      <c r="F49" t="s">
         <v>355</v>
-      </c>
-      <c r="F49" t="s">
-        <v>356</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="1"/>
@@ -6407,16 +6433,16 @@
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C50" t="s">
+        <v>366</v>
+      </c>
+      <c r="D50" t="s">
         <v>367</v>
       </c>
-      <c r="D50" t="s">
-        <v>368</v>
-      </c>
       <c r="E50" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F50" t="s">
         <v>115</v>
@@ -6434,16 +6460,16 @@
         <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D51" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E51" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F51" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="1"/>
@@ -6458,13 +6484,13 @@
         <v>114</v>
       </c>
       <c r="C52" t="s">
+        <v>388</v>
+      </c>
+      <c r="D52" t="s">
         <v>389</v>
       </c>
-      <c r="D52" t="s">
-        <v>390</v>
-      </c>
-      <c r="E52" t="s">
-        <v>391</v>
+      <c r="E52" s="10" t="s">
+        <v>688</v>
       </c>
       <c r="F52" t="s">
         <v>110</v>
@@ -6479,16 +6505,16 @@
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C53" t="s">
+        <v>390</v>
+      </c>
+      <c r="D53" t="s">
+        <v>391</v>
+      </c>
+      <c r="E53" t="s">
         <v>392</v>
-      </c>
-      <c r="D53" t="s">
-        <v>393</v>
-      </c>
-      <c r="E53" t="s">
-        <v>394</v>
       </c>
       <c r="F53" t="s">
         <v>130</v>
@@ -6506,16 +6532,16 @@
         <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D54" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E54" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F54" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
@@ -6530,16 +6556,16 @@
         <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D55" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E55" t="s">
+        <v>435</v>
+      </c>
+      <c r="F55" t="s">
         <v>437</v>
-      </c>
-      <c r="F55" t="s">
-        <v>439</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="1"/>
@@ -6551,19 +6577,19 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C56" t="s">
+        <v>433</v>
+      </c>
+      <c r="D56" t="s">
+        <v>434</v>
+      </c>
+      <c r="E56" t="s">
         <v>435</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>436</v>
-      </c>
-      <c r="E56" t="s">
-        <v>437</v>
-      </c>
-      <c r="F56" t="s">
-        <v>438</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="1"/>
@@ -6578,16 +6604,16 @@
         <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D57" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E57" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F57" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="1"/>
@@ -6602,16 +6628,16 @@
         <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D58" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E58" t="s">
+        <v>423</v>
+      </c>
+      <c r="F58" t="s">
         <v>425</v>
-      </c>
-      <c r="F58" t="s">
-        <v>427</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="1"/>
@@ -6623,19 +6649,19 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C59" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D59" t="s">
+        <v>421</v>
+      </c>
+      <c r="E59" t="s">
         <v>423</v>
       </c>
-      <c r="E59" t="s">
-        <v>425</v>
-      </c>
       <c r="F59" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="1"/>
@@ -6650,16 +6676,16 @@
         <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D60" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E60" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F60" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="1"/>
@@ -6674,16 +6700,16 @@
         <v>114</v>
       </c>
       <c r="C61" t="s">
+        <v>467</v>
+      </c>
+      <c r="D61" t="s">
+        <v>468</v>
+      </c>
+      <c r="E61" t="s">
         <v>469</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
         <v>470</v>
-      </c>
-      <c r="E61" t="s">
-        <v>471</v>
-      </c>
-      <c r="F61" t="s">
-        <v>472</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="1"/>
@@ -6695,19 +6721,19 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C62" t="s">
+        <v>463</v>
+      </c>
+      <c r="D62" t="s">
+        <v>464</v>
+      </c>
+      <c r="E62" t="s">
         <v>465</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
         <v>466</v>
-      </c>
-      <c r="E62" t="s">
-        <v>467</v>
-      </c>
-      <c r="F62" t="s">
-        <v>468</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="1"/>
@@ -6722,16 +6748,16 @@
         <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D63" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E63" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F63" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
@@ -6746,16 +6772,16 @@
         <v>114</v>
       </c>
       <c r="C64" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D64" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E64" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F64" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="1"/>
@@ -6767,19 +6793,19 @@
         <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D65" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E65" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="1"/>
@@ -6794,16 +6820,16 @@
         <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D66" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E66" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F66" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" ref="I66:I81" si="2">CONCATENATE(A66,B66)</f>
@@ -6818,16 +6844,16 @@
         <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D67" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E67" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F67" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" si="2"/>
@@ -6839,16 +6865,16 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D68" t="s">
+        <v>517</v>
+      </c>
+      <c r="E68" t="s">
         <v>519</v>
-      </c>
-      <c r="E68" t="s">
-        <v>521</v>
       </c>
       <c r="F68" t="s">
         <v>115</v>
@@ -6866,16 +6892,16 @@
         <v>109</v>
       </c>
       <c r="C69" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D69" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E69" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F69" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="2"/>
@@ -6890,16 +6916,16 @@
         <v>114</v>
       </c>
       <c r="C70" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D70" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E70" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F70" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="2"/>
@@ -6911,19 +6937,19 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D71" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E71" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F71" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="2"/>
@@ -6938,16 +6964,16 @@
         <v>109</v>
       </c>
       <c r="C72" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D72" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E72" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F72" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="2"/>
@@ -6962,16 +6988,16 @@
         <v>114</v>
       </c>
       <c r="C73" t="s">
+        <v>577</v>
+      </c>
+      <c r="D73" t="s">
+        <v>578</v>
+      </c>
+      <c r="E73" t="s">
         <v>579</v>
       </c>
-      <c r="D73" t="s">
+      <c r="F73" t="s">
         <v>580</v>
-      </c>
-      <c r="E73" t="s">
-        <v>581</v>
-      </c>
-      <c r="F73" t="s">
-        <v>582</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="2"/>
@@ -6983,19 +7009,19 @@
         <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C74" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D74" t="s">
+        <v>572</v>
+      </c>
+      <c r="E74" t="s">
+        <v>573</v>
+      </c>
+      <c r="F74" t="s">
         <v>574</v>
-      </c>
-      <c r="E74" t="s">
-        <v>575</v>
-      </c>
-      <c r="F74" t="s">
-        <v>576</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="2"/>
@@ -7010,16 +7036,16 @@
         <v>109</v>
       </c>
       <c r="C75" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D75" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E75" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F75" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="2"/>
@@ -7034,16 +7060,16 @@
         <v>114</v>
       </c>
       <c r="C76" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D76" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E76" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F76" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="2"/>
@@ -7055,19 +7081,19 @@
         <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C77" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D77" t="s">
+        <v>588</v>
+      </c>
+      <c r="E77" t="s">
+        <v>589</v>
+      </c>
+      <c r="F77" t="s">
         <v>590</v>
-      </c>
-      <c r="E77" t="s">
-        <v>591</v>
-      </c>
-      <c r="F77" t="s">
-        <v>592</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="2"/>
@@ -7082,16 +7108,16 @@
         <v>109</v>
       </c>
       <c r="C78" t="s">
+        <v>629</v>
+      </c>
+      <c r="D78" t="s">
+        <v>630</v>
+      </c>
+      <c r="E78" t="s">
         <v>631</v>
       </c>
-      <c r="D78" t="s">
+      <c r="F78" t="s">
         <v>632</v>
-      </c>
-      <c r="E78" t="s">
-        <v>633</v>
-      </c>
-      <c r="F78" t="s">
-        <v>634</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="2"/>
@@ -7106,16 +7132,16 @@
         <v>114</v>
       </c>
       <c r="C79" t="s">
+        <v>665</v>
+      </c>
+      <c r="D79" t="s">
+        <v>666</v>
+      </c>
+      <c r="E79" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="D79" t="s">
+      <c r="F79" s="14" t="s">
         <v>668</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>670</v>
       </c>
       <c r="G79" s="14">
         <v>2</v>
@@ -7130,19 +7156,19 @@
         <v>28</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C80" t="s">
+        <v>669</v>
+      </c>
+      <c r="D80" t="s">
+        <v>680</v>
+      </c>
+      <c r="E80" t="s">
         <v>671</v>
       </c>
-      <c r="D80" t="s">
-        <v>682</v>
-      </c>
-      <c r="E80" t="s">
-        <v>673</v>
-      </c>
       <c r="F80" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="2"/>
@@ -7157,16 +7183,16 @@
         <v>109</v>
       </c>
       <c r="C81" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D81" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E81" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F81" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="2"/>
@@ -7210,9 +7236,10 @@
     <hyperlink ref="E35" r:id="rId1" xr:uid="{0A321C65-D310-4F4B-93FB-7FA86D5B9B94}"/>
     <hyperlink ref="E79" r:id="rId2" display="https://commons.wikimedia.org/wiki/File:La_Catedral_-_phonolytic_necks._Teide_National_Park,_Canary_Islands,_Spain._%D0%9D%D0%B0%D1%86%D0%B8%D0%BE%D0%BD%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D0%B9_%D0%BF%D0%B0%D1%80%D0%BA_%D0%A2%D0%B5%D0%B9%D0%B4%D0%B5_-_panoramio.jpg" xr:uid="{DD2F8287-6B69-454B-8E3A-3D61B1C2B08D}"/>
     <hyperlink ref="E33" r:id="rId3" xr:uid="{B21DF02A-B4A7-4029-B6B2-B500AC489992}"/>
+    <hyperlink ref="E52" r:id="rId4" xr:uid="{BF93BF6C-6595-4AAD-9472-9802E2BD6BC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -7220,8 +7247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB58989-DB9B-42B8-8BEA-AD863D94E91D}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="116" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A4" zoomScale="116" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7240,28 +7267,28 @@
         <v>122</v>
       </c>
       <c r="B1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" t="s">
         <v>227</v>
-      </c>
-      <c r="C1" t="s">
-        <v>228</v>
       </c>
       <c r="D1" t="s">
         <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -7269,25 +7296,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
         <v>230</v>
-      </c>
-      <c r="D2" t="s">
-        <v>231</v>
       </c>
       <c r="E2">
         <v>206</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" t="s">
         <v>263</v>
       </c>
-      <c r="G2" t="s">
-        <v>264</v>
-      </c>
       <c r="H2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I2">
         <v>24.99</v>
@@ -7298,25 +7325,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E3">
         <v>266</v>
       </c>
       <c r="F3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I3">
         <v>25</v>
@@ -7327,25 +7354,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E4">
         <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I4">
         <v>24.99</v>
@@ -7356,13 +7383,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E5">
         <v>169</v>
@@ -7373,25 +7400,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E6">
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I6">
         <v>20</v>
@@ -7402,25 +7429,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E7">
         <v>175</v>
       </c>
       <c r="F7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H7" t="s">
         <v>303</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="H7" t="s">
-        <v>304</v>
       </c>
       <c r="I7">
         <v>29.95</v>
@@ -7431,25 +7458,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E8">
         <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I8">
         <v>24.99</v>
@@ -7460,25 +7487,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" t="s">
         <v>230</v>
-      </c>
-      <c r="D9" t="s">
-        <v>231</v>
       </c>
       <c r="E9">
         <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I9">
         <v>24.99</v>
@@ -7489,25 +7516,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10">
         <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I10">
         <v>34.950000000000003</v>
@@ -7518,25 +7545,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" t="s">
         <v>230</v>
-      </c>
-      <c r="D11" t="s">
-        <v>231</v>
       </c>
       <c r="E11">
         <v>128</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I11">
         <v>24.99</v>
@@ -7547,25 +7574,25 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E12">
         <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I12">
         <v>20</v>
@@ -7576,25 +7603,25 @@
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E13">
         <v>156</v>
       </c>
       <c r="F13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I13">
         <v>24.99</v>
@@ -7605,25 +7632,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E14">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G14" t="s">
         <v>337</v>
       </c>
-      <c r="G14" t="s">
-        <v>338</v>
-      </c>
       <c r="H14" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I14">
         <v>25</v>
@@ -7634,25 +7661,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" t="s">
         <v>230</v>
-      </c>
-      <c r="D15" t="s">
-        <v>231</v>
       </c>
       <c r="E15">
         <v>258</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I15">
         <v>24.99</v>
@@ -7663,25 +7690,25 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E16">
         <v>162</v>
       </c>
       <c r="F16" t="s">
+        <v>344</v>
+      </c>
+      <c r="G16" t="s">
         <v>345</v>
       </c>
-      <c r="G16" t="s">
-        <v>346</v>
-      </c>
       <c r="H16" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I16">
         <v>34</v>
@@ -7692,25 +7719,25 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E17">
         <v>354</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H17" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I17">
         <v>34.99</v>
@@ -7721,25 +7748,25 @@
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C18" t="s">
+        <v>398</v>
+      </c>
+      <c r="D18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" t="s">
         <v>399</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
         <v>400</v>
       </c>
-      <c r="D18" t="s">
-        <v>231</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>401</v>
       </c>
-      <c r="F18" t="s">
-        <v>402</v>
-      </c>
-      <c r="G18" t="s">
-        <v>403</v>
-      </c>
       <c r="H18" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I18">
         <v>25</v>
@@ -7750,25 +7777,25 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C19" t="s">
+        <v>402</v>
+      </c>
+      <c r="D19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" t="s">
+        <v>399</v>
+      </c>
+      <c r="F19" t="s">
+        <v>404</v>
+      </c>
+      <c r="G19" t="s">
         <v>405</v>
       </c>
-      <c r="C19" t="s">
-        <v>404</v>
-      </c>
-      <c r="D19" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" t="s">
-        <v>401</v>
-      </c>
-      <c r="F19" t="s">
-        <v>406</v>
-      </c>
-      <c r="G19" t="s">
-        <v>407</v>
-      </c>
       <c r="H19" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I19">
         <v>20</v>
@@ -7779,25 +7806,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C20" t="s">
+        <v>444</v>
+      </c>
+      <c r="D20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" t="s">
+        <v>399</v>
+      </c>
+      <c r="F20" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" t="s">
         <v>447</v>
       </c>
-      <c r="C20" t="s">
-        <v>446</v>
-      </c>
-      <c r="D20" t="s">
-        <v>231</v>
-      </c>
-      <c r="E20" t="s">
-        <v>401</v>
-      </c>
-      <c r="F20" t="s">
-        <v>448</v>
-      </c>
-      <c r="G20" t="s">
-        <v>449</v>
-      </c>
       <c r="H20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I20">
         <v>34.99</v>
@@ -7808,25 +7835,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C21" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E21">
         <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H21" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I21">
         <v>19.95</v>
@@ -7837,28 +7864,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C22" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G22" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H22" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -7866,25 +7893,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23">
         <v>267</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G23" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H23" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I23">
         <v>29.95</v>
@@ -7895,25 +7922,25 @@
         <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C24" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E24">
         <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G24" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H24" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I24">
         <v>38</v>
@@ -7924,25 +7951,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C25" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E25">
         <v>410</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="G25" t="s">
         <v>554</v>
       </c>
-      <c r="G25" t="s">
-        <v>556</v>
-      </c>
       <c r="H25" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I25">
         <v>10</v>
@@ -7953,25 +7980,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C26" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E26">
         <v>300</v>
       </c>
       <c r="F26" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G26" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H26" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I26">
         <v>38</v>
@@ -7982,25 +8009,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E27">
         <v>86</v>
       </c>
       <c r="F27" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I27">
         <v>29.95</v>
@@ -8011,25 +8038,25 @@
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C28" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E28">
         <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H28" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I28">
         <v>35</v>
@@ -8040,25 +8067,25 @@
         <v>16</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E29">
         <v>34</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G29" t="s">
         <v>687</v>
       </c>
-      <c r="G29" t="s">
-        <v>689</v>
-      </c>
       <c r="H29" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I29">
         <v>10</v>
@@ -8077,10 +8104,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091284CD-7BE4-40C5-8B13-8EF65FF7D256}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8098,10 +8125,10 @@
         <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8109,10 +8136,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" t="s">
         <v>278</v>
-      </c>
-      <c r="C2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8123,7 +8150,7 @@
         <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8134,7 +8161,7 @@
         <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8142,10 +8169,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8153,10 +8180,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8164,10 +8191,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" t="s">
         <v>376</v>
-      </c>
-      <c r="C7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8175,10 +8202,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" t="s">
         <v>379</v>
-      </c>
-      <c r="C8" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -8186,10 +8213,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C9" t="s">
         <v>381</v>
-      </c>
-      <c r="C9" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -8197,10 +8224,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8208,10 +8235,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -8219,10 +8246,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -8230,10 +8257,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -8241,10 +8268,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C14" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -8252,10 +8279,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8263,10 +8290,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C16" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8274,10 +8301,10 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C17" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8285,10 +8312,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8296,13 +8323,38 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C19" t="s">
-        <v>675</v>
+        <v>673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="C20" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>689</v>
+      </c>
+      <c r="C21" t="s">
+        <v>690</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{B8B4C84F-4B9B-4B98-AA47-BE6674672F64}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8336,16 +8388,16 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
@@ -8362,16 +8414,16 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" t="s">
         <v>321</v>
-      </c>
-      <c r="E2" t="s">
-        <v>322</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8399,13 +8451,13 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8430,7 +8482,7 @@
         <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -8458,7 +8510,7 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8472,7 +8524,7 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8500,7 +8552,7 @@
         <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -8514,13 +8566,13 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -8528,7 +8580,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -8537,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8545,10 +8597,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -8562,13 +8614,13 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -8576,7 +8628,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
@@ -8585,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -8596,22 +8648,22 @@
         <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -8646,40 +8698,40 @@
         <v>121</v>
       </c>
       <c r="C1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" t="s">
         <v>281</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>282</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>283</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>284</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>285</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>286</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>287</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>288</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>289</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>290</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>291</v>
-      </c>
-      <c r="N1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -8687,7 +8739,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" s="15">
         <v>15</v>
@@ -8731,7 +8783,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="16">
         <v>9</v>
@@ -8776,7 +8828,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" s="18">
         <v>5</v>
@@ -8820,7 +8872,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C5" s="15">
         <v>13</v>
@@ -8864,7 +8916,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" s="16">
         <v>8</v>
@@ -8908,7 +8960,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C7" s="18">
         <v>3</v>
@@ -8953,7 +9005,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C8" s="15">
         <v>13</v>
@@ -8997,7 +9049,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" s="16">
         <v>8</v>
@@ -9042,7 +9094,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C10" s="18">
         <v>3</v>
@@ -9087,7 +9139,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C11" s="15">
         <v>19</v>
@@ -9131,7 +9183,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" s="16">
         <v>6</v>
@@ -9176,7 +9228,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C13" s="18">
         <v>4</v>
@@ -9222,7 +9274,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C14" s="15">
         <v>20</v>
@@ -9266,7 +9318,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" s="16">
         <v>8</v>
@@ -9312,7 +9364,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C16" s="18">
         <v>5</v>
@@ -9358,7 +9410,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C17" s="15">
         <v>19</v>
@@ -9402,7 +9454,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18" s="16">
         <v>8</v>
@@ -9448,7 +9500,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C19" s="18">
         <v>2</v>
@@ -9494,7 +9546,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C20" s="15">
         <v>19</v>
@@ -9538,7 +9590,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C21" s="16">
         <v>8</v>
@@ -9584,7 +9636,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C22" s="18">
         <v>2</v>
@@ -9630,7 +9682,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C23" s="15">
         <v>15</v>
@@ -9674,7 +9726,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="16">
         <v>9</v>
@@ -9720,7 +9772,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C25" s="18">
         <v>5</v>
@@ -9766,7 +9818,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C26" s="20">
         <v>13</v>
@@ -9810,7 +9862,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C27" s="21">
         <v>8</v>
@@ -9856,7 +9908,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C28" s="23">
         <v>3</v>
@@ -9902,7 +9954,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C29" s="20">
         <v>4</v>
@@ -9946,7 +9998,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C30" s="21">
         <v>13</v>
@@ -9992,7 +10044,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C31" s="23">
         <v>4</v>
@@ -10038,7 +10090,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C32" s="20">
         <v>15</v>
@@ -10082,7 +10134,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C33" s="21">
         <v>1</v>
@@ -10128,7 +10180,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C34" s="23">
         <v>-2</v>
@@ -10174,7 +10226,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C35" s="20">
         <v>4</v>
@@ -10218,7 +10270,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C36" s="21">
         <v>5</v>
@@ -10264,7 +10316,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C37" s="23">
         <v>-6</v>
@@ -10310,7 +10362,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C38" s="20">
         <v>15</v>
@@ -10354,7 +10406,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C39" s="21">
         <v>8</v>
@@ -10400,7 +10452,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C40" s="23">
         <v>5</v>
@@ -10446,7 +10498,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C41" s="20">
         <v>16</v>
@@ -10490,7 +10542,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C42" s="16">
         <v>8</v>
@@ -10535,7 +10587,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C43" s="18">
         <v>6</v>
@@ -10580,7 +10632,7 @@
         <v>18</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C44" s="15">
         <v>17</v>
@@ -10624,7 +10676,7 @@
         <v>18</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C45" s="16">
         <v>7</v>
@@ -10669,7 +10721,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C46" s="18">
         <v>2</v>
@@ -10718,7 +10770,7 @@
         <v>15</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C47" s="15">
         <v>4</v>
@@ -10766,7 +10818,7 @@
         <v>15</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C48" s="16">
         <v>4.2</v>
@@ -10814,7 +10866,7 @@
         <v>15</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C49" s="18">
         <v>-7.8</v>
@@ -10862,7 +10914,7 @@
         <v>19</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C50" s="15">
         <v>9</v>
@@ -10910,7 +10962,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C51" s="16">
         <v>-10</v>
@@ -10958,7 +11010,7 @@
         <v>19</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C52" s="18">
         <v>-15</v>
@@ -11006,7 +11058,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C53" s="15">
         <v>18</v>
@@ -11054,7 +11106,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C54" s="16">
         <v>5</v>
@@ -11103,7 +11155,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C55" s="18">
         <v>0</v>
@@ -11152,7 +11204,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C56" s="15">
         <v>6</v>
@@ -11201,7 +11253,7 @@
         <v>21</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C57" s="16">
         <v>18</v>
@@ -11250,7 +11302,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C58" s="18">
         <v>14</v>
@@ -11294,7 +11346,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C59" s="15">
         <v>15</v>
@@ -11339,7 +11391,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C60" s="16">
         <v>9</v>
@@ -11384,7 +11436,7 @@
         <v>9</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C61" s="18">
         <v>0</v>
@@ -11428,7 +11480,7 @@
         <v>24</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C62" s="12">
         <v>6</v>
@@ -11473,7 +11525,7 @@
         <v>24</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C63" s="11">
         <v>1</v>
@@ -11518,7 +11570,7 @@
         <v>24</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C64" s="13">
         <v>-9</v>
@@ -11562,7 +11614,7 @@
         <v>23</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C65" s="12">
         <v>5</v>
@@ -11607,7 +11659,7 @@
         <v>23</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C66" s="11">
         <v>12</v>
@@ -11652,7 +11704,7 @@
         <v>23</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C67" s="13">
         <v>4</v>
@@ -11696,7 +11748,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C68" s="12">
         <v>4</v>
@@ -11741,7 +11793,7 @@
         <v>22</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C69" s="11">
         <v>15</v>
@@ -11786,7 +11838,7 @@
         <v>22</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C70" s="13">
         <v>6</v>
@@ -11830,7 +11882,7 @@
         <v>25</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C71" s="12">
         <v>10</v>
@@ -11875,7 +11927,7 @@
         <v>25</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C72" s="11">
         <v>-1</v>
@@ -11920,7 +11972,7 @@
         <v>25</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C73" s="13">
         <v>-7</v>
@@ -11964,7 +12016,7 @@
         <v>28</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C74" s="12">
         <v>4</v>
@@ -12009,7 +12061,7 @@
         <v>28</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C75" s="11">
         <v>15</v>
@@ -12054,7 +12106,7 @@
         <v>28</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C76" s="13">
         <v>5</v>
@@ -12137,13 +12189,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
@@ -12153,11 +12205,12 @@
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -12166,31 +12219,31 @@
         <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CLIMBS!A2</f>
         <v>Old Man of Stoer</v>
@@ -12237,8 +12290,12 @@
         <f>IF(VLOOKUP(B2,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="25" t="str">
+        <f t="shared" ref="L2:L29" si="0">IF(SUM(D2:K2)=22,"DONE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CLIMBS!A3</f>
         <v>Bosigran</v>
@@ -12285,8 +12342,12 @@
         <f>IF(VLOOKUP(B3,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CLIMBS!A4</f>
         <v>Clogwyn Du'r Arddu</v>
@@ -12333,8 +12394,12 @@
         <f>IF(VLOOKUP(B4,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CLIMBS!A5</f>
         <v>Vratsa</v>
@@ -12381,8 +12446,12 @@
         <f>IF(VLOOKUP(B5,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CLIMBS!A6</f>
         <v>Tormore Group</v>
@@ -12429,8 +12498,12 @@
         <f>IF(VLOOKUP(B6,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CLIMBS!A7</f>
         <v>Sass Pordoi</v>
@@ -12477,8 +12550,12 @@
         <f>IF(VLOOKUP(B7,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CLIMBS!A8</f>
         <v>Cwm Idwal</v>
@@ -12525,8 +12602,12 @@
         <f>IF(VLOOKUP(B8,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CLIMBS!A9</f>
         <v>Lundy</v>
@@ -12573,8 +12654,12 @@
         <f>IF(VLOOKUP(B9,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CLIMBS!A10</f>
         <v>Meadinha</v>
@@ -12621,8 +12706,12 @@
         <f>IF(VLOOKUP(B10,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CLIMBS!A11</f>
         <v>Cornakey Cliff</v>
@@ -12651,7 +12740,7 @@
       </c>
       <c r="G11">
         <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B11,IMAGES!B:B,"topo")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <f>_xlfn.IFNA(IF(VLOOKUP(B11,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
@@ -12663,14 +12752,18 @@
       </c>
       <c r="J11">
         <f>_xlfn.IFNA(IF(VLOOKUP(B11,REFERANCES!A:A,1,FALSE),1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <f>IF(VLOOKUP(B11,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="25" t="str">
+        <f>IF(SUM(D11:K11)=22,"DONE","")</f>
+        <v>DONE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CLIMBS!A12</f>
         <v>Cir Mhor</v>
@@ -12717,8 +12810,12 @@
         <f>IF(VLOOKUP(B12,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CLIMBS!A13</f>
         <v>Roca Gris</v>
@@ -12765,8 +12862,12 @@
         <f>IF(VLOOKUP(B13,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>DONE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CLIMBS!A14</f>
         <v>Sail Rock</v>
@@ -12813,8 +12914,12 @@
         <f>IF(VLOOKUP(B14,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CLIMBS!A15</f>
         <v>Chair Ladder</v>
@@ -12861,8 +12966,12 @@
         <f>IF(VLOOKUP(B15,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CLIMBS!A16</f>
         <v>The Devils Tower</v>
@@ -12909,8 +13018,12 @@
         <f>IF(VLOOKUP(B16,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CLIMBS!A17</f>
         <v>Lliwedd</v>
@@ -12957,8 +13070,12 @@
         <f>IF(VLOOKUP(B17,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CLIMBS!A18</f>
         <v>Stetind</v>
@@ -13005,8 +13122,12 @@
         <f>IF(VLOOKUP(B18,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CLIMBS!A19</f>
         <v>Scafell</v>
@@ -13052,8 +13173,12 @@
         <f>IF(VLOOKUP(B19,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CLIMBS!A20</f>
         <v>Mount Indefatigable</v>
@@ -13099,8 +13224,12 @@
         <f>IF(VLOOKUP(B20,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CLIMBS!A21</f>
         <v>Slieve Beg</v>
@@ -13146,8 +13275,12 @@
         <f>IF(VLOOKUP(B21,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CLIMBS!A22</f>
         <v>Lion Rock</v>
@@ -13193,8 +13326,12 @@
         <f>IF(VLOOKUP(B22,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CLIMBS!A23</f>
         <v>Peñón de Ifach</v>
@@ -13240,8 +13377,12 @@
         <f>IF(VLOOKUP(B23,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CLIMBS!A24</f>
         <v>Heiliger Geist</v>
@@ -13287,8 +13428,12 @@
         <f>IF(VLOOKUP(B24,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>CLIMBS!A25</f>
         <v>Aiguille Dibona</v>
@@ -13334,8 +13479,12 @@
         <f>IF(VLOOKUP(B25,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>CLIMBS!A26</f>
         <v>Brüggler</v>
@@ -13381,8 +13530,12 @@
         <f>IF(VLOOKUP(B26,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>CLIMBS!A27</f>
         <v>Vajolet towers</v>
@@ -13428,8 +13581,12 @@
         <f>IF(VLOOKUP(B27,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>CLIMBS!A28</f>
         <v>Djebel Rum</v>
@@ -13475,8 +13632,12 @@
         <f>IF(VLOOKUP(B28,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>CLIMBS!A29</f>
         <v>Cathedral Rock</v>
@@ -13521,6 +13682,10 @@
       <c r="K29">
         <f>IF(VLOOKUP(B29,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
         <v>0</v>
+      </c>
+      <c r="L29" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A56AA4-1DA8-4D09-B0A5-531120182B55}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C3FF69-D606-4605-96EC-8A1FA0C01674}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,14 @@
     <sheet name="to-do-score-card" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IMAGES!$A$1:$I$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IMAGES!$A$1:$I$116</definedName>
   </definedNames>
   <calcPr calcId="181029" iterateDelta="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="691">
   <si>
     <t>cliff</t>
   </si>
@@ -400,13 +400,7 @@
     <t>climbId</t>
   </si>
   <si>
-    <t>img/topos/bosigran/doorpost-topo.jpg</t>
-  </si>
-  <si>
     <t>Bosigran's Doorpost Multipitch Route Topo</t>
-  </si>
-  <si>
-    <t>http://seansmountaincamera.blogspot.com/2016/04/back-on-real-rock-cornwall-march-2016.html</t>
   </si>
   <si>
     <t>original image source</t>
@@ -1245,9 +1239,6 @@
   </si>
   <si>
     <t>9781493016129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock Climbing Wyoming describes 11 major climbing areas in the state of Wyoming. It offers approximately 550 climbing routes. Falcon guides have maps, good topos, and action photos accompanying clearly written descriptions of the routes. The book is ideal for a trip to Wyoming, but enough of the information on the devils tower is available online for those looking to save same money. </t>
   </si>
   <si>
     <t>img/guidebooks/rock-climbing-wyoming.jpg</t>
@@ -2071,18 +2062,6 @@
     <t>29.569981,35.406197</t>
   </si>
   <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>Super Zoom for Grey Rock climb in Montserrat</t>
-  </si>
-  <si>
-    <t>https://www.multi-pitch.com</t>
-  </si>
-  <si>
-    <t>img/topos/montserrat/zoom/</t>
-  </si>
-  <si>
     <t>Cathedral Rock</t>
   </si>
   <si>
@@ -2156,9 +2135,6 @@
   </si>
   <si>
     <t>Cathederal Rock in Tenerife offers great climbing</t>
-  </si>
-  <si>
-    <t>https://www.multi-pitch.com/about-us/</t>
   </si>
   <si>
     <t>topo data</t>
@@ -2218,6 +2194,21 @@
   </si>
   <si>
     <t>Tide times for nearby town of Bude</t>
+  </si>
+  <si>
+    <t>https://www.flickr.com/photos/polandeze/462053186/</t>
+  </si>
+  <si>
+    <t>original image: Andrew</t>
+  </si>
+  <si>
+    <t>img/topos/bosigran/bosigran-doorpost-climb-cornwall.jpg</t>
+  </si>
+  <si>
+    <t>https://www.multi-pitch.com/about/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock Climbing Wyoming describes 11 major climbing areas in the state of Wyoming. It offers approximately 550 climbing routes. Falcon guides have maps, good topos, and action photos accompanying clearly written descriptions of the routes. The book is ideal for a trip to Wyoming, but enough of the information on the devils tower is available online for those looking to save some money. </t>
   </si>
 </sst>
 </file>
@@ -3448,7 +3439,7 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>18</v>
@@ -3457,13 +3448,13 @@
         <v>19</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -3516,7 +3507,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="S2" t="s">
         <v>30</v>
@@ -3625,7 +3616,7 @@
         <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M4" t="s">
         <v>51</v>
@@ -3646,13 +3637,13 @@
         <v>54</v>
       </c>
       <c r="S4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="U4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="V4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3684,7 +3675,7 @@
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K5" t="s">
         <v>60</v>
@@ -3758,19 +3749,19 @@
         <v>3</v>
       </c>
       <c r="Q6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="R6" t="s">
         <v>73</v>
       </c>
       <c r="S6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="U6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="V6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -3873,13 +3864,13 @@
         <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="M8" t="s">
         <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O8">
         <v>30</v>
@@ -3897,7 +3888,7 @@
         <v>91</v>
       </c>
       <c r="U8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -3938,7 +3929,7 @@
         <v>39</v>
       </c>
       <c r="N9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O9">
         <v>120</v>
@@ -3950,13 +3941,13 @@
         <v>41</v>
       </c>
       <c r="R9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="S9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="V9" t="s">
         <v>45</v>
@@ -3979,7 +3970,7 @@
         <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F10" t="s">
         <v>97</v>
@@ -3994,19 +3985,19 @@
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K10" t="s">
         <v>60</v>
       </c>
       <c r="L10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M10" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="N10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O10">
         <v>10</v>
@@ -4018,10 +4009,10 @@
         <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" t="s">
@@ -4066,7 +4057,7 @@
         <v>39</v>
       </c>
       <c r="N11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O11">
         <v>50</v>
@@ -4084,10 +4075,10 @@
         <v>104</v>
       </c>
       <c r="T11" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="U11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -4095,7 +4086,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
         <v>106</v>
@@ -4107,10 +4098,10 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G12">
         <v>330</v>
@@ -4131,7 +4122,7 @@
         <v>27</v>
       </c>
       <c r="N12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O12">
         <v>140</v>
@@ -4143,21 +4134,21 @@
         <v>41</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="S12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="U12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="V12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B13" t="s">
         <v>106</v>
@@ -4166,13 +4157,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" t="s">
         <v>187</v>
-      </c>
-      <c r="E13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F13" t="s">
-        <v>189</v>
       </c>
       <c r="G13">
         <v>190</v>
@@ -4190,13 +4181,13 @@
         <v>26</v>
       </c>
       <c r="L13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M13" t="s">
+        <v>188</v>
+      </c>
+      <c r="N13" t="s">
         <v>190</v>
-      </c>
-      <c r="N13" t="s">
-        <v>192</v>
       </c>
       <c r="O13">
         <v>35</v>
@@ -4205,19 +4196,19 @@
         <v>1</v>
       </c>
       <c r="Q13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="S13" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="T13" s="2" t="s">
-        <v>642</v>
-      </c>
       <c r="V13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="W13">
         <v>1</v>
@@ -4228,7 +4219,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
         <v>106</v>
@@ -4240,10 +4231,10 @@
         <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G14">
         <v>81</v>
@@ -4258,13 +4249,13 @@
         <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M14" t="s">
         <v>70</v>
       </c>
       <c r="N14" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="O14">
         <v>20</v>
@@ -4273,16 +4264,16 @@
         <v>2</v>
       </c>
       <c r="Q14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="R14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="U14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W14">
         <v>1</v>
@@ -4290,7 +4281,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B15" t="s">
         <v>106</v>
@@ -4305,7 +4296,7 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G15">
         <v>70</v>
@@ -4326,7 +4317,7 @@
         <v>39</v>
       </c>
       <c r="N15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O15">
         <v>15</v>
@@ -4338,22 +4329,22 @@
         <v>41</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="V15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B16" t="s">
         <v>106</v>
@@ -4362,13 +4353,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" t="s">
         <v>244</v>
-      </c>
-      <c r="E16" t="s">
-        <v>245</v>
-      </c>
-      <c r="F16" t="s">
-        <v>246</v>
       </c>
       <c r="G16">
         <v>152</v>
@@ -4383,16 +4374,16 @@
         <v>25</v>
       </c>
       <c r="K16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N16" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="O16">
         <v>5</v>
@@ -4401,19 +4392,19 @@
         <v>1</v>
       </c>
       <c r="Q16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="S16" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="U16" t="s">
         <v>44</v>
       </c>
       <c r="V16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -4421,7 +4412,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B17" t="s">
         <v>106</v>
@@ -4436,7 +4427,7 @@
         <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G17">
         <v>280</v>
@@ -4448,7 +4439,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
         <v>38</v>
@@ -4457,7 +4448,7 @@
         <v>51</v>
       </c>
       <c r="N17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O17">
         <v>75</v>
@@ -4469,22 +4460,22 @@
         <v>53</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="V17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B18" t="s">
         <v>106</v>
@@ -4493,13 +4484,13 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E18" t="s">
+        <v>346</v>
+      </c>
+      <c r="F18" t="s">
         <v>348</v>
-      </c>
-      <c r="F18" t="s">
-        <v>350</v>
       </c>
       <c r="G18">
         <v>575</v>
@@ -4511,19 +4502,19 @@
         <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L18" t="s">
+        <v>349</v>
+      </c>
+      <c r="M18" t="s">
         <v>351</v>
       </c>
-      <c r="M18" t="s">
-        <v>353</v>
-      </c>
       <c r="N18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="O18">
         <v>90</v>
@@ -4532,16 +4523,16 @@
         <v>2</v>
       </c>
       <c r="Q18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="S18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="U18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W18">
         <v>1</v>
@@ -4549,7 +4540,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B19" t="s">
         <v>106</v>
@@ -4561,10 +4552,10 @@
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G19">
         <v>74</v>
@@ -4576,16 +4567,16 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K19" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M19" t="s">
         <v>39</v>
       </c>
       <c r="N19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="O19">
         <v>70</v>
@@ -4597,16 +4588,16 @@
         <v>53</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B20" t="s">
         <v>106</v>
@@ -4615,13 +4606,13 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E20" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F20" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G20">
         <v>300</v>
@@ -4633,19 +4624,19 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s">
         <v>79</v>
       </c>
       <c r="L20" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M20" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N20" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="O20">
         <v>40</v>
@@ -4657,18 +4648,18 @@
         <v>64</v>
       </c>
       <c r="R20" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="S20" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="U20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B21" t="s">
         <v>106</v>
@@ -4680,10 +4671,10 @@
         <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G21">
         <v>80</v>
@@ -4704,7 +4695,7 @@
         <v>70</v>
       </c>
       <c r="N21" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="O21">
         <v>90</v>
@@ -4716,18 +4707,18 @@
         <v>41</v>
       </c>
       <c r="R21" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="S21" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="V21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B22" t="s">
         <v>106</v>
@@ -4736,13 +4727,13 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
+        <v>451</v>
+      </c>
+      <c r="E22" t="s">
+        <v>452</v>
+      </c>
+      <c r="F22" t="s">
         <v>454</v>
-      </c>
-      <c r="E22" t="s">
-        <v>455</v>
-      </c>
-      <c r="F22" t="s">
-        <v>457</v>
       </c>
       <c r="G22">
         <v>80</v>
@@ -4757,13 +4748,13 @@
         <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M22" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="N22" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="O22">
         <v>40</v>
@@ -4775,13 +4766,13 @@
         <v>41</v>
       </c>
       <c r="R22" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="S22" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="U22" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="V22" t="s">
         <v>45</v>
@@ -4789,7 +4780,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B23" t="s">
         <v>106</v>
@@ -4798,13 +4789,13 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E23" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F23" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G23">
         <v>228</v>
@@ -4822,10 +4813,10 @@
         <v>60</v>
       </c>
       <c r="M23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N23" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="O23">
         <v>20</v>
@@ -4837,16 +4828,16 @@
         <v>64</v>
       </c>
       <c r="R23" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="S23" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="U23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="V23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="W23">
         <v>1</v>
@@ -4854,7 +4845,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B24" t="s">
         <v>106</v>
@@ -4863,13 +4854,13 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E24" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F24" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G24">
         <v>250</v>
@@ -4887,13 +4878,13 @@
         <v>26</v>
       </c>
       <c r="L24" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M24" t="s">
+        <v>507</v>
+      </c>
+      <c r="N24" t="s">
         <v>510</v>
-      </c>
-      <c r="N24" t="s">
-        <v>513</v>
       </c>
       <c r="O24">
         <v>21</v>
@@ -4902,19 +4893,19 @@
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R24" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="S24" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="U24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="V24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="W24">
         <v>1</v>
@@ -4922,7 +4913,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B25" t="s">
         <v>106</v>
@@ -4931,13 +4922,13 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E25" t="s">
+        <v>527</v>
+      </c>
+      <c r="F25" t="s">
         <v>530</v>
-      </c>
-      <c r="F25" t="s">
-        <v>533</v>
       </c>
       <c r="G25">
         <v>350</v>
@@ -4949,19 +4940,19 @@
         <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K25" t="s">
         <v>60</v>
       </c>
       <c r="L25" t="s">
+        <v>528</v>
+      </c>
+      <c r="M25" t="s">
+        <v>529</v>
+      </c>
+      <c r="N25" t="s">
         <v>531</v>
-      </c>
-      <c r="M25" t="s">
-        <v>532</v>
-      </c>
-      <c r="N25" t="s">
-        <v>534</v>
       </c>
       <c r="O25">
         <v>190</v>
@@ -4973,17 +4964,17 @@
         <v>41</v>
       </c>
       <c r="R25" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="V25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="W25">
         <v>1</v>
@@ -4991,7 +4982,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B26" t="s">
         <v>106</v>
@@ -5000,13 +4991,13 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
+        <v>562</v>
+      </c>
+      <c r="E26" t="s">
+        <v>566</v>
+      </c>
+      <c r="F26" t="s">
         <v>565</v>
-      </c>
-      <c r="E26" t="s">
-        <v>569</v>
-      </c>
-      <c r="F26" t="s">
-        <v>568</v>
       </c>
       <c r="G26">
         <v>230</v>
@@ -5021,16 +5012,16 @@
         <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M26" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N26" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="O26">
         <v>70</v>
@@ -5042,22 +5033,22 @@
         <v>64</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="V26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B27" t="s">
         <v>106</v>
@@ -5069,10 +5060,10 @@
         <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F27" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G27">
         <v>160</v>
@@ -5087,7 +5078,7 @@
         <v>37</v>
       </c>
       <c r="K27" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="L27" t="s">
         <v>80</v>
@@ -5096,7 +5087,7 @@
         <v>81</v>
       </c>
       <c r="N27" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="O27">
         <v>80</v>
@@ -5108,17 +5099,17 @@
         <v>83</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="V27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="W27">
         <v>1</v>
@@ -5126,7 +5117,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B28" t="s">
         <v>107</v>
@@ -5135,13 +5126,13 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E28" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F28" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G28">
         <v>250</v>
@@ -5159,13 +5150,13 @@
         <v>38</v>
       </c>
       <c r="L28" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="M28" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="N28" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="O28">
         <v>30</v>
@@ -5174,14 +5165,14 @@
         <v>1</v>
       </c>
       <c r="Q28" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B29" t="s">
         <v>106</v>
@@ -5190,13 +5181,13 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="E29" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F29" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="G29">
         <v>115</v>
@@ -5211,16 +5202,16 @@
         <v>25</v>
       </c>
       <c r="K29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L29" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N29" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="O29">
         <v>15</v>
@@ -5232,10 +5223,10 @@
         <v>41</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="W29">
         <v>1</v>
@@ -5243,7 +5234,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B30" t="s">
         <v>107</v>
@@ -5254,7 +5245,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -5265,11 +5256,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5303,10 +5294,10 @@
         <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5338,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -5359,16 +5350,16 @@
         <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D4" t="s">
         <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
@@ -5383,16 +5374,19 @@
         <v>114</v>
       </c>
       <c r="C5" t="s">
+        <v>688</v>
+      </c>
+      <c r="D5" t="s">
         <v>123</v>
       </c>
-      <c r="D5" t="s">
-        <v>124</v>
-      </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>686</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>687</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
@@ -5404,7 +5398,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -5413,7 +5407,7 @@
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
@@ -5428,16 +5422,16 @@
         <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
@@ -5452,16 +5446,16 @@
         <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
@@ -5473,13 +5467,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
@@ -5494,16 +5488,16 @@
         <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F10" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -5515,13 +5509,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
@@ -5536,16 +5530,16 @@
         <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
@@ -5557,16 +5551,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
         <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
@@ -5581,16 +5575,16 @@
         <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F14" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
@@ -5605,16 +5599,16 @@
         <v>114</v>
       </c>
       <c r="C15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" t="s">
         <v>142</v>
       </c>
-      <c r="D15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" t="s">
-        <v>144</v>
-      </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
@@ -5626,13 +5620,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
         <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
@@ -5647,16 +5641,16 @@
         <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F17" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
@@ -5671,16 +5665,16 @@
         <v>114</v>
       </c>
       <c r="C18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" t="s">
         <v>147</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>148</v>
-      </c>
-      <c r="E18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" t="s">
-        <v>150</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
@@ -5692,19 +5686,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
         <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
@@ -5719,16 +5713,16 @@
         <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F20" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
@@ -5743,16 +5737,16 @@
         <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" t="s">
         <v>153</v>
-      </c>
-      <c r="E21" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" t="s">
-        <v>155</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
@@ -5764,16 +5758,16 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
         <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
@@ -5788,16 +5782,16 @@
         <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F23" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
@@ -5812,16 +5806,16 @@
         <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D24" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E24" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F24" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
@@ -5833,19 +5827,19 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
         <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
@@ -5860,16 +5854,16 @@
         <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D26" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E26" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F26" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
@@ -5884,16 +5878,16 @@
         <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -5908,13 +5902,13 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C28" t="s">
         <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
@@ -5929,16 +5923,16 @@
         <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F29" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
@@ -5953,13 +5947,13 @@
         <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F30" t="s">
         <v>110</v>
@@ -5974,19 +5968,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
@@ -6001,16 +5995,16 @@
         <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D32" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E32" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F32" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
@@ -6025,16 +6019,16 @@
         <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G33">
         <v>5</v>
@@ -6049,22 +6043,22 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E34" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F34" t="s">
         <v>110</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" ref="I34:I65" si="1">CONCATENATE(A34,B34)</f>
+        <f t="shared" ref="I34:I64" si="1">CONCATENATE(A34,B34)</f>
         <v>12tile</v>
       </c>
     </row>
@@ -6073,47 +6067,47 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>652</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>655</v>
+        <v>607</v>
       </c>
       <c r="D35" t="s">
-        <v>653</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>654</v>
+        <v>340</v>
+      </c>
+      <c r="E35" t="s">
+        <v>628</v>
       </c>
       <c r="F35" t="s">
-        <v>157</v>
+        <v>629</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
-        <v>12super</v>
+        <v>12map</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>610</v>
+        <v>208</v>
       </c>
       <c r="D36" t="s">
-        <v>342</v>
+        <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>631</v>
+        <v>210</v>
       </c>
       <c r="F36" t="s">
-        <v>632</v>
+        <v>211</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="1"/>
-        <v>12map</v>
+        <v>13topo</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -6121,23 +6115,23 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E37" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F37" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="1"/>
-        <v>13topo</v>
+        <v>13tile</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -6145,47 +6139,47 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>205</v>
+        <v>616</v>
       </c>
       <c r="D38" t="s">
-        <v>206</v>
+        <v>368</v>
       </c>
       <c r="E38" t="s">
-        <v>207</v>
+        <v>628</v>
       </c>
       <c r="F38" t="s">
-        <v>204</v>
+        <v>629</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
-        <v>13tile</v>
+        <v>13map</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>619</v>
+        <v>220</v>
       </c>
       <c r="D39" t="s">
-        <v>370</v>
+        <v>218</v>
       </c>
       <c r="E39" t="s">
-        <v>631</v>
+        <v>216</v>
       </c>
       <c r="F39" t="s">
-        <v>632</v>
+        <v>217</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="1"/>
-        <v>13map</v>
+        <v>14topo</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -6193,23 +6187,23 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
-        <v>14topo</v>
+        <v>14tile</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -6217,47 +6211,47 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>223</v>
+        <v>617</v>
       </c>
       <c r="D41" t="s">
-        <v>221</v>
+        <v>338</v>
       </c>
       <c r="E41" t="s">
-        <v>218</v>
+        <v>628</v>
       </c>
       <c r="F41" t="s">
-        <v>219</v>
+        <v>629</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
-        <v>14tile</v>
+        <v>14map</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>620</v>
+        <v>256</v>
       </c>
       <c r="D42" t="s">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="E42" t="s">
-        <v>631</v>
+        <v>246</v>
       </c>
       <c r="F42" t="s">
-        <v>632</v>
+        <v>254</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="1"/>
-        <v>14map</v>
+        <v>15topo</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -6265,23 +6259,23 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D43" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E43" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F43" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="1"/>
-        <v>15topo</v>
+        <v>15tile</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -6289,47 +6283,47 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>253</v>
+        <v>618</v>
       </c>
       <c r="D44" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="E44" t="s">
-        <v>255</v>
+        <v>628</v>
       </c>
       <c r="F44" t="s">
-        <v>256</v>
+        <v>629</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="1"/>
-        <v>15tile</v>
+        <v>15map</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>621</v>
+        <v>311</v>
       </c>
       <c r="D45" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="E45" t="s">
-        <v>631</v>
+        <v>309</v>
       </c>
       <c r="F45" t="s">
-        <v>632</v>
+        <v>110</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="1"/>
-        <v>15map</v>
+        <v>16topo</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -6337,23 +6331,23 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
+        <v>324</v>
+      </c>
+      <c r="D46" t="s">
+        <v>303</v>
+      </c>
+      <c r="E46" t="s">
         <v>313</v>
-      </c>
-      <c r="D46" t="s">
-        <v>310</v>
-      </c>
-      <c r="E46" t="s">
-        <v>311</v>
       </c>
       <c r="F46" t="s">
         <v>110</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="1"/>
-        <v>16topo</v>
+        <v>16tile</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -6361,47 +6355,47 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>326</v>
+        <v>603</v>
       </c>
       <c r="D47" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="E47" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F47" t="s">
-        <v>110</v>
+        <v>629</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="1"/>
-        <v>16tile</v>
+        <v>16map</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>606</v>
+        <v>366</v>
       </c>
       <c r="D48" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="E48" t="s">
-        <v>631</v>
+        <v>352</v>
       </c>
       <c r="F48" t="s">
-        <v>632</v>
+        <v>353</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="1"/>
-        <v>16map</v>
+        <v>17topo</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -6409,23 +6403,23 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C49" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D49" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E49" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="F49" t="s">
-        <v>355</v>
+        <v>115</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="1"/>
-        <v>17topo</v>
+        <v>17tile</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -6433,47 +6427,47 @@
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>366</v>
+        <v>596</v>
       </c>
       <c r="D50" t="s">
         <v>367</v>
       </c>
       <c r="E50" t="s">
-        <v>365</v>
+        <v>628</v>
       </c>
       <c r="F50" t="s">
-        <v>115</v>
+        <v>629</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="1"/>
-        <v>17tile</v>
+        <v>17map</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>599</v>
+        <v>386</v>
       </c>
       <c r="D51" t="s">
-        <v>369</v>
-      </c>
-      <c r="E51" t="s">
-        <v>631</v>
+        <v>387</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>680</v>
       </c>
       <c r="F51" t="s">
-        <v>632</v>
+        <v>110</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="1"/>
-        <v>17map</v>
+        <v>18topo</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -6481,7 +6475,7 @@
         <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
         <v>388</v>
@@ -6489,15 +6483,15 @@
       <c r="D52" t="s">
         <v>389</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>688</v>
+      <c r="E52" t="s">
+        <v>390</v>
       </c>
       <c r="F52" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="1"/>
-        <v>18topo</v>
+        <v>18tile</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -6505,47 +6499,47 @@
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>390</v>
+        <v>621</v>
       </c>
       <c r="D53" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E53" t="s">
-        <v>392</v>
+        <v>628</v>
       </c>
       <c r="F53" t="s">
-        <v>130</v>
+        <v>629</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="1"/>
-        <v>18tile</v>
+        <v>18map</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>624</v>
+        <v>436</v>
       </c>
       <c r="D54" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="E54" t="s">
-        <v>631</v>
+        <v>432</v>
       </c>
       <c r="F54" t="s">
-        <v>632</v>
+        <v>434</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
-        <v>18map</v>
+        <v>19topo</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -6553,23 +6547,23 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C55" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D55" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E55" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F55" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="1"/>
-        <v>19topo</v>
+        <v>19tile</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -6577,47 +6571,47 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>433</v>
+        <v>597</v>
       </c>
       <c r="D56" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E56" t="s">
-        <v>435</v>
+        <v>628</v>
       </c>
       <c r="F56" t="s">
-        <v>436</v>
+        <v>629</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="1"/>
-        <v>19tile</v>
+        <v>19map</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>600</v>
+        <v>424</v>
       </c>
       <c r="D57" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="E57" t="s">
-        <v>631</v>
+        <v>420</v>
       </c>
       <c r="F57" t="s">
-        <v>632</v>
+        <v>422</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="1"/>
-        <v>19map</v>
+        <v>20topo</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -6625,23 +6619,23 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D58" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E58" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F58" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="1"/>
-        <v>20topo</v>
+        <v>20tile</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -6649,47 +6643,47 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>428</v>
+        <v>619</v>
       </c>
       <c r="D59" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="E59" t="s">
-        <v>423</v>
+        <v>628</v>
       </c>
       <c r="F59" t="s">
-        <v>422</v>
+        <v>629</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="1"/>
-        <v>20tile</v>
+        <v>20map</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>622</v>
+        <v>464</v>
       </c>
       <c r="D60" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="E60" t="s">
-        <v>631</v>
+        <v>466</v>
       </c>
       <c r="F60" t="s">
-        <v>632</v>
+        <v>467</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="1"/>
-        <v>20map</v>
+        <v>21topo</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -6697,23 +6691,23 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D61" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E61" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F61" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="1"/>
-        <v>21topo</v>
+        <v>21tile</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -6721,47 +6715,47 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>463</v>
+        <v>620</v>
       </c>
       <c r="D62" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="E62" t="s">
-        <v>465</v>
+        <v>628</v>
       </c>
       <c r="F62" t="s">
-        <v>466</v>
+        <v>629</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="1"/>
-        <v>21tile</v>
+        <v>21map</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>623</v>
+        <v>503</v>
       </c>
       <c r="D63" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="E63" t="s">
-        <v>631</v>
+        <v>497</v>
       </c>
       <c r="F63" t="s">
-        <v>632</v>
+        <v>498</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
-        <v>21map</v>
+        <v>22topo</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -6769,23 +6763,23 @@
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="D64" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="E64" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F64" t="s">
-        <v>501</v>
+        <v>255</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="1"/>
-        <v>22topo</v>
+        <v>22tile</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -6793,47 +6787,47 @@
         <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>493</v>
+        <v>606</v>
       </c>
       <c r="D65" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="E65" t="s">
-        <v>499</v>
+        <v>628</v>
       </c>
       <c r="F65" t="s">
-        <v>257</v>
+        <v>629</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="1"/>
-        <v>22tile</v>
+        <f t="shared" ref="I65:I80" si="2">CONCATENATE(A65,B65)</f>
+        <v>22map</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>609</v>
+        <v>518</v>
       </c>
       <c r="D66" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="E66" t="s">
-        <v>631</v>
+        <v>516</v>
       </c>
       <c r="F66" t="s">
-        <v>632</v>
+        <v>474</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" ref="I66:I81" si="2">CONCATENATE(A66,B66)</f>
-        <v>22map</v>
+        <f t="shared" si="2"/>
+        <v>23topo</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -6841,23 +6835,23 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D67" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E67" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F67" t="s">
-        <v>477</v>
+        <v>115</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" si="2"/>
-        <v>23topo</v>
+        <v>23tile</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -6865,47 +6859,47 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
-        <v>518</v>
+        <v>604</v>
       </c>
       <c r="D68" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E68" t="s">
-        <v>519</v>
+        <v>628</v>
       </c>
       <c r="F68" t="s">
-        <v>115</v>
+        <v>629</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="2"/>
-        <v>23tile</v>
+        <v>23map</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C69" t="s">
-        <v>607</v>
+        <v>536</v>
       </c>
       <c r="D69" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="E69" t="s">
-        <v>631</v>
+        <v>532</v>
       </c>
       <c r="F69" t="s">
-        <v>632</v>
+        <v>533</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="2"/>
-        <v>23map</v>
+        <v>24topo</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -6913,23 +6907,23 @@
         <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D70" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E70" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F70" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="2"/>
-        <v>24topo</v>
+        <v>24tile</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -6937,47 +6931,47 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
+        <v>595</v>
+      </c>
+      <c r="D71" t="s">
         <v>540</v>
       </c>
-      <c r="D71" t="s">
-        <v>537</v>
-      </c>
       <c r="E71" t="s">
-        <v>535</v>
+        <v>628</v>
       </c>
       <c r="F71" t="s">
-        <v>536</v>
+        <v>629</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="2"/>
-        <v>24tile</v>
+        <v>24map</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C72" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="D72" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="E72" t="s">
-        <v>631</v>
+        <v>576</v>
       </c>
       <c r="F72" t="s">
-        <v>632</v>
+        <v>577</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="2"/>
-        <v>24map</v>
+        <v>25topo</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -6985,23 +6979,23 @@
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C73" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D73" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="E73" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F73" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="2"/>
-        <v>25topo</v>
+        <v>25tile</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -7009,47 +7003,47 @@
         <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C74" t="s">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="D74" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E74" t="s">
-        <v>573</v>
+        <v>628</v>
       </c>
       <c r="F74" t="s">
-        <v>574</v>
+        <v>629</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="2"/>
-        <v>25tile</v>
+        <v>25map</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C75" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="D75" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="E75" t="s">
-        <v>631</v>
+        <v>589</v>
       </c>
       <c r="F75" t="s">
-        <v>632</v>
+        <v>590</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="2"/>
-        <v>25map</v>
+        <v>26topo</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -7057,23 +7051,23 @@
         <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D76" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="E76" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F76" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="2"/>
-        <v>26topo</v>
+        <v>26tile</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -7081,47 +7075,50 @@
         <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>591</v>
+        <v>626</v>
       </c>
       <c r="D77" t="s">
-        <v>588</v>
+        <v>627</v>
       </c>
       <c r="E77" t="s">
-        <v>589</v>
+        <v>628</v>
       </c>
       <c r="F77" t="s">
-        <v>590</v>
+        <v>629</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="2"/>
-        <v>26tile</v>
+        <v>26map</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C78" t="s">
-        <v>629</v>
+        <v>658</v>
       </c>
       <c r="D78" t="s">
-        <v>630</v>
-      </c>
-      <c r="E78" t="s">
-        <v>631</v>
-      </c>
-      <c r="F78" t="s">
-        <v>632</v>
+        <v>659</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="G78" s="14">
+        <v>2</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="2"/>
-        <v>26map</v>
+        <v>28topo</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -7129,26 +7126,23 @@
         <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C79" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D79" t="s">
-        <v>666</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>668</v>
-      </c>
-      <c r="G79" s="14">
-        <v>2</v>
+        <v>673</v>
+      </c>
+      <c r="E79" t="s">
+        <v>664</v>
+      </c>
+      <c r="F79" t="s">
+        <v>663</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="2"/>
-        <v>28topo</v>
+        <v>28tile</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -7156,51 +7150,33 @@
         <v>28</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C80" t="s">
+        <v>670</v>
+      </c>
+      <c r="D80" t="s">
         <v>669</v>
       </c>
-      <c r="D80" t="s">
-        <v>680</v>
-      </c>
       <c r="E80" t="s">
-        <v>671</v>
+        <v>628</v>
       </c>
       <c r="F80" t="s">
-        <v>670</v>
+        <v>629</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="2"/>
-        <v>28tile</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>28</v>
-      </c>
-      <c r="B81" t="s">
-        <v>109</v>
-      </c>
-      <c r="C81" t="s">
-        <v>677</v>
-      </c>
-      <c r="D81" t="s">
-        <v>676</v>
-      </c>
-      <c r="E81" t="s">
-        <v>631</v>
-      </c>
-      <c r="F81" t="s">
-        <v>632</v>
-      </c>
-      <c r="I81" t="str">
-        <f t="shared" si="2"/>
         <v>28map</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E92" s="10"/>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E91" s="10"/>
+    </row>
+    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I113" t="str">
+        <f>CONCATENATE(A113,B113)</f>
+        <v/>
+      </c>
     </row>
     <row r="114" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I114" t="str">
@@ -7220,26 +7196,19 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I117" t="str">
-        <f>CONCATENATE(A117,B117)</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I117" xr:uid="{8A9CCE92-9934-4A85-9799-3C2EFD57E833}">
-    <sortState ref="A2:I117">
-      <sortCondition ref="A1:A117"/>
+  <autoFilter ref="A1:I116" xr:uid="{8A9CCE92-9934-4A85-9799-3C2EFD57E833}">
+    <sortState ref="A2:I116">
+      <sortCondition ref="A1:A116"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E35" r:id="rId1" xr:uid="{0A321C65-D310-4F4B-93FB-7FA86D5B9B94}"/>
-    <hyperlink ref="E79" r:id="rId2" display="https://commons.wikimedia.org/wiki/File:La_Catedral_-_phonolytic_necks._Teide_National_Park,_Canary_Islands,_Spain._%D0%9D%D0%B0%D1%86%D0%B8%D0%BE%D0%BD%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D0%B9_%D0%BF%D0%B0%D1%80%D0%BA_%D0%A2%D0%B5%D0%B9%D0%B4%D0%B5_-_panoramio.jpg" xr:uid="{DD2F8287-6B69-454B-8E3A-3D61B1C2B08D}"/>
-    <hyperlink ref="E33" r:id="rId3" xr:uid="{B21DF02A-B4A7-4029-B6B2-B500AC489992}"/>
-    <hyperlink ref="E52" r:id="rId4" xr:uid="{BF93BF6C-6595-4AAD-9472-9802E2BD6BC2}"/>
+    <hyperlink ref="E78" r:id="rId1" display="https://commons.wikimedia.org/wiki/File:La_Catedral_-_phonolytic_necks._Teide_National_Park,_Canary_Islands,_Spain._%D0%9D%D0%B0%D1%86%D0%B8%D0%BE%D0%BD%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D0%B9_%D0%BF%D0%B0%D1%80%D0%BA_%D0%A2%D0%B5%D0%B9%D0%B4%D0%B5_-_panoramio.jpg" xr:uid="{DD2F8287-6B69-454B-8E3A-3D61B1C2B08D}"/>
+    <hyperlink ref="E33" r:id="rId2" xr:uid="{B21DF02A-B4A7-4029-B6B2-B500AC489992}"/>
+    <hyperlink ref="E51" r:id="rId3" xr:uid="{BF93BF6C-6595-4AAD-9472-9802E2BD6BC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -7247,8 +7216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB58989-DB9B-42B8-8BEA-AD863D94E91D}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7267,28 +7236,28 @@
         <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D1" t="s">
         <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -7296,25 +7265,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E2">
         <v>206</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I2">
         <v>24.99</v>
@@ -7325,25 +7294,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E3">
         <v>266</v>
       </c>
       <c r="F3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="I3">
         <v>25</v>
@@ -7354,25 +7323,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E4">
         <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I4">
         <v>24.99</v>
@@ -7383,13 +7352,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E5">
         <v>169</v>
@@ -7400,25 +7369,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E6">
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I6">
         <v>20</v>
@@ -7429,25 +7398,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E7">
         <v>175</v>
       </c>
       <c r="F7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G7" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H7" t="s">
         <v>301</v>
-      </c>
-      <c r="H7" t="s">
-        <v>303</v>
       </c>
       <c r="I7">
         <v>29.95</v>
@@ -7458,25 +7427,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E8">
         <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I8">
         <v>24.99</v>
@@ -7487,25 +7456,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E9">
         <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H9" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I9">
         <v>24.99</v>
@@ -7516,25 +7485,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E10">
         <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G10" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="I10">
         <v>34.950000000000003</v>
@@ -7545,25 +7514,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E11">
         <v>128</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I11">
         <v>24.99</v>
@@ -7574,25 +7543,25 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E12">
         <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H12" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I12">
         <v>20</v>
@@ -7603,25 +7572,25 @@
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E13">
         <v>156</v>
       </c>
       <c r="F13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I13">
         <v>24.99</v>
@@ -7632,25 +7601,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E14">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H14" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I14">
         <v>25</v>
@@ -7661,25 +7630,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E15">
         <v>258</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H15" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I15">
         <v>24.99</v>
@@ -7690,25 +7659,25 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E16">
         <v>162</v>
       </c>
       <c r="F16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H16" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="I16">
         <v>34</v>
@@ -7719,25 +7688,25 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E17">
         <v>354</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H17" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="I17">
         <v>34.99</v>
@@ -7748,25 +7717,25 @@
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C18" t="s">
+        <v>396</v>
+      </c>
+      <c r="D18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" t="s">
         <v>397</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
         <v>398</v>
       </c>
-      <c r="D18" t="s">
-        <v>230</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>399</v>
       </c>
-      <c r="F18" t="s">
-        <v>400</v>
-      </c>
-      <c r="G18" t="s">
-        <v>401</v>
-      </c>
       <c r="H18" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I18">
         <v>25</v>
@@ -7777,25 +7746,25 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C19" t="s">
+        <v>400</v>
+      </c>
+      <c r="D19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" t="s">
+        <v>397</v>
+      </c>
+      <c r="F19" t="s">
+        <v>690</v>
+      </c>
+      <c r="G19" t="s">
         <v>402</v>
       </c>
-      <c r="D19" t="s">
-        <v>230</v>
-      </c>
-      <c r="E19" t="s">
-        <v>399</v>
-      </c>
-      <c r="F19" t="s">
-        <v>404</v>
-      </c>
-      <c r="G19" t="s">
-        <v>405</v>
-      </c>
       <c r="H19" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I19">
         <v>20</v>
@@ -7806,25 +7775,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C20" t="s">
+        <v>441</v>
+      </c>
+      <c r="D20" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" t="s">
+        <v>397</v>
+      </c>
+      <c r="F20" t="s">
+        <v>443</v>
+      </c>
+      <c r="G20" t="s">
         <v>444</v>
       </c>
-      <c r="D20" t="s">
-        <v>230</v>
-      </c>
-      <c r="E20" t="s">
-        <v>399</v>
-      </c>
-      <c r="F20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" t="s">
-        <v>447</v>
-      </c>
       <c r="H20" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I20">
         <v>34.99</v>
@@ -7835,25 +7804,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C21" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E21">
         <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G21" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I21">
         <v>19.95</v>
@@ -7864,28 +7833,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C22" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D22" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G22" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H22" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I22" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -7893,25 +7862,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C23" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E23">
         <v>267</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G23" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H23" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I23">
         <v>29.95</v>
@@ -7922,25 +7891,25 @@
         <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C24" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E24">
         <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G24" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H24" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I24">
         <v>38</v>
@@ -7951,25 +7920,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C25" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E25">
         <v>410</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G25" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H25" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="I25">
         <v>10</v>
@@ -7980,25 +7949,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C26" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E26">
         <v>300</v>
       </c>
       <c r="F26" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G26" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H26" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I26">
         <v>38</v>
@@ -8009,25 +7978,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E27">
         <v>86</v>
       </c>
       <c r="F27" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G27" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H27" t="s">
         <v>301</v>
-      </c>
-      <c r="H27" t="s">
-        <v>303</v>
       </c>
       <c r="I27">
         <v>29.95</v>
@@ -8038,25 +8007,25 @@
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C28" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E28">
         <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H28" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="I28">
         <v>35</v>
@@ -8067,25 +8036,25 @@
         <v>16</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="C29" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E29">
         <v>34</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="G29" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="H29" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="I29">
         <v>10</v>
@@ -8106,7 +8075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091284CD-7BE4-40C5-8B13-8EF65FF7D256}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -8125,10 +8094,10 @@
         <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8136,10 +8105,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8147,10 +8116,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8158,10 +8127,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8169,10 +8138,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8180,10 +8149,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8191,10 +8160,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8202,10 +8171,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -8213,10 +8182,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -8224,10 +8193,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8235,10 +8204,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -8246,10 +8215,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -8257,10 +8226,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C13" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -8268,10 +8237,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C14" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -8279,10 +8248,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C15" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8290,10 +8259,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C16" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8301,10 +8270,10 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="C17" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8312,10 +8281,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8323,10 +8292,10 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="C19" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8334,10 +8303,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="C20" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8345,10 +8314,10 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="C21" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -8388,16 +8357,16 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
@@ -8414,16 +8383,16 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8451,13 +8420,13 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8482,7 +8451,7 @@
         <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -8510,7 +8479,7 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8524,7 +8493,7 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8552,7 +8521,7 @@
         <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -8566,13 +8535,13 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -8580,7 +8549,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -8589,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8597,10 +8566,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -8614,13 +8583,13 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -8628,7 +8597,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
@@ -8637,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -8648,22 +8617,22 @@
         <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -8698,40 +8667,40 @@
         <v>121</v>
       </c>
       <c r="C1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" t="s">
         <v>280</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>281</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>282</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>283</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>284</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>285</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>286</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>287</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>288</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>289</v>
-      </c>
-      <c r="M1" t="s">
-        <v>290</v>
-      </c>
-      <c r="N1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -8739,7 +8708,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C2" s="15">
         <v>15</v>
@@ -8783,7 +8752,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C3" s="16">
         <v>9</v>
@@ -8828,7 +8797,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C4" s="18">
         <v>5</v>
@@ -8872,7 +8841,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C5" s="15">
         <v>13</v>
@@ -8916,7 +8885,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C6" s="16">
         <v>8</v>
@@ -8960,7 +8929,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C7" s="18">
         <v>3</v>
@@ -9005,7 +8974,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C8" s="15">
         <v>13</v>
@@ -9049,7 +9018,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C9" s="16">
         <v>8</v>
@@ -9094,7 +9063,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C10" s="18">
         <v>3</v>
@@ -9139,7 +9108,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C11" s="15">
         <v>19</v>
@@ -9183,7 +9152,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C12" s="16">
         <v>6</v>
@@ -9228,7 +9197,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C13" s="18">
         <v>4</v>
@@ -9274,7 +9243,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C14" s="15">
         <v>20</v>
@@ -9318,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C15" s="16">
         <v>8</v>
@@ -9364,7 +9333,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C16" s="18">
         <v>5</v>
@@ -9410,7 +9379,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C17" s="15">
         <v>19</v>
@@ -9454,7 +9423,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C18" s="16">
         <v>8</v>
@@ -9500,7 +9469,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C19" s="18">
         <v>2</v>
@@ -9546,7 +9515,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C20" s="15">
         <v>19</v>
@@ -9590,7 +9559,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C21" s="16">
         <v>8</v>
@@ -9636,7 +9605,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C22" s="18">
         <v>2</v>
@@ -9682,7 +9651,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C23" s="15">
         <v>15</v>
@@ -9726,7 +9695,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C24" s="16">
         <v>9</v>
@@ -9772,7 +9741,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C25" s="18">
         <v>5</v>
@@ -9818,7 +9787,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" s="20">
         <v>13</v>
@@ -9862,7 +9831,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C27" s="21">
         <v>8</v>
@@ -9908,7 +9877,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C28" s="23">
         <v>3</v>
@@ -9954,7 +9923,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C29" s="20">
         <v>4</v>
@@ -9998,7 +9967,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C30" s="21">
         <v>13</v>
@@ -10044,7 +10013,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C31" s="23">
         <v>4</v>
@@ -10090,7 +10059,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C32" s="20">
         <v>15</v>
@@ -10134,7 +10103,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C33" s="21">
         <v>1</v>
@@ -10180,7 +10149,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C34" s="23">
         <v>-2</v>
@@ -10226,7 +10195,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C35" s="20">
         <v>4</v>
@@ -10270,7 +10239,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C36" s="21">
         <v>5</v>
@@ -10316,7 +10285,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C37" s="23">
         <v>-6</v>
@@ -10362,7 +10331,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C38" s="20">
         <v>15</v>
@@ -10406,7 +10375,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C39" s="21">
         <v>8</v>
@@ -10452,7 +10421,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C40" s="23">
         <v>5</v>
@@ -10498,7 +10467,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C41" s="20">
         <v>16</v>
@@ -10542,7 +10511,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C42" s="16">
         <v>8</v>
@@ -10587,7 +10556,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C43" s="18">
         <v>6</v>
@@ -10632,7 +10601,7 @@
         <v>18</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C44" s="15">
         <v>17</v>
@@ -10676,7 +10645,7 @@
         <v>18</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C45" s="16">
         <v>7</v>
@@ -10721,7 +10690,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C46" s="18">
         <v>2</v>
@@ -10770,7 +10739,7 @@
         <v>15</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C47" s="15">
         <v>4</v>
@@ -10818,7 +10787,7 @@
         <v>15</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C48" s="16">
         <v>4.2</v>
@@ -10866,7 +10835,7 @@
         <v>15</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C49" s="18">
         <v>-7.8</v>
@@ -10914,7 +10883,7 @@
         <v>19</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C50" s="15">
         <v>9</v>
@@ -10962,7 +10931,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C51" s="16">
         <v>-10</v>
@@ -11010,7 +10979,7 @@
         <v>19</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C52" s="18">
         <v>-15</v>
@@ -11058,7 +11027,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C53" s="15">
         <v>18</v>
@@ -11106,7 +11075,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C54" s="16">
         <v>5</v>
@@ -11155,7 +11124,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C55" s="18">
         <v>0</v>
@@ -11204,7 +11173,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C56" s="15">
         <v>6</v>
@@ -11253,7 +11222,7 @@
         <v>21</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C57" s="16">
         <v>18</v>
@@ -11302,7 +11271,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C58" s="18">
         <v>14</v>
@@ -11346,7 +11315,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C59" s="15">
         <v>15</v>
@@ -11391,7 +11360,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C60" s="16">
         <v>9</v>
@@ -11436,7 +11405,7 @@
         <v>9</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C61" s="18">
         <v>0</v>
@@ -11480,7 +11449,7 @@
         <v>24</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C62" s="12">
         <v>6</v>
@@ -11525,7 +11494,7 @@
         <v>24</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C63" s="11">
         <v>1</v>
@@ -11570,7 +11539,7 @@
         <v>24</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C64" s="13">
         <v>-9</v>
@@ -11614,7 +11583,7 @@
         <v>23</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C65" s="12">
         <v>5</v>
@@ -11659,7 +11628,7 @@
         <v>23</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C66" s="11">
         <v>12</v>
@@ -11704,7 +11673,7 @@
         <v>23</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C67" s="13">
         <v>4</v>
@@ -11748,7 +11717,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C68" s="12">
         <v>4</v>
@@ -11793,7 +11762,7 @@
         <v>22</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C69" s="11">
         <v>15</v>
@@ -11838,7 +11807,7 @@
         <v>22</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C70" s="13">
         <v>6</v>
@@ -11882,7 +11851,7 @@
         <v>25</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C71" s="12">
         <v>10</v>
@@ -11927,7 +11896,7 @@
         <v>25</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C72" s="11">
         <v>-1</v>
@@ -11972,7 +11941,7 @@
         <v>25</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C73" s="13">
         <v>-7</v>
@@ -12016,7 +11985,7 @@
         <v>28</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C74" s="12">
         <v>4</v>
@@ -12061,7 +12030,7 @@
         <v>28</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C75" s="11">
         <v>15</v>
@@ -12106,7 +12075,7 @@
         <v>28</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C76" s="13">
         <v>5</v>
@@ -12192,7 +12161,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12201,7 +12170,7 @@
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" customWidth="1"/>
@@ -12210,7 +12179,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -12219,28 +12188,28 @@
         <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -12324,7 +12293,7 @@
       </c>
       <c r="G3">
         <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B3,IMAGES!B:B,"topo")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <f>_xlfn.IFNA(IF(VLOOKUP(B3,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C3FF69-D606-4605-96EC-8A1FA0C01674}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811E57A6-EBCA-4C25-8BF6-B40CFAF68E01}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="695">
   <si>
     <t>cliff</t>
   </si>
@@ -958,13 +958,7 @@
     <t>Topo for Avalanch to Red Wall to Longlands Continuation</t>
   </si>
   <si>
-    <t>https://www.summitpost.org/y-lliwedd/268799</t>
-  </si>
-  <si>
     <t>A brilliant guidebok with a good section on Lliwedd. Overall this book covers a good selection of climbs from a good selection of cliffs, including the 300m routes up Lliwedd</t>
-  </si>
-  <si>
-    <t>img/topos/lliwedd/longlands-red-wall-avalanche-topo-on-lliwedd.jpg</t>
   </si>
   <si>
     <t>Longlands Continuation</t>
@@ -2129,9 +2123,6 @@
   </si>
   <si>
     <t>dataFile</t>
-  </si>
-  <si>
-    <t>Via Mendez and Guillermo</t>
   </si>
   <si>
     <t>Cathederal Rock in Tenerife offers great climbing</t>
@@ -2209,6 +2200,27 @@
   </si>
   <si>
     <t xml:space="preserve">Rock Climbing Wyoming describes 11 major climbing areas in the state of Wyoming. It offers approximately 550 climbing routes. Falcon guides have maps, good topos, and action photos accompanying clearly written descriptions of the routes. The book is ideal for a trip to Wyoming, but enough of the information on the devils tower is available online for those looking to save some money. </t>
+  </si>
+  <si>
+    <t>Mendez and Guillermo</t>
+  </si>
+  <si>
+    <t>img/topos/lliwedd/longlands-continuation-climb-on-lliwedd.jpg</t>
+  </si>
+  <si>
+    <t>https://www.flickr.com/photos/arg_flickr/14442887130/</t>
+  </si>
+  <si>
+    <t>https://www.rockfax.com/wp-content/uploads/intros/north-wales-climbs-preview.pdf</t>
+  </si>
+  <si>
+    <t>Rockfax preview covering the Great Slab climb on Cloggy</t>
+  </si>
+  <si>
+    <t>Rockfax preview covering  key climbs up Lliwedd</t>
+  </si>
+  <si>
+    <t>originl image: BMC super zoom</t>
   </si>
 </sst>
 </file>
@@ -3353,9 +3365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11:D11"/>
+      <selection pane="topRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3439,7 +3451,7 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>18</v>
@@ -3448,13 +3460,13 @@
         <v>19</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -3507,7 +3519,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="S2" t="s">
         <v>30</v>
@@ -3675,7 +3687,7 @@
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K5" t="s">
         <v>60</v>
@@ -3864,7 +3876,7 @@
         <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="M8" t="s">
         <v>51</v>
@@ -3941,10 +3953,10 @@
         <v>41</v>
       </c>
       <c r="R9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="S9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="U9" t="s">
         <v>171</v>
@@ -3970,7 +3982,7 @@
         <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F10" t="s">
         <v>97</v>
@@ -3985,16 +3997,16 @@
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K10" t="s">
         <v>60</v>
       </c>
       <c r="L10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="N10" t="s">
         <v>179</v>
@@ -4009,10 +4021,10 @@
         <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" t="s">
@@ -4075,7 +4087,7 @@
         <v>104</v>
       </c>
       <c r="T11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="U11" t="s">
         <v>171</v>
@@ -4199,13 +4211,13 @@
         <v>191</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="V13" t="s">
         <v>172</v>
@@ -4255,7 +4267,7 @@
         <v>70</v>
       </c>
       <c r="N14" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O14">
         <v>20</v>
@@ -4377,13 +4389,13 @@
         <v>199</v>
       </c>
       <c r="L16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M16" t="s">
         <v>247</v>
       </c>
       <c r="N16" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="O16">
         <v>5</v>
@@ -4398,7 +4410,7 @@
         <v>257</v>
       </c>
       <c r="S16" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="U16" t="s">
         <v>44</v>
@@ -4427,7 +4439,7 @@
         <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G17">
         <v>280</v>
@@ -4460,7 +4472,7 @@
         <v>53</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>307</v>
@@ -4475,7 +4487,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B18" t="s">
         <v>106</v>
@@ -4484,13 +4496,13 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E18" t="s">
+        <v>344</v>
+      </c>
+      <c r="F18" t="s">
         <v>346</v>
-      </c>
-      <c r="F18" t="s">
-        <v>348</v>
       </c>
       <c r="G18">
         <v>575</v>
@@ -4502,19 +4514,19 @@
         <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L18" t="s">
+        <v>347</v>
+      </c>
+      <c r="M18" t="s">
         <v>349</v>
       </c>
-      <c r="M18" t="s">
-        <v>351</v>
-      </c>
       <c r="N18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O18">
         <v>90</v>
@@ -4523,13 +4535,13 @@
         <v>2</v>
       </c>
       <c r="Q18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="S18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="U18" t="s">
         <v>207</v>
@@ -4540,7 +4552,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B19" t="s">
         <v>106</v>
@@ -4552,10 +4564,10 @@
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G19">
         <v>74</v>
@@ -4567,16 +4579,16 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M19" t="s">
         <v>39</v>
       </c>
       <c r="N19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O19">
         <v>70</v>
@@ -4588,16 +4600,16 @@
         <v>53</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B20" t="s">
         <v>106</v>
@@ -4606,13 +4618,13 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G20">
         <v>300</v>
@@ -4630,13 +4642,13 @@
         <v>79</v>
       </c>
       <c r="L20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="N20" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="O20">
         <v>40</v>
@@ -4648,10 +4660,10 @@
         <v>64</v>
       </c>
       <c r="R20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="S20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="U20" t="s">
         <v>171</v>
@@ -4659,7 +4671,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B21" t="s">
         <v>106</v>
@@ -4671,10 +4683,10 @@
         <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G21">
         <v>80</v>
@@ -4695,7 +4707,7 @@
         <v>70</v>
       </c>
       <c r="N21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O21">
         <v>90</v>
@@ -4707,10 +4719,10 @@
         <v>41</v>
       </c>
       <c r="R21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="S21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="V21" t="s">
         <v>215</v>
@@ -4718,7 +4730,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B22" t="s">
         <v>106</v>
@@ -4727,13 +4739,13 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E22" t="s">
+        <v>450</v>
+      </c>
+      <c r="F22" t="s">
         <v>452</v>
-      </c>
-      <c r="F22" t="s">
-        <v>454</v>
       </c>
       <c r="G22">
         <v>80</v>
@@ -4748,13 +4760,13 @@
         <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="O22">
         <v>40</v>
@@ -4766,13 +4778,13 @@
         <v>41</v>
       </c>
       <c r="R22" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="U22" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V22" t="s">
         <v>45</v>
@@ -4780,7 +4792,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B23" t="s">
         <v>106</v>
@@ -4792,10 +4804,10 @@
         <v>185</v>
       </c>
       <c r="E23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F23" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G23">
         <v>228</v>
@@ -4816,7 +4828,7 @@
         <v>188</v>
       </c>
       <c r="N23" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O23">
         <v>20</v>
@@ -4828,10 +4840,10 @@
         <v>64</v>
       </c>
       <c r="R23" t="s">
+        <v>491</v>
+      </c>
+      <c r="S23" t="s">
         <v>493</v>
-      </c>
-      <c r="S23" t="s">
-        <v>495</v>
       </c>
       <c r="U23" t="s">
         <v>207</v>
@@ -4845,7 +4857,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B24" t="s">
         <v>106</v>
@@ -4854,13 +4866,13 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
+        <v>504</v>
+      </c>
+      <c r="E24" t="s">
         <v>506</v>
       </c>
-      <c r="E24" t="s">
-        <v>508</v>
-      </c>
       <c r="F24" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G24">
         <v>250</v>
@@ -4878,13 +4890,13 @@
         <v>26</v>
       </c>
       <c r="L24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M24" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="N24" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="O24">
         <v>21</v>
@@ -4896,10 +4908,10 @@
         <v>191</v>
       </c>
       <c r="R24" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="S24" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="U24" t="s">
         <v>207</v>
@@ -4913,7 +4925,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B25" t="s">
         <v>106</v>
@@ -4922,13 +4934,13 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
+        <v>523</v>
+      </c>
+      <c r="E25" t="s">
         <v>525</v>
       </c>
-      <c r="E25" t="s">
-        <v>527</v>
-      </c>
       <c r="F25" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G25">
         <v>350</v>
@@ -4940,19 +4952,19 @@
         <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K25" t="s">
         <v>60</v>
       </c>
       <c r="L25" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M25" t="s">
+        <v>527</v>
+      </c>
+      <c r="N25" t="s">
         <v>529</v>
-      </c>
-      <c r="N25" t="s">
-        <v>531</v>
       </c>
       <c r="O25">
         <v>190</v>
@@ -4964,10 +4976,10 @@
         <v>41</v>
       </c>
       <c r="R25" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" t="s">
@@ -4982,7 +4994,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B26" t="s">
         <v>106</v>
@@ -4991,13 +5003,13 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E26" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F26" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G26">
         <v>230</v>
@@ -5015,13 +5027,13 @@
         <v>199</v>
       </c>
       <c r="L26" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M26" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N26" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="O26">
         <v>70</v>
@@ -5033,10 +5045,10 @@
         <v>64</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" t="s">
@@ -5048,7 +5060,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B27" t="s">
         <v>106</v>
@@ -5060,10 +5072,10 @@
         <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F27" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G27">
         <v>160</v>
@@ -5078,7 +5090,7 @@
         <v>37</v>
       </c>
       <c r="K27" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L27" t="s">
         <v>80</v>
@@ -5087,7 +5099,7 @@
         <v>81</v>
       </c>
       <c r="N27" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O27">
         <v>80</v>
@@ -5099,10 +5111,10 @@
         <v>83</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" t="s">
@@ -5117,7 +5129,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B28" t="s">
         <v>107</v>
@@ -5126,13 +5138,13 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
+        <v>641</v>
+      </c>
+      <c r="E28" t="s">
+        <v>642</v>
+      </c>
+      <c r="F28" t="s">
         <v>643</v>
-      </c>
-      <c r="E28" t="s">
-        <v>644</v>
-      </c>
-      <c r="F28" t="s">
-        <v>645</v>
       </c>
       <c r="G28">
         <v>250</v>
@@ -5150,13 +5162,13 @@
         <v>38</v>
       </c>
       <c r="L28" t="s">
+        <v>644</v>
+      </c>
+      <c r="M28" t="s">
+        <v>639</v>
+      </c>
+      <c r="N28" t="s">
         <v>646</v>
-      </c>
-      <c r="M28" t="s">
-        <v>641</v>
-      </c>
-      <c r="N28" t="s">
-        <v>648</v>
       </c>
       <c r="O28">
         <v>30</v>
@@ -5165,14 +5177,14 @@
         <v>1</v>
       </c>
       <c r="Q28" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B29" t="s">
         <v>106</v>
@@ -5181,13 +5193,13 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E29" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F29" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="G29">
         <v>115</v>
@@ -5205,13 +5217,13 @@
         <v>199</v>
       </c>
       <c r="L29" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M29" t="s">
         <v>188</v>
       </c>
       <c r="N29" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="O29">
         <v>15</v>
@@ -5223,10 +5235,10 @@
         <v>41</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="W29">
         <v>1</v>
@@ -5234,7 +5246,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B30" t="s">
         <v>107</v>
@@ -5245,7 +5257,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -5258,9 +5270,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD35"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5294,10 +5306,10 @@
         <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5350,16 +5362,16 @@
         <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D4" t="s">
         <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
@@ -5374,16 +5386,16 @@
         <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D5" t="s">
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F5" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -5422,16 +5434,16 @@
         <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D7" t="s">
         <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
@@ -5455,7 +5467,10 @@
         <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>694</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
@@ -5488,16 +5503,16 @@
         <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D10" t="s">
         <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F10" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -5575,16 +5590,16 @@
         <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D14" t="s">
         <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F14" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
@@ -5641,16 +5656,16 @@
         <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D17" t="s">
         <v>143</v>
       </c>
       <c r="E17" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F17" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
@@ -5713,16 +5728,16 @@
         <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D20" t="s">
         <v>149</v>
       </c>
       <c r="E20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F20" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
@@ -5737,7 +5752,7 @@
         <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D21" t="s">
         <v>151</v>
@@ -5782,16 +5797,16 @@
         <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D23" t="s">
         <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F23" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
@@ -5806,16 +5821,16 @@
         <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D24" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E24" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F24" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
@@ -5854,16 +5869,16 @@
         <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D26" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E26" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F26" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
@@ -5878,7 +5893,7 @@
         <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D27" t="s">
         <v>156</v>
@@ -5923,16 +5938,16 @@
         <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D29" t="s">
         <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F29" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
@@ -5995,16 +6010,16 @@
         <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D32" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E32" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F32" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
@@ -6025,7 +6040,7 @@
         <v>193</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F33" t="s">
         <v>155</v>
@@ -6046,13 +6061,13 @@
         <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D34" t="s">
         <v>194</v>
       </c>
       <c r="E34" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F34" t="s">
         <v>110</v>
@@ -6070,16 +6085,16 @@
         <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F35" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
@@ -6142,16 +6157,16 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D38" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E38" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F38" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
@@ -6214,16 +6229,16 @@
         <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D41" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E41" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F41" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
@@ -6286,16 +6301,16 @@
         <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D44" t="s">
         <v>292</v>
       </c>
       <c r="E44" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F44" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="1"/>
@@ -6310,16 +6325,19 @@
         <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>311</v>
+        <v>689</v>
       </c>
       <c r="D45" t="s">
         <v>308</v>
       </c>
       <c r="E45" t="s">
-        <v>309</v>
+        <v>690</v>
       </c>
       <c r="F45" t="s">
-        <v>110</v>
+        <v>684</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="1"/>
@@ -6334,13 +6352,13 @@
         <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D46" t="s">
         <v>303</v>
       </c>
       <c r="E46" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F46" t="s">
         <v>110</v>
@@ -6358,16 +6376,16 @@
         <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D47" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E47" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F47" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="1"/>
@@ -6382,16 +6400,16 @@
         <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D48" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E48" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F48" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="1"/>
@@ -6406,13 +6424,13 @@
         <v>158</v>
       </c>
       <c r="C49" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D49" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E49" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F49" t="s">
         <v>115</v>
@@ -6430,16 +6448,16 @@
         <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D50" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E50" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F50" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="1"/>
@@ -6454,13 +6472,13 @@
         <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D51" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F51" t="s">
         <v>110</v>
@@ -6478,13 +6496,13 @@
         <v>158</v>
       </c>
       <c r="C52" t="s">
+        <v>386</v>
+      </c>
+      <c r="D52" t="s">
+        <v>387</v>
+      </c>
+      <c r="E52" t="s">
         <v>388</v>
-      </c>
-      <c r="D52" t="s">
-        <v>389</v>
-      </c>
-      <c r="E52" t="s">
-        <v>390</v>
       </c>
       <c r="F52" t="s">
         <v>128</v>
@@ -6502,16 +6520,16 @@
         <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D53" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E53" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F53" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="1"/>
@@ -6526,16 +6544,16 @@
         <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D54" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E54" t="s">
+        <v>430</v>
+      </c>
+      <c r="F54" t="s">
         <v>432</v>
-      </c>
-      <c r="F54" t="s">
-        <v>434</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
@@ -6550,16 +6568,16 @@
         <v>158</v>
       </c>
       <c r="C55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D55" t="s">
+        <v>429</v>
+      </c>
+      <c r="E55" t="s">
         <v>430</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
         <v>431</v>
-      </c>
-      <c r="E55" t="s">
-        <v>432</v>
-      </c>
-      <c r="F55" t="s">
-        <v>433</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="1"/>
@@ -6574,16 +6592,16 @@
         <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D56" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E56" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F56" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="1"/>
@@ -6598,16 +6616,16 @@
         <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D57" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E57" t="s">
+        <v>418</v>
+      </c>
+      <c r="F57" t="s">
         <v>420</v>
-      </c>
-      <c r="F57" t="s">
-        <v>422</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="1"/>
@@ -6622,16 +6640,16 @@
         <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D58" t="s">
+        <v>416</v>
+      </c>
+      <c r="E58" t="s">
         <v>418</v>
       </c>
-      <c r="E58" t="s">
-        <v>420</v>
-      </c>
       <c r="F58" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="1"/>
@@ -6646,16 +6664,16 @@
         <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D59" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E59" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F59" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="1"/>
@@ -6670,16 +6688,16 @@
         <v>114</v>
       </c>
       <c r="C60" t="s">
+        <v>462</v>
+      </c>
+      <c r="D60" t="s">
+        <v>463</v>
+      </c>
+      <c r="E60" t="s">
         <v>464</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
         <v>465</v>
-      </c>
-      <c r="E60" t="s">
-        <v>466</v>
-      </c>
-      <c r="F60" t="s">
-        <v>467</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="1"/>
@@ -6694,16 +6712,16 @@
         <v>158</v>
       </c>
       <c r="C61" t="s">
+        <v>458</v>
+      </c>
+      <c r="D61" t="s">
+        <v>459</v>
+      </c>
+      <c r="E61" t="s">
         <v>460</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
         <v>461</v>
-      </c>
-      <c r="E61" t="s">
-        <v>462</v>
-      </c>
-      <c r="F61" t="s">
-        <v>463</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="1"/>
@@ -6718,16 +6736,16 @@
         <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D62" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E62" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F62" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="1"/>
@@ -6742,16 +6760,16 @@
         <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D63" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E63" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F63" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
@@ -6766,13 +6784,13 @@
         <v>158</v>
       </c>
       <c r="C64" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D64" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E64" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F64" t="s">
         <v>255</v>
@@ -6790,16 +6808,16 @@
         <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D65" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E65" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F65" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" ref="I65:I80" si="2">CONCATENATE(A65,B65)</f>
@@ -6814,16 +6832,16 @@
         <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D66" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E66" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F66" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="2"/>
@@ -6838,13 +6856,13 @@
         <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D67" t="s">
+        <v>512</v>
+      </c>
+      <c r="E67" t="s">
         <v>514</v>
-      </c>
-      <c r="E67" t="s">
-        <v>516</v>
       </c>
       <c r="F67" t="s">
         <v>115</v>
@@ -6862,16 +6880,16 @@
         <v>109</v>
       </c>
       <c r="C68" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D68" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E68" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F68" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="2"/>
@@ -6886,16 +6904,16 @@
         <v>114</v>
       </c>
       <c r="C69" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D69" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E69" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F69" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="2"/>
@@ -6910,16 +6928,16 @@
         <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D70" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E70" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F70" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="2"/>
@@ -6934,16 +6952,16 @@
         <v>109</v>
       </c>
       <c r="C71" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D71" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E71" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F71" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="2"/>
@@ -6958,16 +6976,16 @@
         <v>114</v>
       </c>
       <c r="C72" t="s">
+        <v>572</v>
+      </c>
+      <c r="D72" t="s">
+        <v>573</v>
+      </c>
+      <c r="E72" t="s">
         <v>574</v>
       </c>
-      <c r="D72" t="s">
+      <c r="F72" t="s">
         <v>575</v>
-      </c>
-      <c r="E72" t="s">
-        <v>576</v>
-      </c>
-      <c r="F72" t="s">
-        <v>577</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="2"/>
@@ -6982,16 +7000,16 @@
         <v>158</v>
       </c>
       <c r="C73" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D73" t="s">
+        <v>567</v>
+      </c>
+      <c r="E73" t="s">
+        <v>568</v>
+      </c>
+      <c r="F73" t="s">
         <v>569</v>
-      </c>
-      <c r="E73" t="s">
-        <v>570</v>
-      </c>
-      <c r="F73" t="s">
-        <v>571</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="2"/>
@@ -7006,16 +7024,16 @@
         <v>109</v>
       </c>
       <c r="C74" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D74" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E74" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F74" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="2"/>
@@ -7030,16 +7048,16 @@
         <v>114</v>
       </c>
       <c r="C75" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D75" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E75" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F75" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="2"/>
@@ -7054,16 +7072,16 @@
         <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D76" t="s">
+        <v>583</v>
+      </c>
+      <c r="E76" t="s">
+        <v>584</v>
+      </c>
+      <c r="F76" t="s">
         <v>585</v>
-      </c>
-      <c r="E76" t="s">
-        <v>586</v>
-      </c>
-      <c r="F76" t="s">
-        <v>587</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="2"/>
@@ -7078,16 +7096,16 @@
         <v>109</v>
       </c>
       <c r="C77" t="s">
+        <v>624</v>
+      </c>
+      <c r="D77" t="s">
+        <v>625</v>
+      </c>
+      <c r="E77" t="s">
         <v>626</v>
       </c>
-      <c r="D77" t="s">
+      <c r="F77" t="s">
         <v>627</v>
-      </c>
-      <c r="E77" t="s">
-        <v>628</v>
-      </c>
-      <c r="F77" t="s">
-        <v>629</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="2"/>
@@ -7102,16 +7120,16 @@
         <v>114</v>
       </c>
       <c r="C78" t="s">
+        <v>656</v>
+      </c>
+      <c r="D78" t="s">
+        <v>657</v>
+      </c>
+      <c r="E78" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="D78" t="s">
+      <c r="F78" s="14" t="s">
         <v>659</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>660</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>661</v>
       </c>
       <c r="G78" s="14">
         <v>2</v>
@@ -7129,16 +7147,16 @@
         <v>158</v>
       </c>
       <c r="C79" t="s">
+        <v>660</v>
+      </c>
+      <c r="D79" t="s">
+        <v>670</v>
+      </c>
+      <c r="E79" t="s">
         <v>662</v>
       </c>
-      <c r="D79" t="s">
-        <v>673</v>
-      </c>
-      <c r="E79" t="s">
-        <v>664</v>
-      </c>
       <c r="F79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="2"/>
@@ -7153,16 +7171,16 @@
         <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D80" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E80" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F80" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="2"/>
@@ -7216,7 +7234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB58989-DB9B-42B8-8BEA-AD863D94E91D}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="116" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -7283,7 +7301,7 @@
         <v>261</v>
       </c>
       <c r="H2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I2">
         <v>24.99</v>
@@ -7312,7 +7330,7 @@
         <v>266</v>
       </c>
       <c r="H3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I3">
         <v>25</v>
@@ -7341,7 +7359,7 @@
         <v>270</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I4">
         <v>24.99</v>
@@ -7387,7 +7405,7 @@
         <v>293</v>
       </c>
       <c r="H6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I6">
         <v>20</v>
@@ -7445,7 +7463,7 @@
         <v>270</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I8">
         <v>24.99</v>
@@ -7474,7 +7492,7 @@
         <v>261</v>
       </c>
       <c r="H9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I9">
         <v>24.99</v>
@@ -7497,13 +7515,13 @@
         <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I10">
         <v>34.950000000000003</v>
@@ -7532,7 +7550,7 @@
         <v>261</v>
       </c>
       <c r="H11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I11">
         <v>24.99</v>
@@ -7561,7 +7579,7 @@
         <v>293</v>
       </c>
       <c r="H12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I12">
         <v>20</v>
@@ -7584,13 +7602,13 @@
         <v>156</v>
       </c>
       <c r="F13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G13" t="s">
         <v>270</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I13">
         <v>24.99</v>
@@ -7601,10 +7619,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D14" t="s">
         <v>228</v>
@@ -7613,13 +7631,13 @@
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H14" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I14">
         <v>25</v>
@@ -7642,13 +7660,13 @@
         <v>258</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G15" t="s">
         <v>261</v>
       </c>
       <c r="H15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I15">
         <v>24.99</v>
@@ -7659,10 +7677,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D16" t="s">
         <v>228</v>
@@ -7671,13 +7689,13 @@
         <v>162</v>
       </c>
       <c r="F16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H16" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I16">
         <v>34</v>
@@ -7688,10 +7706,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D17" t="s">
         <v>228</v>
@@ -7700,13 +7718,13 @@
         <v>354</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I17">
         <v>34.99</v>
@@ -7717,25 +7735,25 @@
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D18" t="s">
         <v>228</v>
       </c>
       <c r="E18" t="s">
+        <v>395</v>
+      </c>
+      <c r="F18" t="s">
+        <v>396</v>
+      </c>
+      <c r="G18" t="s">
         <v>397</v>
       </c>
-      <c r="F18" t="s">
-        <v>398</v>
-      </c>
-      <c r="G18" t="s">
-        <v>399</v>
-      </c>
       <c r="H18" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I18">
         <v>25</v>
@@ -7746,25 +7764,25 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D19" t="s">
         <v>228</v>
       </c>
       <c r="E19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F19" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I19">
         <v>20</v>
@@ -7775,25 +7793,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D20" t="s">
         <v>228</v>
       </c>
       <c r="E20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I20">
         <v>34.99</v>
@@ -7804,10 +7822,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D21" t="s">
         <v>228</v>
@@ -7816,13 +7834,13 @@
         <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H21" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I21">
         <v>19.95</v>
@@ -7833,28 +7851,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D22" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I22" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -7862,10 +7880,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D23" t="s">
         <v>228</v>
@@ -7874,13 +7892,13 @@
         <v>267</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G23" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H23" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I23">
         <v>29.95</v>
@@ -7891,10 +7909,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C24" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D24" t="s">
         <v>228</v>
@@ -7903,13 +7921,13 @@
         <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G24" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H24" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I24">
         <v>38</v>
@@ -7920,10 +7938,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C25" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D25" t="s">
         <v>228</v>
@@ -7932,13 +7950,13 @@
         <v>410</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G25" t="s">
         <v>549</v>
       </c>
-      <c r="G25" t="s">
-        <v>551</v>
-      </c>
       <c r="H25" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I25">
         <v>10</v>
@@ -7949,10 +7967,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C26" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D26" t="s">
         <v>228</v>
@@ -7961,13 +7979,13 @@
         <v>300</v>
       </c>
       <c r="F26" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G26" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H26" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I26">
         <v>38</v>
@@ -7990,7 +8008,7 @@
         <v>86</v>
       </c>
       <c r="F27" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>299</v>
@@ -8007,10 +8025,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C28" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D28" t="s">
         <v>228</v>
@@ -8019,13 +8037,13 @@
         <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H28" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I28">
         <v>35</v>
@@ -8036,7 +8054,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C29" t="s">
         <v>304</v>
@@ -8048,13 +8066,13 @@
         <v>34</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G29" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H29" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I29">
         <v>10</v>
@@ -8073,10 +8091,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091284CD-7BE4-40C5-8B13-8EF65FF7D256}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8141,7 +8159,7 @@
         <v>306</v>
       </c>
       <c r="C5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8149,10 +8167,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8160,10 +8178,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8171,10 +8189,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -8182,10 +8200,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -8193,10 +8211,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8204,10 +8222,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -8215,10 +8233,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -8226,10 +8244,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -8237,10 +8255,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -8248,10 +8266,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C15" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8259,10 +8277,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C16" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8270,10 +8288,10 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C17" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8284,7 +8302,7 @@
         <v>192</v>
       </c>
       <c r="C18" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8292,10 +8310,10 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C19" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8303,10 +8321,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C20" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8314,10 +8332,32 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C21" t="s">
-        <v>682</v>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>691</v>
+      </c>
+      <c r="C22" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>691</v>
+      </c>
+      <c r="C23" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -8357,7 +8397,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>290</v>
@@ -8383,16 +8423,16 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8620,16 +8660,16 @@
         <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H17" t="s">
         <v>273</v>
@@ -12179,7 +12219,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -12188,28 +12228,28 @@
         <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -12345,7 +12385,7 @@
       </c>
       <c r="G4">
         <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B4,IMAGES!B:B,"topo")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <f>_xlfn.IFNA(IF(VLOOKUP(B4,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
@@ -13021,7 +13061,7 @@
       </c>
       <c r="G17">
         <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B17,IMAGES!B:B,"topo")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <f>_xlfn.IFNA(IF(VLOOKUP(B17,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811E57A6-EBCA-4C25-8BF6-B40CFAF68E01}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B97238-7C6A-44C6-8DE5-DFA3B2EED0DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="699">
   <si>
     <t>cliff</t>
   </si>
@@ -950,9 +950,6 @@
   </si>
   <si>
     <t>https://kateedhouse.wordpress.com/2013/05/24/my-favourite-experience-on-mountain-moor-and-cave/</t>
-  </si>
-  <si>
-    <t>From Pen Y Pass,  take the Miners track to the first lake and the rangers hut where a left turn takes you up towards the Lliwedd and away from the tarmacked tracks.</t>
   </si>
   <si>
     <t>Topo for Avalanch to Red Wall to Longlands Continuation</t>
@@ -2006,27 +2003,6 @@
 &lt;br /&gt;
 &lt;strong class="pitch-title"&gt;Pitch 3 – &lt;span class="length"&gt;50m&lt;/span&gt; &lt;span class="pitchGrade""&gt;4a&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
 This is where the rock climbing becomes utterly enjoyable. For the most part the rock is solid and there are plenty of placements for gear, the left ridge is recommended with its stunning if a little intense views. Guidebooks suggest the pitch is 45m, but a the full 50m will take you over the top and right a little. A good belay can be built on the other side of the top ridge. Consider belaying your partner off the top 10m walk. It would be a stretch to call it a 4th pitch, but placing a couple of pieces of gear makes it a safer scramble.</t>
-  </si>
-  <si>
-    <t>This route is a popular mixed multi-pitch rock climb. Because it’s an absolute classic it can be popular, even out of season. The climb is interesting and sustained, with a mixture of delicate slab work and a few big moves on a steep wall on the 3rd pitch. The views are incredible looking out over the valley and the exposure is immense in places.  Especially where the climb moves between the spires, up the middle of the 4th pitch and the travers across a ledge on the 5th pitch. The route could be climbed clean without use of the bolts if you have the confidence, time, patience and stamina to find protection on the slab sections which can be quite blank. It’s quicker and likely more enjoyable if you climb the route mixed, using the in-situ bolts and with additional gear to protect the run out sections on the 1st, 4th and 5th pitches and protection for the entire 6th pitch. A set of cams, nuts and tri-cams should cover you. Larger pieces could be helpful on the last pitch. 50m ropes are enough to get to the top, but 60m ropes are needed for the decent to save down climbing the last abseil or using a tree / bush for the last part. The rock can be loose, especially on pitch 1. Loose rocks also tend to gather on the ledges, so make sure you wear helmet and try to avid dislodging rock onto the path below which can be popular with hikers (who won’t have helmets). All the belay points have 3 expansion bolts which can be used for the anchors, except the top of the route where you will need to sling a bush or two and make sure you are not belaying more weight up than can be comfortably held. If climbing as a 3, it would be safer to belay the 2nd and 3rd climber separately on this pitch.
-&lt;br /&gt;
-&lt;strong class="pitch-title"&gt;Pitch 1 –&lt;span class="length"&gt;35m&lt;/span&gt; &lt;span class="pitchGrade" uiaa"&gt;IV+&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
-The first pitch moves up to some trees on the ledge then left onto the ridge and directly up the centre of the slab spire to the belay. 
-&lt;br /&gt;
-&lt;strong class="pitch-title"&gt;Pitch 2 –&lt;span class="length"&gt;40m&lt;/span&gt; &lt;span class="pitchGrade" uiaa"&gt;V&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
-Climb up the spire to some harder moves not long after the belay. These are well protected by bolts and pitons. This pitch then eases off near the top to a belay behind the next spire.
-&lt;br /&gt;
-&lt;strong class="pitch-title"&gt;Pitch 3 –&lt;span class="length"&gt;25m&lt;/span&gt; &lt;span class="pitchGrade" uiaa"&gt;V+&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
-Climb the steep face using the big pockets which make for jug sized hand holds. Follow the bolts up onto the summit of this little spire and find the anchor in the gap between the next spire. This pitch is a quite different in style to the others, so although the crux on paper it may fell super easy to someone comfortable with bouldering.
-&lt;br /&gt;
-&lt;strong class="pitch-title"&gt;Pitch 4 –&lt;span class="length"&gt;50m&lt;/span&gt; &lt;span class="pitchGrade" uiaa"&gt;V&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
-A long, exposed climb up the largest spire. Harder moves early on that change into a lower angled slab with no bolts and limited protection options.  The anchor is to the right near where this spire joins the next. Don’t climb to the top of this spire. 
-&lt;br /&gt;
-&lt;strong class="pitch-title"&gt;Pitch 5 –&lt;span class="length"&gt;25m&lt;/span&gt; &lt;span class="pitchGrade" uiaa"&gt;IV&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
-The is a single bolt on this pitch and no clear path to the next anchor. Moving up to a ledge and wall offers good hand holds and some pockets for protection, before a traverse right to the anchor. 
-&lt;br /&gt;
-&lt;strong class="pitch-title"&gt;Pitch 6 –&lt;span class="length"&gt;30m&lt;/span&gt; &lt;span class="pitchGrade" uiaa"&gt;IV+&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
-Move straight up following the crack system. There is no fixed protection but a number of placements can be found. Move over a small ledge to the summit. This is a sustained pitch of UIAA grave IV or IV+ all the way. There are no bolts at the top so you will need to sling a bush or two and make sure you are not belaying more weight up than can be comfortably held. If climbing as a 3, it would be safer to belay the 2nd and 3rd climber separately on this pitch.</t>
   </si>
   <si>
     <t xml:space="preserve">The book is in French and English and covers regions around the world. The book has clear photo topographies of most routes and good descriptions including gear recommendations. The book covers trad, sport and mixed protection routes like Traumpfeiler. The only issue is, its not a cheap book, but it's well designed and tends to cover harder longer routes with most graded TD / ED alpine grades which is low to mid E grades in the British system, i.e. serious climbs. </t>
@@ -2221,6 +2197,80 @@
   </si>
   <si>
     <t>originl image: BMC super zoom</t>
+  </si>
+  <si>
+    <t>https://www.mountainproject.com/route/106636010/the-old-man-of-stoer</t>
+  </si>
+  <si>
+    <t>This route is a stunning mixed protection multi-pitch rock climb. Because it’s an absolute classic it can be popular, even out of season. The climb is interesting and sustained, with a mixture of delicate slab work and a few big moves on a steep wall on the 3rd pitch. The views are incredible looking out over the valley and the exposure is immense in places.  Especially where the climb moves between the spires, up the middle of the 4th pitch and the travers across a ledge on the 5th pitch. The route could be climbed clean without use of the bolts if you have the confidence, time, patience and stamina to find protection on the slab sections which can be quite blank. It’s quicker and likely more enjoyable if you climb the route mixed, using the in-situ bolts with additional gear to protect the run out sections on the 1st, 4th and 5th pitches and protection for the &lt;em&gt;entire&lt;/em&gt; 6th pitch. A set of cams, nuts and tri-cams should cover you. Larger pieces could be helpful on the last pitch. 50m ropes are enough to get to the top, but 60m ropes are needed for the decent to save down climbing the last abseil or using a tree / bush for the last part. The rock can be loose, especially on pitch 1. Loose rocks also tend to gather on the ledges, so make sure you wear helmet and try to avoid dislodging rock onto the path below which can be popular with hikers, who won’t have helmets! All the belay points have 3 expansion bolts which can be used for the anchors, except the top of the route where you will need to sling a bush or two and make sure you are not belaying more weight up than can be comfortably held. If climbing as a 3, it would be safer to belay the 2nd and 3rd climber separately on this pitch.
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 1 –&lt;span class="length"&gt;35m&lt;/span&gt; &lt;span class="pitchGrade uiaa"&gt;IV+&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+The first pitch moves up to some trees on the ledge then left onto the ridge and directly up the centre of the slab spire to the belay. 
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 2 –&lt;span class="length"&gt;40m&lt;/span&gt; &lt;span class="pitchGrade uiaa"&gt;V&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+Climb up the spire to some harder moves not long after the belay. These are well protected by bolts and pitons. This pitch then eases off near the top to a belay behind the next spire.
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 3 –&lt;span class="length"&gt;25m&lt;/span&gt; &lt;span class="pitchGrade uiaa"&gt;V+&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+Climb the steep face using the big pockets which make for jug sized hand holds. Follow the bolts up onto the summit of this little spire and find the anchor in the gap between the next spire. This pitch is a quite different in style to the others, so although the crux on paper it may feel easy to someone comfortable with bouldering, or particularly tough if you normally stick to slabs.
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 4 –&lt;span class="length"&gt;50m&lt;/span&gt; &lt;span class="pitchGrade uiaa"&gt;V&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+A long, exposed climb up the largest spire. Harder moves early on that change into a lower angled slab with no bolts and limited protection options.  The anchor is to the right near where this spire joins the next. Don’t climb to the top of this spire. 
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 5 –&lt;span class="length"&gt;25m&lt;/span&gt; &lt;span class="pitchGrade uiaa"&gt;IV&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+The is a single bolt on this pitch and no clear path to the next anchor. Moving up to a ledge and wall offers good hand holds and some pockets for protection, before a traverse right to the anchor. 
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 6 –&lt;span class="length"&gt;30m&lt;/span&gt; &lt;span class="pitchGrade uiaa"&gt;IV+&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+Move straight up following the crack system. There is no fixed protection but a number of placements can be found. Move over a small ledge to the summit. This is a sustained pitch of UIAA grave IV or IV+ all the way. There are no bolts at the top so you will need to sling a bush or two and make sure you are not belaying more weight up than can be comfortably held. If climbing as a 3, it would be safer to belay the 2nd and 3rd climber separately on this pitch.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Parking&lt;/strong&gt;: If you arrive very early (due to limited spaced) and don’t mind the parking fees, Parking in Pen Y Pass is easiest. Otherwise there is some roadside parking just after the turn off away from Llanberis Pass, but this will increase the hike by up to 30mins each way. Alternatively, you can park in the Nant Perris car park and take a shuttle taxi up to Pen Y Pass (£2 each way per person in 2019). For this follow the signs for park and ride. &lt;br /&gt;
+&lt;strong&gt;Approach&lt;/strong&gt;: From Pen Y Pass, take the Miners track to the first lake and the green pump house. Turn left here towards Mount Y Lliwedd. Follow the path briefly then cut right and away from the main tracks towards the base of the mountain. &lt;br /&gt;
+&lt;strong&gt;Descent&lt;/strong&gt;: If you head left after completing the climb (with the route behind you), this will take you to a path that leads off the summit and back to the main track. Allow up to 2 hours to get back to Pen Y Pass from the top of Lliwedd as the path weaves around the back of the mountain and you may well be pretty tired after the climb.</t>
+  </si>
+  <si>
+    <t>A true mountain classic that features in all major North Wales guidebooks and the iconic Classic Rock book by Ken Wilson. Allow plenty of time for route finding on the 12 pitches. Most of the climbing is technically straightforward with an reasonably exposed 4a pitch on the Red Wall section that’s very memorable and a crux 4b pitch right at the end which is a delicate slab with good but smaller spaced holds. 2 pitches are a short walk along a ledge so some time can be saved there. Allowing 12 hours for a round trip from Pen Y Pass would be sensible. It can be done much quicker, especially if you know the route, however it could also take much longer if you get lost so bringing a decent headtorch is a good idea. The route is North facing, so will be in the shade most of the day, this means it can take a couple of good days to dry out. Climbing it damp will be much harder and less enjoyable. The route has been given the grade Hard Very Difficult or HVD in older guides and Severe in the newer rockFax. Protection is mostly good, but being able to confidently and easily climb severe 4b is essential as there are not many easy escape options. J. Longland added his continuation to the Redwall in 1929. Where grades are shown as 3c I’m simply marking that it’s rock climbing of low technical difficulty by modern standards. This is simply to distinguish between climbing pitches and walking or scrambling pitches. 
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 1 –&lt;span class="length"&gt;25m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;3c&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+The first pitch goes up to the heather shelf from the base. Follow a steep curving groove to the right hand side of the shelf. If you are worried about timing you can scramble up the side and essentially skip this pitch. 
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 2 –&lt;span class="length"&gt;30m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;3c&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+Not an obvious line and one it’s easy to get lost on. The key is to move diagonally right below a heather bush and over 2 ribs of rock, then climb up just under 5m to belay left of a spike. Moving over only one rib will lead you up a steeper gully with some harder moves. You can climb out of this at the top and back down into the correct path if you do get lost. 
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 3 –&lt;span class="length"&gt;15m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;3c&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+Climb up a short pitch to belay on a ledge just left of a quartz band running though some rock to your right. 
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 4 –&lt;span class="length"&gt;25m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;3c&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+Climb up and diagonally right via the quartz band to get over the buldge. Climb the right hand side of the rib to a spike belay.
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 5 –&lt;span class="length"&gt;35m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;3c&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+A straightforward pitch that goes broadly straight up to a ledge that marks the end of climbing for the route Avalance. You can belay on a reasonably square spike or move further right to a slightly higher ledge to belay from cracks in the wall.
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 6 –&lt;span class="length"&gt;32m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+Walk / Scramble up and right keeping reasonably close to the main wall, until you get to the redwall with RW etched into it in big letters. You can create a belay here before taking on the magical redwall pitch. Alternatively, there is an escape option leftwards to the terminal arete which will be easier climbing / scrambling to the top (so guidebooks say).
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 7 –&lt;span class="length"&gt;25m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;4a&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+To lead the redwall you take a beautiful rising traverse on delicate holds. Cams and some nuts can be used to protect the moves in a few places. The exposed moves take you onto a rib which you can move up though to some ledges and eventually a belay in a groove leaning towards the terminal arete (up and left). 
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 8 –&lt;span class="length"&gt;30m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;4a&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+Continue up passing a pinnacle on the right. From the ledge you want to use a short wall to climb on to the grassy ledge called the Green Gallery. There are some belay options either on the left or on the centre of this ledge. 
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 9 –&lt;span class="length"&gt;10m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+Walk towards the edge of the ledge at the right. You can either create a new belay here or link this into the next pitch as one. If you are linking these up then make sure you use a long runner and ideally a carabineer with a wheel like the DMM Revolver. If in doubt don’t run them together or the rope drag will take the fun out of the climb and you risk a ground / ledge fall.
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 10 –&lt;span class="length"&gt;25m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;3c&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+If you end up climbing an awkward but enjoyable chimney, chances are you left the ledge in the wrong place and may find the route slightly more difficult. The route is supposed to climb the left arete off of the right side of the Green Gallery, heading up and leftwards to some ledges and a slab. Move up past a broken block and create a belay in a pocket further up.
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 11 –&lt;span class="length"&gt;30m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;3c&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+Move up and rightwards directly towards the final slab of Longlands continuation. You should see or at least hear walkers on the summit by this point. A belay can be created on the ledge directly below the final slab. The multi-pitch climb is coming to an end but the hardest pitch remains.
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 12 –&lt;span class="length"&gt;30m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;4b&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+The final pitch moves up and trends slightly left in before going straight to the summit of Lliwedd’s Eastern Buttress. The gear is good if you take the time to find it and delicate footwork will help see you thought. The rock is clean and generally solid. There are a number of belay options on the summit.</t>
+  </si>
+  <si>
+    <t>https://www.mountainproject.com/route/108164049/red-wall</t>
+  </si>
+  <si>
+    <t>Red Wall details on Mountain Project</t>
   </si>
 </sst>
 </file>
@@ -3365,34 +3415,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F29" sqref="F29"/>
+      <selection pane="topRight" activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="21" width="15.28515625" customWidth="1"/>
-    <col min="22" max="22" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.1328125" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" customWidth="1"/>
+    <col min="3" max="3" width="4.73046875" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" customWidth="1"/>
+    <col min="5" max="5" width="12.265625" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" customWidth="1"/>
+    <col min="7" max="7" width="6.86328125" customWidth="1"/>
+    <col min="8" max="8" width="6.3984375" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" customWidth="1"/>
+    <col min="10" max="10" width="9.86328125" customWidth="1"/>
+    <col min="11" max="12" width="9.3984375" customWidth="1"/>
+    <col min="13" max="13" width="9.59765625" customWidth="1"/>
+    <col min="14" max="14" width="12.73046875" customWidth="1"/>
+    <col min="15" max="15" width="11.265625" customWidth="1"/>
+    <col min="16" max="16" width="15.1328125" customWidth="1"/>
+    <col min="17" max="21" width="15.265625" customWidth="1"/>
+    <col min="22" max="22" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3451,7 +3501,7 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>18</v>
@@ -3460,16 +3510,16 @@
         <v>19</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>622</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -3519,7 +3569,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="S2" t="s">
         <v>30</v>
@@ -3534,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3596,7 +3646,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -3658,7 +3708,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -3687,7 +3737,7 @@
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K5" t="s">
         <v>60</v>
@@ -3714,7 +3764,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -3782,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -3844,7 +3894,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -3876,7 +3926,7 @@
         <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="M8" t="s">
         <v>51</v>
@@ -3903,7 +3953,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -3953,10 +4003,10 @@
         <v>41</v>
       </c>
       <c r="R9" t="s">
+        <v>368</v>
+      </c>
+      <c r="S9" t="s">
         <v>369</v>
-      </c>
-      <c r="S9" t="s">
-        <v>370</v>
       </c>
       <c r="U9" t="s">
         <v>171</v>
@@ -3968,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -3982,7 +4032,7 @@
         <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F10" t="s">
         <v>97</v>
@@ -3997,16 +4047,16 @@
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K10" t="s">
         <v>60</v>
       </c>
       <c r="L10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N10" t="s">
         <v>179</v>
@@ -4021,17 +4071,17 @@
         <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -4087,7 +4137,7 @@
         <v>104</v>
       </c>
       <c r="T11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="U11" t="s">
         <v>171</v>
@@ -4096,7 +4146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -4158,7 +4208,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>184</v>
       </c>
@@ -4211,13 +4261,13 @@
         <v>191</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>694</v>
       </c>
       <c r="V13" t="s">
         <v>172</v>
@@ -4229,7 +4279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>196</v>
       </c>
@@ -4267,7 +4317,7 @@
         <v>70</v>
       </c>
       <c r="N14" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O14">
         <v>20</v>
@@ -4291,7 +4341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -4354,7 +4404,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>241</v>
       </c>
@@ -4389,13 +4439,13 @@
         <v>199</v>
       </c>
       <c r="L16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M16" t="s">
         <v>247</v>
       </c>
       <c r="N16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O16">
         <v>5</v>
@@ -4410,7 +4460,7 @@
         <v>257</v>
       </c>
       <c r="S16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U16" t="s">
         <v>44</v>
@@ -4422,7 +4472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>304</v>
       </c>
@@ -4439,7 +4489,7 @@
         <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G17">
         <v>280</v>
@@ -4463,7 +4513,7 @@
         <v>305</v>
       </c>
       <c r="O17">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P17">
         <v>2</v>
@@ -4472,12 +4522,14 @@
         <v>53</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="T17" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>696</v>
+      </c>
       <c r="U17" t="s">
         <v>171</v>
       </c>
@@ -4485,9 +4537,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B18" t="s">
         <v>106</v>
@@ -4496,13 +4548,13 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
+        <v>342</v>
+      </c>
+      <c r="E18" t="s">
         <v>343</v>
       </c>
-      <c r="E18" t="s">
-        <v>344</v>
-      </c>
       <c r="F18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G18">
         <v>575</v>
@@ -4514,19 +4566,19 @@
         <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K18" t="s">
+        <v>347</v>
+      </c>
+      <c r="L18" t="s">
+        <v>346</v>
+      </c>
+      <c r="M18" t="s">
         <v>348</v>
       </c>
-      <c r="L18" t="s">
-        <v>347</v>
-      </c>
-      <c r="M18" t="s">
-        <v>349</v>
-      </c>
       <c r="N18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O18">
         <v>90</v>
@@ -4535,13 +4587,13 @@
         <v>2</v>
       </c>
       <c r="Q18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U18" t="s">
         <v>207</v>
@@ -4550,9 +4602,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B19" t="s">
         <v>106</v>
@@ -4564,10 +4616,10 @@
         <v>32</v>
       </c>
       <c r="E19" t="s">
+        <v>378</v>
+      </c>
+      <c r="F19" t="s">
         <v>379</v>
-      </c>
-      <c r="F19" t="s">
-        <v>380</v>
       </c>
       <c r="G19">
         <v>74</v>
@@ -4579,16 +4631,16 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M19" t="s">
         <v>39</v>
       </c>
       <c r="N19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O19">
         <v>70</v>
@@ -4600,16 +4652,16 @@
         <v>53</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B20" t="s">
         <v>106</v>
@@ -4618,13 +4670,13 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G20">
         <v>300</v>
@@ -4642,13 +4694,13 @@
         <v>79</v>
       </c>
       <c r="L20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O20">
         <v>40</v>
@@ -4660,18 +4712,18 @@
         <v>64</v>
       </c>
       <c r="R20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="S20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="U20" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B21" t="s">
         <v>106</v>
@@ -4683,10 +4735,10 @@
         <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G21">
         <v>80</v>
@@ -4707,7 +4759,7 @@
         <v>70</v>
       </c>
       <c r="N21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O21">
         <v>90</v>
@@ -4719,18 +4771,18 @@
         <v>41</v>
       </c>
       <c r="R21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="V21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B22" t="s">
         <v>106</v>
@@ -4739,13 +4791,13 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
+        <v>448</v>
+      </c>
+      <c r="E22" t="s">
         <v>449</v>
       </c>
-      <c r="E22" t="s">
-        <v>450</v>
-      </c>
       <c r="F22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G22">
         <v>80</v>
@@ -4760,13 +4812,13 @@
         <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M22" t="s">
+        <v>452</v>
+      </c>
+      <c r="N22" t="s">
         <v>453</v>
-      </c>
-      <c r="N22" t="s">
-        <v>454</v>
       </c>
       <c r="O22">
         <v>40</v>
@@ -4778,21 +4830,21 @@
         <v>41</v>
       </c>
       <c r="R22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="S22" t="s">
+        <v>454</v>
+      </c>
+      <c r="U22" t="s">
         <v>455</v>
-      </c>
-      <c r="U22" t="s">
-        <v>456</v>
       </c>
       <c r="V22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B23" t="s">
         <v>106</v>
@@ -4804,10 +4856,10 @@
         <v>185</v>
       </c>
       <c r="E23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G23">
         <v>228</v>
@@ -4828,7 +4880,7 @@
         <v>188</v>
       </c>
       <c r="N23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O23">
         <v>20</v>
@@ -4840,10 +4892,10 @@
         <v>64</v>
       </c>
       <c r="R23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="S23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="U23" t="s">
         <v>207</v>
@@ -4855,9 +4907,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B24" t="s">
         <v>106</v>
@@ -4866,13 +4918,13 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G24">
         <v>250</v>
@@ -4890,13 +4942,13 @@
         <v>26</v>
       </c>
       <c r="L24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O24">
         <v>21</v>
@@ -4908,10 +4960,10 @@
         <v>191</v>
       </c>
       <c r="R24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="S24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="U24" t="s">
         <v>207</v>
@@ -4923,9 +4975,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B25" t="s">
         <v>106</v>
@@ -4934,13 +4986,13 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G25">
         <v>350</v>
@@ -4952,19 +5004,19 @@
         <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K25" t="s">
         <v>60</v>
       </c>
       <c r="L25" t="s">
+        <v>525</v>
+      </c>
+      <c r="M25" t="s">
         <v>526</v>
       </c>
-      <c r="M25" t="s">
-        <v>527</v>
-      </c>
       <c r="N25" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O25">
         <v>190</v>
@@ -4976,10 +5028,10 @@
         <v>41</v>
       </c>
       <c r="R25" t="s">
+        <v>535</v>
+      </c>
+      <c r="S25" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>537</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" t="s">
@@ -4992,9 +5044,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B26" t="s">
         <v>106</v>
@@ -5003,13 +5055,13 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G26">
         <v>230</v>
@@ -5027,13 +5079,13 @@
         <v>199</v>
       </c>
       <c r="L26" t="s">
+        <v>564</v>
+      </c>
+      <c r="M26" t="s">
         <v>565</v>
       </c>
-      <c r="M26" t="s">
-        <v>566</v>
-      </c>
       <c r="N26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O26">
         <v>70</v>
@@ -5045,10 +5097,10 @@
         <v>64</v>
       </c>
       <c r="R26" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="S26" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" t="s">
@@ -5058,9 +5110,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B27" t="s">
         <v>106</v>
@@ -5072,10 +5124,10 @@
         <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F27" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G27">
         <v>160</v>
@@ -5090,7 +5142,7 @@
         <v>37</v>
       </c>
       <c r="K27" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L27" t="s">
         <v>80</v>
@@ -5099,7 +5151,7 @@
         <v>81</v>
       </c>
       <c r="N27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O27">
         <v>80</v>
@@ -5111,10 +5163,10 @@
         <v>83</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" t="s">
@@ -5127,9 +5179,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B28" t="s">
         <v>107</v>
@@ -5138,13 +5190,13 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
+        <v>639</v>
+      </c>
+      <c r="E28" t="s">
+        <v>640</v>
+      </c>
+      <c r="F28" t="s">
         <v>641</v>
-      </c>
-      <c r="E28" t="s">
-        <v>642</v>
-      </c>
-      <c r="F28" t="s">
-        <v>643</v>
       </c>
       <c r="G28">
         <v>250</v>
@@ -5162,13 +5214,13 @@
         <v>38</v>
       </c>
       <c r="L28" t="s">
+        <v>642</v>
+      </c>
+      <c r="M28" t="s">
+        <v>637</v>
+      </c>
+      <c r="N28" t="s">
         <v>644</v>
-      </c>
-      <c r="M28" t="s">
-        <v>639</v>
-      </c>
-      <c r="N28" t="s">
-        <v>646</v>
       </c>
       <c r="O28">
         <v>30</v>
@@ -5177,14 +5229,14 @@
         <v>1</v>
       </c>
       <c r="Q28" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B29" t="s">
         <v>106</v>
@@ -5193,13 +5245,13 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E29" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F29" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G29">
         <v>115</v>
@@ -5217,13 +5269,13 @@
         <v>199</v>
       </c>
       <c r="L29" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M29" t="s">
         <v>188</v>
       </c>
       <c r="N29" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="O29">
         <v>15</v>
@@ -5235,18 +5287,18 @@
         <v>41</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="W29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B30" t="s">
         <v>107</v>
@@ -5255,9 +5307,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -5270,23 +5322,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="42.28515625" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="42.265625" customWidth="1"/>
+    <col min="4" max="4" width="37.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
@@ -5306,13 +5358,13 @@
         <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5336,7 +5388,7 @@
         <v>1topo</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5354,7 +5406,7 @@
         <v>1tile</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5362,23 +5414,23 @@
         <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D4" t="s">
         <v>108</v>
       </c>
       <c r="E4" t="s">
+        <v>625</v>
+      </c>
+      <c r="F4" t="s">
         <v>626</v>
-      </c>
-      <c r="F4" t="s">
-        <v>627</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
         <v>1map</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5386,16 +5438,16 @@
         <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D5" t="s">
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -5405,7 +5457,7 @@
         <v>2topo</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5426,7 +5478,7 @@
         <v>2tile</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2</v>
       </c>
@@ -5434,23 +5486,23 @@
         <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D7" t="s">
         <v>125</v>
       </c>
       <c r="E7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F7" t="s">
         <v>626</v>
-      </c>
-      <c r="F7" t="s">
-        <v>627</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
         <v>2map</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5467,7 +5519,7 @@
         <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -5477,7 +5529,7 @@
         <v>3topo</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3</v>
       </c>
@@ -5495,7 +5547,7 @@
         <v>3tile</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5503,23 +5555,23 @@
         <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D10" t="s">
         <v>131</v>
       </c>
       <c r="E10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F10" t="s">
         <v>626</v>
-      </c>
-      <c r="F10" t="s">
-        <v>627</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
         <v>3map</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>4</v>
       </c>
@@ -5537,7 +5589,7 @@
         <v>4tile</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>5</v>
       </c>
@@ -5561,7 +5613,7 @@
         <v>5topo</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>5</v>
       </c>
@@ -5582,7 +5634,7 @@
         <v>5tile</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>5</v>
       </c>
@@ -5590,23 +5642,23 @@
         <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D14" t="s">
         <v>137</v>
       </c>
       <c r="E14" t="s">
+        <v>625</v>
+      </c>
+      <c r="F14" t="s">
         <v>626</v>
-      </c>
-      <c r="F14" t="s">
-        <v>627</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
         <v>5map</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>6</v>
       </c>
@@ -5630,7 +5682,7 @@
         <v>6topo</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>6</v>
       </c>
@@ -5648,7 +5700,7 @@
         <v>6tile</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>6</v>
       </c>
@@ -5656,23 +5708,23 @@
         <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D17" t="s">
         <v>143</v>
       </c>
       <c r="E17" t="s">
+        <v>625</v>
+      </c>
+      <c r="F17" t="s">
         <v>626</v>
-      </c>
-      <c r="F17" t="s">
-        <v>627</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
         <v>6map</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>7</v>
       </c>
@@ -5696,7 +5748,7 @@
         <v>7topo</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>7</v>
       </c>
@@ -5720,7 +5772,7 @@
         <v>7tile</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>7</v>
       </c>
@@ -5728,23 +5780,23 @@
         <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D20" t="s">
         <v>149</v>
       </c>
       <c r="E20" t="s">
+        <v>625</v>
+      </c>
+      <c r="F20" t="s">
         <v>626</v>
-      </c>
-      <c r="F20" t="s">
-        <v>627</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
         <v>7map</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>8</v>
       </c>
@@ -5752,7 +5804,7 @@
         <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D21" t="s">
         <v>151</v>
@@ -5768,7 +5820,7 @@
         <v>8topo</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>8</v>
       </c>
@@ -5789,7 +5841,7 @@
         <v>8tile</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>8</v>
       </c>
@@ -5797,23 +5849,23 @@
         <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D23" t="s">
         <v>137</v>
       </c>
       <c r="E23" t="s">
+        <v>625</v>
+      </c>
+      <c r="F23" t="s">
         <v>626</v>
-      </c>
-      <c r="F23" t="s">
-        <v>627</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
         <v>8map</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>9</v>
       </c>
@@ -5821,23 +5873,23 @@
         <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
         <v>9topo</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>9</v>
       </c>
@@ -5861,7 +5913,7 @@
         <v>9tile</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>9</v>
       </c>
@@ -5869,23 +5921,23 @@
         <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D26" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E26" t="s">
+        <v>625</v>
+      </c>
+      <c r="F26" t="s">
         <v>626</v>
-      </c>
-      <c r="F26" t="s">
-        <v>627</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
         <v>9map</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>10</v>
       </c>
@@ -5893,7 +5945,7 @@
         <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D27" t="s">
         <v>156</v>
@@ -5912,7 +5964,7 @@
         <v>10topo</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>10</v>
       </c>
@@ -5930,7 +5982,7 @@
         <v>10tile</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>10</v>
       </c>
@@ -5938,23 +5990,23 @@
         <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D29" t="s">
         <v>157</v>
       </c>
       <c r="E29" t="s">
+        <v>625</v>
+      </c>
+      <c r="F29" t="s">
         <v>626</v>
-      </c>
-      <c r="F29" t="s">
-        <v>627</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
         <v>10map</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>11</v>
       </c>
@@ -5978,7 +6030,7 @@
         <v>11topo</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>11</v>
       </c>
@@ -6002,7 +6054,7 @@
         <v>11tile</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>11</v>
       </c>
@@ -6010,23 +6062,23 @@
         <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E32" t="s">
+        <v>625</v>
+      </c>
+      <c r="F32" t="s">
         <v>626</v>
-      </c>
-      <c r="F32" t="s">
-        <v>627</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
         <v>11map</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>12</v>
       </c>
@@ -6040,7 +6092,7 @@
         <v>193</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F33" t="s">
         <v>155</v>
@@ -6053,7 +6105,7 @@
         <v>12topo</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>12</v>
       </c>
@@ -6061,13 +6113,13 @@
         <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D34" t="s">
         <v>194</v>
       </c>
       <c r="E34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F34" t="s">
         <v>110</v>
@@ -6077,7 +6129,7 @@
         <v>12tile</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>12</v>
       </c>
@@ -6085,23 +6137,23 @@
         <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E35" t="s">
+        <v>625</v>
+      </c>
+      <c r="F35" t="s">
         <v>626</v>
-      </c>
-      <c r="F35" t="s">
-        <v>627</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
         <v>12map</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>13</v>
       </c>
@@ -6125,7 +6177,7 @@
         <v>13topo</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>13</v>
       </c>
@@ -6149,7 +6201,7 @@
         <v>13tile</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>13</v>
       </c>
@@ -6157,23 +6209,23 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E38" t="s">
+        <v>625</v>
+      </c>
+      <c r="F38" t="s">
         <v>626</v>
-      </c>
-      <c r="F38" t="s">
-        <v>627</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
         <v>13map</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>14</v>
       </c>
@@ -6197,7 +6249,7 @@
         <v>14topo</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>14</v>
       </c>
@@ -6221,7 +6273,7 @@
         <v>14tile</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>14</v>
       </c>
@@ -6229,23 +6281,23 @@
         <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E41" t="s">
+        <v>625</v>
+      </c>
+      <c r="F41" t="s">
         <v>626</v>
-      </c>
-      <c r="F41" t="s">
-        <v>627</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
         <v>14map</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>15</v>
       </c>
@@ -6269,7 +6321,7 @@
         <v>15topo</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>15</v>
       </c>
@@ -6293,7 +6345,7 @@
         <v>15tile</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>15</v>
       </c>
@@ -6301,23 +6353,23 @@
         <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D44" t="s">
         <v>292</v>
       </c>
       <c r="E44" t="s">
+        <v>625</v>
+      </c>
+      <c r="F44" t="s">
         <v>626</v>
-      </c>
-      <c r="F44" t="s">
-        <v>627</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="1"/>
         <v>15map</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>16</v>
       </c>
@@ -6325,16 +6377,16 @@
         <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E45" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F45" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -6344,7 +6396,7 @@
         <v>16topo</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>16</v>
       </c>
@@ -6352,13 +6404,13 @@
         <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D46" t="s">
         <v>303</v>
       </c>
       <c r="E46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F46" t="s">
         <v>110</v>
@@ -6368,7 +6420,7 @@
         <v>16tile</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>16</v>
       </c>
@@ -6376,23 +6428,23 @@
         <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D47" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E47" t="s">
+        <v>625</v>
+      </c>
+      <c r="F47" t="s">
         <v>626</v>
-      </c>
-      <c r="F47" t="s">
-        <v>627</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="1"/>
         <v>16map</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>17</v>
       </c>
@@ -6400,23 +6452,23 @@
         <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D48" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E48" t="s">
+        <v>349</v>
+      </c>
+      <c r="F48" t="s">
         <v>350</v>
-      </c>
-      <c r="F48" t="s">
-        <v>351</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="1"/>
         <v>17topo</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>17</v>
       </c>
@@ -6424,13 +6476,13 @@
         <v>158</v>
       </c>
       <c r="C49" t="s">
+        <v>361</v>
+      </c>
+      <c r="D49" t="s">
         <v>362</v>
       </c>
-      <c r="D49" t="s">
-        <v>363</v>
-      </c>
       <c r="E49" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F49" t="s">
         <v>115</v>
@@ -6440,7 +6492,7 @@
         <v>17tile</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>17</v>
       </c>
@@ -6448,23 +6500,23 @@
         <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D50" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E50" t="s">
+        <v>625</v>
+      </c>
+      <c r="F50" t="s">
         <v>626</v>
-      </c>
-      <c r="F50" t="s">
-        <v>627</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="1"/>
         <v>17map</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>18</v>
       </c>
@@ -6472,13 +6524,13 @@
         <v>114</v>
       </c>
       <c r="C51" t="s">
+        <v>383</v>
+      </c>
+      <c r="D51" t="s">
         <v>384</v>
       </c>
-      <c r="D51" t="s">
-        <v>385</v>
-      </c>
       <c r="E51" s="10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F51" t="s">
         <v>110</v>
@@ -6488,7 +6540,7 @@
         <v>18topo</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>18</v>
       </c>
@@ -6496,13 +6548,13 @@
         <v>158</v>
       </c>
       <c r="C52" t="s">
+        <v>385</v>
+      </c>
+      <c r="D52" t="s">
         <v>386</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>387</v>
-      </c>
-      <c r="E52" t="s">
-        <v>388</v>
       </c>
       <c r="F52" t="s">
         <v>128</v>
@@ -6512,7 +6564,7 @@
         <v>18tile</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>18</v>
       </c>
@@ -6520,23 +6572,23 @@
         <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E53" t="s">
+        <v>625</v>
+      </c>
+      <c r="F53" t="s">
         <v>626</v>
-      </c>
-      <c r="F53" t="s">
-        <v>627</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="1"/>
         <v>18map</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>19</v>
       </c>
@@ -6544,23 +6596,23 @@
         <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E54" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
         <v>19topo</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>19</v>
       </c>
@@ -6568,23 +6620,23 @@
         <v>158</v>
       </c>
       <c r="C55" t="s">
+        <v>427</v>
+      </c>
+      <c r="D55" t="s">
         <v>428</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>429</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>430</v>
-      </c>
-      <c r="F55" t="s">
-        <v>431</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="1"/>
         <v>19tile</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>19</v>
       </c>
@@ -6592,23 +6644,23 @@
         <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D56" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E56" t="s">
+        <v>625</v>
+      </c>
+      <c r="F56" t="s">
         <v>626</v>
-      </c>
-      <c r="F56" t="s">
-        <v>627</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="1"/>
         <v>19map</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>20</v>
       </c>
@@ -6616,23 +6668,23 @@
         <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D57" t="s">
+        <v>418</v>
+      </c>
+      <c r="E57" t="s">
+        <v>417</v>
+      </c>
+      <c r="F57" t="s">
         <v>419</v>
-      </c>
-      <c r="E57" t="s">
-        <v>418</v>
-      </c>
-      <c r="F57" t="s">
-        <v>420</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="1"/>
         <v>20topo</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>20</v>
       </c>
@@ -6640,23 +6692,23 @@
         <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D58" t="s">
+        <v>415</v>
+      </c>
+      <c r="E58" t="s">
+        <v>417</v>
+      </c>
+      <c r="F58" t="s">
         <v>416</v>
-      </c>
-      <c r="E58" t="s">
-        <v>418</v>
-      </c>
-      <c r="F58" t="s">
-        <v>417</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="1"/>
         <v>20tile</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>20</v>
       </c>
@@ -6664,23 +6716,23 @@
         <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E59" t="s">
+        <v>625</v>
+      </c>
+      <c r="F59" t="s">
         <v>626</v>
-      </c>
-      <c r="F59" t="s">
-        <v>627</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="1"/>
         <v>20map</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>21</v>
       </c>
@@ -6688,23 +6740,23 @@
         <v>114</v>
       </c>
       <c r="C60" t="s">
+        <v>461</v>
+      </c>
+      <c r="D60" t="s">
         <v>462</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>463</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>464</v>
-      </c>
-      <c r="F60" t="s">
-        <v>465</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="1"/>
         <v>21topo</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>21</v>
       </c>
@@ -6712,23 +6764,23 @@
         <v>158</v>
       </c>
       <c r="C61" t="s">
+        <v>457</v>
+      </c>
+      <c r="D61" t="s">
         <v>458</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>459</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>460</v>
-      </c>
-      <c r="F61" t="s">
-        <v>461</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="1"/>
         <v>21tile</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>21</v>
       </c>
@@ -6736,23 +6788,23 @@
         <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D62" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E62" t="s">
+        <v>625</v>
+      </c>
+      <c r="F62" t="s">
         <v>626</v>
-      </c>
-      <c r="F62" t="s">
-        <v>627</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="1"/>
         <v>21map</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>22</v>
       </c>
@@ -6760,23 +6812,23 @@
         <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D63" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E63" t="s">
+        <v>494</v>
+      </c>
+      <c r="F63" t="s">
         <v>495</v>
-      </c>
-      <c r="F63" t="s">
-        <v>496</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
         <v>22topo</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>22</v>
       </c>
@@ -6784,13 +6836,13 @@
         <v>158</v>
       </c>
       <c r="C64" t="s">
+        <v>487</v>
+      </c>
+      <c r="D64" t="s">
         <v>488</v>
       </c>
-      <c r="D64" t="s">
-        <v>489</v>
-      </c>
       <c r="E64" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F64" t="s">
         <v>255</v>
@@ -6800,7 +6852,7 @@
         <v>22tile</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>22</v>
       </c>
@@ -6808,23 +6860,23 @@
         <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D65" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E65" t="s">
+        <v>625</v>
+      </c>
+      <c r="F65" t="s">
         <v>626</v>
-      </c>
-      <c r="F65" t="s">
-        <v>627</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" ref="I65:I80" si="2">CONCATENATE(A65,B65)</f>
         <v>22map</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>23</v>
       </c>
@@ -6832,23 +6884,23 @@
         <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D66" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E66" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F66" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="2"/>
         <v>23topo</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>23</v>
       </c>
@@ -6856,13 +6908,13 @@
         <v>158</v>
       </c>
       <c r="C67" t="s">
+        <v>512</v>
+      </c>
+      <c r="D67" t="s">
+        <v>511</v>
+      </c>
+      <c r="E67" t="s">
         <v>513</v>
-      </c>
-      <c r="D67" t="s">
-        <v>512</v>
-      </c>
-      <c r="E67" t="s">
-        <v>514</v>
       </c>
       <c r="F67" t="s">
         <v>115</v>
@@ -6872,7 +6924,7 @@
         <v>23tile</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>23</v>
       </c>
@@ -6880,23 +6932,23 @@
         <v>109</v>
       </c>
       <c r="C68" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D68" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E68" t="s">
+        <v>625</v>
+      </c>
+      <c r="F68" t="s">
         <v>626</v>
-      </c>
-      <c r="F68" t="s">
-        <v>627</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="2"/>
         <v>23map</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>24</v>
       </c>
@@ -6904,23 +6956,23 @@
         <v>114</v>
       </c>
       <c r="C69" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D69" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E69" t="s">
+        <v>529</v>
+      </c>
+      <c r="F69" t="s">
         <v>530</v>
-      </c>
-      <c r="F69" t="s">
-        <v>531</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="2"/>
         <v>24topo</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>24</v>
       </c>
@@ -6928,23 +6980,23 @@
         <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D70" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E70" t="s">
+        <v>529</v>
+      </c>
+      <c r="F70" t="s">
         <v>530</v>
-      </c>
-      <c r="F70" t="s">
-        <v>531</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="2"/>
         <v>24tile</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>24</v>
       </c>
@@ -6952,23 +7004,23 @@
         <v>109</v>
       </c>
       <c r="C71" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E71" t="s">
+        <v>625</v>
+      </c>
+      <c r="F71" t="s">
         <v>626</v>
-      </c>
-      <c r="F71" t="s">
-        <v>627</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="2"/>
         <v>24map</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>25</v>
       </c>
@@ -6976,23 +7028,23 @@
         <v>114</v>
       </c>
       <c r="C72" t="s">
+        <v>571</v>
+      </c>
+      <c r="D72" t="s">
         <v>572</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>573</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>574</v>
-      </c>
-      <c r="F72" t="s">
-        <v>575</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="2"/>
         <v>25topo</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>25</v>
       </c>
@@ -7000,23 +7052,23 @@
         <v>158</v>
       </c>
       <c r="C73" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D73" t="s">
+        <v>566</v>
+      </c>
+      <c r="E73" t="s">
         <v>567</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>568</v>
-      </c>
-      <c r="F73" t="s">
-        <v>569</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="2"/>
         <v>25tile</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>25</v>
       </c>
@@ -7024,23 +7076,23 @@
         <v>109</v>
       </c>
       <c r="C74" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D74" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E74" t="s">
+        <v>625</v>
+      </c>
+      <c r="F74" t="s">
         <v>626</v>
-      </c>
-      <c r="F74" t="s">
-        <v>627</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="2"/>
         <v>25map</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>26</v>
       </c>
@@ -7048,23 +7100,23 @@
         <v>114</v>
       </c>
       <c r="C75" t="s">
+        <v>588</v>
+      </c>
+      <c r="D75" t="s">
         <v>589</v>
       </c>
-      <c r="D75" t="s">
-        <v>590</v>
-      </c>
       <c r="E75" t="s">
+        <v>586</v>
+      </c>
+      <c r="F75" t="s">
         <v>587</v>
-      </c>
-      <c r="F75" t="s">
-        <v>588</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="2"/>
         <v>26topo</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>26</v>
       </c>
@@ -7072,23 +7124,23 @@
         <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D76" t="s">
+        <v>582</v>
+      </c>
+      <c r="E76" t="s">
         <v>583</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>584</v>
-      </c>
-      <c r="F76" t="s">
-        <v>585</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="2"/>
         <v>26tile</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>26</v>
       </c>
@@ -7096,23 +7148,23 @@
         <v>109</v>
       </c>
       <c r="C77" t="s">
+        <v>623</v>
+      </c>
+      <c r="D77" t="s">
         <v>624</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>625</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>626</v>
-      </c>
-      <c r="F77" t="s">
-        <v>627</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="2"/>
         <v>26map</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>28</v>
       </c>
@@ -7120,16 +7172,16 @@
         <v>114</v>
       </c>
       <c r="C78" t="s">
+        <v>654</v>
+      </c>
+      <c r="D78" t="s">
+        <v>655</v>
+      </c>
+      <c r="E78" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="D78" t="s">
+      <c r="F78" s="14" t="s">
         <v>657</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>659</v>
       </c>
       <c r="G78" s="14">
         <v>2</v>
@@ -7139,7 +7191,7 @@
         <v>28topo</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>28</v>
       </c>
@@ -7147,23 +7199,23 @@
         <v>158</v>
       </c>
       <c r="C79" t="s">
+        <v>658</v>
+      </c>
+      <c r="D79" t="s">
+        <v>668</v>
+      </c>
+      <c r="E79" t="s">
         <v>660</v>
       </c>
-      <c r="D79" t="s">
-        <v>670</v>
-      </c>
-      <c r="E79" t="s">
-        <v>662</v>
-      </c>
       <c r="F79" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="2"/>
         <v>28tile</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>28</v>
       </c>
@@ -7171,44 +7223,44 @@
         <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D80" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E80" t="s">
+        <v>625</v>
+      </c>
+      <c r="F80" t="s">
         <v>626</v>
-      </c>
-      <c r="F80" t="s">
-        <v>627</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="2"/>
         <v>28map</v>
       </c>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E91" s="10"/>
     </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I113" t="str">
         <f>CONCATENATE(A113,B113)</f>
         <v/>
       </c>
     </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I114" t="str">
         <f>CONCATENATE(A114,B114)</f>
         <v/>
       </c>
     </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I115" t="str">
         <f>CONCATENATE(A115,B115)</f>
         <v/>
       </c>
     </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I116" t="str">
         <f>CONCATENATE(A116,B116)</f>
         <v/>
@@ -7238,18 +7290,18 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.265625" customWidth="1"/>
+    <col min="2" max="2" width="20.265625" customWidth="1"/>
+    <col min="3" max="3" width="34.1328125" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.265625" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -7278,7 +7330,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -7301,13 +7353,13 @@
         <v>261</v>
       </c>
       <c r="H2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I2">
         <v>24.99</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -7330,13 +7382,13 @@
         <v>266</v>
       </c>
       <c r="H3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I3">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -7359,13 +7411,13 @@
         <v>270</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I4">
         <v>24.99</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -7382,7 +7434,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -7405,13 +7457,13 @@
         <v>293</v>
       </c>
       <c r="H6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -7440,7 +7492,7 @@
         <v>29.95</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -7463,13 +7515,13 @@
         <v>270</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I8">
         <v>24.99</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -7492,13 +7544,13 @@
         <v>261</v>
       </c>
       <c r="H9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I9">
         <v>24.99</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -7515,19 +7567,19 @@
         <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I10">
         <v>34.950000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -7550,13 +7602,13 @@
         <v>261</v>
       </c>
       <c r="H11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I11">
         <v>24.99</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>13</v>
       </c>
@@ -7579,13 +7631,13 @@
         <v>293</v>
       </c>
       <c r="H12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>16</v>
       </c>
@@ -7602,27 +7654,27 @@
         <v>156</v>
       </c>
       <c r="F13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G13" t="s">
         <v>270</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I13">
         <v>24.99</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D14" t="s">
         <v>228</v>
@@ -7631,19 +7683,19 @@
         <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G14" t="s">
         <v>332</v>
       </c>
-      <c r="G14" t="s">
-        <v>333</v>
-      </c>
       <c r="H14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I14">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -7660,27 +7712,27 @@
         <v>258</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G15" t="s">
         <v>261</v>
       </c>
       <c r="H15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I15">
         <v>24.99</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D16" t="s">
         <v>228</v>
@@ -7689,27 +7741,27 @@
         <v>162</v>
       </c>
       <c r="F16" t="s">
+        <v>339</v>
+      </c>
+      <c r="G16" t="s">
         <v>340</v>
       </c>
-      <c r="G16" t="s">
-        <v>341</v>
-      </c>
       <c r="H16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I16">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D17" t="s">
         <v>228</v>
@@ -7718,114 +7770,114 @@
         <v>354</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I17">
         <v>34.99</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C18" t="s">
         <v>393</v>
-      </c>
-      <c r="C18" t="s">
-        <v>394</v>
       </c>
       <c r="D18" t="s">
         <v>228</v>
       </c>
       <c r="E18" t="s">
+        <v>394</v>
+      </c>
+      <c r="F18" t="s">
         <v>395</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>396</v>
       </c>
-      <c r="G18" t="s">
-        <v>397</v>
-      </c>
       <c r="H18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I18">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D19" t="s">
         <v>228</v>
       </c>
       <c r="E19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F19" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D20" t="s">
         <v>228</v>
       </c>
       <c r="E20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F20" t="s">
+        <v>440</v>
+      </c>
+      <c r="G20" t="s">
         <v>441</v>
       </c>
-      <c r="G20" t="s">
-        <v>442</v>
-      </c>
       <c r="H20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I20">
         <v>34.99</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D21" t="s">
         <v>228</v>
@@ -7834,56 +7886,56 @@
         <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I21">
         <v>19.95</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I22" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D23" t="s">
         <v>228</v>
@@ -7892,27 +7944,27 @@
         <v>267</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H23" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I23">
         <v>29.95</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C24" t="s">
         <v>541</v>
-      </c>
-      <c r="C24" t="s">
-        <v>542</v>
       </c>
       <c r="D24" t="s">
         <v>228</v>
@@ -7921,27 +7973,27 @@
         <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G24" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H24" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I24">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C25" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D25" t="s">
         <v>228</v>
@@ -7950,27 +8002,27 @@
         <v>410</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G25" t="s">
+        <v>548</v>
+      </c>
+      <c r="H25" t="s">
         <v>547</v>
-      </c>
-      <c r="G25" t="s">
-        <v>549</v>
-      </c>
-      <c r="H25" t="s">
-        <v>548</v>
       </c>
       <c r="I25">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C26" t="s">
         <v>541</v>
-      </c>
-      <c r="C26" t="s">
-        <v>542</v>
       </c>
       <c r="D26" t="s">
         <v>228</v>
@@ -7979,19 +8031,19 @@
         <v>300</v>
       </c>
       <c r="F26" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G26" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H26" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I26">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -8008,7 +8060,7 @@
         <v>86</v>
       </c>
       <c r="F27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>299</v>
@@ -8020,15 +8072,15 @@
         <v>29.95</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C28" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D28" t="s">
         <v>228</v>
@@ -8037,24 +8089,24 @@
         <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G28" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="H28" t="s">
         <v>630</v>
-      </c>
-      <c r="H28" t="s">
-        <v>631</v>
       </c>
       <c r="I28">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>16</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C29" t="s">
         <v>304</v>
@@ -8066,13 +8118,13 @@
         <v>34</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="G29" t="s">
         <v>674</v>
       </c>
-      <c r="G29" t="s">
-        <v>676</v>
-      </c>
       <c r="H29" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I29">
         <v>10</v>
@@ -8091,20 +8143,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091284CD-7BE4-40C5-8B13-8EF65FF7D256}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="51.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -8118,7 +8170,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3</v>
       </c>
@@ -8129,7 +8181,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8140,7 +8192,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>5</v>
       </c>
@@ -8151,7 +8203,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>16</v>
       </c>
@@ -8159,142 +8211,142 @@
         <v>306</v>
       </c>
       <c r="C5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" t="s">
         <v>371</v>
       </c>
-      <c r="C7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" t="s">
         <v>374</v>
       </c>
-      <c r="C8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" t="s">
         <v>376</v>
       </c>
-      <c r="C9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C11" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>20</v>
       </c>
       <c r="B12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C12" t="s">
         <v>414</v>
       </c>
-      <c r="C12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>20</v>
       </c>
       <c r="B13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13" t="s">
         <v>426</v>
       </c>
-      <c r="C13" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>21</v>
       </c>
       <c r="B14" t="s">
+        <v>465</v>
+      </c>
+      <c r="C14" t="s">
         <v>466</v>
       </c>
-      <c r="C14" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
+        <v>475</v>
+      </c>
+      <c r="C15" t="s">
         <v>476</v>
       </c>
-      <c r="C15" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>543</v>
+      </c>
+      <c r="C16" t="s">
         <v>544</v>
       </c>
-      <c r="C16" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C17" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>12</v>
       </c>
@@ -8302,62 +8354,84 @@
         <v>192</v>
       </c>
       <c r="C18" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C19" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>10</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C20" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C21" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C22" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>16</v>
       </c>
       <c r="B23" t="s">
+        <v>689</v>
+      </c>
+      <c r="C23" t="s">
         <v>691</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
         <v>693</v>
+      </c>
+      <c r="C24" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>697</v>
+      </c>
+      <c r="C25" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -8376,17 +8450,17 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="53.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.1328125" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" customWidth="1"/>
+    <col min="7" max="7" width="53.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8397,7 +8471,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>290</v>
@@ -8412,7 +8486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8423,19 +8497,19 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" t="s">
         <v>316</v>
-      </c>
-      <c r="E2" t="s">
-        <v>317</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8452,7 +8526,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8469,7 +8543,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8483,7 +8557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8497,7 +8571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8511,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8525,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8539,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8553,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8567,7 +8641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8584,7 +8658,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8601,7 +8675,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8615,7 +8689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8632,7 +8706,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8649,7 +8723,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8660,22 +8734,22 @@
         <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H17" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>21</v>
       </c>
@@ -8697,9 +8771,9 @@
       <selection activeCell="Q67" sqref="Q67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -8743,7 +8817,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
         <v>2</v>
       </c>
@@ -8787,7 +8861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -8832,7 +8906,7 @@
       </c>
       <c r="U3" s="8"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -8876,7 +8950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -8920,7 +8994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -8964,7 +9038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -9009,7 +9083,7 @@
       </c>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>16</v>
       </c>
@@ -9053,7 +9127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>16</v>
       </c>
@@ -9098,7 +9172,7 @@
       </c>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="13">
         <v>16</v>
       </c>
@@ -9143,7 +9217,7 @@
       </c>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
         <v>11</v>
       </c>
@@ -9187,7 +9261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -9232,7 +9306,7 @@
       </c>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -9278,7 +9352,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="12">
         <v>1</v>
       </c>
@@ -9322,7 +9396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
         <v>1</v>
       </c>
@@ -9368,7 +9442,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="13">
         <v>1</v>
       </c>
@@ -9414,7 +9488,7 @@
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
         <v>5</v>
       </c>
@@ -9458,7 +9532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
         <v>5</v>
       </c>
@@ -9504,7 +9578,7 @@
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="13">
         <v>5</v>
       </c>
@@ -9550,7 +9624,7 @@
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="12">
         <v>13</v>
       </c>
@@ -9594,7 +9668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
         <v>13</v>
       </c>
@@ -9640,7 +9714,7 @@
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="13">
         <v>13</v>
       </c>
@@ -9686,7 +9760,7 @@
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="12">
         <v>14</v>
       </c>
@@ -9730,7 +9804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="11">
         <v>14</v>
       </c>
@@ -9776,7 +9850,7 @@
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="13">
         <v>14</v>
       </c>
@@ -9822,7 +9896,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="12">
         <v>7</v>
       </c>
@@ -9866,7 +9940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="11">
         <v>7</v>
       </c>
@@ -9912,7 +9986,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="13">
         <v>7</v>
       </c>
@@ -9958,7 +10032,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
         <v>12</v>
       </c>
@@ -10002,7 +10076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>12</v>
       </c>
@@ -10048,7 +10122,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="13">
         <v>12</v>
       </c>
@@ -10094,7 +10168,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="12">
         <v>17</v>
       </c>
@@ -10138,7 +10212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" s="11">
         <v>17</v>
       </c>
@@ -10184,7 +10258,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" s="13">
         <v>17</v>
       </c>
@@ -10230,7 +10304,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" s="12">
         <v>6</v>
       </c>
@@ -10274,7 +10348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" s="11">
         <v>6</v>
       </c>
@@ -10320,7 +10394,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" s="13">
         <v>6</v>
       </c>
@@ -10366,7 +10440,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" s="12">
         <v>8</v>
       </c>
@@ -10410,7 +10484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" s="11">
         <v>8</v>
       </c>
@@ -10456,7 +10530,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" s="13">
         <v>8</v>
       </c>
@@ -10502,7 +10576,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" s="12">
         <v>10</v>
       </c>
@@ -10546,7 +10620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" s="11">
         <v>10</v>
       </c>
@@ -10591,7 +10665,7 @@
       </c>
       <c r="R42" s="7"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" s="13">
         <v>10</v>
       </c>
@@ -10636,7 +10710,7 @@
       </c>
       <c r="R43" s="7"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" s="12">
         <v>18</v>
       </c>
@@ -10680,7 +10754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" s="11">
         <v>18</v>
       </c>
@@ -10725,7 +10799,7 @@
       </c>
       <c r="R45" s="7"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" s="13">
         <v>18</v>
       </c>
@@ -10774,7 +10848,7 @@
       <c r="U46" s="14"/>
       <c r="V46" s="14"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" s="12">
         <v>15</v>
       </c>
@@ -10822,7 +10896,7 @@
       <c r="U47" s="14"/>
       <c r="V47" s="14"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" s="11">
         <v>15</v>
       </c>
@@ -10870,7 +10944,7 @@
       <c r="U48" s="14"/>
       <c r="V48" s="14"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" s="13">
         <v>15</v>
       </c>
@@ -10918,7 +10992,7 @@
       <c r="U49" s="14"/>
       <c r="V49" s="14"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" s="12">
         <v>19</v>
       </c>
@@ -10966,7 +11040,7 @@
       <c r="U50" s="14"/>
       <c r="V50" s="14"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" s="11">
         <v>19</v>
       </c>
@@ -11014,7 +11088,7 @@
       <c r="U51" s="14"/>
       <c r="V51" s="14"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" s="13">
         <v>19</v>
       </c>
@@ -11062,7 +11136,7 @@
       <c r="U52" s="14"/>
       <c r="V52" s="14"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" s="12">
         <v>20</v>
       </c>
@@ -11110,7 +11184,7 @@
       <c r="U53" s="14"/>
       <c r="V53" s="14"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" s="11">
         <v>20</v>
       </c>
@@ -11159,7 +11233,7 @@
       <c r="U54" s="14"/>
       <c r="V54" s="14"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" s="13">
         <v>20</v>
       </c>
@@ -11208,7 +11282,7 @@
       <c r="U55" s="14"/>
       <c r="V55" s="14"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" s="12">
         <v>21</v>
       </c>
@@ -11257,7 +11331,7 @@
       <c r="U56" s="14"/>
       <c r="V56" s="14"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" s="11">
         <v>21</v>
       </c>
@@ -11306,7 +11380,7 @@
       <c r="U57" s="7"/>
       <c r="V57" s="14"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" s="13">
         <v>21</v>
       </c>
@@ -11350,7 +11424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" s="12">
         <v>9</v>
       </c>
@@ -11395,7 +11469,7 @@
       </c>
       <c r="U59" s="7"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" s="11">
         <v>9</v>
       </c>
@@ -11440,7 +11514,7 @@
       </c>
       <c r="U60" s="7"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" s="13">
         <v>9</v>
       </c>
@@ -11484,7 +11558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" s="12">
         <v>24</v>
       </c>
@@ -11529,7 +11603,7 @@
       </c>
       <c r="U62" s="7"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" s="11">
         <v>24</v>
       </c>
@@ -11574,7 +11648,7 @@
       </c>
       <c r="U63" s="7"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64" s="13">
         <v>24</v>
       </c>
@@ -11618,7 +11692,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65" s="12">
         <v>23</v>
       </c>
@@ -11663,7 +11737,7 @@
       </c>
       <c r="U65" s="7"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66" s="11">
         <v>23</v>
       </c>
@@ -11708,7 +11782,7 @@
       </c>
       <c r="U66" s="7"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67" s="13">
         <v>23</v>
       </c>
@@ -11752,7 +11826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68" s="12">
         <v>22</v>
       </c>
@@ -11797,7 +11871,7 @@
       </c>
       <c r="U68" s="7"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A69" s="11">
         <v>22</v>
       </c>
@@ -11842,7 +11916,7 @@
       </c>
       <c r="U69" s="7"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A70" s="13">
         <v>22</v>
       </c>
@@ -11886,7 +11960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A71" s="12">
         <v>25</v>
       </c>
@@ -11931,7 +12005,7 @@
       </c>
       <c r="U71" s="7"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A72" s="11">
         <v>25</v>
       </c>
@@ -11976,7 +12050,7 @@
       </c>
       <c r="U72" s="7"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A73" s="13">
         <v>25</v>
       </c>
@@ -12020,7 +12094,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A74" s="12">
         <v>28</v>
       </c>
@@ -12065,7 +12139,7 @@
       </c>
       <c r="U74" s="7"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A75" s="11">
         <v>28</v>
       </c>
@@ -12110,7 +12184,7 @@
       </c>
       <c r="U75" s="7"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A76" s="13">
         <v>28</v>
       </c>
@@ -12154,40 +12228,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U77" s="7"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U78" s="7"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U80" s="7"/>
     </row>
-    <row r="81" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U81" s="7"/>
     </row>
-    <row r="83" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U83" s="7"/>
     </row>
-    <row r="84" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U84" s="7"/>
     </row>
-    <row r="86" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U86" s="7"/>
     </row>
-    <row r="87" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U87" s="7"/>
     </row>
-    <row r="89" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U89" s="7"/>
     </row>
-    <row r="90" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U90" s="7"/>
     </row>
-    <row r="92" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U92" s="7"/>
     </row>
-    <row r="93" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U93" s="7"/>
     </row>
   </sheetData>
@@ -12200,26 +12274,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="25"/>
+    <col min="1" max="1" width="19.73046875" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" customWidth="1"/>
+    <col min="6" max="6" width="8.265625" customWidth="1"/>
+    <col min="7" max="7" width="9.86328125" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="9" max="9" width="10.1328125" customWidth="1"/>
+    <col min="10" max="10" width="7.86328125" customWidth="1"/>
+    <col min="12" max="12" width="9.1328125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -12228,31 +12302,31 @@
         <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="str">
         <f>CLIMBS!A2</f>
         <v>Old Man of Stoer</v>
@@ -12293,7 +12367,7 @@
       </c>
       <c r="J2">
         <f>_xlfn.IFNA(IF(VLOOKUP(B2,REFERANCES!A:A,1,FALSE),1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <f>IF(VLOOKUP(B2,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
@@ -12304,7 +12378,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" t="str">
         <f>CLIMBS!A3</f>
         <v>Bosigran</v>
@@ -12356,7 +12430,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" t="str">
         <f>CLIMBS!A4</f>
         <v>Clogwyn Du'r Arddu</v>
@@ -12408,7 +12482,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" t="str">
         <f>CLIMBS!A5</f>
         <v>Vratsa</v>
@@ -12460,7 +12534,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" t="str">
         <f>CLIMBS!A6</f>
         <v>Tormore Group</v>
@@ -12512,7 +12586,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" t="str">
         <f>CLIMBS!A7</f>
         <v>Sass Pordoi</v>
@@ -12564,7 +12638,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" t="str">
         <f>CLIMBS!A8</f>
         <v>Cwm Idwal</v>
@@ -12616,7 +12690,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" t="str">
         <f>CLIMBS!A9</f>
         <v>Lundy</v>
@@ -12668,7 +12742,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" t="str">
         <f>CLIMBS!A10</f>
         <v>Meadinha</v>
@@ -12720,7 +12794,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" t="str">
         <f>CLIMBS!A11</f>
         <v>Cornakey Cliff</v>
@@ -12772,7 +12846,7 @@
         <v>DONE</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" t="str">
         <f>CLIMBS!A12</f>
         <v>Cir Mhor</v>
@@ -12824,7 +12898,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" t="str">
         <f>CLIMBS!A13</f>
         <v>Roca Gris</v>
@@ -12876,7 +12950,7 @@
         <v>DONE</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" t="str">
         <f>CLIMBS!A14</f>
         <v>Sail Rock</v>
@@ -12928,7 +13002,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" t="str">
         <f>CLIMBS!A15</f>
         <v>Chair Ladder</v>
@@ -12980,7 +13054,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" t="str">
         <f>CLIMBS!A16</f>
         <v>The Devils Tower</v>
@@ -13032,7 +13106,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" t="str">
         <f>CLIMBS!A17</f>
         <v>Lliwedd</v>
@@ -13077,14 +13151,14 @@
       </c>
       <c r="K17">
         <f>IF(VLOOKUP(B17,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="25" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>DONE</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" t="str">
         <f>CLIMBS!A18</f>
         <v>Stetind</v>
@@ -13136,7 +13210,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" t="str">
         <f>CLIMBS!A19</f>
         <v>Scafell</v>
@@ -13187,7 +13261,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" t="str">
         <f>CLIMBS!A20</f>
         <v>Mount Indefatigable</v>
@@ -13238,7 +13312,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" t="str">
         <f>CLIMBS!A21</f>
         <v>Slieve Beg</v>
@@ -13289,7 +13363,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" t="str">
         <f>CLIMBS!A22</f>
         <v>Lion Rock</v>
@@ -13340,7 +13414,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23" t="str">
         <f>CLIMBS!A23</f>
         <v>Peñón de Ifach</v>
@@ -13391,7 +13465,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A24" t="str">
         <f>CLIMBS!A24</f>
         <v>Heiliger Geist</v>
@@ -13442,7 +13516,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" t="str">
         <f>CLIMBS!A25</f>
         <v>Aiguille Dibona</v>
@@ -13493,7 +13567,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A26" t="str">
         <f>CLIMBS!A26</f>
         <v>Brüggler</v>
@@ -13544,7 +13618,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A27" t="str">
         <f>CLIMBS!A27</f>
         <v>Vajolet towers</v>
@@ -13595,7 +13669,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A28" t="str">
         <f>CLIMBS!A28</f>
         <v>Djebel Rum</v>
@@ -13646,7 +13720,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A29" t="str">
         <f>CLIMBS!A29</f>
         <v>Cathedral Rock</v>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B97238-7C6A-44C6-8DE5-DFA3B2EED0DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3761CE5D-B84E-40D5-9B6B-573537A27009}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IMAGES!$A$1:$I$116</definedName>
   </definedNames>
   <calcPr calcId="181029" iterateDelta="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="704">
   <si>
     <t>cliff</t>
   </si>
@@ -2271,6 +2278,21 @@
   </si>
   <si>
     <t>Red Wall details on Mountain Project</t>
+  </si>
+  <si>
+    <t>Sepage</t>
+  </si>
+  <si>
+    <t>Wintour's Leap</t>
+  </si>
+  <si>
+    <t>Middlefell Butress</t>
+  </si>
+  <si>
+    <t>Wye Valley</t>
+  </si>
+  <si>
+    <t>Lake District</t>
   </si>
 </sst>
 </file>
@@ -3413,11 +3435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A17" sqref="A17:B17"/>
+      <selection pane="topRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3442,7 +3464,7 @@
     <col min="23" max="23" width="5.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3518,8 +3540,11 @@
       <c r="Y1" s="1" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Z1" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -3584,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3646,7 +3671,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -3707,8 +3732,11 @@
       <c r="V4" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Z4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -3764,7 +3792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -3832,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -3894,7 +3922,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -3953,7 +3981,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -4018,7 +4046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -4081,7 +4109,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -4146,7 +4174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -4208,7 +4236,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>184</v>
       </c>
@@ -4279,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>196</v>
       </c>
@@ -4341,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -4404,7 +4432,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>241</v>
       </c>
@@ -4472,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>304</v>
       </c>
@@ -4536,8 +4564,11 @@
       <c r="V17" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Z17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>344</v>
       </c>
@@ -4602,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>377</v>
       </c>
@@ -4658,8 +4689,11 @@
         <v>382</v>
       </c>
       <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Z19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>406</v>
       </c>
@@ -4721,7 +4755,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>410</v>
       </c>
@@ -4779,8 +4813,11 @@
       <c r="V21" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Z21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>446</v>
       </c>
@@ -4842,7 +4879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>447</v>
       </c>
@@ -4907,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>506</v>
       </c>
@@ -4975,7 +5012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>523</v>
       </c>
@@ -5044,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>561</v>
       </c>
@@ -5110,7 +5147,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>577</v>
       </c>
@@ -5179,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>643</v>
       </c>
@@ -5234,7 +5271,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>645</v>
       </c>
@@ -5296,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>650</v>
       </c>
@@ -5305,6 +5342,43 @@
       </c>
       <c r="C30">
         <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>700</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>701</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -8145,7 +8219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091284CD-7BE4-40C5-8B13-8EF65FF7D256}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3761CE5D-B84E-40D5-9B6B-573537A27009}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD28B01-2CFD-4F2F-83DD-D74540E3ADB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="711">
   <si>
     <t>cliff</t>
   </si>
@@ -2052,9 +2052,6 @@
   </si>
   <si>
     <t>3a</t>
-  </si>
-  <si>
-    <t>Setesdal</t>
   </si>
   <si>
     <t>https://earth.app.goo.gl/XCHT6i</t>
@@ -2283,16 +2280,40 @@
     <t>Sepage</t>
   </si>
   <si>
-    <t>Wintour's Leap</t>
-  </si>
-  <si>
-    <t>Middlefell Butress</t>
-  </si>
-  <si>
-    <t>Wye Valley</t>
-  </si>
-  <si>
-    <t>Lake District</t>
+    <t>Wintours Leap</t>
+  </si>
+  <si>
+    <t>Gloucestershire</t>
+  </si>
+  <si>
+    <t>Right Hand Route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The right-hand route is in many ways the opposite twin to the left hand route. It has better pitches at the top where the left-hand route has better pitches at the bottom. While the right-hand route looks heavily vegetated from the bottom its surprisingly clean. That’s not to say its perfect, just better than it looks. It has good variety and is more sustained in grade when compared to the left hand route, which has a hard start and then eases off. It’s a classic limestone route with a small crack section, and exposed thin ledge system and a steeper juggy section at the end. Check the BMC RAD Database for route exit information. </t>
+  </si>
+  <si>
+    <t>img/tiles/wintours-leap-wye-valley-climbing.jpg</t>
+  </si>
+  <si>
+    <t>Limestone Outcrop Wintours Leap in the Wye Valley</t>
+  </si>
+  <si>
+    <t>Right Hand Route Climb at Wintours Leap in the Wye Valley</t>
+  </si>
+  <si>
+    <t>img/topos/wye-valley/wye-valley-wintours-leap-right-hand-route.png</t>
+  </si>
+  <si>
+    <t>51.664827,-2.664312</t>
+  </si>
+  <si>
+    <t>There is a grassy parking space for several cars above the outcrop at 51.666565, -2.665006. From there, continue on the road you came in on and take the first obvious path left not long after leaving the parking area. Follow the path and take the next obvious left after the old stone arches. After following this path until you come to the old chapel near the river. Pass it and turn left at h the river. Follow this path for a short distance until you near the outcrop then take a left up a climbers path to the base of the cliff.</t>
+  </si>
+  <si>
+    <t>img/topos/wye-valley/maps/</t>
+  </si>
+  <si>
+    <t>Location of Wintours Leap Climbing in the Wye Valley</t>
   </si>
 </sst>
 </file>
@@ -2954,7 +2975,147 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3437,9 +3598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F31" sqref="F31"/>
+      <selection pane="topRight" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3541,7 +3702,7 @@
         <v>627</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -4289,13 +4450,13 @@
         <v>191</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>633</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="V13" t="s">
         <v>172</v>
@@ -4553,10 +4714,10 @@
         <v>318</v>
       </c>
       <c r="S17" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="T17" s="14" t="s">
         <v>695</v>
-      </c>
-      <c r="T17" s="14" t="s">
-        <v>696</v>
       </c>
       <c r="U17" t="s">
         <v>171</v>
@@ -5288,7 +5449,7 @@
         <v>646</v>
       </c>
       <c r="F29" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G29">
         <v>115</v>
@@ -5324,10 +5485,10 @@
         <v>41</v>
       </c>
       <c r="R29" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="S29" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="W29">
         <v>1</v>
@@ -5335,50 +5496,58 @@
     </row>
     <row r="30" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>650</v>
+        <v>699</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
         <v>700</v>
       </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31">
-        <v>30</v>
-      </c>
-      <c r="D31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F30" t="s">
+        <v>701</v>
+      </c>
+      <c r="G30">
+        <v>87</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" t="s">
+        <v>38</v>
+      </c>
+      <c r="M30" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" t="s">
+        <v>707</v>
+      </c>
+      <c r="O30">
+        <v>20</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>64</v>
+      </c>
+      <c r="R30" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>701</v>
-      </c>
-      <c r="B32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32">
-        <v>31</v>
-      </c>
-      <c r="D32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" t="s">
-        <v>703</v>
+      <c r="S30" s="2" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5396,9 +5565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5432,7 +5601,7 @@
         <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>328</v>
@@ -5512,16 +5681,16 @@
         <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D5" t="s">
         <v>123</v>
       </c>
       <c r="E5" t="s">
+        <v>680</v>
+      </c>
+      <c r="F5" t="s">
         <v>681</v>
-      </c>
-      <c r="F5" t="s">
-        <v>682</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -5593,7 +5762,7 @@
         <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -6019,7 +6188,7 @@
         <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D27" t="s">
         <v>156</v>
@@ -6166,7 +6335,7 @@
         <v>193</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F33" t="s">
         <v>155</v>
@@ -6451,16 +6620,16 @@
         <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D45" t="s">
         <v>307</v>
       </c>
       <c r="E45" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F45" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -6604,7 +6773,7 @@
         <v>384</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F51" t="s">
         <v>110</v>
@@ -6946,7 +7115,7 @@
         <v>626</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" ref="I65:I80" si="2">CONCATENATE(A65,B65)</f>
+        <f t="shared" ref="I65:I83" si="2">CONCATENATE(A65,B65)</f>
         <v>22map</v>
       </c>
     </row>
@@ -7246,16 +7415,16 @@
         <v>114</v>
       </c>
       <c r="C78" t="s">
+        <v>653</v>
+      </c>
+      <c r="D78" t="s">
         <v>654</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="F78" s="14" t="s">
         <v>656</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>657</v>
       </c>
       <c r="G78" s="14">
         <v>2</v>
@@ -7273,16 +7442,16 @@
         <v>158</v>
       </c>
       <c r="C79" t="s">
+        <v>657</v>
+      </c>
+      <c r="D79" t="s">
+        <v>667</v>
+      </c>
+      <c r="E79" t="s">
+        <v>659</v>
+      </c>
+      <c r="F79" t="s">
         <v>658</v>
-      </c>
-      <c r="D79" t="s">
-        <v>668</v>
-      </c>
-      <c r="E79" t="s">
-        <v>660</v>
-      </c>
-      <c r="F79" t="s">
-        <v>659</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="2"/>
@@ -7297,10 +7466,10 @@
         <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D80" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E80" t="s">
         <v>625</v>
@@ -7313,7 +7482,82 @@
         <v>28map</v>
       </c>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>29</v>
+      </c>
+      <c r="B81" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" t="s">
+        <v>703</v>
+      </c>
+      <c r="D81" t="s">
+        <v>704</v>
+      </c>
+      <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
+        <v>155</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="2"/>
+        <v>29tile</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>29</v>
+      </c>
+      <c r="B82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" t="s">
+        <v>706</v>
+      </c>
+      <c r="D82" t="s">
+        <v>705</v>
+      </c>
+      <c r="E82" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" t="s">
+        <v>155</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="2"/>
+        <v>29topo</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>29</v>
+      </c>
+      <c r="B83" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" t="s">
+        <v>709</v>
+      </c>
+      <c r="D83" t="s">
+        <v>710</v>
+      </c>
+      <c r="E83" t="s">
+        <v>625</v>
+      </c>
+      <c r="F83" t="s">
+        <v>626</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="2"/>
+        <v>29map</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E91" s="10"/>
     </row>
     <row r="113" spans="9:9" x14ac:dyDescent="0.45">
@@ -7902,7 +8146,7 @@
         <v>394</v>
       </c>
       <c r="F19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G19" t="s">
         <v>399</v>
@@ -8180,7 +8424,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C29" t="s">
         <v>304</v>
@@ -8192,13 +8436,13 @@
         <v>34</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="G29" t="s">
+        <v>673</v>
+      </c>
+      <c r="H29" t="s">
         <v>672</v>
-      </c>
-      <c r="G29" t="s">
-        <v>674</v>
-      </c>
-      <c r="H29" t="s">
-        <v>673</v>
       </c>
       <c r="I29">
         <v>10</v>
@@ -8414,10 +8658,10 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
+        <v>650</v>
+      </c>
+      <c r="C17" t="s">
         <v>651</v>
-      </c>
-      <c r="C17" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -8428,7 +8672,7 @@
         <v>192</v>
       </c>
       <c r="C18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -8436,10 +8680,10 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
+        <v>660</v>
+      </c>
+      <c r="C19" t="s">
         <v>661</v>
-      </c>
-      <c r="C19" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -8447,10 +8691,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="C20" t="s">
         <v>679</v>
-      </c>
-      <c r="C20" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -8458,10 +8702,10 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
+        <v>675</v>
+      </c>
+      <c r="C21" t="s">
         <v>676</v>
-      </c>
-      <c r="C21" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -8469,10 +8713,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
+        <v>688</v>
+      </c>
+      <c r="C22" t="s">
         <v>689</v>
-      </c>
-      <c r="C22" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -8480,10 +8724,10 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -8491,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C24" t="s">
         <v>371</v>
@@ -8502,10 +8746,10 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
+        <v>696</v>
+      </c>
+      <c r="C25" t="s">
         <v>697</v>
-      </c>
-      <c r="C25" t="s">
-        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -12346,10 +12590,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -12385,7 +12629,7 @@
         <v>325</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>326</v>
@@ -13845,76 +14089,127 @@
         <v/>
       </c>
     </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A30" t="str">
+        <f>CLIMBS!A30</f>
+        <v>Wintours Leap</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="str">
+        <f>CLIMBS!B30</f>
+        <v>publish</v>
+      </c>
+      <c r="D30">
+        <f>IF(CLIMBS!R30&lt;&gt;0,1,0)+IF(CLIMBS!G30&lt;&gt;0,1,0)+IF(CLIMBS!H30&lt;&gt;0,1,0)+IF(CLIMBS!I30&lt;&gt;0,1,0)+IF(CLIMBS!J30&lt;&gt;0,1,0)+IF(CLIMBS!N30&lt;&gt;0,1,0)+IF(CLIMBS!M30&lt;&gt;0,1,0)+IF(CLIMBS!O30&lt;&gt;0,1,0)+IF(CLIMBS!P30&lt;&gt;0,1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <f>IF(CLIMBS!S30&lt;&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f>_xlfn.IFNA(IF(VLOOKUP(CONCATENATE(B30,"tile"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B30,"topo"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0)+
+IF(VLOOKUP(CONCATENATE(B30,"map"),IMAGES!I:I,1,FALSE)&lt;&gt;0,1,0),"missing")</f>
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <f>SUMIFS(IMAGES!G:G,IMAGES!A:A,'to-do-score-card'!B30,IMAGES!B:B,"topo")</f>
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B30,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B30,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f>_xlfn.IFNA(IF(VLOOKUP(B30,REFERANCES!A:A,1,FALSE),1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <f>IF(VLOOKUP(B30,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="25" t="str">
+        <f t="shared" ref="L30" si="1">IF(SUM(D30:K30)=22,"DONE","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D29">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="greaterThan">
+  <conditionalFormatting sqref="D2:D30">
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="lessThan">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C29">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+  <conditionalFormatting sqref="C2:C30">
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
       <formula>"draft"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C29">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+  <conditionalFormatting sqref="C3:C30">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
+  <conditionalFormatting sqref="E2:E30">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G30">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"missing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:J29">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+  <conditionalFormatting sqref="H2:J30">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K29">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="K2:K30">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G29">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+  <conditionalFormatting sqref="G2:G30">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F29">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F30">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD28B01-2CFD-4F2F-83DD-D74540E3ADB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4108A245-2DAD-4726-9874-934EFD2B8F5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="720">
   <si>
     <t>cliff</t>
   </si>
@@ -2289,31 +2289,69 @@
     <t>Right Hand Route</t>
   </si>
   <si>
-    <t xml:space="preserve">The right-hand route is in many ways the opposite twin to the left hand route. It has better pitches at the top where the left-hand route has better pitches at the bottom. While the right-hand route looks heavily vegetated from the bottom its surprisingly clean. That’s not to say its perfect, just better than it looks. It has good variety and is more sustained in grade when compared to the left hand route, which has a hard start and then eases off. It’s a classic limestone route with a small crack section, and exposed thin ledge system and a steeper juggy section at the end. Check the BMC RAD Database for route exit information. </t>
-  </si>
-  <si>
-    <t>img/tiles/wintours-leap-wye-valley-climbing.jpg</t>
-  </si>
-  <si>
     <t>Limestone Outcrop Wintours Leap in the Wye Valley</t>
   </si>
   <si>
     <t>Right Hand Route Climb at Wintours Leap in the Wye Valley</t>
   </si>
   <si>
-    <t>img/topos/wye-valley/wye-valley-wintours-leap-right-hand-route.png</t>
-  </si>
-  <si>
     <t>51.664827,-2.664312</t>
   </si>
   <si>
-    <t>There is a grassy parking space for several cars above the outcrop at 51.666565, -2.665006. From there, continue on the road you came in on and take the first obvious path left not long after leaving the parking area. Follow the path and take the next obvious left after the old stone arches. After following this path until you come to the old chapel near the river. Pass it and turn left at h the river. Follow this path for a short distance until you near the outcrop then take a left up a climbers path to the base of the cliff.</t>
-  </si>
-  <si>
     <t>img/topos/wye-valley/maps/</t>
   </si>
   <si>
     <t>Location of Wintours Leap Climbing in the Wye Valley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Approach:&lt;/strong&gt; There is a grassy parking space for several cars above the outcrop at 51.666565, -2.665006. From there, continue on the road you came in on and take the first obvious path left not long after leaving the parking area. Follow the path and take the next obvious left after the old stone arches. After following this path until you come to the old chapel near the river. Pass it and turn left at h the river. Follow this path for a short distance until you near the outcrop then take a left up a climbers path to the base of the cliff. &lt;br /&gt;&lt;br /&gt;
+&lt;strong&gt;Descent:&lt;/strong&gt; following a change of ownership of the house above this section of crag, the previous arrangement to exit through it’s garden is not longer possible. Please do not top out on any North Wall routes - only abseil descent from below the top of the crag is allowed. For those who don't wan't to climb above the Great Ledge, an abseil descent can be made from one of the two bolted abseil stations above The Tap or Joe’s Route. Two further abseil stations have been established just below the top of North Wall (using rope slings and rings around trees) allowing the last pitch of the more popular routes to be climbed and an abseil descent to the Great Ledge be made. 
+</t>
+  </si>
+  <si>
+    <t>https://www.thebmc.co.uk/modules/RAD/View.aspx?id=744</t>
+  </si>
+  <si>
+    <t>BMC RAD database Page</t>
+  </si>
+  <si>
+    <t>img/tiles/wintours-leap-wye-valley-climbs.jpg</t>
+  </si>
+  <si>
+    <t>img/topos/wye-valley/wye-valley-wintours-leap-right-hand-route.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Right Hand Route takes a route up good rock weaving round trees and foliage and makes good use of ledges for belay points. 
+&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 1 –&lt;span class="length"&gt;18m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;3c&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+Climb the cracked gully diagonally right to get round some bushes then cut back left above them. There is a small stance and a decent tree belay just above the main ledge. The tree can be backed up with some protection in the rock behind. &lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 2 –&lt;span class="length"&gt;21m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;4b&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+The second pitch ups the grade a bit after an easy start. Climb straight up behind the belay past some vegetation. Keep moving up until your below a left leaning thin crack that leads to another small ledge with a tree belay (again back it up in the rock behind). The crack offers good holds and protection but can feel a bit exposed and is a slight step change in the grade, especially if you can’t find the good holds.&lt;br /&gt;
+&lt;strong class="pitch-title"&gt;Pitch 3 –&lt;span class="length"&gt;17m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;4b&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+Climb up and slightly right onto some ledges. Take the left of two groves, this should have a peg you could use for additional protection. After that there should be a short neat slab and easier ground up onto the great ledge where there is a peg and tree belay at the back. Traversing left on a thin finger ledge before the great ledge offers a lovely if exposed climb with a big mantle move up. &lt;br/&gt;
+&lt;strong class="pitch-title"&gt;Pitch 4 –&lt;span class="length"&gt;30m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;4a&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
+A brilliant and rewarding pitch with great protection. Essentially you are looking to head though the broken V shape in the headwall above the ledge. The route has good holds, making it easer than it looks. After the broken V climb the short wall above and then keep heading up to slings and an abseil ring set up on a tree. You can climb the chimney or the wall directly below the abseil and anchor point. Both are short but fun. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The right hand route is in many ways the opposite twin to the left hand route (also a Hard Severe climb). It has better pitches at the top where the left-hand route has better pitches at the bottom. While the right hand route looks heavily vegetated from the bottom it’s surprisingly clean. That’s not to say its perfect, just better than it looks. It has good variety and is more sustained in grade when compared to the left-hand route, which has a hard start and then eases off. It’s a classic limestone route with a small crack section, and exposed thin ledge system and a steeper juggy section at the end. Check the BMC RAD Database for route exit information (see references), but at the time of writing abseiling off is required (see descent info). </t>
+  </si>
+  <si>
+    <t>Setdastal</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2XxjnCx</t>
+  </si>
+  <si>
+    <t>9780901601797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Wye Valley </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The guidebook &lt;em&gt;Lower Wye Valley: Climbers' Club Guides to the Wye Valley and Forest of Dean&lt;/em&gt; has a good amount of information and climbs. The photos are for the most part very clear. However, the way the book is organised makes it very difficult to use. In true climber’s club style, there are no route numbers or page references on topos making it slow to find the details. When you do find the climb details, they use complex language and terminology, making it hard work to understand. Unfortunately there are not any other guidebook options for Wintour’s Leap, making this guidebook a must. </t>
+  </si>
+  <si>
+    <t>img/guidebooks/lower-wye-valley-climbing-guidebook.jpg</t>
   </si>
 </sst>
 </file>
@@ -2872,7 +2910,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2929,6 +2967,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2975,147 +3015,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3600,7 +3500,7 @@
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q25" sqref="Q25"/>
+      <selection pane="topRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3766,9 +3666,6 @@
       <c r="W2">
         <v>1</v>
       </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -5532,7 +5429,7 @@
         <v>39</v>
       </c>
       <c r="N30" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="O30">
         <v>20</v>
@@ -5544,10 +5441,30 @@
         <v>64</v>
       </c>
       <c r="R30" t="s">
-        <v>702</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>708</v>
+        <v>713</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="U30" t="s">
+        <v>207</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>714</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5565,9 +5482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0812394-7A25-4828-BAB3-74F65E9FB495}">
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7490,10 +7407,10 @@
         <v>158</v>
       </c>
       <c r="C81" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="D81" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E81" t="s">
         <v>154</v>
@@ -7514,10 +7431,10 @@
         <v>114</v>
       </c>
       <c r="C82" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="D82" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E82" t="s">
         <v>154</v>
@@ -7541,10 +7458,10 @@
         <v>109</v>
       </c>
       <c r="C83" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D83" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E83" t="s">
         <v>625</v>
@@ -7602,10 +7519,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB58989-DB9B-42B8-8BEA-AD863D94E91D}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="116" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A16" zoomScale="116" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8448,6 +8365,35 @@
         <v>10</v>
       </c>
     </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="C30" t="s">
+        <v>717</v>
+      </c>
+      <c r="D30" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30">
+        <v>101</v>
+      </c>
+      <c r="F30" t="s">
+        <v>718</v>
+      </c>
+      <c r="G30" t="s">
+        <v>719</v>
+      </c>
+      <c r="H30" t="s">
+        <v>715</v>
+      </c>
+      <c r="I30">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" xr:uid="{14007672-E4E3-4A8F-8DD0-45E59BDCCEDC}"/>
@@ -8461,10 +8407,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091284CD-7BE4-40C5-8B13-8EF65FF7D256}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8655,7 +8601,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>650</v>
@@ -8750,6 +8696,17 @@
       </c>
       <c r="C25" t="s">
         <v>697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>708</v>
+      </c>
+      <c r="C26" t="s">
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -9085,8 +9042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745174B4-A8CA-45B8-ACCB-9B5B609F0D5D}">
   <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="94" workbookViewId="0">
-      <selection activeCell="Q67" sqref="Q67"/>
+    <sheetView topLeftCell="A65" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12547,10 +12504,138 @@
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A77" s="12">
+        <v>29</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" s="12">
+        <v>13</v>
+      </c>
+      <c r="D77" s="12">
+        <v>9</v>
+      </c>
+      <c r="E77" s="12">
+        <v>11</v>
+      </c>
+      <c r="F77" s="12">
+        <v>9</v>
+      </c>
+      <c r="G77" s="12">
+        <v>8</v>
+      </c>
+      <c r="H77" s="12">
+        <v>8</v>
+      </c>
+      <c r="I77" s="12">
+        <v>7</v>
+      </c>
+      <c r="J77" s="12">
+        <v>8</v>
+      </c>
+      <c r="K77" s="12">
+        <v>9</v>
+      </c>
+      <c r="L77" s="12">
+        <v>11</v>
+      </c>
+      <c r="M77" s="12">
+        <v>10</v>
+      </c>
+      <c r="N77" s="12">
+        <v>11</v>
+      </c>
       <c r="U77" s="7"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A78" s="11">
+        <v>29</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C78" s="26">
+        <v>7</v>
+      </c>
+      <c r="D78" s="26">
+        <v>7.3</v>
+      </c>
+      <c r="E78" s="26">
+        <v>9.6</v>
+      </c>
+      <c r="F78" s="26">
+        <v>12.7</v>
+      </c>
+      <c r="G78" s="26">
+        <v>16</v>
+      </c>
+      <c r="H78" s="26">
+        <v>19.2</v>
+      </c>
+      <c r="I78" s="26">
+        <v>20.7</v>
+      </c>
+      <c r="J78" s="26">
+        <v>20.2</v>
+      </c>
+      <c r="K78" s="26">
+        <v>17.7</v>
+      </c>
+      <c r="L78" s="26">
+        <v>14.1</v>
+      </c>
+      <c r="M78" s="26">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N78" s="26">
+        <v>7.9</v>
+      </c>
       <c r="U78" s="7"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A79" s="13">
+        <v>29</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C79" s="27">
+        <v>1.6</v>
+      </c>
+      <c r="D79" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="E79" s="27">
+        <v>2.8</v>
+      </c>
+      <c r="F79" s="27">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G79" s="27">
+        <v>7.7</v>
+      </c>
+      <c r="H79" s="27">
+        <v>10.7</v>
+      </c>
+      <c r="I79" s="27">
+        <v>12.2</v>
+      </c>
+      <c r="J79" s="27">
+        <v>12</v>
+      </c>
+      <c r="K79" s="27">
+        <v>10</v>
+      </c>
+      <c r="L79" s="27">
+        <v>7.4</v>
+      </c>
+      <c r="M79" s="27">
+        <v>4</v>
+      </c>
+      <c r="N79" s="27">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U80" s="7"/>
@@ -12592,8 +12677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="87" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -12692,7 +12777,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="25" t="str">
-        <f t="shared" ref="L2:L29" si="0">IF(SUM(D2:K2)=22,"DONE","")</f>
+        <f t="shared" ref="L2:L30" si="0">IF(SUM(D2:K2)=22,"DONE","")</f>
         <v/>
       </c>
     </row>
@@ -14121,11 +14206,11 @@
       </c>
       <c r="H30">
         <f>_xlfn.IFNA(IF(VLOOKUP(B30,GUIDEBOOKS!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <f>_xlfn.IFNA(IF(VLOOKUP(B30,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <f>_xlfn.IFNA(IF(VLOOKUP(B30,REFERANCES!A:A,1,FALSE),1,0),0)</f>
@@ -14133,83 +14218,83 @@
       </c>
       <c r="K30">
         <f>IF(VLOOKUP(B30,CLIMBS!C:T,18,FALSE)&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="25" t="str">
-        <f t="shared" ref="L30" si="1">IF(SUM(D30:K30)=22,"DONE","")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>DONE</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D30">
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C30">
-    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"draft"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C30">
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"publish"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E30">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G30">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"missing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J30">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K30">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G30">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4108A245-2DAD-4726-9874-934EFD2B8F5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70897733-0D3D-489F-8A7A-9C987552E775}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -2277,9 +2277,6 @@
     <t>Red Wall details on Mountain Project</t>
   </si>
   <si>
-    <t>Sepage</t>
-  </si>
-  <si>
     <t>Wintours Leap</t>
   </si>
   <si>
@@ -2321,37 +2318,40 @@
     <t>img/topos/wye-valley/wye-valley-wintours-leap-right-hand-route.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">The Right Hand Route takes a route up good rock weaving round trees and foliage and makes good use of ledges for belay points. 
+    <t xml:space="preserve">The right hand route is in many ways the opposite twin to the left hand route (also a Hard Severe climb). It has better pitches at the top where the left-hand route has better pitches at the bottom. While the right hand route looks heavily vegetated from the bottom it’s surprisingly clean. That’s not to say its perfect, just better than it looks. It has good variety and is more sustained in grade when compared to the left-hand route, which has a hard start and then eases off. It’s a classic limestone route with a small crack section, and exposed thin ledge system and a steeper juggy section at the end. Check the BMC RAD Database for route exit information (see references), but at the time of writing abseiling off is required (see descent info). </t>
+  </si>
+  <si>
+    <t>Setdastal</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2XxjnCx</t>
+  </si>
+  <si>
+    <t>9780901601797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Wye Valley </t>
+  </si>
+  <si>
+    <t>img/guidebooks/lower-wye-valley-climbing-guidebook.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The guidebook &lt;em&gt;Lower Wye Valley: Climbers' Club Guides to the Wye Valley and Forest of Dean&lt;/em&gt; has a good amount of information and climbs. The photos are, for the most part very clear. However, the way the book is organised makes it difficult to use. In true climber’s club style, there are no route numbers on the descriptions or page references on the photo topos, making it slow to find the details. When you do find the climb details, they use complex language and terminology, making it hard to understand. Unfortunately, there are not any other guidebook options for Wintour’s Leap. All things said, the guidebook is not too expensive a must for getting the most out of the area. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Right Hand Route takes a line up good rock, weaving around trees and foliage and makes good use of ledges for belay points. 
 &lt;br /&gt;
 &lt;strong class="pitch-title"&gt;Pitch 1 –&lt;span class="length"&gt;18m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;3c&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
-Climb the cracked gully diagonally right to get round some bushes then cut back left above them. There is a small stance and a decent tree belay just above the main ledge. The tree can be backed up with some protection in the rock behind. &lt;br /&gt;
+Climb the cracked gully diagonally right to get around some bushes then cut back left above them. There is a small stance and a decent tree belay just above the main ledge. The tree can be backed up with some protection in the rock. &lt;br /&gt;
 &lt;strong class="pitch-title"&gt;Pitch 2 –&lt;span class="length"&gt;21m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;4b&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
-The second pitch ups the grade a bit after an easy start. Climb straight up behind the belay past some vegetation. Keep moving up until your below a left leaning thin crack that leads to another small ledge with a tree belay (again back it up in the rock behind). The crack offers good holds and protection but can feel a bit exposed and is a slight step change in the grade, especially if you can’t find the good holds.&lt;br /&gt;
+The second pitch ups the grade after an easy start. Climb straight up behind the belay past some vegetation. Keep moving up until you’re below a left leaning thin crack that leads to another small ledge with a tree belay (again back it up with the rock). The crack offers good holds and protection but can feel a bit exposed and is a slight step up in the grade, especially if you can’t find the good holds.&lt;br /&gt;
 &lt;strong class="pitch-title"&gt;Pitch 3 –&lt;span class="length"&gt;17m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;4b&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
 Climb up and slightly right onto some ledges. Take the left of two groves, this should have a peg you could use for additional protection. After that there should be a short neat slab and easier ground up onto the great ledge where there is a peg and tree belay at the back. Traversing left on a thin finger ledge before the great ledge offers a lovely if exposed climb with a big mantle move up. &lt;br/&gt;
 &lt;strong class="pitch-title"&gt;Pitch 4 –&lt;span class="length"&gt;30m&lt;/span&gt; &lt;span class="pitchGrade brit"&gt;4a&lt;/span&gt;&lt;/strong&gt;&lt;br /&gt;
-A brilliant and rewarding pitch with great protection. Essentially you are looking to head though the broken V shape in the headwall above the ledge. The route has good holds, making it easer than it looks. After the broken V climb the short wall above and then keep heading up to slings and an abseil ring set up on a tree. You can climb the chimney or the wall directly below the abseil and anchor point. Both are short but fun. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The right hand route is in many ways the opposite twin to the left hand route (also a Hard Severe climb). It has better pitches at the top where the left-hand route has better pitches at the bottom. While the right hand route looks heavily vegetated from the bottom it’s surprisingly clean. That’s not to say its perfect, just better than it looks. It has good variety and is more sustained in grade when compared to the left-hand route, which has a hard start and then eases off. It’s a classic limestone route with a small crack section, and exposed thin ledge system and a steeper juggy section at the end. Check the BMC RAD Database for route exit information (see references), but at the time of writing abseiling off is required (see descent info). </t>
-  </si>
-  <si>
-    <t>Setdastal</t>
-  </si>
-  <si>
-    <t>https://amzn.to/2XxjnCx</t>
-  </si>
-  <si>
-    <t>9780901601797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Wye Valley </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The guidebook &lt;em&gt;Lower Wye Valley: Climbers' Club Guides to the Wye Valley and Forest of Dean&lt;/em&gt; has a good amount of information and climbs. The photos are for the most part very clear. However, the way the book is organised makes it very difficult to use. In true climber’s club style, there are no route numbers or page references on topos making it slow to find the details. When you do find the climb details, they use complex language and terminology, making it hard work to understand. Unfortunately there are not any other guidebook options for Wintour’s Leap, making this guidebook a must. </t>
-  </si>
-  <si>
-    <t>img/guidebooks/lower-wye-valley-climbing-guidebook.jpg</t>
+A brilliant and rewarding pitch with great protection. Essentially you are looking to head though the broken V shape in the headwall above the ledge. The route has good holds, making it easer than it looks. After the broken V, climb the short wall above and then keep heading up to slings and an abseil ring set up on a tree. You can climb the chimney or the wall directly below the abseil and anchor point. Both are short but fun. </t>
+  </si>
+  <si>
+    <t>seepage</t>
   </si>
 </sst>
 </file>
@@ -3498,9 +3498,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3602,7 +3602,7 @@
         <v>627</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>698</v>
+        <v>719</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -3791,7 +3791,7 @@
         <v>273</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -4623,7 +4623,7 @@
         <v>273</v>
       </c>
       <c r="Z17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="T19" s="2"/>
       <c r="Z19">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -4872,7 +4872,7 @@
         <v>215</v>
       </c>
       <c r="Z21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5393,7 +5393,7 @@
     </row>
     <row r="30" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B30" t="s">
         <v>106</v>
@@ -5405,10 +5405,10 @@
         <v>32</v>
       </c>
       <c r="E30" t="s">
+        <v>699</v>
+      </c>
+      <c r="F30" t="s">
         <v>700</v>
-      </c>
-      <c r="F30" t="s">
-        <v>701</v>
       </c>
       <c r="G30">
         <v>87</v>
@@ -5429,7 +5429,7 @@
         <v>39</v>
       </c>
       <c r="N30" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O30">
         <v>20</v>
@@ -5441,13 +5441,13 @@
         <v>64</v>
       </c>
       <c r="R30" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="S30" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="U30" t="s">
         <v>207</v>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="31" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B31" t="s">
         <v>107</v>
@@ -7407,10 +7407,10 @@
         <v>158</v>
       </c>
       <c r="C81" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D81" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E81" t="s">
         <v>154</v>
@@ -7431,10 +7431,10 @@
         <v>114</v>
       </c>
       <c r="C82" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E82" t="s">
         <v>154</v>
@@ -7458,10 +7458,10 @@
         <v>109</v>
       </c>
       <c r="C83" t="s">
+        <v>704</v>
+      </c>
+      <c r="D83" t="s">
         <v>705</v>
-      </c>
-      <c r="D83" t="s">
-        <v>706</v>
       </c>
       <c r="E83" t="s">
         <v>625</v>
@@ -7522,7 +7522,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8370,10 +8370,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C30" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D30" t="s">
         <v>228</v>
@@ -8382,13 +8382,13 @@
         <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G30" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="H30" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I30">
         <v>25</v>
@@ -8703,10 +8703,10 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
+        <v>707</v>
+      </c>
+      <c r="C26" t="s">
         <v>708</v>
-      </c>
-      <c r="C26" t="s">
-        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -12677,7 +12677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="87" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="87" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70897733-0D3D-489F-8A7A-9C987552E775}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD6D6D5-1B94-46FB-AD44-BC0F669D3FED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="724">
   <si>
     <t>cliff</t>
   </si>
@@ -2091,9 +2091,6 @@
   </si>
   <si>
     <t>El Catedral, (the Cathedral in English) is a volcanic plug that stands in Teide National Park in the centre of Tenerife. It offers a variety of traditional multi-pitch climbs that tend to be around 3 or 4 pitches in length to reach that summit via just over 100 meters of climbing. Whilst Tenerife has a lot of incredible climbing the majority of it is single pitch sport routes. El Catedral offers some of the best trad multi-pitch climbing on the island.  In order to climb there, you need to seek permission from the national park which seems to be a straightforward process (see links in references section below). The route Via Mendez &amp; Guillermo is not the original route up the face but offers a high quality adventure at grade UIAA V+. Whilst a completely different grading system it sits around VS. There are easier options to the summit if needed like the original route which is graded UIAA IV or around VDiff in British grades.</t>
-  </si>
-  <si>
-    <t>coming soon</t>
   </si>
   <si>
     <t>Catherderal Rock Climbing in the national park Tenerife</t>
@@ -2352,6 +2349,23 @@
   </si>
   <si>
     <t>seepage</t>
+  </si>
+  <si>
+    <t>UKC Page</t>
+  </si>
+  <si>
+    <t>https://www.ukclimbing.com/logbook/crag.php?id=17495#overview</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Approach&lt;/strong&gt;: There is limited parking at Parador del Teide which is a short walk away. Alternatively, there are coach services up to here in the national park. The Cathedral rock climbing is south West past Roques de García.
+&lt;br /&gt;
+&lt;strong&gt;Decent&lt;/strong&gt;: The Decent requires 2 two abseils. Once from the top of the route, the other off to the side which can be tricky to find.  See route topo above.</t>
+  </si>
+  <si>
+    <t>http://anuestraputabolacroquis.blogspot.com/search/label/P.N.%20DEL%20TEIDE</t>
+  </si>
+  <si>
+    <t>Good Local trad climbing info for the area including this route</t>
   </si>
 </sst>
 </file>
@@ -3498,9 +3512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z26" sqref="Z26"/>
+    <sheetView topLeftCell="A5" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3602,7 +3616,7 @@
         <v>627</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -4347,13 +4361,13 @@
         <v>191</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>633</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="V13" t="s">
         <v>172</v>
@@ -4611,10 +4625,10 @@
         <v>318</v>
       </c>
       <c r="S17" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="T17" s="14" t="s">
         <v>694</v>
-      </c>
-      <c r="T17" s="14" t="s">
-        <v>695</v>
       </c>
       <c r="U17" t="s">
         <v>171</v>
@@ -5346,7 +5360,7 @@
         <v>646</v>
       </c>
       <c r="F29" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G29">
         <v>115</v>
@@ -5384,8 +5398,8 @@
       <c r="R29" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="S29" s="2" t="s">
-        <v>663</v>
+      <c r="S29" s="14" t="s">
+        <v>721</v>
       </c>
       <c r="W29">
         <v>1</v>
@@ -5393,7 +5407,7 @@
     </row>
     <row r="30" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B30" t="s">
         <v>106</v>
@@ -5405,10 +5419,10 @@
         <v>32</v>
       </c>
       <c r="E30" t="s">
+        <v>698</v>
+      </c>
+      <c r="F30" t="s">
         <v>699</v>
-      </c>
-      <c r="F30" t="s">
-        <v>700</v>
       </c>
       <c r="G30">
         <v>87</v>
@@ -5429,7 +5443,7 @@
         <v>39</v>
       </c>
       <c r="N30" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="O30">
         <v>20</v>
@@ -5441,13 +5455,13 @@
         <v>64</v>
       </c>
       <c r="R30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="S30" s="14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="U30" t="s">
         <v>207</v>
@@ -5458,7 +5472,7 @@
     </row>
     <row r="31" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B31" t="s">
         <v>107</v>
@@ -5518,7 +5532,7 @@
         <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>328</v>
@@ -5598,16 +5612,16 @@
         <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D5" t="s">
         <v>123</v>
       </c>
       <c r="E5" t="s">
+        <v>679</v>
+      </c>
+      <c r="F5" t="s">
         <v>680</v>
-      </c>
-      <c r="F5" t="s">
-        <v>681</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -5679,7 +5693,7 @@
         <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -6105,7 +6119,7 @@
         <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D27" t="s">
         <v>156</v>
@@ -6252,7 +6266,7 @@
         <v>193</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F33" t="s">
         <v>155</v>
@@ -6537,16 +6551,16 @@
         <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D45" t="s">
         <v>307</v>
       </c>
       <c r="E45" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F45" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -6690,7 +6704,7 @@
         <v>384</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F51" t="s">
         <v>110</v>
@@ -7362,7 +7376,7 @@
         <v>657</v>
       </c>
       <c r="D79" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E79" t="s">
         <v>659</v>
@@ -7383,10 +7397,10 @@
         <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D80" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E80" t="s">
         <v>625</v>
@@ -7407,10 +7421,10 @@
         <v>158</v>
       </c>
       <c r="C81" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D81" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E81" t="s">
         <v>154</v>
@@ -7431,10 +7445,10 @@
         <v>114</v>
       </c>
       <c r="C82" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D82" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E82" t="s">
         <v>154</v>
@@ -7458,10 +7472,10 @@
         <v>109</v>
       </c>
       <c r="C83" t="s">
+        <v>703</v>
+      </c>
+      <c r="D83" t="s">
         <v>704</v>
-      </c>
-      <c r="D83" t="s">
-        <v>705</v>
       </c>
       <c r="E83" t="s">
         <v>625</v>
@@ -8063,7 +8077,7 @@
         <v>394</v>
       </c>
       <c r="F19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G19" t="s">
         <v>399</v>
@@ -8341,7 +8355,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C29" t="s">
         <v>304</v>
@@ -8353,13 +8367,13 @@
         <v>34</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="G29" t="s">
+        <v>672</v>
+      </c>
+      <c r="H29" t="s">
         <v>671</v>
-      </c>
-      <c r="G29" t="s">
-        <v>673</v>
-      </c>
-      <c r="H29" t="s">
-        <v>672</v>
       </c>
       <c r="I29">
         <v>10</v>
@@ -8370,10 +8384,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="C30" t="s">
         <v>714</v>
-      </c>
-      <c r="C30" t="s">
-        <v>715</v>
       </c>
       <c r="D30" t="s">
         <v>228</v>
@@ -8382,13 +8396,13 @@
         <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I30">
         <v>25</v>
@@ -8407,10 +8421,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091284CD-7BE4-40C5-8B13-8EF65FF7D256}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8637,10 +8651,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="C20" t="s">
         <v>678</v>
-      </c>
-      <c r="C20" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -8648,10 +8662,10 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
+        <v>674</v>
+      </c>
+      <c r="C21" t="s">
         <v>675</v>
-      </c>
-      <c r="C21" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -8659,10 +8673,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
+        <v>687</v>
+      </c>
+      <c r="C22" t="s">
         <v>688</v>
-      </c>
-      <c r="C22" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -8670,10 +8684,10 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -8681,7 +8695,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C24" t="s">
         <v>371</v>
@@ -8692,10 +8706,10 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
+        <v>695</v>
+      </c>
+      <c r="C25" t="s">
         <v>696</v>
-      </c>
-      <c r="C25" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -8703,15 +8717,38 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
+        <v>706</v>
+      </c>
+      <c r="C26" t="s">
         <v>707</v>
       </c>
-      <c r="C26" t="s">
-        <v>708</v>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C27" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>722</v>
+      </c>
+      <c r="C28" t="s">
+        <v>723</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1" xr:uid="{B8B4C84F-4B9B-4B98-AA47-BE6674672F64}"/>
+    <hyperlink ref="B27" r:id="rId2" location="overview" xr:uid="{AAF53F3C-824D-46A3-8C66-5CFC2A7E56BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9042,8 +9079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745174B4-A8CA-45B8-ACCB-9B5B609F0D5D}">
   <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="94" workbookViewId="0">
+      <selection activeCell="O80" sqref="O80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12638,33 +12675,161 @@
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A80" s="12">
+        <v>26</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C80" s="12">
+        <v>9</v>
+      </c>
+      <c r="D80" s="12">
+        <v>7</v>
+      </c>
+      <c r="E80" s="12">
+        <v>10</v>
+      </c>
+      <c r="F80" s="12">
+        <v>10</v>
+      </c>
+      <c r="G80" s="12">
+        <v>12</v>
+      </c>
+      <c r="H80" s="12">
+        <v>14</v>
+      </c>
+      <c r="I80" s="12">
+        <v>15</v>
+      </c>
+      <c r="J80" s="12">
+        <v>14</v>
+      </c>
+      <c r="K80" s="12">
+        <v>10</v>
+      </c>
+      <c r="L80" s="12">
+        <v>7</v>
+      </c>
+      <c r="M80" s="12">
+        <v>9</v>
+      </c>
+      <c r="N80" s="12">
+        <v>9</v>
+      </c>
       <c r="U80" s="7"/>
     </row>
-    <row r="81" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A81" s="11">
+        <v>26</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C81" s="26">
+        <v>-7</v>
+      </c>
+      <c r="D81" s="26">
+        <v>-4</v>
+      </c>
+      <c r="E81" s="26">
+        <v>2</v>
+      </c>
+      <c r="F81" s="26">
+        <v>5</v>
+      </c>
+      <c r="G81" s="26">
+        <v>10</v>
+      </c>
+      <c r="H81" s="26">
+        <v>14</v>
+      </c>
+      <c r="I81" s="26">
+        <v>16</v>
+      </c>
+      <c r="J81" s="26">
+        <v>15</v>
+      </c>
+      <c r="K81" s="26">
+        <v>10</v>
+      </c>
+      <c r="L81" s="26">
+        <v>4</v>
+      </c>
+      <c r="M81" s="26">
+        <v>-3</v>
+      </c>
+      <c r="N81" s="26">
+        <v>-7</v>
+      </c>
       <c r="U81" s="7"/>
     </row>
-    <row r="83" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A82" s="13">
+        <v>26</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C82" s="27">
+        <v>-18</v>
+      </c>
+      <c r="D82" s="27">
+        <v>-15</v>
+      </c>
+      <c r="E82" s="27">
+        <v>-11</v>
+      </c>
+      <c r="F82" s="27">
+        <v>-7</v>
+      </c>
+      <c r="G82" s="27">
+        <v>-3</v>
+      </c>
+      <c r="H82" s="27">
+        <v>0</v>
+      </c>
+      <c r="I82" s="27">
+        <v>2</v>
+      </c>
+      <c r="J82" s="27">
+        <v>2</v>
+      </c>
+      <c r="K82" s="27">
+        <v>-2</v>
+      </c>
+      <c r="L82" s="27">
+        <v>-7</v>
+      </c>
+      <c r="M82" s="27">
+        <v>-13</v>
+      </c>
+      <c r="N82" s="27">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U83" s="7"/>
     </row>
-    <row r="84" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U84" s="7"/>
     </row>
-    <row r="86" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U86" s="7"/>
     </row>
-    <row r="87" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U87" s="7"/>
     </row>
-    <row r="89" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U89" s="7"/>
     </row>
-    <row r="90" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U90" s="7"/>
     </row>
-    <row r="92" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U92" s="7"/>
     </row>
-    <row r="93" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
       <c r="U93" s="7"/>
     </row>
   </sheetData>
@@ -12677,8 +12842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="87" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A8" zoomScale="87" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -12714,7 +12879,7 @@
         <v>325</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>326</v>
@@ -14057,7 +14222,7 @@
       </c>
       <c r="I27">
         <f>_xlfn.IFNA(IF(VLOOKUP(B27,WEATHER!A:A,1,FALSE) &lt;&gt; 0,1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <f>_xlfn.IFNA(IF(VLOOKUP(B27,REFERANCES!A:A,1,FALSE),1,0),0)</f>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD6D6D5-1B94-46FB-AD44-BC0F669D3FED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A0F34B-C8B0-49C4-B0AF-A29B936B61B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="724">
   <si>
     <t>cliff</t>
   </si>
@@ -2318,9 +2318,6 @@
     <t xml:space="preserve">The right hand route is in many ways the opposite twin to the left hand route (also a Hard Severe climb). It has better pitches at the top where the left-hand route has better pitches at the bottom. While the right hand route looks heavily vegetated from the bottom it’s surprisingly clean. That’s not to say its perfect, just better than it looks. It has good variety and is more sustained in grade when compared to the left-hand route, which has a hard start and then eases off. It’s a classic limestone route with a small crack section, and exposed thin ledge system and a steeper juggy section at the end. Check the BMC RAD Database for route exit information (see references), but at the time of writing abseiling off is required (see descent info). </t>
   </si>
   <si>
-    <t>Setdastal</t>
-  </si>
-  <si>
     <t>https://amzn.to/2XxjnCx</t>
   </si>
   <si>
@@ -2366,6 +2363,9 @@
   </si>
   <si>
     <t>Good Local trad climbing info for the area including this route</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/photos/sass-pordoi-sella-massif-2738856/</t>
   </si>
 </sst>
 </file>
@@ -3512,9 +3512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3616,7 +3616,7 @@
         <v>627</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5399,7 +5399,7 @@
         <v>662</v>
       </c>
       <c r="S29" s="14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="W29">
         <v>1</v>
@@ -5461,24 +5461,13 @@
         <v>705</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="U30" t="s">
         <v>207</v>
       </c>
       <c r="W30">
         <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>711</v>
-      </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31">
-        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5497,8 +5486,8 @@
   <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5868,6 +5857,9 @@
       </c>
       <c r="D16" t="s">
         <v>138</v>
+      </c>
+      <c r="E16" t="s">
+        <v>723</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
@@ -8384,10 +8376,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C30" t="s">
         <v>713</v>
-      </c>
-      <c r="C30" t="s">
-        <v>714</v>
       </c>
       <c r="D30" t="s">
         <v>228</v>
@@ -8396,13 +8388,13 @@
         <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I30">
         <v>25</v>
@@ -8728,10 +8720,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C27" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -8739,10 +8731,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
+        <v>721</v>
+      </c>
+      <c r="C28" t="s">
         <v>722</v>
-      </c>
-      <c r="C28" t="s">
-        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -9079,7 +9071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745174B4-A8CA-45B8-ACCB-9B5B609F0D5D}">
   <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="94" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScale="94" workbookViewId="0">
       <selection activeCell="O80" sqref="O80"/>
     </sheetView>
   </sheetViews>
@@ -12842,8 +12834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDF4E69-F28E-4F52-8319-FE157D3A6CAD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="87" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A12" zoomScale="87" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>

--- a/working-files/multi-pitch-data.xlsx
+++ b/working-files/multi-pitch-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inver\Desktop\forAWS\multi-pitch\working-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A0F34B-C8B0-49C4-B0AF-A29B936B61B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82059617-5F6C-4F2E-A510-969BEF472597}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIMBS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="734">
   <si>
     <t>cliff</t>
   </si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>Topo for The Old Man of Stoer</t>
-  </si>
-  <si>
-    <t>img/topos/stoer/old-man-of-stoer-topo.jpg</t>
   </si>
   <si>
     <t>topo</t>
@@ -2366,6 +2363,39 @@
   </si>
   <si>
     <t>https://pixabay.com/photos/sass-pordoi-sella-massif-2738856/</t>
+  </si>
+  <si>
+    <t>Avon Gorge</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>Gronk</t>
+  </si>
+  <si>
+    <t>https://www.ukclimbing.com/logbook/crag.php?id=300</t>
+  </si>
+  <si>
+    <t>https://www.worldtides.info/</t>
+  </si>
+  <si>
+    <t>Tidal Information (lon/lat = 58.26094,-5.38266)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pgrfVtOotb8</t>
+  </si>
+  <si>
+    <t>Video of the swim &amp; climb</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>Setdastal</t>
+  </si>
+  <si>
+    <t>img/topos/stoer/old-man-of-stoer-climbing-topo.jpg</t>
   </si>
 </sst>
 </file>
@@ -3512,9 +3542,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A31" sqref="A31:XFD31"/>
+      <selection pane="topRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3598,7 +3628,7 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>18</v>
@@ -3607,16 +3637,16 @@
         <v>19</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -3639,10 +3669,10 @@
         <v>23</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -3669,7 +3699,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="S2" t="s">
         <v>30</v>
@@ -3678,6 +3708,12 @@
         <v>44</v>
       </c>
       <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
         <v>1</v>
       </c>
     </row>
@@ -3775,7 +3811,7 @@
         <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M4" t="s">
         <v>51</v>
@@ -3796,13 +3832,13 @@
         <v>54</v>
       </c>
       <c r="S4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -3837,7 +3873,7 @@
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K5" t="s">
         <v>60</v>
@@ -3911,19 +3947,19 @@
         <v>3</v>
       </c>
       <c r="Q6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R6" t="s">
         <v>73</v>
       </c>
       <c r="S6" t="s">
+        <v>295</v>
+      </c>
+      <c r="U6" t="s">
+        <v>170</v>
+      </c>
+      <c r="V6" t="s">
         <v>296</v>
-      </c>
-      <c r="U6" t="s">
-        <v>171</v>
-      </c>
-      <c r="V6" t="s">
-        <v>297</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -4026,13 +4062,13 @@
         <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M8" t="s">
         <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O8">
         <v>30</v>
@@ -4050,7 +4086,7 @@
         <v>91</v>
       </c>
  